--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,13 +427,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://hireline.io/remoto/empleos/ruby-on-rails-ror-developer-senior-remoto/111729</v>
+        <v>https://hireline.io/remoto/empleos/net-developer-senior-remoto/111561</v>
       </c>
       <c r="B2" t="str">
-        <v>Ruby on Rails (ROR) Developer Senior - Remoto en Pearl Talent</v>
+        <v>.NET Developer Senior - Remoto en Thekna It</v>
       </c>
       <c r="C2" t="str">
-        <v>$ 4,500 a 4,999 USD (Neto)</v>
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
       </c>
       <c r="D2" t="str">
         <v>Remoto: LATAM</v>
@@ -442,21 +442,21 @@
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="F2" t="str">
-        <v>Inglés : Lengua Nativa</v>
+        <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="G2" t="str">
-        <v>Apply using this link    - &gt; https://apply.workable.com/pearltalent/j/5AD0EABEDB/ Description Overview Job Title:  Backend Engineer (Founding Team – MVP &amp; Scale) Work Arrangement:  Remote| 9:00 AM – 6:00 PM EST Job Type:  Full-time Salary:  Competitive base salary in USD Industry:  PropTech / B2B SaaS / Real Estate Technology Work Schedule:  40 hours per week About Pearl Talent Pearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US. Hear why we exist, what we believe in, and who we’re building for:  Watch here ‍  Why Work with Us? We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat. About the company Our partner company are modernizing property maintenance procurement by building a streamlined marketplace that connects multifamily operators with real-time vendor pricing, seamless purchase workflows, and integrations with property management systems. Our mission is to bring consumer-grade simplicity to a $400B+ B2B market. We’re backed by operators with deep experience in real estate and assembling a lean, world-class team to build the future of procurement. The Role: Backend Engineer Ruby on Rails (ROR) We’re looking for a backend engineer who’s comfortable working in pragmatic, developer-friendly frameworks to ship our MVP quickly, while laying the foundation for future scale. You’ll be our first backend hire, collaborating directly with the founder and front-end engineer to bring our platform to life. What You’ll Do MVP Phase (First 6–9 Months): Build the backend using a pragmatic stack like Ruby on Rails (monolith) or Node.js + TypeScript (serverless or monolith), balancing speed of development and maintainability. Develop RESTful APIs and internal services to support core workflows: vendor integration, user auth, PO/Invoice management. Connect to third-party vendor APIs (e.g., Home Depot, Ferguson) and build lightweight wrappers for real-time procurement data. Handle core business logic around approvals, ROGs, and invoice reconciliation. Use platforms like Heroku (or similar) for fast deployments, built-in CI/CD, and observability. Prioritize simplicity and reliability over theoretical scale — iterate fast, keep things lean. Experience with documenting the code and using patterns like RDoc for Ruby. Post-MVP Phase (12+ Months): Refactor into more scalable services (e.g., modular architecture, serverless/event-driven workflows) as product-market fit emerges. Support event-driven integrations, EDI pipelines, and background job orchestration. Implement observability best practices (logging, monitoring, alerting). Help define engineering standards and make long-term architectural decisions. Requirements Requirements 3–6+ years of backend engineering experience, ideally in product-focused environments. Strong in at least one of: Ruby on Rails, Node.js, TypeScript. Skilled in API design, authentication flows, pagination, and rate limiting. Experience integrating with third-party systems (REST, EDI, or webhook-based APIs). Pragmatic mindset: can prioritize trade-offs and avoid gold-plating in the MVP phase. Comfortable wearing multiple hats, iterating quickly, and owning the backend product decisions. Experience in B2B SaaS, marketplaces, real estate tech, or procurement platforms. Benefits   Why Join Now Be a foundational member of a venture-scale company with real distribution advantages in real estate. Own key technical systems from day one, shaping how they evolve. Culture built on speed, iteration, and execution. What You’ll Get Professional Development : Annual learning budget for books, courses, and conferences Mentorship : Learn directly from startup veterans (ex-Looker, GitHub, Mulesoft) Impact : Help shape a growing brand with a voice that influences fintech innovation Inspiring Workspaces : Offices in Berlin, New York, and London, with travel opportunities Flat Hierarchy : Work directly with founders and have your ideas heard Flexible Work Setup : Equipment of your choice, strong home office support Hiring Process Application Screening Top-grading Interview Skills Assessment Client Interview Offer Onboarding Apply for this job</v>
+        <v>.NET Developer Buscamos un Desarrollador de Software .NET con 7 a 10 años de experiencia para unirse a nuestro dinámico equipo. El candidato ideal deberá tener experiencia en PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .NET Core.   desempeñará un papel crucial en el desarrollo y mantenimiento de soluciones de software que impulsen nuestro negocio hacia adelante. Responsabilidades: - Desarrollar y mantener soluciones de software de alta calidad utilizando PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .NET Core. - Colaborar con equipos multifuncionales para recopilar y analizar requisitos, asegurando la alineación con los objetivos comerciales. - Diseñar e implementar esquemas de base de datos y consultas escalables y eficientes utilizando PostgreSQL. - Crear paneles interactivos y visualmente atractivos y reportes utilizando Amazon QuickSight. - Desarrollar lógica y APIs del lado del servidor utilizando Node.js para respaldar funcionalidades front-end. - Construir y mantener interfaces de usuario con Angular 13-16 asegurando una experiencia de usuario fluida. - Implementar y mantener servicios backend utilizando .NET Core garantizando alto rendimiento y capacidad de respuesta. - Realizar revisiones de código y proporcionar retroalimentación constructiva para garantizar la calidad del código y las mejores prácticas. - Resolver problemas y defectos de software de manera oportuna. - Mantenerse actualizado con las últimas tendencias y tecnologías de la industria. - Participar en procesos de desarrollo ágil, incluyendo planificación de sprint, reuniones diarias y retrospectivas. - Brindar orientación técnica y mentoría a miembros junior del equipo. - Contribuir al éxito general del equipo al lograr hitos del proyecto y entregar soluciones de software de alta calidad. Calificaciones: - Experiencia sólida con PostgreSQL para diseño de bases de datos y optimización de consultas. - Experiencia en la creación de paneles y reportes utilizando Amazon QuickSight. - Dominio en desarrollo del lado del servidor con Node.js. - Experiencia en la construcción de interfaces de usuario con Angular 13-16. - Conocimientos sólidos en desarrollo backend utilizando .NET Core. Deseable: - Experiencia con metodologías de desarrollo ágil. - Habilidades sólidas de resolución de problemas y análisis. - Excelentes habilidades de comunicación y trabajo en equipo. - Actitud proactiva hacia el aprendizaje y la adaptación a nuevas tecnologías. Certificaciones requeridas: - Desarrollador certificado de AWS. - Desarrollador asociado certificado de Azure de Microsoft. Ofrecemos: Prestaciones de ley. Prestaciones superiores. Fondo de ahorro. Vales de despensa. Seguro de vida. Plan de salud  Remoto al 100%.</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://hireline.io/remoto/empleos/software-engineer-ruby-on-rails-javascript-senior-remoto/111232</v>
+        <v>https://hireline.io/remoto/empleos/net-software-architect-remoto/111089</v>
       </c>
       <c r="B3" t="str">
-        <v>Software Engineer (Ruby on Rails, JavaScript) - Senior - Remoto en Alcor</v>
+        <v>NET Software Architect - Remoto en Capital Empresarial Horizonte</v>
       </c>
       <c r="C3" t="str">
-        <v>$ 80,000 a 90,000 MXN (Bruto)</v>
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
       </c>
       <c r="D3" t="str">
         <v>Remoto: México</v>
@@ -465,18 +465,18 @@
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="F3" t="str">
-        <v>Inglés : Nivel Intermedio</v>
+        <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="G3" t="str">
-        <v>About the job Software Engineer (RoR, Javascript) Software Engineer (RoR, Javascript) About the Role As a Software Engineer, you'll join our dynamic Technology Team. You'll play a critical role in every step of the software development life cycle, working closely with others to brainstorm and build solutions to support the school districts with whom we partner. In this role, you'll work collaboratively and efficiently and build skills across technology, including AI. The team has strong technical chops, and we value learning and challenging ourselves. From guest talks, internal demos, knowledge sharing spaces, book clubs, hackathons, and open-source projects, we try to improve ourselves as we help schools worldwide do the same. Responsibilities: Work on fascinating and challenging engineering challenges, like: building out real-time data pipelines of a students important day-to-day events into our platform, including the quantifiable and qualitative elements of a students experience designing a highly available online platform that calculates real time analytics across billions data points refining our products user experience so that this firehose of data is truly useful, actionable information (as opposed to yet another data dashboard) integrating the latest educational research and data science tools into our platform, so that our clients have access to the best techniques that they can use to change outcomes for students Design, prototype, write, test, review, debug, deploy, monitor, and occasionally be frustrated by code. Teach other engineers the tools, tricks, and techniques youve become proficient in, and be open to learning and being challenged by your teammates to learn more. Our Ideal Candidate Has: 4+ years of full-time, professional web app development experience. You've seen your products launch to great success as well as spectacular failure, and you've learned lessons from both. Proficiency with  Ruby  on Rails, Vue.js &amp; JavaScript Experience with Docker Database experience with Postgres Skill in maintaining and troubleshooting existing web applications Strong verbal and written communication skills A track record of being highly collaborative, accountable, and reliable Interest and enthusiasm for AI technologies Bonus Points: Expertise in AI development Knowledge of Terraform and Cloudformation (a plus) Experience with Datadog Security Engineering experience</v>
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: .  Net Software Architect  Inglés conversacional obligatorio Esquema 100% remoto Estamos buscando un  Arquitecto Asociado experimentado  con  8 a 10 años  de experiencia en tecnologías .NET. El candidato ideal tendrá experiencia en  C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework  y  Dependency Injection  . El rol se desempeña en un modelo híbrido, con un enfoque en proyectos del  dominio de alta tecnología  . Calificaciones:   Se requiere   de 8 a 10 años   de experiencia en   tecnologías .NET  .   Las habilidades requeridas incluyen   C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework   y   Dependency Injection  .   Se valora la experiencia en el   dominio de alta tecnología (Hi-Tech)  . Responsabilidades: Liderar el diseño y desarrollo de soluciones de software utilizando  tecnologías .NET  . Supervisar la implementación de  C#, ASP.Net Core, Blazor, y ASP .NET Core Razor  en diversos proyectos. Proporcionar experiencia en el desarrollo y mantenimiento de  ASP.NET Core Web API  y  Microservices.NET  . Asegurar el uso eficiente de  SQL Server  para la gestión y operaciones de bases de datos. Implementar y gestionar  Restful APIs  para integración y comunicación fluida. Utilizar  Azure SSO  para soluciones de inicio de sesión único seguras y eficientes. Aplicar prácticas de  DevOps  para optimizar los procesos de desarrollo y despliegue. Desarrollar y mantener aplicaciones utilizando los marcos de trabajo  .Net Core  y  ASP.NET</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://hireline.io/remoto/empleos/sr-software-engineer-full-stack-remoto/111429</v>
+        <v>https://hireline.io/remoto/empleos/sap-netweaver-basis-senior-remoto/111321</v>
       </c>
       <c r="B4" t="str">
-        <v>Sr. Software Engineer (Full Stack) - Remoto</v>
+        <v>SAP NetWeaver - Basis Senior - Remoto en ITCHOME</v>
       </c>
       <c r="C4" t="str">
         <v>Sueldo oculto</v>
@@ -491,18 +491,18 @@
         <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="G4" t="str">
-        <v>¡Se busca a Sr. Full Stack Developer!  Importante empresa del sector requiere un Sr. Full Stack Developer con experiencia en desarrollo de aplicaciones web con Ruby on Rails, Lenguaje Ruby, Javascript, HTML, CSS Conocimiento en procesos AGILE, o Scrum,  si tiene experiencia en entornos Linux es un plus. Actividades: Colaborar con gerentes de producto y diseñadores para crear soluciones de software que atiendan necesidades clave de clientes y objetivos del negocio. Liderar la implementación end-to-end: desde estimación de esfuerzo y planificación de sprints hasta la ejecución técnica. Garantizar la excelencia del producto mediante:  -  Pruebas unitarias rigurosas (TDD/BDD cuando aplica)  -  Cumplimiento de principios SOLID y estándares de código limpio  -  Optimización de rendimiento y reducción de deuda técnica  Competencias: Gran capacidad de comunicación, se necesita alguien que le guste opinar.  Sueldo: Entre 90k y 120k mensuales, pago por honorarios, no prestaciones Idioma: Inglés Avanzado Lugar de trabajo: De preferencia que viva en Zapopan, Jalisco, pero puede ser trabajo 100% remoto en cualquier parte de la república.  Haber trabajado en empresas de desarrollo de algún producto que se comercialice</v>
+        <v>SAP NetWeaver - Basis «Senior»  Experience Required in: PRIMARY SKILL: SAP NetWeaver  ( Expert) Solid hands-on experience with SAP technologies like SAP NetWeaver, Web Dispatcher, Business Objects solutions, Convergent Charging, Convergent Mediation, OpenText etc.  Work experience in Cloud Operations for running applications systems on a large scale.  Experience in ITIL and IT Service Management processes such as Incident Management, Event Management / Monitoring, Change Request Management  Experience in writing technical concepts, such as Knowable Base Articles, Wiki pages, Root Cause Analysis and BLOG entries etc.  Experience in automation of monitoring or operational workflows  Contribute ideas to help towards the vision and execution of teams in ECS Last line of Defenseand act as an expert to Service Areas for advanced troubleshooting.  Take the lead in implementing activities, like e.g., architecture decisions, Process mining exercises, Continuous improvementswhich contribute to the stability and performance of the teams, also build scalable processes.  Establish a close relationship with the Domain Leads in Application area, Service engineering and Service Area Operation toinfluence supportability/operability of the products.  Contributing to initiatives to reduce application related outages.  Collaborate with Product Development and support for roadmap, feature, and bug fixes.  Good understanding of the SAP Basis systems both on Operation system level as well as inside the SAP system, preferably holding SAP certification in NW administration or S/4HANA System administration  Knowledge on Hyperscale's (e.g., AWS, Azure, GCP) and Automations &amp; Provisioning in cloud environment  Analytical, detail-oriented personality and a technology enthusiast  Ability to troubleshoot complex issues and work on time critical assignments.  Positive, proactive, and customer-focused attitude  Exceptional communication and collaboration skills WE OFFER: Competitive salary Payroll + Law and Superior Benefits Work area:    H ybrid /1- 2 days MTY, CDMX, EDOMEX, SALTILLO                           Remote: Guadalajara</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://hireline.io/remoto/empleos/senior-software-engineer-aws-remoto/110998</v>
+        <v>https://hireline.io/remoto/empleos/desarrollador-net-fullstack-remoto/111081</v>
       </c>
       <c r="B5" t="str">
-        <v>Senior Software Engineer (AWS) - Remoto en Caylent</v>
+        <v>Desarrollador .Net FullStack - Remoto en Capital Empresarial Horizonte</v>
       </c>
       <c r="C5" t="str">
-        <v>Sueldo oculto</v>
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
       </c>
       <c r="D5" t="str">
         <v>Remoto: México</v>
@@ -511,41 +511,41 @@
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="F5" t="str">
-        <v>Inglés : Nivel Intermedio</v>
+        <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="G5" t="str">
-        <v>The Mission We are seeking a talented Senior Software Engineer to join our growing Cloud Native Applications team. The right candidate is someone who has a deep understanding of building applications in the cloud and utilizing cloud native services to make applications more reliable and scalable. Your mission will be to develop applications and services using cloud native technologies for our customers.   Your Assignment You will be a mission specialist, rocketing Customers forward as you participate in development activities, standups, sprint planning retrospectives, and more. You will demonstrate Caylent's commitment to being an Exceptional Partner by delivering well-documented, tested, and production-ready code to our customers while diving deep into any problems that may arise across their environments. You will Lead By Example, using your expertise in AWS Services and API development to deliver solutions defined by your Architect, and coach less-experienced developers as your team builds together. You will demonstrate a passion to Stay Curious as you mentor peers, tackle new technologies, and learn from our word-class team of engineers.   Your Qualifications Expertise in underlying web technologies like HTML and CSS, and experience developing with a framework like React, Vue, Angular, MVC .Net, etc. Experience with modern server-side scripting languages (python, node.js, php, ruby, etc.). In-depth knowledge of relational databases (PostgreSQL, MySQL, etc), NoSQL databases (MongoDB, DynamoDB, etc), and object stores (S3, etc). Demonstrated experience in building RESTful services and API integrations. Development experience on a major cloud platform (Azure, AWS, or GCP). Understanding of modern application architectures (event driven, message queues, microservices, etc). Proven ability to learn new technology quickly and effectively.  Desire to integrate innovative technologies into development workflow. Familiarity with Generative AI technologies. Self organizing, detail oriented, and high achieving. Ability to work independently. Excellent written and verbal communication.   Preferred Qualifications BS in a computing-related field, or commensurate experience. Experience with testing and automation. Experience with UI/UX. Experience with Large Language Models (LLM) and Generative AI. Experience with app dev acceleration tools like Amazon Q Developer, GitHub CoPilot, Cursor.AI, or similar. Experience building and maintaining CI/CD pipelines. Experience configuring AWS resources. Experience with infrastructure as code tooling (SAM, Cloudformation, Terraform, etc).   Benefits 100% remote work Medical Insurance for you and eligible dependents Generous holidays and flexible PTO Competitive phantom equity Paid for exams and certifications Peer bonus awards State of the art laptop and tools Equipment &amp; Office Stipend Individual professional development plan Annual stipend for Learning and Development Work with an amazing worldwide team and in an incredible corporate culture Kindly submit your resume in English, as it’s required for this role. Caylent is a place where everyone belongs.  We celebrate diversity and are committed to creating an inclusive environment for all employees. Our approach helps us to build a winning team that represents a variety of backgrounds, perspectives, and abilities. So, regardless of how your diversity expresses itself, you can find a home here at Caylent.    We are proud to be an equal opportunity employer. We prohibit discrimination and harassment of any kind based on race, color, religion, national origin, sex (including pregnancy), sexual orientation, gender identity, gender expression, age, veteran status, genetic information, disability, or other applicable legally protected characteristics. If you would like to request an accommodation due to a disability, please contact us.</v>
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:  Desarrollador Net FullStack Ingles conversacional obligatorio 100% remoto Estamos buscando un  Ingeniero Full Stack altamente capacitado y con experiencia (de 6 a 10 años)  para unirse a nuestro equipo. El candidato ideal tendrá experiencia en MVC .Net Core, Angular, bases de datos PL/SQL y SQL, así como en ASP.NET Web API, ASP.NET Core Web API, ASP.NET Core y ASP.NET. La experiencia en el sector de préstamos al consumidor (Consumer Lending) es una ventaja.  Requisitos: Más de 5 años de experiencia en aplicaciones de escritorio Windows utilizando .NET Framework y WinForms Experiencia sólida en MVC .Net Core, bases de datos PL/SQL y SQL, ASP.NET Web API, ASP.NET Core Web API, ASP.NET Core y ASP.NET. Se valora experiencia con Angular Inglés avanzado Se valora experiencia en el dominio de préstamos al consumidor (Consumer Lending). Experiencia con sistemas de control de versiones como Git. Habilidad para escribir código limpio, mantenible y eficiente. Conocimiento sólido en diseño y optimización de bases de datos. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •     Vales de despensa por $3300,53  •     Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:          empleo (arroba) horizonteempresarial.com.mx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://hireline.io/remoto/empleos/full-stack-senior-engineer/111567</v>
+        <v>https://hireline.io/remoto/empleos/desarrollador-net-fullstack-senior-remoto/111076</v>
       </c>
       <c r="B6" t="str">
-        <v>Full-Stack Senior Engineer en HIRELINE</v>
+        <v>Desarrollador .Net Fullstack Senior - Remoto en Capital Empresarial Horizonte</v>
       </c>
       <c r="C6" t="str">
-        <v>Sueldo oculto</v>
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
       </c>
       <c r="D6" t="str">
-        <v>Remoto: LATAM</v>
+        <v>Remoto: México</v>
       </c>
       <c r="E6" t="str">
         <v>Empleado de tiempo completo</v>
       </c>
       <c r="F6" t="str">
-        <v>Inglés : No se ha especificado</v>
+        <v>Inglés : Nivel Avanzado</v>
       </c>
       <c r="G6" t="str">
-        <v>Título: Fullstack Developer Company Overview A market-leading healthcare workforce optimization software provider dedicated to streamlining and optimizing healthcare organizations' workforce management processes. Our cutting-edge technology empowers healthcare providers to enhance patient care, optimize staff resources, and improve operational efficiency.   Shape the future of our web platform! We are seeking a highly experienced Full-Stack Senior Engineer to lead the design, development, and optimization of our cutting-edge healthcare workforce management platform. You'll leverage your in-depth knowledge of both front-end and back-end development to build a user-centric, scalable, and performant web application. While we primarily use Elixir (with Phoenix and Ecto), we prioritize general problem-solving skills and a strong commitment to learning new technologies.   Responsibilities: ● Architect and implement scalable and secure back-end systems that power the web application. ● Design and develop user interfaces that are intuitive, user-friendly, and responsive across all devices. ● Collaborate with designers to translate user stories and wireframes into functional web components. ● Lead the optimization of web application performance and user experience, ensuring   fast load times and a smooth user journey. ● Write clean, maintainable, and well-documented code for both front-end and back-end components. ● Stay up-to-date on the latest web development trends and technologies. ● Mentor and guide junior developers on the team. (in the future)   Requirements: ● Advanced English skills ● 10+ years of experience in full-stack web development with a strong emphasis on front-end development. ● Proficiency in modern programming languages including: ○ Front-End: HTML, CSS, JavaScript (ES6+), Experience with a popular front-end framework (e.g., React, Angular). LiveView (Elixir/Phoenix) is a bonus. ○ Back-End: ■ Preferred: Python, Java, Ruby on Rails, Go, Node.js (with Express.js) ■ Ideal experience: Elixir (with Phoenix) ● Experience with building responsive web applications. ● Strong understanding of web development best practices, including accessibility and performance optimization ● Excellent problem-solving and analytical skills. ● Strong communication and collaboration skills.   Preferred Qualifications: ● Bachelor's degree in Computer Science, Engineering, or related field. ● Experience building modern SaaS applications, including user management, authentication, and authorization functionalities. ● Experience with integrating front-end applications with back-end services ● Experience with cloud platforms (e.g., AWS, Azure, Google Cloud) for deploying and scaling SaaS applications. ● Experience with accessibility best practices (WCAG). ● Experience working in a fast-paced, start-up environment.   Don't miss the opportunity to be part of our team! Apply now and join us on this exciting adventure!</v>
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:  Desarrollador .Net Fullstack Ingles conversacional obligatorio 100% remoto Estamos buscando un  Ingeniero Full Stack altamente capacitado y con experiencia (de 6 a 10 años)  para unirse a nuestro equipo. El candidato ideal tendrá experiencia en MVC .Net Core, Angular, bases de datos PL/SQL y SQL, así como en ASP.NET Web API, ASP.NET Core Web API, ASP.NET Core y ASP.NET. La experiencia en el sector de préstamos al consumidor (Consumer Lending) es una ventaja.  Requisitos: Más de 5 años de experiencia en aplicaciones de escritorio Windows utilizando .NET Framework y WinForms Experiencia sólida en MVC .Net Core, bases de datos PL/SQL y SQL, ASP.NET Web API, ASP.NET Core Web API, ASP.NET Core y ASP.NET. Se valora experiencia con Angular Inglés avanzado Se valora experiencia en el dominio de préstamos al consumidor (Consumer Lending). Experiencia con sistemas de control de versiones como Git. Habilidad para escribir código limpio, mantenible y eficiente. Conocimiento sólido en diseño y optimización de bases de datos. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •     Vales de despensa por $3300,53  •     Apoyo monetario en caso de que trabajes desde Home Office. Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://hireline.io/remoto/empleos/desarrollador-sap-abap-sap-fi-remoto/111046</v>
+        <v>https://hireline.io/remoto/empleos/desarrollador-net-senior-certificacion-aws-o-azure-remoto/111050</v>
       </c>
       <c r="B7" t="str">
-        <v>Desarrollador SAP ABAP - SAP FI - Remoto en Capital Empresarial Horizonte</v>
+        <v>Desarrollador .Net Senior (certificación AWS o Azure) - Remoto en Capital Empresarial Horizonte</v>
       </c>
       <c r="C7" t="str">
         <v>$ 60,000 a 70,000 MXN (Bruto)</v>
@@ -560,12 +560,4405 @@
         <v>Inglés : Nivel Intermedio</v>
       </c>
       <c r="G7" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Estamos buscando un  Ingeniero de Software Sr.  altamente calificado con  7 a 10 años de experiencia  para unirse a nuestro equipo dinámico. El candidato ideal tendrá experiencia en PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .Net Core. El candidato desempeñará un papel crucial en el desarrollo y mantenimiento de soluciones de software que impulsen el negocio hacia adelante. Ingles conversacional obligatorio Requisitos • Experiencia sólida con PostgreSQL para diseño de bases de datos y optimización de consultas. • Expertise en la creación de paneles e informes utilizando Amazon QuickSight. • Dominio del desarrollo del lado del servidor con Node.js. • Experiencia en la construcción de interfaces de usuario con Angular 13-16. • Conocimiento sólido del desarrollo backend utilizando .Net Core. • Se valorará experiencia con metodologías de desarrollo ágil. • Se valorarán habilidades fuertes para resolver problemas y análisis. • Se valorarán excelentes habilidades de comunicación y trabajo en equipo. • Actitud proactiva hacia el aprendizaje y la adaptación a nuevas tecnologías. Responsabilidades • Desarrollar y mantener soluciones de software de alta calidad utilizando PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .Net Core. • Colaborar con equipos multifuncionales para recopilar y analizar requisitos, asegurando la alineación con los objetivos del negocio. • Diseñar e implementar esquemas de base de datos escalables y eficientes y consultas utilizando PostgreSQL. • Crear paneles interactivos e informes visualmente atractivos utilizando Amazon QuickSight. • Desarrollar la lógica del lado del servidor y las API utilizando Node.js para soportar funcionalidades del frontend. • Construir y mantener interfaces de usuario con Angular 13-16 asegurando una experiencia de usuario fluida. • Implementar y mantener servicios de backend utilizando .Net Core, asegurando un alto rendimiento y capacidad de respuesta. • Realizar revisiones de código y proporcionar retroalimentación constructiva para garantizar la calidad del código y las mejores prácticas. • Diagnosticar y resolver defectos y problemas de software de manera oportuna. • Mantenerse actualizado con las últimas tendencias y tecnologías de la industria para mejorar continuamente habilidades y conocimientos. • Participar en procesos de desarrollo ágil, incluidos la planificación de sprints, reuniones diarias y retrospectivas. • Proporcionar orientación técnica y mentoría a los miembros junior del equipo. • Contribuir al éxito general del equipo logrando los hitos del proyecto y entregando soluciones de software de alta calidad. Certificaciones requeridas • AWS Certified Developer • Microsoft Certified: Azure Developer Associate Ofrecemos: •     Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •   Vales de despensa por $3300,53  •   Apoyo monetario en caso de que trabajes desde Home Office.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-net-fullstack-senior-remoto/111044</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Desarrollador .Net Fullstack Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C8" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:  Desarrollador .Net Fullstack Ingles conversacional obligatorio 100% remoto Estamos buscando un Ingeniero Full Stack altamente capacitado y con experiencia (de 6 a 10 años) para unirse a nuestro equipo. El candidato ideal tendrá experiencia en MVC .Net Core, Angular, bases de datos PL/SQL y SQL, así como en ASP.NET Web API, ASP.NET Core Web API, ASP.NET Core y ASP.NET. La experiencia en el sector de préstamos al consumidor (Consumer Lending) es una ventaja.  Requisitos: Más de 5 años de experiencia en aplicaciones de escritorio Windows utilizando .NET Framework y WinForms Experiencia sólida en MVC .Net Core, bases de datos PL/SQL y SQL, ASP.NET Web API, ASP.NET Core Web API, ASP.NET Core y ASP.NET. Se valora experiencia con Angular Inglés avanzado Se valora experiencia en el dominio de préstamos al consumidor (Consumer Lending). Experiencia con sistemas de control de versiones como Git. Habilidad para escribir código limpio, mantenible y eficiente. Conocimiento sólido en diseño y optimización de bases de datos. Ofrecemos: •  Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:         contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-net-aws-azure-senior-remoto/111007</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Desarrollador .Net (AWS / AZURE) Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C9" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador .Net (AWS/Azutre) Estamos buscando un Ingeniero de Software Sr. altamente calificado con 7 a 10 años de experiencia para unirse a nuestro equipo dinámico. El candidato ideal tendrá experiencia en PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .Net Core. El candidato desempeñará un papel crucial en el desarrollo y mantenimiento de soluciones de software que impulsen el negocio hacia adelante. Ingles conversacional obligatorio Requisitos • Experiencia sólida con PostgreSQL para diseño de bases de datos y optimización de consultas. • Expertise en la creación de paneles e informes utilizando Amazon QuickSight. • Dominio del desarrollo del lado del servidor con Node.js. • Experiencia en la construcción de interfaces de usuario con Angular 13-16. • Conocimiento sólido del desarrollo backend utilizando .Net Core. • Se valorará experiencia con metodologías de desarrollo ágil. • Se valorarán habilidades fuertes para resolver problemas y análisis. • Se valorarán excelentes habilidades de comunicación y trabajo en equipo. • Actitud proactiva hacia el aprendizaje y la adaptación a nuevas tecnologías. Responsabilidades • Desarrollar y mantener soluciones de software de alta calidad utilizando PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .Net Core. • Colaborar con equipos multifuncionales para recopilar y analizar requisitos, asegurando la alineación con los objetivos del negocio. • Diseñar e implementar esquemas de base de datos escalables y eficientes y consultas utilizando PostgreSQL. • Crear paneles interactivos e informes visualmente atractivos utilizando Amazon QuickSight. • Desarrollar la lógica del lado del servidor y las API utilizando Node.js para soportar funcionalidades del frontend. • Construir y mantener interfaces de usuario con Angular 13-16 asegurando una experiencia de usuario fluida. • Implementar y mantener servicios de backend utilizando .Net Core, asegurando un alto rendimiento y capacidad de respuesta. • Realizar revisiones de código y proporcionar retroalimentación constructiva para garantizar la calidad del código y las mejores prácticas. • Diagnosticar y resolver defectos y problemas de software de manera oportuna. • Mantenerse actualizado con las últimas tendencias y tecnologías de la industria para mejorar continuamente habilidades y conocimientos. • Participar en procesos de desarrollo ágil, incluidos la planificación de sprints, reuniones diarias y retrospectivas. • Proporcionar orientación técnica y mentoría a los miembros junior del equipo. • Contribuir al éxito general del equipo logrando los hitos del proyecto y entregando soluciones de software de alta calidad. Certificaciones requeridas • AWS Certified Developer • Microsoft Certified: Azure Developer Associate Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  •  Vales de despensa por $3300,53  •  Apoyo monetario en caso de que trabajes desde Home Office. Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-net-con-certificacion-aws-o-azure/110975</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Desarrollador .Net (con certificacion AWS o Azure) en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C10" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Estamos buscando un Ingeniero de Software Sr. altamente calificado con 7 a 10 años de experiencia para unirse a nuestro equipo dinámico. El candidato ideal tendrá experiencia en PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .Net Core. El candidato desempeñará un papel crucial en el desarrollo y mantenimiento de soluciones de software que impulsen el negocio hacia adelante. Ingles conversacional obligatorio Requisitos • Experiencia sólida con PostgreSQL para diseño de bases de datos y optimización de consultas. • Expertise en la creación de paneles e informes utilizando Amazon QuickSight. • Dominio del desarrollo del lado del servidor con Node.js. • Experiencia en la construcción de interfaces de usuario con Angular 13-16. • Conocimiento sólido del desarrollo backend utilizando .Net Core. • Se valorará experiencia con metodologías de desarrollo ágil. • Se valorarán habilidades fuertes para resolver problemas y análisis. • Se valorarán excelentes habilidades de comunicación y trabajo en equipo. • Actitud proactiva hacia el aprendizaje y la adaptación a nuevas tecnologías. Responsabilidades • Desarrollar y mantener soluciones de software de alta calidad utilizando PostgreSQL, Amazon QuickSight, Node.js, Angular 13-16 y .Net Core. • Colaborar con equipos multifuncionales para recopilar y analizar requisitos, asegurando la alineación con los objetivos del negocio. • Diseñar e implementar esquemas de base de datos escalables y eficientes y consultas utilizando PostgreSQL. • Crear paneles interactivos e informes visualmente atractivos utilizando Amazon QuickSight. • Desarrollar la lógica del lado del servidor y las API utilizando Node.js para soportar funcionalidades del frontend. • Construir y mantener interfaces de usuario con Angular 13-16 asegurando una experiencia de usuario fluida. • Implementar y mantener servicios de backend utilizando .Net Core, asegurando un alto rendimiento y capacidad de respuesta. • Realizar revisiones de código y proporcionar retroalimentación constructiva para garantizar la calidad del código y las mejores prácticas. • Diagnosticar y resolver defectos y problemas de software de manera oportuna. • Mantenerse actualizado con las últimas tendencias y tecnologías de la industria para mejorar continuamente habilidades y conocimientos. • Participar en procesos de desarrollo ágil, incluidos la planificación de sprints, reuniones diarias y retrospectivas. • Proporcionar orientación técnica y mentoría a los miembros junior del equipo. • Contribuir al éxito general del equipo logrando los hitos del proyecto y entregando soluciones de software de alta calidad. Certificaciones requeridas • AWS Certified Developer • Microsoft Certified: Azure Developer Associate Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  •  Vales de despensa por $3300,53  •  Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:       contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://hireline.io/remoto/empleos/implementation-senior-network-engineer-remoto/111409</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Implementation - Senior Network Engineer - Remoto en Proceti Consultores</v>
+      </c>
+      <c r="C11" t="str">
+        <v>$ 60,000 a 70,000 MXN (Neto)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Becario de tiempo completo</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G11" t="str">
+        <v>About this role We’re looking for a  Senior Network Engineer  with extensive experience in  Cisco routing and switching , infrastructure delivery, and client interaction . The role requires strong hands-on skills with Cisco platforms (Nexus, 3750, 6500, etc.), solid knowledge of routing protocols (BGP, EIGRP), and the ability to support, document, and implement complex network environments. A mix of technical depth and stakeholder engagement is key. Key Responsibilities Build and maintain relationships with client stakeholders to support project success. Implement network changes aligned with project governance. Support, configure, and upgrade Cisco routing and switching infrastructure. Troubleshoot connectivity, routing, and switching issues (BGP, EIGRP, ACLs, VLANs, STP). Write and review change documentation. Collaborate with vendors and internal teams for deployments. Requirements 10+ years of relevant experience. Strong knowledge of Cisco IOS, LAN/WAN infrastructure, and fiber technologies (ST, SC, LC). Hands-on experience with Cisco Nexus (9K–3K), 6500, 4500, 3560, 2950, and routers (2800–3900 series). Familiar with tools like PuTTY, Secure CRT; SSH configuration. Experience with Arista and WAAS is a plus. Available for US business hours and weekend work. Excellent communication, documentation, and problem-solving skills. Certifications &amp; Education Required : CCNA English Advanced + If this opportunity resonates with you, we'd love to hear from you.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://hireline.io/remoto/empleos/arquitecto-software-net-remoto/111088</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Arquitecto Software .NET - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C12" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Arquitecto Software NET Inglés conversacional obligatorio Esquema 100% remoto Estamos buscando un  Arquitecto Asociado experimentado  con  8 a 10 años  de experiencia en tecnologías .NET. El candidato ideal tendrá experiencia en  C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework  y  Dependency Injection  . El rol se desempeña en un modelo híbrido, con un enfoque en proyectos del  dominio de alta tecnología  . Calificaciones:   Se requiere   de 8 a 10 años   de experiencia en   tecnologías .NET  .   Las habilidades requeridas incluyen   C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework   y   Dependency Injection  .   Se valora la experiencia en el   dominio de alta tecnología (Hi-Tech)  . Responsabilidades: Liderar el diseño y desarrollo de soluciones de software utilizando  tecnologías .NET  . Supervisar la implementación de  C#, ASP.Net Core, Blazor, y ASP .NET Core Razor  en diversos proyectos. Proporcionar experiencia en el desarrollo y mantenimiento de  ASP.NET Core Web API  y  Microservices.NET  . Asegurar el uso eficiente de  SQL Server  para la gestión y operaciones de bases de datos. Implementar y gestionar  Restful APIs  para integración y comunicación fluida. Utilizar  Azure SSO  para soluciones de inicio de sesión único seguras y eficientes. Aplicar prácticas de  DevOps  para optimizar los procesos de desarrollo y despliegue. Desarrollar y mantener aplicaciones utilizando los marcos de trabajo  .Net Core  y  ASP.NET Core  .</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-fullstack-msnet/111560</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Desarrollador Fullstack MS.NET en ISITA</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Resumen: Profesional con experiencia en el desarrollo de soluciones basadas en la plataforma Microsoft .NET, incluyendo aplicaciones web, de escritorio, servicios SOAP/REST y modelado de bases de datos. Capacidad para desarrollar código escalable, mantenible y de calidad, participando activamente en todo el ciclo de vida del desarrollo de software. Responsabilidades Desarrollar aplicaciones escalables y robustas en plataforma .NET. Participar en la estimación de tareas y tiempos de entrega para requisitos funcionales. Analizar requerimientos técnicos y funcionales asignados. Realizar pruebas unitarias del código desarrollado. Realizar despliegues en ambientes de desarrollo, pruebas y producción. Comunicar el estado de avance de las actividades asignadas y tiempos invertidos. Resolver problemas técnicos y proponer soluciones efectivas. Experiencia 3+ años en desarrollo de aplicaciones web en plataforma Microsoft .NET. 2+ años trabajando con lenguaje C# (programación orientada a objetos, estructuras de control, etc.). 1+ año en desarrollo con .NET Core / ASP.NET Core . 1+ año utilizando Angular en el desarrollo frontend. 1+ año en desarrollo de aplicaciones de escritorio (.NET WinForms o WPF). 1+ año en desarrollo de servicios SOAP. 1+ año en desarrollo de APIs RESTful. 3+ años en desarrollo de SQL (Stored Procedures, triggers, funciones). 1+ año en diseño y modelado de bases de datos. 1+ año utilizando control de versiones (Git/Git Flow). 1+ año consumiendo APIs externas (REST y/o SOAP). Habilidades Técnicas Fundamentos sólidos de Programación Orientada a Objetos (POO). Desarrollo de aplicaciones web responsivas. Construcción de Web APIs (REST). Pruebas unitarias (buenas prácticas y herramientas). Instalación de aplicaciones en ambientes Windows (IIS). Documentación técnica clara y estructurada. Uso de herramientas como Postman y SoapUI. Diseño y consumo de servicios basados en JSON y XML. Tecnologías Requeridas C#, ASP.NET, ASP.NET MVC, .NET Core / ASP.NET Core Angular (mínimo 1 año) MS SQL Server (T-SQL) HTML5, CSS3, JavaScript (mínimo 2 años) Git / Git Flow Consumo y publicación de APIs REST y SOAP Postman / SoapUI Tecnologías Deseables / Opcionales Azure DevOps y despliegue en la nube (Azure Functions) Microservicios MVVM / MVP Otros frameworks: ReactJS, Node.js Xamarin (desarrollo móvil) DevExpress, Telerik, Sencha Conocimientos Funcionales y Metodológicos Trabajo en entornos ágiles (Scrum, Kanban). Participación en todo el ciclo de vida del software. Generación de documentación técnica: Casos de uso Historias de usuario Manuales técnicos Modelado de bases de datos y software (UML) Competencias y Soft Skills Buena comunicación verbal y escrita (email, videollamadas, etc.). Capacidad analítica y enfoque a la solución de problemas. Trabajo colaborativo. Proactividad y responsabilidad en la gestión de tareas. Nivel de ingles: Basico</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-full-stack-net-middle-remoto-mexico/111442</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Desarrollador Full Stack .NET - Middle - Remoto (MEXICO) en Bliss It</v>
+      </c>
+      <c r="C14" t="str">
+        <v>$ 20,000 a 25,000 MXN (Neto)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G14" t="str">
+        <v>¡ÚNETE A BLISS IT Y POTENCIA TU CARRERA EN TECNOLOGÍA! Vacante: Desarrollador Full Stack .NET Ubicación:  Monterrey, N.L. Modalidad:  Remoto dentro de la república Mexicana Sueldo:  $23,000 - $27,000 netos mensuales ¿Quiénes somos en Bliss IT? En Bliss IT somos un equipo de especialistas en Tecnologías de la Información enfocados en desarrollar, gestionar y brindar consultoría de alto nivel para potenciar a nuestros clientes. Creemos firmemente que la tecnología transforma, pero son las personas quienes la hacen posible , por eso impulsamos un ambiente de trabajo basado en respeto, confianza, diversidad y colaboración. Qué buscamos? Estamos en busca de un  Desarrollador Full Stack .NET   para integrarse a nuestro equipo de trabajo . Si eres una persona apasionada por la tecnología, con enfoque en resultados y buscas un entorno de crecimiento e innovación, ¡esta oportunidad es para ti! Licenciatura en Ingeniería en Sistemas, Tecnologías de la Información o carrera afín Conocimientos Técnicos Indispensables: Programación: .NET Basic / C#, ASP NET, Node. js Front-end: Angular, TypeScript, HTML, CSS, JavaScript, jQuery Arquitectura: MVC, Microservicios, RESTful y SOAP Services Bases de datos: DB2, PostgreSQL Servicios: AJAX, API, App Servers (Tomcat) Seguridad y rendimiento en desarrollo de código para entornos de alto tráfico Programación Orientada a Objetos (OOP) Control de versiones con Git Línea de comandos: CMD y Linux Bash Conocimientos básicos en Docker y Kubernetes Metodologías y herramientas: SCRUM / Metodologías Ágiles Jira para gestión de proyectos Prototipado Gestión eficaz del tiempo y cumplimiento de entregables en entornos ágiles Conocimientos deseables (no excluyentes): AWS: Lambdas, DynamoDB, CodePipeline, CloudFront, CodeCommit, Cognito Flutter (deseable para desarrollos móviles) Idioma: Inglés técnico intermedio (lectura, comprensión y comunicación técnica básica) ¿Te interesa? Envía tu CV y forma parte de un equipo donde el talento y la innovación marcan la diferencia. ¡En Bliss IT, tu crecimiento es nuestro motor!</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://hireline.io/remoto/empleos/arquitecto-de-software-net-senior-remoto/111072</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Arquitecto de Software .Net Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C15" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: .  Net Software Architect  Ingles conversacional obligatorio Esquema 100% remoto Estamos buscando un  Arquitecto Asociado experimentado  con  8 a 10 años  de experiencia en tecnologías .NET. El candidato ideal tendrá experiencia en  C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework  y  Dependency Injection  . El rol se desempeña en un modelo híbrido, con un enfoque en proyectos del  dominio de alta tecnología  . Calificaciones:   Se requiere   de 8 a 10 años   de experiencia en   tecnologías .NET  .   Las habilidades requeridas incluyen   C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework   y   Dependency Injection  .   Se valora la experiencia en el   dominio de alta tecnología (Hi-Tech)  . Responsabilidades: Liderar el diseño y desarrollo de soluciones de software utilizando  tecnologías .NET  . Supervisar la implementación de  C#, ASP.Net Core, Blazor, y ASP .NET Core Razor  en diversos proyectos. Proporcionar experiencia en el desarrollo y mantenimiento de  ASP.NET Core Web API  y  Microservices.NET  . Asegurar el uso eficiente de  SQL Server  para la gestión y operaciones de bases de datos. Implementar y gestionar  Restful APIs  para integración y comunicación fluida. Utilizar  Azure SSO  para soluciones de inicio de sesión único seguras y eficientes. Aplicar prácticas de  DevOps  para optimizar los procesos de desarrollo y despliegue. Desarrollar y mantener aplicaciones utilizando los marcos de trabajo  .Net Core  y  ASP.NET C</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://hireline.io/remoto/empleos/arquitecto-de-software-net/111063</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Arquitecto de Software .Net en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C16" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: . Net Software Architect  Ingles conversacional obligatorio Esquema 100% remoto Estamos buscando un Arquitecto Asociado experimentado con 8 a 10 años de experiencia en tecnologías .NET. El candidato ideal tendrá experiencia en C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework y Dependency Injection . El rol se desempeña en un modelo híbrido, con un enfoque en proyectos del dominio de alta tecnología . Calificaciones:   Se requiere  de 8 a 10 años  de experiencia en  tecnologías .NET .   Las habilidades requeridas incluyen  C#, ASP.Net Core, Blazor, ASP .NET Core Razor, ASP.NET Core Web API, Microservices.NET, SQL Server, Restful APIs, Azure SSO, DevOps, .Net Core, ASP.NET Core, MSTEST, Entity Framework  y  Dependency Injection .   Se valora la experiencia en el  dominio de alta tecnología (Hi-Tech) . Responsabilidades: Liderar el diseño y desarrollo de soluciones de software utilizando tecnologías .NET . Supervisar la implementación de C#, ASP.Net Core, Blazor, y ASP .NET Core Razor en diversos proyectos. Proporcionar experiencia en el desarrollo y mantenimiento de ASP.NET Core Web API y Microservices.NET . Asegurar el uso eficiente de SQL Server para la gestión y operaciones de bases de datos. Implementar y gestionar Restful APIs para integración y comunicación fluida. Utilizar Azure SSO para soluciones de inicio de sesión único seguras y eficientes. Aplicar prácticas de DevOps para optimizar los procesos de desarrollo y despliegue. Desarrollar y mantener aplicaciones utilizando los marcos de trabajo .Net Core y ASP.NET Core . Realizar pruebas unitarias utilizando MSTEST para asegurar la calidad y fiabilidad del código. Implementar Entity Framework para acceso y gestión de datos. Aplicar Dependency Injection para mejorar la modularidad y la capacidad de prueba de las aplicaciones. Colaborar con equipos multifuncionales para entregar soluciones de software de alta calidad. Asegurar el cumplimiento de las mejores prácticas y estándares de codificación en todos los proyectos. Brindar orientación técnica y mentoría a desarrolladores junior. Contribuir a la mejora continua de los procesos y metodologías de desarrollo. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  •  Vales de despensa por $3300,53  •  Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:           contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-fullstack-java-angular-reactnextgcp-senior-remoto/111709</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Desarrollador Fullstack Java - Angular - React+Next+GCP Senior - Remoto</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Importante empresa de TI  Desarrollador Fullstack Java - Angular - React+Next+GCP Requisitos: Disponibilidad para trabajar 100% remoto Experiencia: Apigee, GCP, Spring Boot, Spring Core, Spring Data Rest web services Hibernate Java Core Desarrollo de MicroServicios, Capacidad comprobable desarrollando soluciones con Angular en versiones recientes (Web Front End) Java version 17, Angular version 12 o superior Ofrecemos Sueldo competitivo  Prestaciones de Ley  PSL trabajo remoto Interesados postularse por este medio.</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-full-stack-jr-remoto/111711</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Desarrollador Full Stack Jr - Remoto en Quality &amp; Knowledge On It Services</v>
+      </c>
+      <c r="C18" t="str">
+        <v>$ 20,000 a 25,000 MXN (Neto)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G18" t="str">
+        <v>¡ÚNETE A NUESTRO EQUIPO COMO DESARROLLADOR FULL STACK JR.! Somos una empresa líder en soluciones de negocio, procesos y tecnología en México, con más de 25 años de experiencia en el mercado. Nos caracteriza el compromiso con la excelencia, la innovación y el trabajo colaborativo. Actualmente buscamos un Desarrollador Full Stack Jr. con experiencia en el diseño, desarrollo e implementación de aplicaciones web completas, que sea capaz de trabajar de forma autónoma, con pensamiento analítico y enfoque en resultados. Requisitos: Licenciatura en Ingeniería en Sistemas, Computación, Informática o afín (titulado o pasante). Mínimo 2 años de experiencia como Desarrollador Full Stack. Dominio de Java (versiones 8, 11, 17 y 21). Experiencia en desarrollo de APIs REST bajo arquitectura hexagonal. Conocimiento de bases de datos Oracle y MySQL. Uso de control de versiones con Git (preferentemente GitLab). Documentación técnica y diagramado con UML. Experiencia con despliegue en contenedores y sistemas operativos Linux. Conocimientos técnicos requeridos: Frontend: Angular, TypeScript, Bootstrap, HTML5, CSS3, JavaScript, JQuery, AJAX, JSON. Backend: NodeJS, Spring Boot, JPA. Servicios web: REST y SOAP. Pruebas: SOAP UI, Postman, JUnit, Mockito. Metodologías: Scrum y Waterfall (uso de Jira). Control de calidad: SonarQube. Gestión de paquetes: Maven y Gradle. Responsabilidades: Diseñar y desarrollar aplicaciones web de extremo a extremo (Frontend + Backend). Modelar y estructurar bases de datos eficientes. Diseñar interfaces atractivas y funcionales. Garantizar el correcto funcionamiento, mantenimiento e integridad del código. Optimizar el desempeño de las aplicaciones desarrolladas. Ofrecemos: Vacante 100% remota. Sueldo competitivo acorde a tu experiencia. Prestaciones de ley y superiores. Oportunidad de desarrollo profesional y crecimiento. Excelente ambiente de trabajo enfocado en la colaboración, la innovación y la mejora continua. Si cumples con el perfil y estás interesado(a) en formar parte de nuestro equipo, ¡postúlate por este medio y nos pondremos en contacto contigo!</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-full-stack-sr-remoto/111708</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Desarrollador Full Stack Sr - Remoto</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G19" t="str">
+        <v>¡ÚNETE A NUESTRO EQUIPO COMO DESARROLLADOR FULL STACK SR.! Somos una empresa líder en soluciones de negocio, procesos y tecnología en México, con más de 25 años de experiencia en el mercado. Nos caracteriza el compromiso con la excelencia, la innovación y el trabajo colaborativo. Actualmente buscamos un Desarrollador Full Stack Sr. con experiencia en el diseño, desarrollo e implementación de aplicaciones web completas, que sea capaz de trabajar de forma autónoma, con pensamiento analítico y enfoque en resultados. Requisitos: Licenciatura en Ingeniería en Sistemas, Computación, Informática o afín (titulado o pasante). Mínimo 3 años de experiencia como Desarrollador Full Stack. Dominio de Java (versiones 8, 11, 17 y 21). Experiencia en desarrollo de APIs REST bajo arquitectura hexagonal. Conocimiento de bases de datos Oracle y MySQL. Uso de control de versiones con Git (preferentemente GitLab). Documentación técnica y diagramado con UML. Experiencia con despliegue en contenedores y sistemas operativos Linux. Conocimientos técnicos requeridos: Frontend: Angular, TypeScript, Bootstrap, HTML5, CSS3, JavaScript, JQuery, AJAX, JSON. Backend: NodeJS, Spring Boot, JPA. Servicios web: REST y SOAP. Pruebas: SOAP UI, Postman, JUnit, Mockito. Metodologías: Scrum y Waterfall (uso de Jira). Control de calidad: SonarQube. Gestión de paquetes: Maven y Gradle. Responsabilidades: Diseñar y desarrollar aplicaciones web de extremo a extremo (Frontend + Backend). Modelar y estructurar bases de datos eficientes. Diseñar interfaces atractivas y funcionales. Garantizar el correcto funcionamiento, mantenimiento e integridad del código. Optimizar el desempeño de las aplicaciones desarrolladas. Ofrecemos: Vacante 100% remota. Sueldo competitivo acorde a tu experiencia. Prestaciones de ley y superiores. Oportunidad de desarrollo profesional y crecimiento. Excelente ambiente de trabajo enfocado en la colaboración, la innovación y la mejora continua. ¿Estás listo para el siguiente reto en tu carrera? ¡Postúlate por este medio y forma parte de nuestro equipo!</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://hireline.io/remoto/empleos/project-manager/111680</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Project Manager en Thekna It</v>
+      </c>
+      <c r="C20" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G20" t="str">
+        <v>¡Únete a Nuestro Equipo de Liderazgo en Project Manager! Project Manager  ¿Eres un líder en gestión de proyectos con experiencia en contabilidad de costos, gestión de pedidos de clientes y gestión de riesgos? ¡Tenemos la oportunidad perfecta para ti! Estamos buscando un Gerente de Proyecto talentoso y motivado para unirse a nuestro equipo de liderazgo. Responsabilidades Clave - Liderar sesiones de planificación de proyectos para garantizar la alineación con los objetivos de la empresa y las expectativas de los interesados - Supervisar la ejecución de proyectos asegurando el cumplimiento de los plazos, presupuestos y estándares de calidad - Brindar experiencia en contabilidad de costos y gestión para optimizar el rendimiento financiero del proyecto - Gestionar los procesos de pedidos de clientes para mejorar la satisfacción del cliente y la eficiencia operativa - Implementar estrategias de gestión de riesgos para mitigar posibles riesgos del proyecto y garantizar resultados exitosos Requisitos: - Entre 8 y 9 años de experiencia en gestión de proyectos - Habilidades sólidas en contabilidad de costos y gestión - Competencia en la gestión de pedidos de clientes y satisfacción del cliente - Experiencia en gestión de riesgos y mitigación de riesgos del proyecto - Habilidades en gestión del tiempo del proyecto y cumplimiento de plazos - Competencia en gestión de interesados y mantenimiento de relaciones colaborativas ¿Qué te Hará Destacar? - Experiencia en gestión de mantenimiento y optimización de recursos - Habilidades en gestión de recursos del programa y optimización del rendimiento del equipo - Conocimientos en metodologías de gestión de proyectos y entrega de proyectos exitosos Certificación requerida: PMP Certification Certified Cost Professional (CCP) Ofrecemos: Prestaciones superiores Remoto 100% ¡No te Pierdas esta Oportunidad! Si estás listo para unirte a un equipo de líderes apasionados y trabajar en un entorno dinámico y desafiante, ¡envía tu currículum y carta de presentación a   ¡Estamos emocionados de conocerte!</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-basis-administrator-senior-remoto/111660</v>
+      </c>
+      <c r="B21" t="str">
+        <v>SAP BASIS Administrator Senior - Remoto en Quality &amp; Knowledge On It Services</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G21" t="str">
+        <v>¡ÚNETE A NUESTRO EQUIPO COMO SAP BASIS ADMINISTRATOR! Somos una empresa líder en consultoría de negocios, procesos y tecnologías de información en México, con más de 25 años de experiencia en el mercado. Nos enorgullece ser una organización 100% mexicana comprometida con la excelencia, la innovación y el desarrollo de talento. Actualmente estamos en busca de un SAP BASIS Administrator con experiencia sólida en entornos ABAP y JAVA, administración de landscapes SAP, upgrades y soporte técnico avanzado. Requisitos: Licenciatura en Sistemas, Ingeniería en Computación, Informática o afín (titulado o pasante). +4 años de experiencia comprobable en administración SAP BASIS. Inglés avanzado (mínimo 80% hablado). Conocimientos y experiencia en: Administración de módulos base en entornos SAP (ABAP y JAVA stack). Instalación y actualización de aplicaciones SAP. Actualización de componentes SAP: Kernel Support Packages Plug-ins, Add-ons Deploys Enhancement Packages Copias de cliente (remotas y locales). Configuración y gestión del sistema de transporte. Implementación de SAP Notes. Detección y optimización de problemas de rendimiento: Análisis de performance Identificación de cuellos de botella Análisis de consultas y recomendaciones Monitoreo (CCMS). Seguridad: Configuración de auditorías Roles y perfiles Conocimientos deseables: SAP HANA DB Sistemas operativos Linux Entornos en la nube (Cloud) Ofrecemos: Sueldo competitivo acorde a tu experiencia. Prestaciones de ley y superiores. Estabilidad laboral y oportunidades de crecimiento. Excelente ambiente de trabajo basado en la colaboración y mejora continua. Esquema de trabajo: 100% Remoto Si cumples con el perfil y estás interesado(a) en formar parte de nuestro equipo, ¡postúlate por este medio y nos pondremos en contacto contigo!</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://hireline.io/remoto/empleos/java-backend-developer-senior-remoto/111619</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Java Backend Developer Senior - Remoto en Thekna It</v>
+      </c>
+      <c r="C22" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G22" t="str">
+        <v>¡Únete a Nuestro Equipo de Desarrolladores! JAVA BACKEND DEVELOPER ¿Eres un experto en Java y estás buscando un nuevo desafío? ¡Tenemos la oportunidad perfecta para ti! Estamos buscando un Desarrollador Backend Java talentoso y motivado para unirse a nuestro equipo de desarrollo de software. Requisitos Obligatorios - Experiencia mínima de 3 años en: - Java Core (conceptos de OOP, manejo de excepciones, multihilo) - Estructuras de datos (colecciones, listas, HashMap, árbol) - Spring y Spring Boot - Servicios RESTful y microservicios - RDBMS (MySQL o Oracle) - Deseable: - Conocimientos en frameworks de testing como JUnit y Mockito - Experiencia en Fullstack con Angular o React Responsabilidades Clave - Diseñar y desarrollar aplicaciones empresariales complejas utilizando Java y Spring Boot - Implementar APIs RESTful y arquitectura de microservicios - Trabajar con bases de datos relacionales como PostgreSQL, SQL o Oracle - Utilizar herramientas y prácticas de DevOps, incluyendo Git, Maven, Jenkins y pipelines de CI/CD - Escribir código limpio, mantenible y bien probado - Colaborar con equipos multifuncionales para entregar proyectos a tiempo y dentro del presupuesto - Guiar a juniors en el equipo en aspectos tecnológicos para asegurar la entrega oportuna. ¿Qué te Ofrecemos? ·       Prestaciones de ley ·       Prestaciones superiores ·       Fondo de ahorro ·       Vales de despensa ·       Seguro de Vida ·       Plan de salud REMOTO 100% ¡No te Pierdas esta Oportunidad!</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-service-now-senior-remoto/110781</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Consultor Service Now Senior - Remoto en Upnow Consulting</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G23" t="str">
+        <v>En UpNow nuestro objetivo es impulsar la transformación digital, estamos comprometidos con la generación de valor, el diseño y la creación de experiencias extraordinarias a través de la tecnología de nuestros partners. Esto lo logramos gracias a la sinergia entre nuestro Talento y Nuestra Metodología para la Creación de Experiencias Extraordinarias, soportado con las más recientes innovaciones en tecnología de nuestro partner estratégico, ServiceNow. Siendo Consultor Servicenow  sumarás a través de la identificación, diseño y optimización de procesos empresariales utilizando las capacidades de la plataforma Servicenow. Actuará como puente entre las necesidades del negocio y las soluciones técnicas, ayudando a las organizaciones a maximizar el valor de ServiceNow en sus operaciones para los proyectos y operación ejecutadas por UpNow Consulting. Responsabilidades Analizar y mapear los procesos de negocio actuales para identificar oportunidades de mejora y automatización en ServiceNow. Colaborar con los usuarios clave para comprender los requisitos funcionales y traducirlos en especificaciones claras para el equipo técnico. Diseñar flujos de trabajo eficientes y escalables dentro de los módulos de ServiceNow (ITSM, CSM, HRSD, SPM, ITAM, etc.). Guiar la implementación de soluciones basadas en las mejores prácticas y estándares de la industria. Realizar análisis de brechas y recomendar estrategias para optimizar procesos existentes. Configurar elementos en la plataforma, como formularios, flujos de trabajo y reglas de negocio, según sea necesario. Coordinar y realizar talleres con los clientes para recopilar requisitos y proporcionar formación sobre las capacidades de ServiceNow. Proporcionar soporte continuo durante la implementación del proyecto en la gestión del cambio y adopción de los procesos implementados. Trabajar estrechamente con desarrolladores y administradores de ServiceNow para garantizar que las soluciones técnicas se alineen con los objetivos del negocio. Formación y experiencia Licenciatura en Ingeniería en Sistemas, Ciencias de la Computación o carrera afín. Experiencia de cuatro años de experiencia en implementación de proyectos Servicenow Experiencia de dos años liderando equipos de implementación/ operación. Sólidos conocimientos JavaScript, AngularJS, HTML, CSS, y otras tecnologías web relacionadas, base de datos SQL. Experiencia en desarrollo de flujos de trabajo, gestión de catálogos de servicio y personalizaciones. Experiencia en integración de sistemas APIs REST/SOAP. Metodología de trabajo Scrum. Inglés Avanzado B2 Certificaciones: Certificación ServiceNow administrador (CSA), Implementador Servicenow (CIS) en al menos un módulo, Desarrollador Servicenow (CAD) Te estamos buscando, ¡Postúlate ya!</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://hireline.io/remoto/empleos/especialista-en-microstrategy-middle-remoto/111181</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Especialista en MicroStrategy - Middle - Remoto en Proceti Consultores</v>
+      </c>
+      <c r="C24" t="str">
+        <v>$ 50,000 a 60,000 MXN (Neto)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Únete a Proceti, donde la transformación digital es nuestra misión. Con más de 1,000,000 horas de servicio y 17 años de experiencia comprobada, nos diferenciamos de las consultoras de TI tradicionales al establecer el estándar de excelencia. Estamos emocionados de ofrecer oportunidades a profesionales talentosos en todo LATAM.  Acerca de la posición: Diseño, configuración y optimización de soluciones analíticas. El perfil ideal será responsable de garantizar el alto rendimiento y la usabilidad de los tableros, colaborando estrechamente con equipos de datos y negocio. Skills: Experiencia sólida y comprobable en  MicroStrategy  (mínimo 3 años recomendable). Conocimientos avanzados en configuración de la  capa semántica . Dominio en la creación y optimización de  dashboards  y  dossiers . Experiencia trabajando con  bases de datos HANA . Enfoque en la  optimización de rendimiento  en tableros e informes. Si esta oportunidad hace match con tu perfil, ¡nos encantaría conocerte!</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-fullstack-middle-remoto/111469</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Desarrollador Fullstack Middle - Remoto en Quo Digital</v>
+      </c>
+      <c r="C25" t="str">
+        <v>$ 30,000 a 35,000 MXN (Neto)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Objetivo del Puesto: Buscamos un apasionado Desarrollador Fullstack para unirse a nuestro equipo dinámico y colaborar en la creación de experiencias de usuario excepcionales. El candidato ideal poseerá habilidades sólidas en el desarrollo web. Responsabilidades Construir y mantener aplicaciones interactivas , asegurando un rendimiento óptimo y una experiencia de usuario excepcional. Traducir mockups y prototipos en interfaces funcionales y atractivas, en colaboración con el equipo de diseño. Implementar soluciones front-end para web y móvil , garantizando una experiencia fluida y eficiente. Desarrollar y optimizar la conexión con servicios back-end utilizando Node.js, APIs REST y GraphQL. Asegurar la escalabilidad y rendimiento de las aplicaciones mediante buenas prácticas de desarrollo. Trabajar en conjunto con desarrolladores back-end, diseñadores y otros equipos para garantizar una implementación consistente. Requisitos 3 años de experiencia como Desarrollador Fullstack Conocimientos en: Django, VueJS, Angular, JavaScript, NodeJS, HTML5, CSS3, GraphQL,  Microservicios  Manejo de bases de datos   PostgreSQL . Familiaridad con APIs REST y servicios web. Experiencia con Git y metodologías ágiles. Pensamiento analítico, atención al detalle y habilidades de resolución de problemas. Capacidad de trabajo en equipo y comunicación efectiva. Conocimientos deseables: Manejo de Arquitecturas escalables Queremos conocerte, postula con tu hoja de vida actualizada.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-fullstack-python-senior-remoto/109681</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Desarrollador Fullstack Python Senior - Remoto en Quo Digital</v>
+      </c>
+      <c r="C26" t="str">
+        <v>$ 35,000 a 40,000 MXN (Neto)</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Estamos en búsqueda de talento como  Desarrollador Full Stack para unirse a nuestro equipo dinámico y en crecimiento. El candidato ideal debe tener una sólida comprensión de las tecnologías de Backend y Frontend y tener experiencia en todas las etapas del ciclo de vida del desarrollo de software.  Requerimos: 4 años de experiencia en proyectos backend: Python o Java  Conocimientos en: Base de datos: SQL y NoSQL  Conocimientos en Docker y Orquestación de contenedores Experiencia en Diseño y desarrollo de API´s  Conocimientos en API´s, RestFul  Actividades:  Desarrollo en proyectos Backend con Python o Java  Experiencia en integración utilizando API´s y RestFul Familiaridad con Docker, y orquestación de contenedores  Diseñar y desarrollar API´s robustas para integración de sistemas  Mantener y optimizar las integraciones existentes  Desarrollo de pruebas y garantizar la calidad de las soluciones  Colaborar con el equipo para planificar y resolver problemas técnicos  Deseable: Conocimientos en: JavaScript, NodeJs, AWS ó GCP</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://hireline.io/remoto/empleos/work-day-ams-manager-senior-remoto/111603</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Work Day AMS Manager Senior - Remoto en Thekna It</v>
+      </c>
+      <c r="C27" t="str">
+        <v>$ 80,000 a 90,000 MXN (Bruto)</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Workday AMS Manager   Descripción del Puesto: Estamos buscando nuestro próximo un Workday AMS Manager para proporcionar orientación experta y entrega de soluciones de Workday de alto nivel. Si eres un profesional con una amplia experiencia en la gestión de aplicaciones corporativas y una sólida trayectoria en roles de cliente en un modelo de entrega global, ¡esta es tu oportunidad!   Responsabilidades:   ·        Liderar un equipo de gerentes, consultores funcionales y técnicos en la entrega de servicios de AMS asignados ·        Proporcionar experiencia en procesos estándar y puntos de contacto de Workday a los clientes ·        Ayudar a los clientes a tomar decisiones difíciles y asistir a los gerentes de entrega de servicios en la previsión de proyectos ·        Liderar un equipo de consultores de Workday en múltiples proyectos y promover un entorno de trabajo innovador y ambicioso ·        Proporcionar experiencia en procesos estándar de Workday y liderar el diseño e implementación de soluciones de Gestión Financiera de Workday ·        Supervisar el desarrollo y mantenimiento de informes técnicos de Workday y proporcionar experiencia técnica en HCM de Workday   Requisitos:   ·        Mínimo 12 años de experiencia en la gestión de aplicaciones corporativas y al menos 4-6 años de experiencia en roles de cliente en un modelo de entrega global ·        Certificación en Workday HCM o Integraciones es obligatoria ·        Conocimiento profundo de múltiples módulos de Workday y procesos de negocio ·        Experiencia en seguridad y gestión de riesgos en entornos de Workday ·        Habilidades de liderazgo y gestión de equipos globales ·        Capacidad para proporcionar orientación experta y entrega de soluciones de Workday de alto nivel   Certificación requerida: Workday HCM Certification   Habilidades Deseables: ·        Conocimientos en Workday Revenue Management y Workday Spend Management ·        Experiencia en SaaS basado en modelo de servicios gestionados ·        Buen entendimiento de procesos de HCM y áreas de proceso ·        Experiencia en desarrollo y mantenimiento de informes técnicos de Workday ·        Experiencia en Workday HCM y Finanzas   Ofrecemos: ·        Prestaciones de ley ·        Prestaciones superiores ·        Gastos médicos mayores ·        Seguro dental y visual ·        Seguro de Vida REMOTO 100%   ¿Eres el Líder que Buscamos?</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://hireline.io/remoto/empleos/dynamics-365-support-developer/111490</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Dynamics 365 Support Developer en Definity First</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Estamos buscando un Dynamics 365 Support Developer , quien será responsable de brindar un soporte excepcional a nuestros clientes que utilizan Microsoft Dynamics 365, Power Pages y Power Platform. El candidato ideal debe tener un conocimiento profundo de estas plataformas, habilidades sólidas para la resolución de problemas y una verdadera pasión por ayudar a los clientes a optimizar el uso de nuestras soluciones. Este puesto se realiza de forma remota desde cualquier parte de México o LATAM, y representa una excelente oportunidad para aprender y crecer trabajando de cerca con nuestro talentoso equipo. Requisitos: Más de 2 años de experiencia en un rol de soporte técnico, preferentemente con Microsoft Dynamics 365 y Power Platform. Sólido conocimiento de los módulos de Microsoft Dynamics 365, Power Pages y Power Platform (Power BI, Power Apps, Power Automate). Excelentes habilidades analíticas y para la resolución de problemas. Capacidad comprobada para gestionar múltiples tareas y prioridades en un entorno dinámico. Dominio del inglés (oral y escrito) es obligatorio. Disponibilidad para brindar soporte ocasional los fines de semana (rara vez, pero posible). Deseable / Plus: Experiencia con SQL, JavaScript y C#. Familiaridad con otras tecnologías de Microsoft, como Azure y Office 365. Conocimientos en CRM. Experiencia en roles de atención al cliente enfocados en soporte técnico o consultoría. Responsabilidades principales: Brindar soporte técnico y asistencia en la resolución de problemas a clientes que utilizan Microsoft Dynamics 365, Power Pages y Power Platform. Responder a consultas de clientes vía teléfono, correo electrónico o chat de manera oportuna y profesional. Analizar y resolver problemas relacionados con la gestión de cuentas, configuraciones del sistema e integraciones. Documentar casos de soporte, soluciones y buenas prácticas para fortalecer la base de conocimientos. Impartir sesiones de capacitación y webinars para ayudar a los clientes a aprovechar al máximo Dynamics 365 y Power Platform. Mantenerse actualizado con las últimas novedades y características de Dynamics 365, Power Pages y Power Platform para ofrecer un soporte informado.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://hireline.io/remoto/empleos/databricks-developer/111667</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Databricks Developer en Thekna It</v>
+      </c>
+      <c r="C29" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Databricks Developer Estamos en búsqueda de un Desarrollador de Data Bricks altamente capacitado y motivado para unirse a nuestro equipo.El candidato ideal será responsable de diseñar, desarrollar e implementar soluciones utilizando la plataforma de Data Bricks para satisfacer las necesidades de la empresa, así como trabajar con una variedad de tecnologías y servicios en la nube, incluyendo Azure Database for PostgreSQL, Azure Databricks, Key Vault, Load Balancer, SQL Database, SQL Server, Storage Accounts, Virtual Machines, y herramientas de monitoreo y logs. Responsabilidades: ·          Diseñar y desarrollar pipelines de datos utilizando Data Bricks. ·          Integrar y trabajar con servicios en la nube como Azure Database for PostgreSQL, Azure Databricks, Key Vault, Load Balancer, SQL Database, SQL Server, Storage Accounts, Virtual Machines, y herramientas de monitoreo y logs. ·          Optimizar y mantener la infraestructura de Data Bricks y otros servicios en la nube. ·          Colaborar con otros equipos para integrar soluciones de Data Bricks y servicios en la nube en los procesos existentes ·          Realizar pruebas y depuración de código para garantizar la calidad y la eficiencia de las soluciones implementadas. Funciones específicas: ·          Configurar y administrar Azure Database for PostgreSQL y SQL Database. ·           Desarrollar y mantener pipelines de datos en Azure Databricks. ·           Implementar y gestionar políticas de seguridad en Key Vault. ·           Configurar y optimizar Load Balancer para garantizar la disponibilidad y el rendimiento. ·           Administrar y monitorear SQL Server y Virtual Machines. ·           Gestionar y optimizar Storage Accounts para el almacenamiento de datos. ·           Utilizar herramientas de monitoreo y logs para supervisar y analizar el rendimiento de los servicios en la nube.</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://hireline.io/remoto/empleos/databricks-developer-senior-remoto/111535</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Databricks Developer Senior - Remoto en Thekna It</v>
+      </c>
+      <c r="C30" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Databricks Developer Estamos en búsqueda de un Desarrollador de Data Bricks altamente capacitado y motivado para unirse a nuestro equipo.El candidato ideal será responsable de diseñar, desarrollar e implementar soluciones utilizando la plataforma de Data Bricks para satisfacer las necesidades de la empresa, así como trabajar con una variedad de tecnologías y servicios en la nube, incluyendo Azure Database for PostgreSQL, Azure Databricks, Key Vault, Load Balancer, SQL Database, SQL Server, Storage Accounts, Virtual Machines, y herramientas de monitoreo y logs. Responsabilidades: ·        Diseñar y desarrollar pipelines de datos utilizando Data Bricks. ·        Integrar y trabajar con servicios en la nube como Azure Database for PostgreSQL, Azure Databricks, Key Vault, Load Balancer, SQL Database, SQL Server, Storage Accounts, Virtual Machines, y herramientas de monitoreo y logs. ·        Optimizar y mantener la infraestructura de Data Bricks y otros servicios en la nube. ·        Colaborar con otros equipos para integrar soluciones de Data Bricks y servicios en la nube en los procesos existentes ·        Realizar pruebas y depuración de código para garantizar la calidad y la eficiencia de las soluciones implementadas. Funciones específicas: ·        Configurar y administrar Azure Database for PostgreSQL y SQL Database. ·         Desarrollar y mantener pipelines de datos en Azure Databricks. ·         Implementar y gestionar políticas de seguridad en Key Vault. ·         Configurar y optimizar Load Balancer para garantizar la disponibilidad y el rendimiento. ·         Administrar y monitorear SQL Server y Virtual Machines. ·         Gestionar y optimizar Storage Accounts para el almacenamiento de datos. ·         Utilizar herramientas de monitoreo y logs para supervisar y analizar el rendimiento de los servicios en la nube. Requisitos: ·        Experiencia previa trabajando con la plataforma de Data Bricks. ·        Conocimiento sólido de lenguajes de programación como Python, Scala o SQL. ·        Experiencia con servicios en la nube de Azure, incluyendo Azure Database for PostgreSQL, Azure Databricks, Key Vault, Load Balancer, SQL Database, SQL Server, Storage Accounts, Virtual Machines, y herramientas de monitoreo y logs. ·        Capacidad para diseñar y desarrollar pipelines de datos complejos. ·        Excelentes habilidades de resolución de problemas y atención al detalle. ·        Capacidad para trabajar de forma colaborativa en un entorno de equipo. Ofrecemos: Prestaciones de ley y superiores. Fondo de ahorro Seguro de vida Plan de salud</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-snowflake-senior-remoto/111699</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Data Engineer Snowflake Senior - Remoto en Itkawa Technologies Llc</v>
+      </c>
+      <c r="C31" t="str">
+        <v>$ 40,000 a 45,000 MXN (Neto)</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Freelance</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Role:   Data Engineer, Snowflake Duration: 1 year Location: Remote  from HOME , any country in (LATAM) SALARY : 2,000 USA $ net per month Client: Yash/Caterpillar Job Details: Summary The main function of this role is to support specialized utility programs utilizing software packages and data warehouses for use in Direct Procurement functional area. A typical analyst is responsible for supporting and enhancing software for client use with the aim of optimizing operational efficiency for procurement functions. Job responsibilities: "1. Support applications and data warehouses from daily operations perspective. Manage user access requests to applications and data warehouses. 2. Test and Deploy minor enhancements, bug fixes, forced changes for the supported applications and data warehouses. 3. Coordinate software system installation and upgrades with offshore team to meet desired business or IT outcome. 4. Analyze information to determine, recommend, and plan computer specifications and layouts. 5. Obtain and evaluate information on factors such as reporting formats required, costs, and security needs to determine hardware configuration. 6. Consult with customers about requirements, system changes, training needs, etc. 7. Confer with systems analysts, engineers, programmers and others to design system and to obtain information on project limitations and capabilities, performance requirements and interfaces.  " Skills 1. Verbal and written communication skills, problem solving skills, customer service and interpersonal skills. 2. Ability to work independently and manage one’s time. 3. Basic mentoring skills necessary to provide support and constructive performance feedback. 4. Well versed with SDLC (software development life cycle) process and IT controls. 5. Expert in Snowflake, Tidal, DataStage, PL/SQL, Oracle, IBM Mainframe" Education/Experience: 1. Bachelor's degree in computer science or equivalent training required. 2. 7+ years related experience required.</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://hireline.io/remoto/empleos/cybersecurity-engineer-perimeter-security-fortinet-senior-remoto/111411</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Cybersecurity Engineer - Perimeter Security (Fortinet) Senior - Remoto en Proceti Consultores</v>
+      </c>
+      <c r="C32" t="str">
+        <v>$ 60,000 a 70,000 MXN (Neto)</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G32" t="str">
+        <v>About this role We are seeking a  Cybersecurity Engineer  with strong expertise in  Firewall platforms, IDS/IPS systems, and secure network deployments . The role focuses on  Perimeter Release &amp; Deployment   and  Lifecycle Management Refresh  initiatives, ensuring seamless implementation and risk mitigation of security systems across enterprise environments. The ideal candidate is a detail-oriented professional with a background in network security engineering and hands-on experience in  Fortinet ,  Check Point , and  TippingPoint  platforms. Key Responsibilities Deliver secure perimeter deployments for strategic projects and BAU activities. Plan and execute hardware/software refreshes, capacity upgrades, migrations, and decommissions. Build and operate Firewall and IDS/IPS platforms (Fortinet, Check Point, TippingPoint). Review and execute implementation plans, validations, UAT criteria, and rollback strategies. Ensure implementation meets engineering standards with zero production impact. Document work in asset tracking and inventory systems; maintain LLDs and HLDs. Collaborate with Perimeter Security Architecture and cross-functional teams. Lead technical troubleshooting during triages and support post-change activities. Promote continuous improvement of process and quality assurance. Requirements 5–10 years of IT experience with firewall security solutions. Hands-on expertise with  Fortinet  and  Check Point  firewalls. Experience with IDS/IPS products (e.g., TippingPoint, Fortinet). Solid understanding of  DMZ environments , Cisco Routing/Switching, and network risk management. Strong written and verbal communication at all organizational levels. Willingness to work during nights/weekends for change implementations. Experience designing and documenting network perimeter architectures. Ability to lead, assess readiness, and execute high-impact changes with precision. Preferred Skills Experience with FortiManager, FortiAnalyzer, Check Point Provider-1 (SmartView Manager &amp;amp; Tracker). Familiarity with HTTP/S, SSH, DNS, FTP, NTP, and Anycast services. Working knowledge of routing protocols, multicast, and L2/L3 networking. Scripting/programming skills (Shell, Python, Golang, Perl, C/C++) a plus. UNIX/Linux administration is highly desirable. Experience in banking or financial services is a strong asset. Education &amp;amp; Certifications Bachelor’s degree in Computer Science, IT, or a related field. Industry certifications (Fortinet NSE, Check Point CCSA/CCSE) are a plus. English Advanced + If this opportunity resonates with you, we'd love to hear from you.</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://hireline.io/remoto/empleos/oracle-test-engineer-senior-remoto/111710</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Oracle Test Engineer Senior - Remoto en Crossbridge</v>
+      </c>
+      <c r="C33" t="str">
+        <v>$ 90,000 a 100,000 MXN (Neto)</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Remoto: Chile, México, Argentina, Bolivia, Colombia, Costa Rica, Dominican Republic, Ecuador, El Salvador, Honduras, Nicaragua, Peru, Uruguay</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Our client is hiring an experienced Oracle Test Engineer to support a leading global FinTech client, known for powering digital commerce with products like Skrill, NETELLER, and paysafecard .   You’ll be embedded in a high-impact Oracle Fusion implementation team , focusing on the testing of financial modules and ensuring a seamless integration of Oracle Fusion Cloud and EBS R12 systems .   Key functions :       5+ years of experience in Software Testing and at least 3 years ’ experience in Oracle EBS R12 and Oracle Fusion Cloud testing .    The candidate needs to have knowledge in the functional module (AR, AP, GL et c )     K nowledge on Oracle EBS R12 . T his functional knowledge will help you understand the current setups, configurations, flows etc in the current system. This will assist you in writing detailed and relevant test cases and help in execution, Business UAT support and launch .   Experience working in large Oracle Fusion Implementation Projects as a Test Analyst / Engineer   Minimum 3 years of experience and functional knowledge of testing Financial modules.</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-bi-etl-integrador-modelador-de-datos/110851</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Data Engineer BI (ETL – Integrador &amp; Modelador de datos) en Proceti Consultores</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G34" t="str">
+        <v>ProceTI es una empresa líder en consultoría de tecnologías de la información con más de 15 años en el mercado. Nos dedicamos a brindar soluciones innovadoras y eficientes a nuestros clientes, utilizando la tecnología como herramienta clave para el éxito. Valoramos el talento y el compromiso de nuestro equipo, ofreciendo un ambiente de trabajo colaborativo y dinámico donde la mejora continua y la innovación son parte de nuestro ADN. Posición: Data Engineer BI (ETL – Integrador &amp; Modelador de datos) Modalidad: 100% Home Office Responsabilidades del puesto: - Diseñar, construir, probar y documentar procesos de back-end para el desarrollo de reportes de Business Intelligence. - Proporcionar soporte y atención de tickets sobre reportes BI productivos. - Desarrollar mejoras en KPIs existentes y crear dashboards, columnas y métricas en front. - Gestionar requerimientos de alcance y tiempo, asegurando la entrega de soluciones BI de alta calidad. Habilidades requeridas: - Más de 5 años de experiencia en implementación de soluciones BI. - Dominio de T-SQL y manejo de bases de datos SQL Server / Azure Synapse. - Experiencia en arquitectura de Enterprise Data Warehouse (EDWH). - Conocimiento en Azure Data Factory y Azure Analysis Services (SSAS). Habilidades deseables: - Manejo de R y/o Python para KPIs estadísticos y aplicaciones de IA/Machine Learning. - Experiencia en reportes predictivos y análisis de grandes cantidades de datos. - Conocimiento del negocio relacionado al área de Compras. Competencias personales: - Capacidad para trabajar de forma remota y en equipo. - Orientación a resultados y mejora continua. - Excelentes habilidades de comunicación y organización. Beneficios: - Prestaciones de ley y beneficios superiores - Oportunidades de desarrollo profesional y capacitación continua. - Ambiente de trabajo flexible y colaborativo.</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://hireline.io/remoto/empleos/becario-scrum-master/71921</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Becario Scrum Master en AsTecI</v>
+      </c>
+      <c r="C35" t="str">
+        <v>$ 5,000 a 10,000 MXN (Neto)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Somos AsTecI, una consultoría de TI con más de 24 años de Experiencia en el Desarrollo y Mantenimiento de Sistema. Actualmente estamos en búsqueda de nuevo talento para integrar a nuestro equipo de trabajo como:   Becario Scrum Master   Perfil: • Recién egresado o con 6 mese experiencia • Ingeniería en Sistemas o afín, o Licenciaturas Económico-Administrativas   Conocimientos en: • Experiencia en prácticas ágiles como SCRUM y Agile mínimo 6 meses • Desarrollo de proyectos con Scrum Conocimientos solidos en la metodología Scrum   Competencias   • Toma de decisiones • Capacidad de organización, comunicación y negociación • Capacidad para adecuarse con facilidad a los cambios. • Trabajo en equipo y capacidad para relaciones interpersonales. • Proactiva   OFRECEMOS : ·          Sueldo Base competitivo. ·          Prestaciones de Ley ·          Seguro de Vida ·          100% HO ·          Horario L a V   Si estas interesado en participar en esta oportunidad, postúlate por este medio con tu CV actualizado y si cubres con el perfil a la brevedad nos pondremos en contacto contigo</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-de-databricks/110973</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Desarrollador de Databricks en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C36" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Estamos buscando un Desarrollador de Databricks con 5 a 9 años de experiencia para unirse a nuestro equipo.  Con inglés conversacional Requisitos • Experiencia en Spark en Scala, Administración de Databricks Unity Catalog, Databricks CLI, Apache Airflow, Amazon S3, Amazon Redshift, Python, Databricks SQL, Databricks Delta Lake, Databricks Workflows y PySpark. • Experiencia en el ámbito de la gestión de lealtad de clientes. • Se valorará experiencia con otras herramientas y tecnologías de ingeniería de datos. • Fuertes habilidades para resolver problemas y capacidad para trabajar de forma independiente. • Excelentes habilidades de comunicación y colaboración. • Enfoque proactivo para el aprendizaje y mantenerse actualizado con nuevas tecnologías. • Capacidad para gestionar múltiples tareas y proyectos simultáneamente. • Sólido conocimiento de las mejores prácticas de seguridad y privacidad de los datos. Responsabilidades • Desarrollar y mantener pipelines de datos utilizando Spark en Scala y Databricks CLI para garantizar un procesamiento e integración de datos eficientes. • Administrar el Databricks Unity Catalog para gestionar y asegurar los activos de datos de manera efectiva. • Utilizar Apache Airflow para orquestar flujos de trabajo complejos y automatizar tareas de datos. • Implementar soluciones de almacenamiento de datos utilizando Amazon S3 y Amazon Redshift para asegurar la disponibilidad y confiabilidad de los datos. • Escribir y optimizar scripts en Python para apoyar diversas tareas de procesamiento de datos. • Utilizar Databricks SQL para realizar análisis de datos y generar información para los interesados del negocio. • Gestionar y optimizar Databricks Delta Lake para asegurar la consistencia y el rendimiento de los datos. • Diseñar e implementar Databricks Workflows para agilizar las operaciones de datos y mejorar la productividad. • Desarrollar y mantener aplicaciones en PySpark para procesar grandes volúmenes de datos de manera eficiente. • Colaborar con equipos multifuncionales para comprender los requisitos del negocio y traducirlos en soluciones técnicas. • Asegurar la calidad e integridad de los datos mediante la implementación de mejores prácticas y la realización de auditorías regulares. • Proporcionar soporte técnico y resolución de problemas para cuestiones relacionadas con los datos. • Mantenerse actualizado con las últimas tendencias y tecnologías de la industria para mejorar continuamente las soluciones de datos. Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. • Aguinaldo a 24 días.  • Vales de despensa por $3300,53  •    Prima vacacional del 50% • Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:       contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://hireline.io/remoto/empleos/workday-architect-senior-remoto/111614</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Workday Architect Senior - Remoto en Thekna It</v>
+      </c>
+      <c r="C37" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Workday Architect   Descripción del Puesto: Estamos buscando un Arquitecto de Workday experimentado y dinámico para diseñar y implementar soluciones tecnológicas que se alineen con nuestros objetivos comerciales. Si eres un profesional con habilidades en Workday Financial Management, Workday Technical Reports y Workday HCM, ¡esta es tu oportunidad!   Responsabilidades:   ·        Liderar equipos de trabajo funcional y técnico para proyectos de Workday. ·        Diseñar e implementar soluciones de Workday Financial Management y HCM. ·        Supervisar el desarrollo de informes técnicos de Workday y proporcionar experiencia técnica en HCM. ·        Colaborar con equipos multifuncionales para recopilar y analizar requisitos comerciales. ·        Desarrollar y mantener documentación técnica para soluciones de Workday. ·        Garantizar la seguridad y integridad de los datos de Workday a través de mejores prácticas y cumplimiento. ·        Solucionar problemas técnicos relacionados con aplicaciones de Workday. ·        Realizar auditorías regulares del sistema y ajustes de rendimiento para optimizar soluciones de Workday.   Requisitos:   ·        Mínimo 5-7 años de experiencia en la gestión de aplicaciones corporativas. ·        Al menos 3-5 años de experiencia en roles de cliente en un modelo de entrega global. ·        Mínimo 3-5 años de experiencia en Workday Functional Module o Integraciones. ·        Certificación activa de Workday. ·        Experiencia en Workday HCM, Gestión Financiera y Informes Técnicos. ·        Sólido conocimiento de procesos de negocio y seguridad de Workday. ·        Excelentes habilidades de resolución de problemas y análisis. ·        Buenas habilidades de comunicación y colaboración.   Certificación requerida: Workday HCM Certification   Ofrecemos: ·        Prestaciones de ley ·        Prestaciones superiores ·        Gastos médicos mayores ·        Seguro dental y visual ·        Seguro de Vida REMOTO 100%</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-en-infraestructura-intune-endpoint-ingles-avanzado-remoto/111741</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Consultor en Infraestructura (Intune / Endpoint) Inglés Avanzado - Remoto en AXEN</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G38" t="str">
+        <v>En AXEN IT Consulting estamos creciendo exponencialmente con clientes con grandes proyecciones de crecimiento, Contamos con más de 25 años de experiencia en el mercado de servicios de tecnologías de la información, Enfocados en nuestro crecimiento y al mismo tiempo ofreciendo planes de mejora a nuestro talento, actualmente estamos buscando Consultor en Infraestructura (Intune / Endpoint) con el siguiente perfil:   Esquema 100% Remoto - Es importante que viva en el país de México  +4 años de experiencia: -             Inglés avanzado -             Especialista en gestión de endpoints -             Experiencia en plataformas como ManageEngine Endpoint Central e Intune. -             Amplia capacidad para implementar y administrar soluciones de gestión de parches (Patch Management ) -             Automatización de actualizaciones de seguridad -             Control de dispositivos   Beneficios : Esquema Mixto en IMSS Posición Hibrida, en su mayoría de forma remota. SGM mayores, SGM menores, Seguro de Vida, Seguro funerario, 12 días de vacaciones, 15 días de aguinaldo, entre otras.</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://hireline.io/remoto/empleos/lider-tecnico-angular-senior-remoto/111208</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Líder Técnico Angular Senior - Remoto</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Importante compañía se encuentra en búsqueda de Lider Tecnico con el siguiente perfil: Requisitos: Genero indistinto Disponibilidad de trabajar tiempo completo Disponibilidad de trabajar home office (Espacio acondicionado) Experiencia: Sólidos conocimientos en JAVA, ANGULAR,.NET Manejo de personal  Desarrollo de microservicios Planeación de tareas  Ofrecemos  Sueldo competitivo PSL  Excelente ambiente de trabajo Excelente oportunidad de crecimiento Interesados postularse por este medio</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://hireline.io/remoto/empleos/governance-risk-and-compliance-analyst/111742</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Governance, Risk and Compliance Analyst en Ia Interactive</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Ingeniería en sistemas computacionales, Licenciatura en informática o carrera afín. Mínimo 4 años de experiencia en implementación y operación de programas de gestión de riesgos de seguridad y operacionales. Evaluación de riesgos bajo marcos reconocidos como: NIST Risk Management Framework (RMF) o ISO/IEC. Análisis de amenazas y vulnerabilidades en ambientes híbridos (on-premise y cloud). Evaluación de impacto al negocio, análisis de criticidad y dependencia tecnológica. Elaboración de planes de tratamiento de riesgos e informes ejecutivos. Actividades: Liderar y ejecutar evaluaciones de riesgos de seguridad y operacional a nivel organizacional, por proyecto, área y por activo. Coordinar con áreas técnicas y de negocio para identificar amenazas, vulnerabilidades y riesgos. Desarrollar mapas de riesgo, matriz de criticidad y planes de mitigación. Identificar y realizar seguimiento a los riesgos y amenazas de seguridad relacionados con los procesos de seguridad. Desarrollar, actualizar y mantener políticas, procedimientos y manuales relacionados con los procesos de seguridad de la información, en la empresa. Generar reportes técnicos y ejecutivos para stakeholders clave. Recomendar controles técnicos, administrativos y físicos alineados a los resultados del análisis de riesgos. Aumentar la base de conocimientos del área de Information Security. Supervisar el cumplimiento de cada política y procedimiento aplicable. Promover la cultura de gestión de riesgos de seguridad en la organización a través de capacitaciones. Conocimientos necesarios: Dominio del ciclo de vida del riesgo: identificación, análisis, evaluación, tratamiento, comunicación, monitoreo. Profundo conocimiento, al menos de los siguientes marcos de riesgo: NIST RMF (SP 800-37, SP 800-30) e ISO/IEC 27005:2018. Conducir evaluaciones de riesgos de seguridad y operacionales con las diversas áreas de la empresa. Conocimiento práctico en metodologías de análisis de impacto al negocio (BIA) y continuidad operativa (BCP/DRP). Diseño e implementación de controles de seguridad para mitigar riesgos. Habilidad para comunicar hallazgos técnicos y estratégicos de forma clara y ejecutiva. Capacidad de liderazgo e influencia transversal en equipos multidisciplinarios. Evaluación de riesgos de terceros y proveedores, incluyendo revisiones de seguridad y controles inherentes. Documentación de políticas, procesos y procedimientos de seguridad de la información. Generación de reportes técnicos y ejecutivos de riesgo, incluyendo mapas de calor, matrices de riesgo y presentaciones para la dirección. Pensamiento analítico y crítico, con capacidad para evaluar situaciones complejas desde una perspectiva de riesgo y tomar decisiones informadas. Liderazgo e influencia transversal, con capacidad para coordinar y guiar a las demás áreas de evaluación hacia una visión común de gestión del riesgo. Comunicación efectiva, tanto oral como escrita, con habilidad para traducir conceptos técnicos en lenguaje comprensible para stakeholders no técnicos. Orientación a resultados, con enfoque en la resolución proactiva de problemas, cumplimiento de objetivos y entrega de valor al negocio. Colaboración y trabajo en equipo. Conocimientos deseados: PCI SLC ISO 27005 ISO 27001 NIST Cybersecurity Framework SAMM Certificados en seguridad y/o gestión de riesgos (CISSP, ISO 27001 auditor o implementador, CRISC, CGRC, CC, A+, etc) Experiencia amplia en herramientas de gestión de riesgos. Experiencia en evaluación de riesgos en entornos regulados (financieros, salud, industria, gobierno)</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-ciberseguridad-n1-remoto/110737</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Ingeniero Ciberseguridad N1 - Remoto en Kio Tech</v>
+      </c>
+      <c r="C41" t="str">
+        <v>$ 15,000 a 20,000 MXN (Bruto)</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Recién graduado sin experiencia</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Sobre KIO: KIO es una empresa líder en tecnología de la información con una amplia trayectoria en el mercado. Ofrecemos un ambiente de trabajo dinámico y colaborativo, con oportunidades de crecimiento profesional y desarrollo personal para nuestros empleados. Ingeniero de Ciberseguridad N1 Requisitos del puesto Educación universitaria (Recien Egresado) o Experiencia de 6 meses a 1 año en Ciberseguridad           Conocimientos en Ciberseguridad  Responsabilidades del puesto 1.-Atención de Tickets  para atender las peticiones y requerimientos de seguridad de los clientes. 2.-Generar Reportes Extrayendo la información a través de las diferentes consolas o soluciones de seguridad  3.-Inicia atención, registra, resuelve y escala Incidentes 4.-Analizar y Monitorear - Revisando, capturando y obteniendo comportamientos anormales en la operación y la seguridad del cliente 5.-Brindar la mejor atención y servicio al cliente, preocupándose por su satisfacción. Prestaciones y beneficios adicionales Contratación permanente. Horario de tiempo completo Oportunidades de desarrollo profesional Capacitación y crecimiento dentro de la empresa.</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://hireline.io/remoto/empleos/gerente-de-productos-de-ia-tableau-middle-remoto/111373</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Gerente de Productos de IA - Tableau Middle - Remoto en CONTPAQi</v>
+      </c>
+      <c r="C42" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Somos la empresa Jalisciense con más de 40 años de experiencia y presencia a nivel nacional líder en contribuir con la sociedad impulsando el desarrollo de las empresas con software de calidad. Sabemos que, para lograr nuestra meta, es esencial contar con colaboradores felices y comprometidos que disfruten su trabajo; por eso, queremos que encuentren su propósito con nosotros. Contamos con la posición vacante: Gerente de Producto – IA y Analítica de Datos Misión del rol:  Buscamos un/a  Gerente de Producto  que lidere la evolución de soluciones de  Inteligencia Artificial ,  Ciencia de Datos  y  Business Intelligence , conectando las necesidades estratégicas del negocio con productos funcionales, viables y centrados en el usuario. Serás el puente entre  stakeholders ,  usuarios ,  equipos técnicos  y de  desarrollo , impulsando el diseño de soluciones que transformen la toma de decisiones.  Responsabilidades Principales: Definir la  visión de producto  de IA y analítica, alineando con los objetivos estratégicos del negocio. Priorizar el  backlog  enfocado en impacto y valor, colaborando con áreas técnicas, comerciales y de mercado. Traducir requerimientos de negocio en  funcionalidades claras , reglas de negocio e historias de usuario. Coordinar con  equipos técnicos  (Data Science, Ingeniería, QA, UX) para facilitar una ejecución efectiva. Evaluar la viabilidad de soluciones de IA desde múltiples perspectivas: técnica, funcional y estratégica. Monitorear el  rendimiento del producto , calidad e impacto, y liderar mejoras continuas. Validar hipótesis con usuarios finales mediante pruebas, talleres o entrevistas. Mantenerse actualizado en  tendencias de IA ,  chatbots ,  NLP , automatización y tecnologías emergentes. Gestionar aspectos de  riesgo ,  ética  y  cumplimiento  en soluciones basadas en IA. OFERTA: Homeoffice o esquema híbrido dependiendo la ubicación Prestaciones superiores a las de ley Beneficios para tu familia Ambiente colaborativo e innovador Formar parte de una organización con espíritu colaborativo y confianza; controla tus tiempos y agenda a través de una comunicación colaborativa en equipo. Compartir conocimiento con grandes profesionales Oportunidad de liderar productos de alto impacto Trabajo con tecnologías de vanguardia en IA y datos Crecimiento profesional y participación en iniciativas estratégicas Requisitos ·       Experiencia comprobable en  Ciencia de Datos ,  Ingeniería de Datos ,  Inteligencia Artificial  o  Business Intelligence . ·       Experiencia creando productos de  IA ,  automatización  o  BI  (incluye  LLMs ,  ChatGPT , etc.). ·       Conocimiento de  modelado de datos , métricas de producto y herramientas BI como  Power BI ,  Looker  o  Tableau . ·       Familiaridad con  SQL ,  Python ,  APIs , flujos de datos y tecnologías en la nube (idealmente  AWS ). ·       Capacidad de análisis y pensamiento estratégico para evaluar  viabilidad ,  factibilidad  y  deseabilidad  de soluciones. ·       Experiencia con metodologías ágiles:  Scrum ,  Kanban , gestión de  backlog  y herramientas como  JIRA ,  Trello  o  Azure DevOps . ·       Enfoque  user-centric  y  data driven : habilidad para traducir necesidades complejas en soluciones centradas en el usuario. Deseables: ·       Conocimientos en  contabilidad ,  fiscalidad  o  ERP . ·       Experiencia en  startups ,  SaaS ,  B2B  o plataformas tecnológicas. ·       Familiaridad con  MLOps ,  AutoML ,  agentes autónomos  o  generación de contenido con IA .</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://hireline.io/remoto/empleos/java-y-plsql-engineering-manager/111185</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Java y PL/SQL Engineering Manager en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C43" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Estamos buscando un Gerente de Ingeniería con experiencia (8 a 10 años) en Core Java y PL/SQL para unirse a nuestro equipo dinámico. El candidato ideal supervisará el desarrollo e implementación de soluciones de software, garantizando entregables de alta calidad.  Ingles conversacional obligatorio Para laborar 100% remoto Requisitos:   Experiencia sólida en  Core Java  y  PL/SQL .   Excelentes habilidades de  resolución de problemas  y  análisis .   Fuertes habilidades de  liderazgo  y  gestión de equipos .   Historial comprobado de entrega de  proyectos de software de alta calidad .   Excelentes habilidades de  comunicación  e  interpersonales .   Familiaridad con  metodologías y herramientas de desarrollo de software . Responsabilidades: Liderar al equipo de ingeniería en el diseño, desarrollo e implementación de soluciones de software utilizando Core Java y PL/SQL . Supervisar todo el ciclo de vida del desarrollo de software, asegurando entregas a tiempo y de alta calidad. Proporcionar orientación técnica y mentoría al equipo, fomentando un entorno colaborativo e innovador. Colaborar con equipos multifuncionales para definir los requisitos y entregables del proyecto. Garantizar el cumplimiento de las mejores prácticas en codificación, pruebas y documentación. Monitorear el progreso de los proyectos y abordar cualquier problema o bloqueo de manera oportuna. Realizar revisiones regulares de código para mantener la calidad y consistencia. Implementar y mantener metodologías y herramientas de desarrollo de software. Impulsar iniciativas de mejora continua para aumentar la productividad del equipo y la calidad del software. Comunicar de manera efectiva con los interesados, proporcionando actualizaciones de proyecto y recopilando retroalimentación. Gestionar la asignación de recursos y los cronogramas del proyecto para cumplir con los objetivos del negocio. Mantenerse actualizado con las últimas tendencias y tecnologías de la industria para asegurar que el equipo se mantenga competitivo. Contribuir a la misión general de la empresa mediante la entrega de soluciones de software impactantes que beneficien a la sociedad. Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:             contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://hireline.io/remoto/empleos/personal-para-apoyo-a-los-procesos-de-planificacion-de-la-demanda/110992</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Personal para Apoyo a los Procesos de Planificación de la Demanda - en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C44" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Capital Empresaria Horizonte, empresa mexicana especializada en Recursos Humanos y Tecnologías de la Información, busca: Personal para Apoyo a los Procesos de Planificación de la Demanda Descripción del puesto: Buscamos un Analista de Inventario para unirse a nuestro equipo de Operaciones del Centro de Datos. Este puesto es crucial para garantizar la disponibilidad de repuestos y optimizar nuestros niveles de inventario. Responsabilidades del puesto: Actualizar y mantener los niveles mínimos y máximos de todos los repuestos de DCOps Actualizar las solicitudes de demanda en la hoja de cálculo de Google para la automatización de pronósticos Supervisar la demanda de inventario de reserva según el estado de recepción de material Habilidades requeridas: Experiencia previa en gestión de inventario o logística. Conocimiento avanzado de hojas de cálculo de Google y herramientas de automatización. Excelentes habilidades de comunicación y organización. Conocimiento de planificación de la demanda Gestión de herramientas de planificación IDIOMA: INGLES Ofrecemos: Salario bruto de $50,000 MXN mensuales + prestaciones de ley Horario: Lunes a viernes de 9:00 a. m. a 6:00 p. m. y sábados de 9:00 a. m. a 2:00 p. m. Ambiente de trabajo colaborativo y dinámico. Si te apasiona la tecnología y crees que tienes las habilidades y capacidades necesarias para unirte al equipo, te invito a postularte. ¡Aprovecha esta oportunidad y asegura tu lugar!   **¡Únete a nosotros y forma parte de un equipo que valora la innovación y el crecimiento profesional!**</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://hireline.io/remoto/empleos/threat-release-manager-cybersecurity-release-senior-remoto/111413</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Threat Release Manager (Cybersecurity Release) - Senior - Remoto en Proceti Consultores</v>
+      </c>
+      <c r="C45" t="str">
+        <v>$ 60,000 a 70,000 MXN (Neto)</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G45" t="str">
+        <v>About this role We are looking for a  Threat Release Manager  to lead the release and deployment of security systems and threat mitigation updates across critical infrastructur e . This role will oversee new implementations and lifecycle refreshes to ensure network integrity and resilience against evolving cyber threats. The ideal candidate will bring a blend of  cybersecurity expertise, release management, and strong collaboration skills , working closely with engineering and risk teams to drive secure and smooth deployments. Key Responsibilities Manage end-to-end release and deployment of threat management systems and mitigation tools. Coordinate timely rollout of security patches, updates, and cyber countermeasures. Oversee lifecycle management of security hardware and software to avoid end-of-life or non-compliant technologies. Collaborate with engineering and architecture teams to deploy solutions such as  firewalls, IDS/IPS , and other perimeter defense tools. Identify and mitigate risks associated with release cycles, ensuring minimal disruption. Conduct QA validations and ensure all releases meet security compliance standards. Maintain and update technical documentation including deployment schedules, rollback plans, and post-deployment reviews. Manage incidents during release cycles and coordinate timely resolution. Communicate release plans, risks, and updates to stakeholders and leadership teams. Required Skills 5–10 years of IT experience focused on cybersecurity, including direct experience with threat mitigation tools. Solid background in  threat management and secure release processes . Hands-on experience with  firewalls  (Fortinet, Checkpoint),  IDS/IPS  systems (e.g., TippingPoint), and threat detection tools. Strong  project management  and coordination skills in a cross-functional environment. Analytical mindset and ability to solve problems under pressure. Excellent communication and documentation skills for both technical and non-technical audiences. Ability to work independently and manage multiple, parallel initiatives. Detail-oriented, with a strong focus on secure process execution and continuous improvement. Preferred Skills Familiarity with FortiManager, FortiAnalyzer, CheckPoint Provider 1 (SmartView Manager, Tracker). Deep knowledge of DMZ architecture, Cisco-based routing/switching, and network security best practices. Programming/scripting skills (Python, Perl, Shell, etc.) a plus. Certifications such as  CISSP, CISM, or equivalent  highly preferred. Bachelor’s degree in  Information Security, Computer Science , or equivalent professional experience. English Advanced + If this opportunity resonates with you, we'd love to hear from you.</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-databricks-remoto/111068</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Desarrollador Databricks - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C46" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Databricks Modalidad Remota   Resumen del puesto Buscamos un desarrollador de Databricks con entre 5 y 9 años de experiencia para unirse a nuestro equipo. El candidato ideal tendrá experiencia en Spark en Scala, Databricks, Unity, administración del catálogo, Databricks, CLI, Apache Airflow, Amazon S3, Amazon Redshift, Python, Databricks, SQL, Databricks, Delta Lake, flujos de trabajo de Databricks y PySpark. El candidato también debe tener experiencia en gestión de fidelización de clientes. Este puesto es híbrido con turnos diurnos y sin necesidad de viajar. Responsabilidades • Desarrollar y mantener canales de datos utilizando Spark en Scala y la CLI de Databricks para garantizar un procesamiento e integración de datos eficientes. • Administrar el catálogo de Databricks en Unity para gestionar y proteger los activos de datos de forma eficaz. • Utilizar Apache Airflow para orquestar flujos de trabajo complejos y automatizar tareas de datos. • Implementar soluciones de almacenamiento de datos utilizando Amazon S3 y Amazon Redshift para garantizar la disponibilidad y fiabilidad de los datos. • Escribir y optimizar scripts de Python para diversas tareas de procesamiento de datos. • Aprovechar Databricks SQL para realizar análisis de datos y generar información para las partes interesadas del negocio. • Gestionar y optimizar Databricks Delta Lake para garantizar la consistencia y el rendimiento de los datos. • Diseñar e implementar flujos de trabajo de Databricks para optimizar las operaciones de datos y mejorar la productividad. • Desarrollar y mantener aplicaciones PySpark para procesar grandes conjuntos de datos de forma eficiente. • Colaborar con equipos multifuncionales para comprender los requisitos del negocio y traducirlos en soluciones técnicas. • Garantizar la calidad e integridad de los datos mediante la implementación de las mejores prácticas y la realización de auditorías periódicas. • Brindar soporte técnico y resolución de problemas relacionados con los datos. • Mantenerse al día con las últimas tendencias y tecnologías del sector para mejorar continuamente las soluciones de datos.   Requisitos • Imprescindible experiencia con Spark en Scala, Databricks, Unity, Catalog Admin, Databricks CLI, Apache Airflow, Amazon S3, Amazon Redshift, Python, Databricks SQL, Databricks Delta Lake, Databricks Workflows y PySpark. • Imprescindible experiencia en gestión de fidelización de clientes. • Se valorará la experiencia con otras herramientas y tecnologías de ingeniería de datos. • Debe poseer sólidas habilidades de resolución de problemas y capacidad para trabajar de forma independiente. • Debe poseer excelentes habilidades de comunicación y colaboración. • Debe tener un enfoque proactivo para aprender y mantenerse al día con las nuevas tecnologías. • Debe tener la capacidad de gestionar múltiples tareas y proyectos simultáneamente. • Debe tener un sólido conocimiento de las mejores prácticas de seguridad y privacidad de datos. • Debe tener experiencia trabajando en un modelo de trabajo híbrido. • Debe tener la capacidad de trabajar en turnos diurnos. • Debe tener una gran atención al detalle y un compromiso con la entrega de un trabajo de alta calidad. • Debe tener la capacidad de trabajar eficazmente en un entorno dinámico y dinámico. • Debe tener pasión por los datos y el deseo de generar un impacto positivo en el éxito de la empresa y la sociedad.</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-fiori-finanzas/110977</v>
+      </c>
+      <c r="B47" t="str">
+        <v>SAP FIORI - Finanzas en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C47" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: SAP FIORI - Finanzas  Descripción del Trabajo Como Ingeniero de Software (SAP) en Fiori Full Stack Developer, esperamos que este desarrollador se una a nuestro equipo, siendo responsable de diseñar, desarrollar e implementar aplicaciones Fiori de extremo a extremo, integrando tanto los componentes de front-end como de back-end para mejorar la experiencia del usuario en nuestro sistema S/4HANA. Este rol requiere experiencia en SAP Fiori/UI5, ABAP, SAP S/4HANA y tecnologías relacionadas. El candidato ideal tendrá un sólido entendimiento del ciclo de vida completo de desarrollo, desde el diseño de la interfaz de usuario hasta la integración del back-end, y será responsable de crear aplicaciones Fiori SAP modernas, escalables y de alto rendimiento para mejorar la experiencia del usuario. Calificaciones Habilidades Técnicas Experiencia como desarrollador Fiori con un mínimo de 5 años de experiencia práctica en SAP Fiori Full Stack. Conocimiento en varios módulos de SAP e integración en proyectos de implementación a gran escala de SAP S/4. Experiencia comprobada en desarrollo Full Stack, con alta competencia en SAP Fiori/UI5, SAPUI5, JavaScript, HTML5, CSS y otras tecnologías modernas de front-end. Amplia experiencia en desarrollo de back-end utilizando ABAP, incluida la creación de servicios OData e integración con SAP S/4HANA. Experiencia en la configuración y administración de SAP Fiori Launchpad, incluida la creación de roles, tiles y navegación. Familiaridad con SAP Gateway, protocolos oData y RAP para integrar aplicaciones Fiori con sistemas SAP de back-end. Sólido entendimiento de APIs RESTful, servicios web y SAP Cloud Platform para integración y desarrollo basado en la nube. Experiencia con sistemas de control de versiones (por ejemplo, Git) y pipelines CI/CD para despliegue de aplicaciones. Fuertes habilidades para resolver problemas y experiencia en la resolución de problemas tanto en front-end como en back-end. Capacidad para desarrollar y mantener aplicaciones responsivas y fáciles de usar optimizadas para rendimiento. Excelentes habilidades de colaboración y comunicación, capaz de trabajar en equipos multifuncionales. Conocimiento de metodologías ágiles y experiencia trabajando en entornos ágiles. Calificaciones Preferidas: Experiencia con implementaciones de SAP S/4HANA e integración con aplicaciones Fiori. Familiaridad con ABAP Core Data Services (CDS) y Fiori Elements para crear modelos de back-end eficientes. Experiencia con SAP Cloud Platform o servicios en la nube para el despliegue de aplicaciones. Certificación en SAP Fiori es un plus. Ofrecemos: •     Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •   Vales de despensa por $3300,53  •   Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:        contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-databricks-senior-remoto/110967</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Desarrollador Databricks Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C48" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Databricks Modalidad Remota   Resumen del puesto Buscamos un desarrollador de Databricks con entre 5 y 9 años de experiencia para unirse a nuestro equipo. El candidato ideal tendrá experiencia en Spark en Scala, Databricks, Unity, administración del catálogo, Databricks, CLI, Apache Airflow, Amazon S3, Amazon Redshift, Python, Databricks, SQL, Databricks, Delta Lake, flujos de trabajo de Databricks y PySpark. El candidato también debe tener experiencia en gestión de fidelización de clientes. Este puesto es híbrido con turnos diurnos y sin necesidad de viajar. Responsabilidades • Desarrollar y mantener canales de datos utilizando Spark en Scala y la CLI de Databricks para garantizar un procesamiento e integración de datos eficientes. • Administrar el catálogo de Databricks en Unity para gestionar y proteger los activos de datos de forma eficaz. • Utilizar Apache Airflow para orquestar flujos de trabajo complejos y automatizar tareas de datos. • Implementar soluciones de almacenamiento de datos utilizando Amazon S3 y Amazon Redshift para garantizar la disponibilidad y fiabilidad de los datos. • Escribir y optimizar scripts de Python para diversas tareas de procesamiento de datos. • Aprovechar Databricks SQL para realizar análisis de datos y generar información para las partes interesadas del negocio. • Gestionar y optimizar Databricks Delta Lake para garantizar la consistencia y el rendimiento de los datos. • Diseñar e implementar flujos de trabajo de Databricks para optimizar las operaciones de datos y mejorar la productividad. • Desarrollar y mantener aplicaciones PySpark para procesar grandes conjuntos de datos de forma eficiente. • Colaborar con equipos multifuncionales para comprender los requisitos del negocio y traducirlos en soluciones técnicas. • Garantizar la calidad e integridad de los datos mediante la implementación de las mejores prácticas y la realización de auditorías periódicas. • Brindar soporte técnico y resolución de problemas relacionados con los datos. • Mantenerse al día con las últimas tendencias y tecnologías del sector para mejorar continuamente las soluciones de datos.   Requisitos • Imprescindible experiencia con Spark en Scala, Databricks, Unity, Catalog Admin, Databricks CLI, Apache Airflow, Amazon S3, Amazon Redshift, Python, Databricks SQL, Databricks Delta Lake, Databricks Workflows y PySpark. • Imprescindible experiencia en gestión de fidelización de clientes. • Se valorará la experiencia con otras herramientas y tecnologías de ingeniería de datos. • Debe poseer sólidas habilidades de resolución de problemas y capacidad para trabajar de forma independiente. • Debe poseer excelentes habilidades de comunicación y colaboración. • Debe tener un enfoque proactivo para aprender y mantenerse al día con las nuevas tecnologías.</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://hireline.io/remoto/empleos/video-devops-engineer-streaming-infrastructure-engineer-senior-remoto/111339</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Video DevOps Engineer - Streaming Infrastructure Engineer Senior - Remoto en Proceti Consultores</v>
+      </c>
+      <c r="C49" t="str">
+        <v>$ 70,000 a 80,000 MXN (Neto)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Becario de tiempo completo</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Remote or Hybrid | ️ Streaming Infrastructure | Edge Compute | ️ DevOps About this Role We’re looking for a Video DevOps Engineer with deep experience in building and maintaining low-latency streaming platforms . In this role, you'll work across media servers , network optimization , and infrastructure orchestration , enabling a highly available, scalable video delivery pipeline. You’ll collaborate with engineers across DevOps, backend and media streaming to ensure seamless ingest, encoding, and distribution of video content—from edge compute nodes to global audiences. If you’re passionate about building robust streaming systems and enjoy fine-tuning performance at both the media and infrastructure level, we want to hear from you. Key Responsibilities Design, configure and maintain Wowza Streaming Engine , including adaptive bitrate streaming and transcoding profiles Optimize video encoding pipelines using FFmpeg and GPU/CPU resources (e.g. NVENC) Implement low-latency streaming setups and best practices (HLS/DASH) Administer Linux servers (Ubuntu/Debian), manage services, automate tasks with shell scripting Monitor system performance with Prometheus/Grafana or similar tools Configure Fastly CDN , manage cache control headers and optimize edge delivery Secure streaming infrastructure (NAT, firewalls, stream access permissions) Support high-throughput network environments, including LAN tuning , NIC bonding , and remote access setups (e.g. Tailscale, Zerotier) Required Skills Strong experience with video streaming protocols (RTMP, RTSP, HLS, DASH) Hands-on experience with Wowza , FFmpeg , and GPU-based encoding Proficiency in Linux administration and network stack tuning Experience managing bare metal or edge compute systems Familiarity with Fastly CDN or similar (VCL is a strong plus) Experience with disk/network I/O optimization , service automation , and system provisioning Bonus Points (Nice to Have) Experience with OBS, WebRTC, WebSockets Familiarity with Docker, Ansible Ability to write internal tools using Python or Go Experience analyzing CDN logs and bandwidth optimization English Advanced + If this opportunity resonates with you, we'd love to hear from you.</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-funcional-workday-hcm-remoto/111092</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Consultor Funcional Workday HCM - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C50" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Consultor funcional Workday HCM Inglés conversacional obligatorio 100% remoto Buscamos un Arquitecto de Tecnología  con entre  8 y 10 años de experiencia  para unirse a nuestro equipo. El candidato ideal debe tener experiencia sólida en  PI/PECI, Workday Studio, API REST, transformación de documentos, Workday Security Essentials  y otras habilidades técnicas relacionadas con  Workday  . Este rol híbrido requiere un conocimiento profundo de  Workday HCM  y tecnologías asociadas para impulsar nuestros proyectos. Requisitos Experiencia comprobada en  PI/PECI  y  Workday Studio  . Dominio de  API REST  y transformación de documentos. Conocimiento de  Workday Security Essentials  y  Core Connector  . Experiencia en desarrollo de reportes y EIBs en Workday. Manejo fluido de  Workday HCM  y herramientas como  Postman  . Se valorará experiencia en el dominio de  Dispositivos / SPM  (Sales Performance Management). Responsabilidades Liderar el diseño e implementación de soluciones Workday para cumplir con los requerimientos del negocio. Supervisar la integración de Workday con otros sistemas utilizando  API REST  y  transformación de documentos  . Brindar experiencia técnica en  Workday Studio  y  Core Connector  para mejorar la funcionalidad del sistema. Desarrollar y mantener reportes en Workday y  EIBs  (Enterprise Interface Builder) para apoyar las operaciones del negocio. Garantizar la seguridad de las aplicaciones Workday implementando  Workday Security Essentials  . Colaborar con equipos multifuncionales para recopilar y analizar requerimientos para soluciones en Workday.</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://hireline.io/remoto/empleos/python-developer-remoto/111085</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Python Developer - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C51" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Python Developer Inglés conversacional obligatorio Esquema 100% remoto Estamos buscando un desarrollador con 5 a 8 años de experiencia en Python y SQL para unirse a nuestro equipo dinámico. El candidato ideal trabajará en un modelo híbrido contribuyendo al desarrollo y optimización de nuestras soluciones de software. Este papel es crucial para mejorar nuestras capacidades técnicas e impulsar la innovación.   Responsabilidades:   Desarrollar y mantener soluciones de software de alta calidad utilizando Python y SQL   Colabore con equipos multifuncionales para definir, diseñar y enviar nuevas funciones   Garantice el rendimiento, la calidad y la capacidad de respuesta de las aplicaciones   Identifique y corrija cuellos de botella y corrija errores</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-databricks-aws-senior-remoto/111075</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Data Engineer Databricks - AWS Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C52" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Data Engineer Databricks - AWS Ingles conversacional obligatorio 100% remoto Estamos buscando un  Desarrollador Databricks  con  entre 5 y 9 años de experiencia  para unirse a nuestro equipo.  Requisitos Experiencia obligatoria en: Spark en Scala Administración de Unity Catalog en Databricks Databricks CLI Apache Airflow Amazon S3 y Redshift Python Databricks SQL Delta Lake y Workflows en Databricks PySpark Experiencia comprobada en el dominio de  Gestión de Lealtad del Cliente  . Se valorará experiencia adicional en otras herramientas y tecnologías de ingeniería de datos. Fuertes habilidades de  resolución de problemas  y capacidad para trabajar de forma  autónoma  . Excelentes habilidades de  comunicación  y  colaboración  . Enfoque proactivo hacia el aprendizaje y actualización tecnológica constante.</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-funcional-workday-hcm-senior-remoto/111074</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Consultor funcional Workday HCM Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C53" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Consultor funcional Workday HCM Ingles conversacional obligatorio 100% remoto Buscamos un Arquitecto de Tecnología  con entre  8 y 10 años de experiencia  para unirse a nuestro equipo. El candidato ideal debe tener experiencia sólida en  PI/PECI, Workday Studio, API REST, transformación de documentos, Workday Security Essentials  y otras habilidades técnicas relacionadas con  Workday  . Este rol híbrido requiere un conocimiento profundo de  Workday HCM  y tecnologías asociadas para impulsar nuestros proyectos. Requisitos Experiencia comprobada en  PI/PECI  y  Workday Studio  . Dominio de  API REST  y transformación de documentos. Conocimiento de  Workday Security Essentials  y  Core Connector  . Experiencia en desarrollo de reportes y EIBs en Workday. Manejo fluido de  Workday HCM  y herramientas como  Postman  . Se valorará experiencia en el dominio de  Dispositivos / SPM  (Sales Performance Management). Responsabilidades Liderar el diseño e implementación de soluciones Workday para cumplir con los requerimientos del negocio. Supervisar la integración de Workday con otros sistemas utilizando  API REST  y  transformación de documentos  . Brindar experiencia técnica en  Workday Studio  y  Core Connector  para mejorar la funcionalidad del sistema. Desarrollar y mantener reportes en Workday y  EIBs  (Enterprise Interface Builder) para apoyar las operaciones del negocio. Garantizar la seguridad de las aplicaciones Workday implementando  Workday Security Essentials  . Colaborar con equipos multifuncionales para recopilar y analizar requerimientos para soluciones en Workday.</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-databricks-remoto/111069</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Data Engineer Databricks - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C54" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G54" t="str">
+        <v>apital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Data Engineer Databricks - AWS Ingles conversacional obligatorio 100% remoto Estamos buscando un  Desarrollador Databricks  con  entre 5 y 9 años de experiencia  para unirse a nuestro equipo.  Requisitos Experiencia obligatoria en: Spark en Scala Administración de Unity Catalog en Databricks Databricks CLI Apache Airflow Amazon S3 y Redshift Python Databricks SQL Delta Lake y Workflows en Databricks PySpark Experiencia comprobada en el dominio de  Gestión de Lealtad del Cliente  . Se valorará experiencia adicional en otras herramientas y tecnologías de ingeniería de datos. Fuertes habilidades de  resolución de problemas  y capacidad para trabajar de forma  autónoma  . Excelentes habilidades de  comunicación  y  colaboración  . Enfoque proactivo hacia el aprendizaje y actualización tecnológica constante.</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-funcional-workday-hcm/111052</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Consultor funcional Workday HCM en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C55" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Consultor funcional Workday HCM Ingles conversacional obligatorio 100% remoto Buscamos un Arquitecto de Tecnología con entre 8 y 10 años de experiencia para unirse a nuestro equipo. El candidato ideal debe tener experiencia sólida en PI/PECI, Workday Studio, API REST, transformación de documentos, Workday Security Essentials y otras habilidades técnicas relacionadas con Workday . Este rol híbrido requiere un conocimiento profundo de Workday HCM y tecnologías asociadas para impulsar nuestros proyectos. Requisitos Experiencia comprobada en PI/PECI y Workday Studio . Dominio de API REST y transformación de documentos. Conocimiento de Workday Security Essentials y Core Connector . Experiencia en desarrollo de reportes y EIBs en Workday. Manejo fluido de Workday HCM y herramientas como Postman . Se valorará experiencia en el dominio de Dispositivos / SPM (Sales Performance Management). Responsabilidades Liderar el diseño e implementación de soluciones Workday para cumplir con los requerimientos del negocio. Supervisar la integración de Workday con otros sistemas utilizando API REST y transformación de documentos . Brindar experiencia técnica en Workday Studio y Core Connector para mejorar la funcionalidad del sistema. Desarrollar y mantener reportes en Workday y EIBs (Enterprise Interface Builder) para apoyar las operaciones del negocio. Garantizar la seguridad de las aplicaciones Workday implementando Workday Security Essentials . Colaborar con equipos multifuncionales para recopilar y analizar requerimientos para soluciones en Workday. Diagnosticar y resolver problemas técnicos relacionados con Workday HCM y otros módulos de Workday. Realizar auditorías del sistema y ajustes de rendimiento regularmente para asegurar un funcionamiento óptimo. Brindar capacitación y soporte a los usuarios finales sobre funcionalidades de Workday y mejores prácticas. Participar en la planificación y ejecución de actualizaciones y parches de Workday. Desarrollar y mantener documentación técnica sobre configuraciones y personalizaciones de Workday. Ofrecemos: •       Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •     Prima vacacional del 50% • Aguinaldo a 24 días.  •     Vales de despensa por $3300,53  •     Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:          contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-databricks-aws-remoto/111049</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Data Engineer Databricks - AWS - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C56" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Data Engineer Databricks - AWS Ingles conversacional obligatorio 100% remoto Estamos buscando un Desarrollador Databricks con entre 5 y 9 años de experiencia para unirse a nuestro equipo.  Requisitos Experiencia obligatoria en: Spark en Scala Administración de Unity Catalog en Databricks Databricks CLI Apache Airflow Amazon S3 y Redshift Python Databricks SQL Delta Lake y Workflows en Databricks PySpark Experiencia comprobada en el dominio de Gestión de Lealtad del Cliente . Se valorará experiencia adicional en otras herramientas y tecnologías de ingeniería de datos. Fuertes habilidades de resolución de problemas y capacidad para trabajar de forma autónoma . Excelentes habilidades de comunicación y colaboración . Enfoque proactivo hacia el aprendizaje y actualización tecnológica constante. Capacidad para gestionar múltiples tareas y proyectos simultáneamente . Sólida comprensión de las mejores prácticas de seguridad y privacidad de datos . Experiencia previa trabajando en un modelo híbrido . Disponibilidad para trabajar en turno diurno . Atención al detalle y compromiso con la entrega de trabajo de alta calidad . Capacidad para rendir eficazmente en un entorno dinámico y de ritmo acelerado . Pasión por los datos y deseo de generar un impacto positivo en el éxito de la empresa y la sociedad. Responsabilidades Desarrollar y mantener pipelines de datos utilizando Spark con Scala y Databricks CLI para asegurar un procesamiento e integración de datos eficiente. Administrar Databricks Unity Catalog para gestionar y proteger los activos de datos de forma efectiva. Usar Apache Airflow para orquestar flujos de trabajo complejos y automatizar tareas de datos. Implementar soluciones de almacenamiento de datos con Amazon S3 y Amazon Redshift , asegurando disponibilidad y confiabilidad. Escribir y optimizar scripts en Python para respaldar diversas tareas de procesamiento de datos. Utilizar Databricks SQL para análisis de datos y generación de insights para los interesados del negocio. Gestionar y optimizar Databricks Delta Lake para asegurar la consistencia y el rendimiento de los datos. Diseñar e implementar Databricks Workflows para mejorar la productividad y eficiencia de las operaciones de datos. Desarrollar y mantener aplicaciones PySpark para procesar grandes volúmenes de datos de forma eficiente. Ofrecemos: •      Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:         contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-sap-fiori-remoto/111047</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Desarrollador SAP FIORI -Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C57" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP FIORI - Finanzas Ingles conversacional obligatorio 100% remoto Como Ingeniero de Software (SAP) especializado en Fiori Full Stack , esperamos que este desarrollador se una a nuestro equipo para diseñar, desarrollar e implementar aplicaciones Fiori de extremo a extremo, integrando tanto componentes front-end como back-end, con el objetivo de mejorar la experiencia del usuario en nuestro sistema SAP S/4HANA . Este rol requiere experiencia en SAP Fiori/UI5, ABAP, SAP S/4HANA y tecnologías relacionadas. El candidato ideal debe tener un sólido entendimiento del ciclo completo de desarrollo, desde el diseño de interfaces hasta la integración del back-end, y será responsable de crear aplicaciones SAP Fiori modernas, escalables y de alto rendimiento. Requisitos Técnicos: Experiencia como desarrollador Fiori con mínimo 5 años de experiencia práctica en desarrollo Full Stack SAP Fiori . Conocimiento en múltiples módulos SAP y desarrollo de integraciones dentro de proyectos de implementación de gran escala en SAP S/4HANA. Experiencia comprobada en desarrollo full stack, con alta competencia en SAP Fiori/UI5, SAPUI5, JavaScript, HTML5, CSS y tecnologías front-end modernas. Experiencia sólida en desarrollo back-end con ABAP , incluyendo el desarrollo de servicios OData e integración con SAP S/4HANA. Experiencia en configuración y gestión de SAP Fiori Launchpad , incluyendo creación de roles, tiles y navegación. Familiaridad con SAP Gateway , OData y el protocolo RAP para la integración de aplicaciones Fiori con sistemas SAP de back-end. Conocimiento sólido de APIs RESTful, servicios web y SAP Business Technology Platform (SAP BTP) para integración y desarrollo en la nube. Experiencia con sistemas de control de versiones (por ejemplo, Git ) y pipelines CI/CD para despliegue de aplicaciones. Buenas habilidades de resolución de problemas y experiencia solucionando errores tanto en front-end como en back-end. Capacidad para desarrollar y mantener aplicaciones responsivas, centradas en el usuario y optimizadas para el rendimiento . Excelentes habilidades de comunicación y colaboración, con capacidad para trabajar en equipos multidisciplinarios. Conocimiento de metodologías Agile y experiencia trabajando en entornos ágiles. Calificaciones deseables: Experiencia en implementaciones de SAP S/4HANA e integración con aplicaciones Fiori. Familiaridad con ABAP CDS (Core Data Services) y Fiori Elements para la creación de modelos de back-end eficientes. Experiencia con SAP BTP u otros servicios en la nube para despliegue de aplicaciones. Certificación en SAP Fiori es un plus. Ofrecemos: •      Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:         contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-fullstack-en-aws-junior-remoto/111479</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Desarrollador FullStack en AWS Junior - Remoto en It Seekers</v>
+      </c>
+      <c r="C58" t="str">
+        <v>$ 35,000 a 40,000 MXN (Neto)</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G58" t="str">
+        <v>It-Seekers empresa con más de 12 años en el área de tecnologías de la información, estamos en búsqueda de  Desarrollador FullStack en AWS, para proyecto de migración del sistema de conciliación. Requisitos : 2 a 3 años de experiencia. JS Python .Net AWS para desarrollo Pruebas unitarias Inglés Intermedio - Avanzado Deseables Integración de APIS BD Relacionales Kubernetes Funciones Lambda Forma parte de este gran equipo y comienza tu carrera profesional. ¡Queremos conocerte!</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-de-integracion-de-datos/111167</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Ingeniero de Integración de Datos en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C59" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Ingeniero de Integración de Datos Ingles conversacional obligatorio 100% remoto Estamos buscando un Administrador Senior con entre 6 y 10 años de experiencia para unirse a nuestro equipo. El candidato ideal debe tener experiencia en Informatica Cloud Scheduler , Informatica Cloud y Administración de Informatica .  Requisitos:   Experiencia sólida en  Informatica Cloud Scheduler ,  Informatica Cloud  y  Administración de Informatica .   Conocimiento profundo de procesos de integración de datos y ETL.   Excelentes habilidades para la resolución de problemas y diagnóstico técnico.   Experiencia brindando soporte a aplicaciones.   Habilidades de comunicación y colaboración sólidas para trabajar con equipos interdisciplinarios.   Valorable experiencia previa en soporte de aplicaciones en un dominio relevante.   Fuerte compromiso con la seguridad de los datos y el cumplimiento normativo.   Experiencia en actualizaciones y migraciones de sistemas.   Enfoque centrado en la entrega de resultados de alta calidad y la mejora continua. Responsabilidades: Administrar y supervisar los entornos de Informatica Cloud para garantizar un rendimiento y disponibilidad óptimos. Brindar soporte técnico y resolver problemas relacionados con Informatica Cloud Scheduler de manera oportuna. Implementar y mantener soluciones de Informatica Cloud que cumplan con los requisitos del negocio y mejoren los procesos de integración de datos. Monitorear el rendimiento del sistema y realizar mantenimientos regulares para asegurar la estabilidad y eficiencia de las plataformas de Informatica. Colaborar con equipos multifuncionales para diseñar e implementar flujos de trabajo y procesos de integración de datos. Desarrollar y aplicar buenas prácticas para la administración de Informatica Cloud y la gestión de datos. Realizar auditorías regulares del sistema y generar informes para rastrear el estado y las métricas de rendimiento. Capacitar y brindar soporte a los usuarios sobre las herramientas y funcionalidades de Informatica Cloud . Asegurar la seguridad de los datos y el cumplimiento de las políticas de la empresa y las normativas del sector. Participar en la planificación y ejecución de actualizaciones y migraciones del sistema. Colaborar en el desarrollo e implementación de planes de recuperación ante desastres para entornos de Informatica. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •   Vales de despensa por $3300,53  •   Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:            contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-python-remoto/111084</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Desarrollador Python - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C60" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Python Inglés conversacional obligatorio Esquema 100% remoto Estamos buscando un desarrollador con 5 a 8 años de experiencia en Python y SQL para unirse a nuestro equipo dinámico. El candidato ideal trabajará en un modelo híbrido contribuyendo al desarrollo y optimización de nuestras soluciones de software. Este papel es crucial para mejorar nuestras capacidades técnicas e impulsar la innovación.   Responsabilidades:   Desarrollar y mantener soluciones de software de alta calidad utilizando Python y SQL   Colabore con equipos multifuncionales para definir, diseñar y enviar nuevas funciones   Garantice el rendimiento, la calidad y la capacidad de respuesta de las aplicaciones   Identifique y corrija cuellos de botella y corrija errores</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-fiori-remoto/111067</v>
+      </c>
+      <c r="B61" t="str">
+        <v>SAP FIORI - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C61" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: SAP FIORI Forma de trabajo Remoto Descripción del puesto:  Como Ingeniero de Software (SAP) en Fiori Full Stack Developer, buscamos que este desarrollador se una a nuestro equipo. Será responsable del diseño, desarrollo e implementación de aplicaciones Fiori integrales, integrando componentes front-end y back-end para mejorar la experiencia del usuario en nuestro sistema S/4HANA. Este puesto requiere experiencia en SAP Fiori/UI5, ABAP, SAP S/4HANA y tecnologías relacionadas. El candidato ideal tendrá un sólido conocimiento del ciclo de vida completo del desarrollo, desde el diseño de la interfaz de usuario hasta la integración back-end, y será responsable de crear aplicaciones SAP Fiori modernas, escalables y de alto rendimiento para mejorar la experiencia del usuario.   Habilidades técnicas   Experiencia como Desarrollador Fiori con un mínimo de 5 años de experiencia práctica en SAP Fiori Full Stack. Conocimiento de varios módulos de SAP y desarrollo de integraciones, trabajando en proyectos de implementación de SAP S/4 a gran escala. Experiencia demostrada en desarrollo full-stack, con un sólido dominio de SAP Fiori/UI5, SAPUI5, JavaScript, HTML5, CSS y otras tecnologías front-end modernas. Sólida experiencia en desarrollo back-end con ABAP, incluyendo el desarrollo de servicios OData y la integración con SAP S/4HANA. Experiencia en la configuración y gestión de SAP Fiori Launchpad, incluyendo la creación de roles, mosaicos y navegación. Conocimiento de los protocolos SAP Gateway, oData y RAP para la integración de aplicaciones Fiori con sistemas back-end de SAP. Sólido conocimiento de las API RESTful, los servicios web y SAP Cloud Platform para la integración y el desarrollo en la nube. Experiencia con sistemas de control de versiones (p. ej., Git) y pipelines de CI/CD para la implementación de aplicaciones. Sólidas habilidades de resolución de problemas y experiencia en la resolución de problemas tanto front-end como back-end. Capacidad para desarrollar y mantener aplicaciones ágiles, intuitivas y optimizadas para un alto rendimiento. Excelentes habilidades de colaboración y comunicación, con capacidad para trabajar en equipos multifuncionales. Conocimiento de metodologías ágiles y experiencia trabajando en entornos ágiles. Requisitos deseables:   Experiencia en implementaciones de SAP S/4HANA e integración con aplicaciones Fiori. Familiaridad con ABAP Core Data Services (CDS) y Fiori Elements para crear modelos backend eficientes. Experiencia con SAP Cloud Platform u otros servicios en la nube para la implementación de aplicaciones. Se valorará la certificación en SAP Fiori.   Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •        Vales de despensa por $3300,53  •</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-fiori-senior-remoto/110968</v>
+      </c>
+      <c r="B62" t="str">
+        <v>SAP FIORI Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C62" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: SAP Fiori  Forma de trabajo Remoto Descripción del puesto:  Como Ingeniero de Software (SAP) en Fiori Full Stack Developer, buscamos que este desarrollador se una a nuestro equipo. Será responsable del diseño, desarrollo e implementación de aplicaciones Fiori integrales, integrando componentes front-end y back-end para mejorar la experiencia del usuario en nuestro sistema S/4HANA. Este puesto requiere experiencia en SAP Fiori/UI5, ABAP, SAP S/4HANA y tecnologías relacionadas. El candidato ideal tendrá un sólido conocimiento del ciclo de vida completo del desarrollo, desde el diseño de la interfaz de usuario hasta la integración back-end, y será responsable de crear aplicaciones SAP Fiori modernas, escalables y de alto rendimiento para mejorar la experiencia del usuario.   Habilidades técnicas   Experiencia como Desarrollador Fiori con un mínimo de 5 años de experiencia práctica en SAP Fiori Full Stack. Conocimiento de varios módulos de SAP y desarrollo de integraciones, trabajando en proyectos de implementación de SAP S/4 a gran escala. Experiencia demostrada en desarrollo full-stack, con un sólido dominio de SAP Fiori/UI5, SAPUI5, JavaScript, HTML5, CSS y otras tecnologías front-end modernas. Sólida experiencia en desarrollo back-end con ABAP, incluyendo el desarrollo de servicios OData y la integración con SAP S/4HANA. Experiencia en la configuración y gestión de SAP Fiori Launchpad, incluyendo la creación de roles, mosaicos y navegación. Conocimiento de los protocolos SAP Gateway, oData y RAP para la integración de aplicaciones Fiori con sistemas back-end de SAP. Sólido conocimiento de las API RESTful, los servicios web y SAP Cloud Platform para la integración y el desarrollo en la nube. Experiencia con sistemas de control de versiones (p. ej., Git) y pipelines de CI/CD para la implementación de aplicaciones. Sólidas habilidades de resolución de problemas y experiencia en la resolución de problemas tanto front-end como back-end. Capacidad para desarrollar y mantener aplicaciones ágiles, intuitivas y optimizadas para un alto rendimiento. Excelentes habilidades de colaboración y comunicación, con capacidad para trabajar en equipos multifuncionales. Conocimiento de metodologías ágiles y experiencia trabajando en entornos ágiles. Requisitos deseables:   Experiencia en implementaciones de SAP S/4HANA e integración con aplicaciones Fiori. Familiaridad con ABAP Core Data Services (CDS) y Fiori Elements para crear modelos backend eficientes. Experiencia con SAP Cloud Platform u otros servicios en la nube para la implementación de aplicaciones. Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50%</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-fiori-remoto/110961</v>
+      </c>
+      <c r="B63" t="str">
+        <v>SAP FIORI - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C63" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: SAP Fiori  Forma de trabajo Remoto Descripción del puesto:  Como Ingeniero de Software (SAP) en Fiori Full Stack Developer, buscamos que este desarrollador se una a nuestro equipo. Será responsable del diseño, desarrollo e implementación de aplicaciones Fiori integrales, integrando componentes front-end y back-end para mejorar la experiencia del usuario en nuestro sistema S/4HANA. Este puesto requiere experiencia en SAP Fiori/UI5, ABAP, SAP S/4HANA y tecnologías relacionadas. El candidato ideal tendrá un sólido conocimiento del ciclo de vida completo del desarrollo, desde el diseño de la interfaz de usuario hasta la integración back-end, y será responsable de crear aplicaciones SAP Fiori modernas, escalables y de alto rendimiento para mejorar la experiencia del usuario.   Habilidades técnicas   Experiencia como Desarrollador Fiori con un mínimo de 5 años de experiencia práctica en SAP Fiori Full Stack. Conocimiento de varios módulos de SAP y desarrollo de integraciones, trabajando en proyectos de implementación de SAP S/4 a gran escala. Experiencia demostrada en desarrollo full-stack, con un sólido dominio de SAP Fiori/UI5, SAPUI5, JavaScript, HTML5, CSS y otras tecnologías front-end modernas. Sólida experiencia en desarrollo back-end con ABAP, incluyendo el desarrollo de servicios OData y la integración con SAP S/4HANA. Experiencia en la configuración y gestión de SAP Fiori Launchpad, incluyendo la creación de roles, mosaicos y navegación. Conocimiento de los protocolos SAP Gateway, oData y RAP para la integración de aplicaciones Fiori con sistemas back-end de SAP. Sólido conocimiento de las API RESTful, los servicios web y SAP Cloud Platform para la integración y el desarrollo en la nube. Experiencia con sistemas de control de versiones (p. ej., Git) y pipelines de CI/CD para la implementación de aplicaciones. Sólidas habilidades de resolución de problemas y experiencia en la resolución de problemas tanto front-end como back-end. Capacidad para desarrollar y mantener aplicaciones ágiles, intuitivas y optimizadas para un alto rendimiento. Excelentes habilidades de colaboración y comunicación, con capacidad para trabajar en equipos multifuncionales. Conocimiento de metodologías ágiles y experiencia trabajando en entornos ágiles. Requisitos deseables:   Experiencia en implementaciones de SAP S/4HANA e integración con aplicaciones Fiori. Familiaridad con ABAP Core Data Services (CDS) y Fiori Elements para crear modelos backend eficientes. Experiencia con SAP Cloud Platform u otros servicios en la nube para la implementación de aplicaciones.</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://hireline.io/remoto/empleos/fiori-developer-remoto/110960</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Fiori Developer - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C64" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Fiori Developer Forma de trabajo Remoto Descripción del puesto:  Como Ingeniero de Software (SAP) en Fiori Full Stack Developer, buscamos que este desarrollador se una a nuestro equipo. Será responsable del diseño, desarrollo e implementación de aplicaciones Fiori integrales, integrando componentes front-end y back-end para mejorar la experiencia del usuario en nuestro sistema S/4HANA. Este puesto requiere experiencia en SAP Fiori/UI5, ABAP, SAP S/4HANA y tecnologías relacionadas. El candidato ideal tendrá un sólido conocimiento del ciclo de vida completo del desarrollo, desde el diseño de la interfaz de usuario hasta la integración back-end, y será responsable de crear aplicaciones SAP Fiori modernas, escalables y de alto rendimiento para mejorar la experiencia del usuario.   Habilidades técnicas   Experiencia como Desarrollador Fiori con un mínimo de 5 años de experiencia práctica en SAP Fiori Full Stack. Conocimiento de varios módulos de SAP y desarrollo de integraciones, trabajando en proyectos de implementación de SAP S/4 a gran escala. Experiencia demostrada en desarrollo full-stack, con un sólido dominio de SAP Fiori/UI5, SAPUI5, JavaScript, HTML5, CSS y otras tecnologías front-end modernas. Sólida experiencia en desarrollo back-end con ABAP, incluyendo el desarrollo de servicios OData y la integración con SAP S/4HANA. Experiencia en la configuración y gestión de SAP Fiori Launchpad, incluyendo la creación de roles, mosaicos y navegación. Conocimiento de los protocolos SAP Gateway, oData y RAP para la integración de aplicaciones Fiori con sistemas back-end de SAP. Sólido conocimiento de las API RESTful, los servicios web y SAP Cloud Platform para la integración y el desarrollo en la nube. Experiencia con sistemas de control de versiones (p. ej., Git) y pipelines de CI/CD para la implementación de aplicaciones. Sólidas habilidades de resolución de problemas y experiencia en la resolución de problemas tanto front-end como back-end. Capacidad para desarrollar y mantener aplicaciones ágiles, intuitivas y optimizadas para un alto rendimiento. Excelentes habilidades de colaboración y comunicación, con capacidad para trabajar en equipos multifuncionales. Conocimiento de metodologías ágiles y experiencia trabajando en entornos ágiles. Requisitos deseables:   Experiencia en implementaciones de SAP S/4HANA e integración con aplicaciones Fiori. Familiaridad con ABAP Core Data Services (CDS) y Fiori Elements para crear modelos backend eficientes. Experiencia con SAP Cloud Platform u otros servicios en la nube para la implementación de aplicaciones. Se valorará la certificación en SAP Fiori.   Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •      Vales de despensa por $3300,53  •      Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:      empleo (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-fiori-developer-remoto/111066</v>
+      </c>
+      <c r="B65" t="str">
+        <v>SAP FIORI Developer - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C65" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: SAP Fiori Developer Forma de trabajo Remoto Descripción del puesto:  Como Ingeniero de Software (SAP) en Fiori Full Stack Developer, buscamos que este desarrollador se una a nuestro equipo. Será responsable del diseño, desarrollo e implementación de aplicaciones Fiori integrales, integrando componentes front-end y back-end para mejorar la experiencia del usuario en nuestro sistema S/4HANA. Este puesto requiere experiencia en SAP Fiori/UI5, ABAP, SAP S/4HANA y tecnologías relacionadas. El candidato ideal tendrá un sólido conocimiento del ciclo de vida completo del desarrollo, desde el diseño de la interfaz de usuario hasta la integración back-end, y será responsable de crear aplicaciones SAP Fiori modernas, escalables y de alto rendimiento para mejorar la experiencia del usuario.   Habilidades técnicas   Experiencia como Desarrollador Fiori con un mínimo de 5 años de experiencia práctica en SAP Fiori Full Stack. Conocimiento de varios módulos de SAP y desarrollo de integraciones, trabajando en proyectos de implementación de SAP S/4 a gran escala. Experiencia demostrada en desarrollo full-stack, con un sólido dominio de SAP Fiori/UI5, SAPUI5, JavaScript, HTML5, CSS y otras tecnologías front-end modernas. Sólida experiencia en desarrollo back-end con ABAP, incluyendo el desarrollo de servicios OData y la integración con SAP S/4HANA. Experiencia en la configuración y gestión de SAP Fiori Launchpad, incluyendo la creación de roles, mosaicos y navegación. Conocimiento de los protocolos SAP Gateway, oData y RAP para la integración de aplicaciones Fiori con sistemas back-end de SAP. Sólido conocimiento de las API RESTful, los servicios web y SAP Cloud Platform para la integración y el desarrollo en la nube. Experiencia con sistemas de control de versiones (p. ej., Git) y pipelines de CI/CD para la implementación de aplicaciones. Sólidas habilidades de resolución de problemas y experiencia en la resolución de problemas tanto front-end como back-end. Capacidad para desarrollar y mantener aplicaciones ágiles, intuitivas y optimizadas para un alto rendimiento. Excelentes habilidades de colaboración y comunicación, con capacidad para trabajar en equipos multifuncionales. Conocimiento de metodologías ágiles y experiencia trabajando en entornos ágiles. Requisitos deseables:   Experiencia en implementaciones de SAP S/4HANA e integración con aplicaciones Fiori. Familiaridad con ABAP Core Data Services (CDS) y Fiori Elements para crear modelos backend eficientes. Experiencia con SAP Cloud Platform u otros servicios en la nube para la implementación de aplicaciones. Se valorará la certificación en SAP Fiori.   Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •        Vales de despensa por $3300,53  •</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://hireline.io/remoto/empleos/phyton-software-engineer/110966</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Phyton Software Engineer en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C66" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Phyton Software Engineer   Es esencial tener  dominio del inglés. Estamos buscando un Ingeniero de Software Sr. B2 con 5 a 7 años de experiencia para unirse a nuestro equipo dinámico. El candidato ideal tendrá experiencia en Python, AWS, desarrollo de APIs, Github y ReactJS. Se valorará experiencia en fabricación industrial.  Requisitos • Debe tener experiencia sólida en Python, AWS, desarrollo de APIs, Github y ReactJS. • Debe tener un  mínimo de 5 años  y un máximo de 7 años de experiencia relevante. • Se valorará experiencia en el dominio de la fabricación industrial. • Debe tener un dominio avanzado del inglés (leer/escribir/hablar). • Debe tener un sólido entendimiento de las mejores prácticas en desarrollo de software. • Debe tener excelentes habilidades de resolución de problemas y atención al detalle. • Debe ser capaz de trabajar de forma independiente y en equipo. • Debe tener fuertes habilidades de comunicación y colaboración. • Debe ser capaz de adaptarse a cambios en las prioridades y requisitos. • Debe tener experiencia con metodologías de desarrollo ágil. • Debe estar comprometido con el aprendizaje continuo y el desarrollo profesional. • Debe tener pasión por la tecnología y la innovación. Responsabilidades • Desarrollar y mantener soluciones de software de alta calidad utilizando Python, AWS, desarrollo de APIs, Github y ReactJS. • Colaborar con equipos multifuncionales para definir el diseño y la implementación de nuevas características. • Asegurar el rendimiento, la calidad y la capacidad de respuesta de las aplicaciones. • Identificar y corregir cuellos de botella y errores. • Ayudar a mantener la calidad del código, la organización y la automatización. • Participar en revisiones de código y proporcionar retroalimentación constructiva a los miembros del equipo. • Mantenerse actualizado con las últimas tendencias y tecnologías del sector para asegurar que nuestras soluciones sigan siendo competitivas. • Contribuir a la mejora continua del proceso de desarrollo. • Trabajar estrechamente con los gerentes de producto para entender los requisitos y traducirlos en especificaciones técnicas. • Proporcionar orientación técnica y mentoría a los desarrolladores junior. • Desarrollar y ejecutar pruebas unitarias e integradas para garantizar la calidad del software. • Documentar diseños de software y código para asegurar la mantenibilidad y el intercambio de conocimientos. • Comunicar de manera efectiva con los miembros del equipo y las partes interesadas para garantizar la alineación y la transparencia. Ofrecemos: •     Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año.</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://hireline.io/remoto/empleos/phyton-software-engineer/110963</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Phyton Software Engineer en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C67" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Phyton Software Engineer   Es esencial tener dominio del inglés. Estamos buscando un Ingeniero de Software Sr. B2 con 5 a 7 años de experiencia para unirse a nuestro equipo dinámico. El candidato ideal tendrá experiencia en Python, AWS, desarrollo de APIs, Github y ReactJS. Se valorará experiencia en fabricación industrial.  Requisitos • Debe tener experiencia sólida en Python, AWS, desarrollo de APIs, Github y ReactJS. • Debe tener un mínimo de 5 años y un máximo de 7 años de experiencia relevante. • Se valorará experiencia en el dominio de la fabricación industrial. • Debe tener un dominio avanzado del inglés (leer/escribir/hablar). • Debe tener un sólido entendimiento de las mejores prácticas en desarrollo de software. • Debe tener excelentes habilidades de resolución de problemas y atención al detalle. • Debe ser capaz de trabajar de forma independiente y en equipo. • Debe tener fuertes habilidades de comunicación y colaboración. • Debe ser capaz de adaptarse a cambios en las prioridades y requisitos. • Debe tener experiencia con metodologías de desarrollo ágil. • Debe estar comprometido con el aprendizaje continuo y el desarrollo profesional. • Debe tener pasión por la tecnología y la innovación. Responsabilidades • Desarrollar y mantener soluciones de software de alta calidad utilizando Python, AWS, desarrollo de APIs, Github y ReactJS. • Colaborar con equipos multifuncionales para definir el diseño y la implementación de nuevas características. • Asegurar el rendimiento, la calidad y la capacidad de respuesta de las aplicaciones. • Identificar y corregir cuellos de botella y errores. • Ayudar a mantener la calidad del código, la organización y la automatización. • Participar en revisiones de código y proporcionar retroalimentación constructiva a los miembros del equipo. • Mantenerse actualizado con las últimas tendencias y tecnologías del sector para asegurar que nuestras soluciones sigan siendo competitivas. • Contribuir a la mejora continua del proceso de desarrollo. • Trabajar estrechamente con los gerentes de producto para entender los requisitos y traducirlos en especificaciones técnicas. • Proporcionar orientación técnica y mentoría a los desarrolladores junior. • Desarrollar y ejecutar pruebas unitarias e integradas para garantizar la calidad del software. • Documentar diseños de software y código para asegurar la mantenibilidad y el intercambio de conocimientos. • Comunicar de manera efectiva con los miembros del equipo y las partes interesadas para garantizar la alineación y la transparencia. Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  •  Vales de despensa por $3300,53  •  Apoyo monetario en caso de que trabajes desde Home Office. • Bono anual por desempeño Si te encuentras interesado, manda tu CV a:      contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-etl-senior-remoto/111213</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Data Engineer ETL Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C68" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Data Engineer Inglés conversacional obligatorio Para laborar en Remoto Resumen del puesto Buscamos un/a Desarrollador/a Senior con entre 8 y 10 años de experiencia para unirse a nuestro equipo. El/La candidato/a ideal tendrá experiencia en SQL, Unix Shell Scripting, conceptos de almacenamiento de datos, fundamentos de programación, ETL, integración de datos, PL/SQL e IBM Infosphere Datastage. Este puesto híbrido requiere una sólida formación técnica y la capacidad de trabajar en colaboración en un entorno dinámico. Responsabilidades • Desarrollar y mantener procesos ETL para dar soporte a soluciones de integración y almacenamiento de datos. • Diseñar e implementar modelos de datos para garantizar un almacenamiento y recuperación de datos eficientes. • Colaborar con equipos multifuncionales para recopilar y analizar los requisitos del negocio. • Optimizar las consultas SQL y el código PL/SQL para mejorar el rendimiento y la escalabilidad. • Crear y gestionar Unix Shell Scripts para tareas de automatización y procesamiento de datos. • Garantizar la calidad e integridad de los datos mediante rigurosas pruebas y validaciones. • Supervisar y solucionar problemas de trabajos ETL y pipelines de datos para garantizar un funcionamiento fluido. • Proporcionar soporte técnico y orientación a desarrolladores/as junior y miembros del equipo. • Documentar las especificaciones técnicas y mantener una documentación completa del proyecto. • Participar en revisiones de código para garantizar el cumplimiento de las mejores prácticas y los estándares de codificación. • Implementar los fundamentos de la programación para automatizar y optimizar los flujos de trabajo de datos. • Utilizar IBM Infosphere Datastage para tareas de integración y transformación de datos. • Mantenerse al día con las últimas tendencias y tecnologías del sector para impulsar la mejora continua. Requisitos • Sólidos conocimientos de SQL y PL/SQL para la gestión y el desarrollo de bases de datos. • Amplia experiencia con Unix Shell Scripting para la automatización y el procesamiento de datos. • Demostrar un profundo conocimiento de los conceptos de almacenamiento de datos y los procesos ETL. • Demostrar dominio de IBM Infosphere Datastage para la integración y transformación de datos. • Demostrar conocimientos de los fundamentos de la programación para automatizar los flujos de trabajo de datos.</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-etl-remoto/111212</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Data Engineer ETL - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C69" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Data Engineer Inglés conversacional obligatorio Para laborar en Remoto Resumen del puesto Buscamos un/a Desarrollador/a Senior con entre 8 y 10 años de experiencia para unirse a nuestro equipo. El/La candidato/a ideal tendrá experiencia en SQL, Unix Shell Scripting, conceptos de almacenamiento de datos, fundamentos de programación, ETL, integración de datos, PL/SQL e IBM Infosphere Datastage. Este puesto híbrido requiere una sólida formación técnica y la capacidad de trabajar en colaboración en un entorno dinámico. Responsabilidades • Desarrollar y mantener procesos ETL para dar soporte a soluciones de integración y almacenamiento de datos. • Diseñar e implementar modelos de datos para garantizar un almacenamiento y recuperación de datos eficientes. • Colaborar con equipos multifuncionales para recopilar y analizar los requisitos del negocio. • Optimizar las consultas SQL y el código PL/SQL para mejorar el rendimiento y la escalabilidad. • Crear y gestionar Unix Shell Scripts para tareas de automatización y procesamiento de datos. • Garantizar la calidad e integridad de los datos mediante rigurosas pruebas y validaciones. • Supervisar y solucionar problemas de trabajos ETL y pipelines de datos para garantizar un funcionamiento fluido. • Proporcionar soporte técnico y orientación a desarrolladores/as junior y miembros del equipo. • Documentar las especificaciones técnicas y mantener una documentación completa del proyecto. • Participar en revisiones de código para garantizar el cumplimiento de las mejores prácticas y los estándares de codificación. • Implementar los fundamentos de la programación para automatizar y optimizar los flujos de trabajo de datos. • Utilizar IBM Infosphere Datastage para tareas de integración y transformación de datos. • Mantenerse al día con las últimas tendencias y tecnologías del sector para impulsar la mejora continua. Requisitos • Sólidos conocimientos de SQL y PL/SQL para la gestión y el desarrollo de bases de datos. • Amplia experiencia con Unix Shell Scripting para la automatización y el procesamiento de datos. • Demostrar un profundo conocimiento de los conceptos de almacenamiento de datos y los procesos ETL. • Demostrar dominio de IBM Infosphere Datastage para la integración y transformación de datos. • Demostrar conocimientos de los fundamentos de la programación para automatizar los flujos de trabajo de datos. • Contar con una trayectoria demostrada en la optimización de consultas SQL y código PL/SQL para el rendimiento. • Demostrar sólidas habilidades analíticas y de resolución de problemas para resolver problemas de datos. • Poseer excelentes habilidades de comunicación y colaboración para trabajar eficazmente con equipos multifuncionales. • Demostrar atención al detalle y compromiso con la entrega de soluciones de alta calidad. • Demostrar capacidad para documentar especificaciones técnicas y mantener la documentación del proyecto. • Mantenerse al día con las tendencias y tecnologías del sector para impulsar la mejora continua. • Brindar soporte técnico y orientación a desarrolladores júnior y miembros del equipo. • Tener una actitud proactiva para aprender y adaptarse a nuevas tecnologías y metodologías. Ofrecemos: •     Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •     Prima vacacional del 50% • Aguinaldo a 24 días.  •     Vales de despensa por $3300,53  •     Apoyo monetario en caso de que trabajes desde Home Office.</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-databricks-remoto/110959</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Desarrollador Databricks - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C70" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Databricks Modalidad Remota   Resumen del puesto Buscamos un desarrollador de Databricks con entre 5 y 9 años de experiencia para unirse a nuestro equipo. El candidato ideal tendrá experiencia en Spark en Scala, Databricks, Unity, administración del catálogo, Databricks, CLI, Apache Airflow, Amazon S3, Amazon Redshift, Python, Databricks, SQL, Databricks, Delta Lake, flujos de trabajo de Databricks y PySpark. El candidato también debe tener experiencia en gestión de fidelización de clientes. Este puesto es híbrido con turnos diurnos y sin necesidad de viajar. Responsabilidades • Desarrollar y mantener canales de datos utilizando Spark en Scala y la CLI de Databricks para garantizar un procesamiento e integración de datos eficientes. • Administrar el catálogo de Databricks en Unity para gestionar y proteger los activos de datos de forma eficaz. • Utilizar Apache Airflow para orquestar flujos de trabajo complejos y automatizar tareas de datos. • Implementar soluciones de almacenamiento de datos utilizando Amazon S3 y Amazon Redshift para garantizar la disponibilidad y fiabilidad de los datos. • Escribir y optimizar scripts de Python para diversas tareas de procesamiento de datos. • Aprovechar Databricks SQL para realizar análisis de datos y generar información para las partes interesadas del negocio. • Gestionar y optimizar Databricks Delta Lake para garantizar la consistencia y el rendimiento de los datos. • Diseñar e implementar flujos de trabajo de Databricks para optimizar las operaciones de datos y mejorar la productividad. • Desarrollar y mantener aplicaciones PySpark para procesar grandes conjuntos de datos de forma eficiente. • Colaborar con equipos multifuncionales para comprender los requisitos del negocio y traducirlos en soluciones técnicas. • Garantizar la calidad e integridad de los datos mediante la implementación de las mejores prácticas y la realización de auditorías periódicas. • Brindar soporte técnico y resolución de problemas relacionados con los datos. • Mantenerse al día con las últimas tendencias y tecnologías del sector para mejorar continuamente las soluciones de datos.   Requisitos • Imprescindible experiencia con Spark en Scala, Databricks, Unity, Catalog Admin, Databricks CLI, Apache Airflow, Amazon S3, Amazon Redshift, Python, Databricks SQL, Databricks Delta Lake, Databricks Workflows y PySpark. • Imprescindible experiencia en gestión de fidelización de clientes. • Se valorará la experiencia con otras herramientas y tecnologías de ingeniería de datos. • Debe poseer sólidas habilidades de resolución de problemas y capacidad para trabajar de forma independiente. • Debe poseer excelentes habilidades de comunicación y colaboración. • Debe tener un enfoque proactivo para aprender y mantenerse al día con las nuevas tecnologías. • Debe tener la capacidad de gestionar múltiples tareas y proyectos simultáneamente. • Debe tener un sólido conocimiento de las mejores prácticas de seguridad y privacidad de datos. • Debe tener experiencia trabajando en un modelo de trabajo híbrido. • Debe tener la capacidad de trabajar en turnos diurnos. • Debe tener una gran atención al detalle y un compromiso con la entrega de un trabajo de alta calidad. • Debe tener la capacidad de trabajar eficazmente en un entorno dinámico y dinámico. • Debe tener pasión por los datos y el deseo de generar un impacto positivo en el éxito de la empresa y la sociedad.   Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •      Vales de despensa por $3300,53  •      Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:      empleo (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-azure-senior-remoto/111219</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Desarrollador Azure Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C71" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Desarrollador Azure Ingles conversacional obligatorio Para laborar en remoto Resumen del Puesto: Estamos en búsqueda de un  Ingeniero en la Nube con experiencia en Azure  , con  entre 8 y 12 años de experiencia  , para unirse a nuestro equipo dinámico. Este rol híbrido requiere una mentalidad estratégica, capaz de liderar equipos y entregar soluciones de software de alta calidad.  Ubicación preferida:  Ciudad de México o Guadalajara. Responsabilidades: Configurar recursos de Azure, incluyendo máquinas virtuales, cuentas de almacenamiento y componentes de red. Usar  Azure Monitor  ,  Log Analytics  y  Application Insights  para monitorear el rendimiento y la salud de los servicios de Azure. Implementar y gestionar soluciones de respaldo para recursos de Azure usando  Azure Backup  y  Site Recovery  . Configurar y administrar redes virtuales, subredes y grupos de seguridad de red (NSG). Gestionar cuentas de almacenamiento en Azure:  Blob  ,  File  ,  Queue  y  Table Storage  . Configurar y administrar  Load Balancers  y  Application Gateways  . Configurar soluciones de registro usando  Log Analytics  y  Azure Monitor  . Realizar planeación de capacidad para asegurar que los recursos cubran la demanda actual y futura. Implementar medidas de ahorro de costos y optimización del uso de recursos. Ejecutar la gestión de parches. Habilidades clave: .NET</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-azure/111190</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Desarrollador Azure en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C72" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Desarrollador Azure Ingles conversacional obligatorio Para laborar en remoto Resumen del Puesto: Estamos en búsqueda de un Ingeniero en la Nube con experiencia en Azure , con entre 8 y 12 años de experiencia , para unirse a nuestro equipo dinámico. Este rol híbrido requiere una mentalidad estratégica, capaz de liderar equipos y entregar soluciones de software de alta calidad.  Ubicación preferida: Ciudad de México o Guadalajara. Responsabilidades: Configurar recursos de Azure, incluyendo máquinas virtuales, cuentas de almacenamiento y componentes de red. Usar Azure Monitor , Log Analytics y Application Insights para monitorear el rendimiento y la salud de los servicios de Azure. Implementar y gestionar soluciones de respaldo para recursos de Azure usando Azure Backup y Site Recovery . Configurar y administrar redes virtuales, subredes y grupos de seguridad de red (NSG). Gestionar cuentas de almacenamiento en Azure: Blob , File , Queue y Table Storage . Configurar y administrar Load Balancers y Application Gateways . Configurar soluciones de registro usando Log Analytics y Azure Monitor . Realizar planeación de capacidad para asegurar que los recursos cubran la demanda actual y futura. Implementar medidas de ahorro de costos y optimización del uso de recursos. Ejecutar la gestión de parches. Habilidades clave: .NET App Services Application Gateway Application Insights Azure Workbook Azure Cache for Redis Cloud Services Data Factory Event Hub Azure Function App Key Vault Load Balancer Search Service SQL Database SQL Server Blob Storage SQL Virtual Machines Azure Databricks Python Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:             contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-de-software-python-remoto/110958</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Ingeniero de Software Python - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C73" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Ingeniero de Software en Python Esquema de trabajo Remoto   Resumen del puesto Buscamos un Ingeniero de Software Sénior B2 con 5 a 7 años de experiencia para unirse a nuestro dinámico equipo. El candidato ideal tendrá experiencia en desarrollo de API de Python en AWS, Github y ReactJS. Se valorará la experiencia en fabricación industrial. Se trata de un puesto híbrido con turnos diurnos y sin necesidad de viajar. Se requiere dominio del inglés.   Responsabilidades • Desarrollar y mantener soluciones de software de alta calidad utilizando Phyton AWS API Development Github ReactJS • Colaborar con equipos multifuncionales para definir el diseño y lanzar nuevas funcionalidades • Garantizar la calidad del rendimiento y la capacidad de respuesta de las aplicaciones • Identificar y corregir cuellos de botella y corregir errores • Ayudar a mantener la organización y la automatización de la calidad del código • Participar en revisiones de código y brindar retroalimentación constructiva a los miembros del equipo • Mantenerse al día con las últimas tendencias y tecnologías de la industria para garantizar que nuestras soluciones sigan siendo competitivas • Contribuir a la mejora continua del proceso de desarrollo • Trabajar en estrecha colaboración con los gerentes de producto para comprender los requisitos y traducirlos en especificaciones técnicas • Brindar orientación técnica y mentoría a desarrolladores junior • Desarrollar y ejecutar pruebas unitarias y de integración para garantizar la calidad del software • Documentar los diseños de software y el código para garantizar la mantenibilidad y el intercambio de conocimientos • Comunicarse eficazmente con los miembros del equipo y las partes interesadas para garantizar la alineación y la transparencia   Cualificaciones • • Debe tener una sólida experiencia en Phyton AWS API Development Github ReactJS • Debe tener un mínimo de 5 años y un máximo de 7 años de experiencia relevante Experiencia • Se valorará la experiencia en el sector de la fabricación industrial. • Dominio del inglés (lectura, escritura y habla). • Sólidos conocimientos de las mejores prácticas de desarrollo de software. • Capacidad para trabajar en un modelo de trabajo híbrido con turnos diurnos. • Excelentes habilidades de resolución de problemas y atención al detalle. • Capacidad para trabajar de forma independiente y en equipo. • Sólidas habilidades de comunicación y colaboración. • Capacidad de adaptación a prioridades y requisitos cambiantes. • Experiencia con metodologías de desarrollo ágil. • Compromiso con el aprendizaje continuo y el desarrollo profesional. • Pasión por la tecnología y la innovación. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •      Vales de despensa por $3300,53  •      Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:    emple o (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-oracle-plsql-senior-remoto/110849</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Desarrollador Oracle PL/SQL Senior - Remoto en ALTUMTI</v>
+      </c>
+      <c r="C74" t="str">
+        <v>$ 25,000 a 30,000 MXN (Bruto)</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Actividades de ciclo completo de desarrollo: Planeación de actividades Análisis  de requerimientos Diseño  de aplicaciones de software Programación  de aplicaciones Software con Oracle Forms y PL/SQL Pruebas  de calidad utilizando Metodologías Habilidades de Liderazgo, Administración de tareas y Comunicación con usuarios   Herramientas: Oracle Forms Oracle PL/SQL Senior Consultas y diseño de Datos Oracle .Net C# (deseable) Github Visio, Balsamiq o cualquier herramienta de diseño de formas y/o maquetación. Conexión con APIs y Web Services, uso de Json y XML Jira (deseable) AWS Básico (deseable)</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://hireline.io/remoto/empleos/technical-lead-sso-ping-senior-remoto/111724</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Technical Lead SSO-Ping Senior - Remoto en Global Delivery Center Capgemini</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Technical Lead SSO – Ping SSO/ IAM professional with a 3+ years of experience in PING and deep-level expertise in web security, software development, knowledge of access governance, identity management, federation and IAM solutions. In addition to having strong technical skills, you must be comfortable in effectively communicating with business end-users, technical IT teams, business partners, network providers, and business process outsourced vendors, all while being sensitive to a wide diversity of cultural and technical backgrounds in a global business environment. Experience At least 12+ years of overall IAM experience, and at least 3+ years of experience on Ping Identity Suite of products. Job Requirements: • Extensive hands-on experience with identity and access management and Ping Identity Suite of products. • Leadership and offshore coordination experience. • Prior experience in some relevant position, preferably as an SSO professional to define process, design, and implementation strategy for onboarding enterprise applications, IAM platform enchantments etc. • Expertise in IAM industry standards and enterprise architecture &amp; API security design. • Solid knowledge of all web technologies, especially web services, web applications, Service-Oriented Architectures, and network/web protocols • Should have a good understanding of Identity and Access Management platform framework and functions. Should have good understanding and hands-on experience with Ping Suite of products such as PingFederate, PingAccess, PingDirectory, PingOne for Customers. • Should have good experience with Designing, Implementing, supporting, and maintaining of Ping Identity SSO platform. • Experience in leading workshops/discussions with customer, customer team(s) and vendor team(s) for issues, platform enchantment, design etc. • Demonstrated excellent project/program management experience. • Experience in software development in following programming languages, Java, SQL, and JavaScript • Experience with security protocols such as LDAP-S, SAML, WS-Federation, SCIM, OAuth, and OIDC • Sound knowledge of all procedures, standards, and regulations for authorization and authentication. • An analytical mind with a problem-solving attitude • Candidates should be flexible / willing to work across this delivery landscape which includes and not limited to Agile Applications Development, Support and Deployment. • Excellent organizational and communication skills. Soft Skills: • Leadership &amp; offshore coordination • Good collaboration &amp; communication skills, the ability to participate in an interdisciplinary team. • Strong written communications and documentation experience • Excellent time management and organizational management skills • Able to be a technical lead, onsite coordinator, and SME to customer and offshore team. • Demonstrated experience with working with and directing an offshore team. • Demonstrated communication skills to interact with internal/external users and stakeholders Must have hands-on experience with: • PingFederate • PingAccess • PingOne for customer • PingDirectory, PingDirectory Sync • PingID Optional Skill • J2EE &amp; javascript • DB / SQL • apigee Knowledge of • Networking • Splunk • Github Bonus to having work experience with or knowledge of: • PingOne Advanced Services** About Capgemini Group Capgemini is a global leader in partnering with companies to transform and manage their business by harnessing the power of technology. The Group is guided everyday by its purpose of unleashing human energy through technology for an inclusive and sustainable future. It is a responsible and diverse organization of over 300,000 team members in nearly 50 countries. With its strong 50-year heritage and deep industry expertise, Capgemini is trusted by its clients to address the entire breadth of their business needs, from strategy and design to operations, fueled by the fast evolving and innovative world of cloud, data, AI, connectivity, software, digital engineering and platforms.   At Capgemini Mexico, we aim to attract the best talent and are committed to creating a diverse and inclusive work environment, so there is no discrimination based on race, sex, sexual orientation, gender identity or expression, or any other characteristic of a person. All applications welcome and will be considered based on merit against the job and/or experience for the position.</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://hireline.io/remoto/empleos/azure-api-developer-senior-remoto/110853</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Azure API Developer Senior - Remoto en Adecco</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Azure API Developer   -Advanced English   -5+ years within azure and managing APIs. -  Focus on Azure API Management and API Gateways.    -Azure API Guru -Assess, Fix, Operationalize their Azure API (API Mgmt and API gateways).     -  Secondary skill set: .NET development</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-sme-solarwindsbilingue-senior-remoto/111659</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Ingeniero SME Solarwinds/Bilingue Senior - Remoto en Soluciones Servinext</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G77" t="str">
+        <v>SOLICITAMOS INGENIERO CON EXPERIENCIA EN SOLARWINDS Conocimientos: Experiencia de 2 años administrando un sistema de monitoreo Solarwinds puntualmente en el módulo NPM. Capaz de realizar la programación de alertas condicionales en el sistema de monitoreo Solarwinds NPM. Capaz de realizar la programación para cálculo de disponibilidad de una red de datos usando la programación de algoritmos específicos en Solarwinds NPM. Experiencia de 2 años en configuraciones avanzadas de los módulos de PerfStack, NetPath y AppStack. Experiencia de 2 años administrando procesos relacionados con base de datos Microsoft SQL de un sistema de Solarwinds NPM. Debe tener habilidades: Inglés: 50% Conversaciones simples Técnicas.  Habilidad para identificar fallas críticas  en configuraciones del sistema de monitoreo Solarwinds NPM para redes de datos.  Habilidad para configurar alertas condicionales complejas en solarwinds.  Alto grado de sentido de responsabilidad y trabajo eficiente sin requerir supervisión directa. Amplia habilidad de expresión oral avanzada;  en juntas críticas y habilidad para manejo del cliente. Facilidad para viajar.  Amplias habilidades de relacionamiento, comunicación hacia el interior y exterior de la organización.  Trabajo en equipo para la ejecución de sus funciones. Capacidad de producir y cumplir con la documentación: Visio, Planes de proyectos, Análisis de causa raíz, etc. Escolaridad: Licenciatura / Ingeniería en Sistemas Ingeniería en Telecomunicaciones Ingeniería en Telemática Certificado como Solarwinds Certified Professional (SCP) emitida por el fabricante Solarwinds. INFORMACIÓN ADICIONAL: sueldo competitivo  Prestaciones de ley Pagos quincenales Home office y presencial</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://hireline.io/remoto/empleos/mid-sr-front-end-developer/77322</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Mid-Sr Front-End Developer en Quo Digital</v>
+      </c>
+      <c r="C78" t="str">
+        <v>$ 35,000 a 40,000 MXN (Neto)</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G78" t="str">
+        <v>+ 3 años de experiencia  Inglés básico-intermedio Actividades: Trabajar en colaboración con el equipo de desarrollo backend para asegurar la correcta implementación de datos y funcionalidad de los productos web. Revisión, detección y solución de problemas (frontend) en desarrollos web. Integrar diseños y requerimientos de negocio para la creación de plataformas web. Planear, priorizar y manejar carga de trabajo con múltiples proyectos. Revisión y asimilación de estándares y lineamientos QA. Conocimientos indispensables: Conocimiento de diseño web básico. Javascript: HTML y CSS React js Next js Node js AWS</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://hireline.io/remoto/empleos/soportesupport-demand-planning-processes-remoto/111026</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Soporte/Support Demand Planning Processes - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C79" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Si te apasiona la tecnología y crees que tienes las habilidades y capacidades necesarias para unirte al equipo, Capital Empresarial Horizonte es una empresa mexicana líder en Recursos Humanos y Tecnologías de la Información. Nos enorgullecemos de fomentar un ambiente de trabajo colaborativo y dinámico donde la innovación y el desarrollo profesional son altamente valorados. Buscamos:   Support Demand Planning Processes   Descripción del puesto: Buscamos un Analista de Inventario para unirse a nuestro equipo de Operaciones del Centro de Datos. Este puesto es crucial para garantizar la disponibilidad de repuestos y optimizar nuestros niveles de inventario. Este puesto desempeña un papel clave dentro de la cadena de suministro, especialmente en empresas que gestionan inventarios, producción o distribución de productos.   Responsabilidades del puesto: Update and maintain Min/Max levels for all DCOps Spare parts Update demand requests in forecast automation google sheet Monitor demand for buffer stock based on material receipt status   ***Si tienes experiencia reciente en este puesto o uno similar, indícalo en tu currículum y postúlate***   Requisitos del puesto: Trabajo completamente remoto Este puesto se realiza íntegramente en inglés; la entrevista se realizará en inglés. Vacante para mexicanos/nacionalizados Mínimo 4 años de experiencia en puestos similares recientes Ingeniería/Licenciatura en informática o computación con título universitario     Habilidades requeridas: Experiencia previa en gestión de inventario o logística. Conocimiento avanzado de hojas de cálculo de Google y herramientas de automatización. Excelentes habilidades de comunicación y organización. Conocimiento de planificación de la demanda Gestión de herramientas de planificación   Ofrecemos: Salario bruto de $50,000 MXN (máximo) al mes + prestaciones de ley Horario: Lunes a viernes de 9:00 a. m. a 6:00 p. m. y sábados de 9:00 a. m. a 2:00 p. m. Ambiente de trabajo colaborativo y dinámico.   **¡Únete a Capital Empresarial Horizonte y forma parte de un equipo que valora la innovación y el crecimiento profesional! ¡Aprovecha esta oportunidad y asegura tu puesto!**</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://hireline.io/remoto/empleos/soportesupport-esc-sourcing-process-remoto/111025</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Soporte/Support ESC Sourcing Process - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C80" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Si te apasiona la tecnología y crees que tienes las habilidades y capacidades necesarias para unirte al equipo, Capital Empresarial Horizonte es una empresa mexicana líder en Recursos Humanos y Tecnologías de la Información. Nos enorgullecemos de fomentar un ambiente de trabajo colaborativo y dinámico donde la innovación y el desarrollo profesional son altamente valorados. Buscamos:   Support ESC Sourcing Process   Descripción del puesto: Buscamos un Analista de Inventario para unirse a nuestro equipo de Operaciones del Centro de Datos. El objetivo de este puesto es brindar apoyo en la ejecución y supervisión de los procesos de adquisición técnica, centrándose principalmente en materiales, servicios o repuestos utilizados en proyectos de ingeniería, mantenimiento o fabricación. Este puesto colabora con compradores, ingenieros, proveedores y equipos de planificación para garantizar la eficiencia de los procesos, el cumplimiento de las políticas y la disponibilidad oportuna de los recursos.   Responsabilidades del puesto: Monitor and report commercial award validity Identify parts for quoting by commodity &amp; manufacturer Manage Sourcing Rule change requests Pull data and populate Supplier Review slides for business reviews Update supplier management files to reflect open/closed orders &amp; delivery performance   Si tienes experiencia reciente en este puesto o en uno similar, indícalo en tu currículum y postúlate.   Requisitos del puesto: Trabajo completamente remoto Este puesto se imparte íntegramente en inglés; la entrevista se realizará en inglés. Vacante para mexicanos/nacionalizados Mínimo 4 años de experiencia en puestos similares recientes Ingeniería/Licenciatura en informática o Computación con título universitario   Habilidades requeridas: Conocimientos básicos de los procesos de compras, adquisiciones o abastecimiento técnico. Conocimiento de herramientas ERP Manejo de Excel intermedio/avanzado Deseable: Conocimiento de bases de datos, Power BI u otras herramientas analíticas.   Habilidades deseadas: Organización, precisión y atención al detalle. Habilidades de comunicación para trabajar con equipos internos y proveedores. Capacidad para priorizar tareas y cumplir plazos en entornos dinámicos. Pensamiento analítico para interpretar presupuestos, comparar opciones e identificar oportunidades.   Habilidades blandas: Comunicación efectiva Trabajo en equipo y colaboración Pensamiento analítico y resolución de problemas Organización y gestión del tiempo   Ofrecemos: Salario bruto de $50,000 MXN mensuales + prestaciones de ley Horario: Lunes a viernes de 9:00 a. m. a 6:00 p. m. y sábados de 9:00 a. m. a 2:00 p. m. Ambiente de trabajo colaborativo y dinámico.   **¡Únete a Capital Empresarial Horizonte y forma parte de un equipo que valora la innovación y el crecimiento profesional! - ¡Aprovecha esta oportunidad y asegura tu lugar!**</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://hireline.io/remoto/empleos/soportesupport-supply-planning-processes-remoto/110996</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Soporte/Support Supply Planning Processes - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C81" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Si te apasiona la tecnología y crees que tienes las habilidades y capacidades necesarias para unirte al equipo, Capital Empresarial Horizonte es una empresa mexicana líder en Recursos Humanos y Tecnologías de la Información. Nos enorgullecemos de fomentar un ambiente de trabajo colaborativo y dinámico donde la innovación y el desarrollo profesional son altamente valorados. Buscamos:   Support Supply Planning Processes   Descripción del puesto: Buscamos un Analista de Inventario para unirse a nuestro equipo de Operaciones del Centro de Datos. Este puesto tiene como objetivo apoyar las actividades de planificación de suministro, garantizando la disponibilidad adecuada de productos de acuerdo con la demanda prevista y las capacidades operativas. El puesto trabaja en estrecha colaboración con departamentos como Producción, Compras, Logística y Planificación de la Demanda para garantizar un flujo de materiales eficiente y minimizar el riesgo de desabastecimiento o exceso de inventario.   Responsabilidades del puesto: Monitor Material receipt status al HUBs Monitor POs past Supplier Promise dates Execute MORs for supply rebalancing Respond to buginzer, GUTS, and email requests within 24-hour SLA Monitor Life Cycle status and replacements for current supply   Si tiene experiencia reciente en este puesto o en uno similar, indíquelo adecuadamente en su currículum y postúlese.   Requisitos del puesto: Trabajo completamente remoto Este trabajo se realiza íntegramente en inglés; la entrevista se realizará en inglés. Vacante para mexicanos/nacionalizados Mínimo 4 años de experiencia en puestos similares recientes Ingeniería/Licenciatura en informática o computación con título universitario     Habilidades requeridas: Conocimiento de planificación de suministros Herramientas de planificación Gestión de inventario y suministros Conocimiento de logística y operaciones Gestión de bases de datos   Habilidades deseadas: Pensamiento analítico y resolución de problemas Comunicación y trabajo en equipo Organización y atención al detalle Gestión del tiempo   Habilidades blandas: Comunicación efectiva Trabajo en equipo y colaboración Pensamiento analítico y resolución de problemas Organización y gestión del tiempo   Ofrecemos: Salario bruto de $50,000 MXN (máximo) al mes + prestaciones de ley Horario: Lunes a viernes de 9:00 a. m. a 6:00 p. m. y sábados de 9:00 a. m. a 2:00 p. m. Ambiente de trabajo colaborativo y dinámico.   **¡Únete a Capital Empresarial Horizonte y forma parte de un equipo que valora la innovación y el crecimiento profesional! - ¡Aprovecha esta oportunidad y asegura tu lugar!**</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://hireline.io/remoto/empleos/soportesupport-esc-part-information-management-remoto/111028</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Soporte/Support ESC Part Information Management - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C82" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Si te apasiona la tecnología y crees que tienes las habilidades y capacidades necesarias para unirte al equipo, Capital Empresarial Horizonte es una empresa mexicana líder en Recursos Humanos y Tecnologías de la Información. Nos enorgullecemos de fomentar un ambiente de trabajo colaborativo y dinámico donde la innovación y el desarrollo profesional son altamente valorados. Buscamos:   Support ESC Part Information Management   Descripción del puesto: Buscamos un Analista de Inventario para unirse a nuestro equipo de Operaciones del Centro de Datos. El objetivo de este puesto es brindar apoyo en la gestión, actualización y estandarización de la información técnica sobre repuestos, piezas y materiales utilizados en proyectos de operación, mantenimiento o ingeniería. Esta función es esencial para garantizar la integridad de los datos maestros, optimizar los procesos de adquisición y asegurar el uso eficiente de los recursos en los sistemas de gestión empresarial.   Responsabilidades del puesto: Process EOL parts by processing suggested replacement workflow Route compilance product information requests to vendors and update workflow Share relevant part information from PLM including data sheets with vendor upon request   Si tienes experiencia reciente en este puesto o en uno similar, indícalo en tu currículum y postúlate.   Requisitos del puesto: Trabajo completamente remoto Este puesto se imparte íntegramente en inglés; la entrevista se realizará en inglés. Vacante para mexicanos/nacionalizados Mínimo 4 años de experiencia en puestos similares recientes Ingeniería/Licenciatura en informática o TI con título universitario   Habilidades requeridas: Conocimientos básicos de repuestos industriales, materiales técnicos o componentes mecánicos/eléctricos. Experiencia en gestión de datos maestros de ERP Dominio avanzado de Excel Deseable: Conocimiento de herramientas de gestión de datos maestros (MDM) y análisis de datos   Habilidades deseadas: Familiaridad con sistemas de gestión de inventario Experiencia en un entorno de centro de datos   Habilidades interpersonales: Atención al detalle y enfoque en la calidad de los datos. Organización, minuciosidad y responsabilidad. Sólidas habilidades de comunicación para interactuar con diversas áreas técnicas y administrativas. Capacidad para trabajar con información técnica y documentación estandarizada.   Ofrecemos: Salario bruto de $50,000 MXN mensuales + prestaciones de ley Horario: Lunes a viernes de 9:00 a. m. a 6:00 p. m. y sábados de 9:00 a. m. a 2:00 p. m. Ambiente de trabajo colaborativo y dinámico.   **¡Únete a Capital Empresarial Horizonte y forma parte de un equipo que valora la innovación y el crecimiento profesional! - ¡Aprovecha esta oportunidad y asegura tu lugar!**</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://hireline.io/remoto/empleos/soportesupport-esc-spares-planning-projects-remoto/110997</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Soporte/Support ESC Spares Planning Projects - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C83" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Si te apasiona la tecnología y crees que tienes las habilidades y capacidades necesarias para unirte al equipo, Capital Empresarial Horizonte es una empresa mexicana líder en Recursos Humanos y Tecnologías de la Información. Nos enorgullecemos de fomentar un ambiente de trabajo colaborativo y dinámico donde la innovación y el desarrollo profesional son altamente valorados. Buscamos:   Support ESC Spares Planning Projects   Descripción del puesto: Buscamos un Analista de Inventario para unirse a nuestro equipo de Operaciones del Centro de Datos. Este puesto es crucial para brindar apoyo operativo y analítico en proyectos relacionados con la planificación y gestión de repuestos en operaciones técnicas, de mantenimiento o de ingeniería. Este puesto trabaja en estrecha colaboración con equipos multidisciplinarios para garantizar la disponibilidad oportuna de repuestos críticos, optimizar los niveles de inventario y contribuir al éxito de los proyectos relacionados con el mantenimiento o la implementación de activos.   Responsabilidades del puesto: Support BRD documentation Support sending out meeting follow-up notes Support slide deck creation for reviews and reporting Document updates and key milestones in project bugs   Si tienes experiencia reciente en este puesto o en uno similar, indícalo en tu currículum y postúlate.   Requisitos del puesto: Trabajo completamente remoto Este puesto se imparte íntegramente en inglés; la entrevista se realizará en inglés. Vacante para mexicanos/nacionalizados Mínimo 4 años de experiencia en puestos similares recientes Ingeniería/Licenciatura en informática o Computación con título universitario   Habilidades requeridas: Conocimiento de planificación de repuestos Herramientas de planificación Análisis de datos y gestión de inventarios Apoyo a la planificación de proyectos Conocimientos básicos de ingeniería y mantenimiento   Habilidades deseadas: Familiaridad con sistemas de gestión de inventarios Experiencia en un entorno de centro de datos   Habilidades interpersonales: Comunicación efectiva Trabajo en equipo y colaboración Pensamiento analítico y resolución de problemas Organización y gestión del tiempo   Ofrecemos: Salario bruto de $50,000 MXN (max) mensuales + prestaciones de ley Horario: Lunes a viernes de 9:00 a. m. a 6:00 p. m. y sábado de 9:00 a. m. a 2:00 p. m. Ambiente de trabajo colaborativo y dinámico.   **¡Únete a Capital Empresarial Horizonte y forma parte de un equipo que valora la innovación y el crecimiento profesional! - ¡Aprovecha esta oportunidad y asegura tu lugar!**</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-frontend-modelo-spotify-react-senior-remoto/111571</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Desarrollador Frontend (Modelo Spotify) - React Senior - Remoto en Involve</v>
+      </c>
+      <c r="C84" t="str">
+        <v>$ 50,000 a 60,000 MXN (Neto)</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Ecosistemas México cuenta con una posición como Desarrollador Frontend (Modelo Spotify) para El candidato ideal tendrá una sólida formación técnica en informática, ingeniería de telecomunicaciones o similar Al menos 5 años de experiencia desarrollando con React Funciones: Sólida experiencia en arquitecturas frontend e integración de APIs Experiencia en el diseño y consumo de APIs REST Experiencia en entornos cloud (Google Cloud, AWS, Azure, etc) Experiencia en DevOps y CICD con Jenkins, Git y Nx Colaborar en un entorno ágil (ScrumKanban, Modelo Spotify Habilidades: React.js Git Colaboración en equipo Comunicación efectiva Resolución de problemas Requisitos Nivel de estudios: Licenciatura, Estatus académico: Egresado Experiencia en el área: Tecnología de la información Con especialidad: Desarrollo Frontend Idiomas: Inglés Ofrecemos: Sueldo: $2,700.00 USD Neto por Mes Jornada laboral:  Tiempo completo Modalidad:  Teletrabajo Horario:  5:00 a.m. 12:00pm  Se requiere a un contractor, para laborar en un horario de España. Tipo de contrato:  Honorarios Prestaciones: Seguro de gastos médicos mayores Seguro de vida</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://hireline.io/remoto/empleos/sr-data-engineer-databricks/111447</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Sr Data Engineer - Databricks en Derevo</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G85" t="str">
+        <v>En Derevo empoderamos a las empresas y las personas, liberando el valor de los datos en las organizaciones. Con más de 15 años de experiencia, diseñamos soluciones de datos e IA de punta a punta: desde la integración en arquitecturas modernas hasta la implementación de modelos inteligentes en procesos clave del negocio. ¡¡Buscamos tu talento Sr Data Engineer (Databricks) !! ¿Cual será tu misión? Serás pieza clave para crear e implementar arquitecturas modernas de datos con alta calidad, impulsando soluciones analíticas basadas en tecnologías de Big Data. Diseñarás, mantendrás y optimizarás sistemas de multiprocesamiento paralelo, aplicando las mejores prácticas de almacenamiento y gestión en data warehouses, data lakes y lakehouses. Serás el apasionado que recolecta, procesa, limpia y orquesta grandes volúmenes de datos, entendiendo modelos estructurados y semi–estructurados, para integrar y transformar múltiples fuentes con eficacia. Definirás la estrategia óptima según objetivos de negocio y requerimientos técnicos, convirtiendo problemas complejos en soluciones alcanzables que ayuden a nuestros clientes a tomar decisiones basadas en datos. ¿Como lo harás?  Te integrarás al proyecto, sus sprints y ejecutarás las actividades de desarrollo aplicando siempre las mejores prácticas de datos y las tecnologías que implementamos. Identificarás requerimientos y definirás el alcance, participando en sprint planning y sesiones de ingeniería con una visión de consultor que aporte valor extra. Colaborarás proactivamente en workshops y reuniones con el equipo interno y con el cliente. Clasificarás y estimarás actividades bajo metodologías ágiles (épicas, features, historias técnicas/usuario) y darás seguimiento diario para mantener el ritmo del sprint. Cumplirás las fechas de entrega comprometidas y gestionarás riesgos comunicando desviaciones a tiempo. Qué beneficios tendrás? WELLNESS: Impulsaremos tu bienestar integral a través del equilibrio personal, profesional y económico, Nuestros beneficios de ley y adicionales te ayudarán a lograrlo. LET´S RELEASE YOUR POWER: Tendrás la oportunidad de especializarte de manera integral en diferentes áreas y tecnologías, logrando así un desarrollo interdisciplinario. Te impulsaremos a plantearte nuevos retos y superarte a ti mismo. WE CREATE NEW THINGS: Nos gusta pensar fuera de la caja. Tendrás el espacio, confianza y libertad para crear y la capacitación que se requiera para lograrlo. WE GROW TOGETHER: Participarás en proyectos tecnológicos punteros, multinacionales y con equipos extranjeros. Dónde lo harás? Somos un gran equipo trabajando en un esquema remoto, somos flexibles y estructurados; proporcionando el equipo necesario para trabajar y herramientas de comunicación interna que faciliten nuestra operación y la de nuestros clientes. ¿Qué pedimos? Para que te puedas incorporar y sentirte como pez en el agua siendo un Data Engineer en Derevo, esto es lo que consideraremos: Manejo del idioma inglés a nivel avanzado (Conversaciones técnicas y de negocios, B2+ o C1) Experiencia en: Lenguajes de Consulta y Programación: T-SQL / Spark SQL: DDL y DML, consultas intermedias y avanzadas (subconsultas, CTEs, joins múltiples con reglas de negocio), agrupación y agregación (GROUP BY, funciones de ventana, métricas de negocio), procedimientos almacenados para ETL/ELT, optimización de índices, estadísticas y planes de ejecución para procesos masivos Python (PySpark): Programación orientada a objetos (clases, módulos), gestión de estructuras y tipos de datos (variables, listas, tuplas, diccionarios), control de flujo mediante condicionales y bucles, ingestión de datos estructurados y semiestructurados, desarrollo de DataFrames y UDFs, ventanas temporales y particionado para optimización, buenas prácticas de código (PEP8, modularidad) Databricks:   Apache Spark &amp;amp; DataFrame API: Diseño de pipelines que aprovechan la API de DataFrames para transformaciones masivas; uso de funciones declarativas y expresiones vectorizadas. Delta Lake: Administración de tablas Delta con ACID transactions, time travel para auditoría y partition pruning para lecturas eficientes dentro de la medallion architecture. Autoloader &amp;amp; Data Ingestion: Configuración de ingesta incremental en OneLake o ADLS Gen2 con Auto Loader, captura de cambios de esquema (schema evolution) y checkpointing para garantizar exactly-once delivery sin código adicional. Structured Streaming: Orquestación de flujos en tiempo real con triggers event-time y processing-time, watermarking y operaciones stateful para baja latencia y tolerancia a fallos. Delta Live Tables (DLT): Declaración de pipelines ETL/ELT en SQL o Python con calidad de datos integrada (Expectations), manejo automático de dependencias y monitoreo continuo. Performance Optimization: Técnicas de caching, broadcast joins, shuffle optimizations y uso de formatos columnar (Parquet/Delta) con Z-Ordering y OPTIMIZE para reducir tiempos de procesamiento. Lakehouse Federation: Consulta unificada sobre fuentes externas a través de Unity Catalog; Jobs &amp;amp; Workflows: Creación de pipelines multietapa con dependencias, retries automáticos, scheduling o llegada de datos; integración con Azure Data Factory si es necesario. Repos &amp;amp; CI/CD: Versionado de notebooks y scripts en GitHub/Azure DevOps, configuración de pipelines de validación (unitarias y de esquema) y despliegue automatizado en entornos dev-test-prod. Monitoreo y Observabilidad: Alertas mediante notificaciones de jobs de Workflows ante eventos como fallos y generación de alertas proactivas automatizadas Si cumples con la mayoría de los requisitos y te interesó el perfil no dudes en postularte, que nuestro equipo de Talent te contactará!</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://hireline.io/remoto/empleos/sr-data-engineer-microsoft-fabric/111446</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Sr Data Engineer Microsoft Fabric en Derevo</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G86" t="str">
+        <v>En Derevo empoderamos a las empresas y las personas, liberando el valor de los datos en las organizaciones. Con más de 15 años de experiencia, diseñamos soluciones de datos e IA de punta a punta: desde la integración en arquitecturas modernas hasta la implementación de modelos inteligentes en procesos clave del negocio. ¡¡Buscamos tu talento Sr Data Engineer-Microsoft Fabric!! ¿Cual será tu misión? Serás pieza clave para crear e implementar arquitecturas modernas de datos con alta calidad, impulsando soluciones analíticas basadas en tecnologías de Big Data. Diseñarás, mantendrás y optimizarás sistemas de multiprocesamiento paralelo, aplicando las mejores prácticas de almacenamiento y gestión en data warehouses, data lakes y lakehouses. Serás el apasionado que recolecta, procesa, limpia y orquesta grandes volúmenes de datos, entendiendo modelos estructurados y semi–estructurados, para integrar y transformar múltiples fuentes con eficacia. Definirás la estrategia óptima según objetivos de negocio y requerimientos técnicos, convirtiendo problemas complejos en soluciones alcanzables que ayuden a nuestros clientes a tomar decisiones basadas en datos. ¿Como lo harás? Te integrarás al proyecto, sus sprints y ejecutarás las actividades de desarrollo aplicando siempre las mejores prácticas de datos y las tecnologías que implementamos. Identificarás requerimientos y definirás el alcance, participando en sprint planning y sesiones de ingeniería con una visión de consultor que aporte valor extra. Colaborarás proactivamente en workshops y reuniones con el equipo interno y con el cliente. Clasificarás y estimarás actividades bajo metodologías ágiles (épicas, features, historias técnicas/usuario) y darás seguimiento diario para mantener el ritmo del sprint. Cumplirás las fechas de entrega comprometidas y gestionarás riesgos comunicando desviaciones a tiempo. Qué beneficios tendrás? WELLNESS: Impulsaremos tu bienestar integral a través del equilibrio personal, profesional y económico, Nuestros beneficios de ley y adicionales te ayudarán a lograrlo. LET´S RELEASE YOUR POWER: Tendrás la oportunidad de especializarte de manera integral en diferentes áreas y tecnologías, logrando así un desarrollo interdisciplinario. Te impulsaremos a plantearte nuevos retos y superarte a ti mismo. WE CREATE NEW THINGS: Nos gusta pensar fuera de la caja. Tendrás el espacio, confianza y libertad para crear y la capacitación que se requiera para lograrlo. WE GROW TOGETHER: Participarás en proyectos tecnológicos punteros, multinacionales y con equipos extranjeros. Dónde lo harás? Somos un gran equipo trabajando en un esquema remoto, somos flexibles y estructurados; proporcionando el equipo necesario para trabajar y herramientas de comunicación interna que faciliten nuestra operación y la de nuestros clientes. ¿Qué pedimos? Para que te puedsas incorporar y sentirte como pez en el agua siendo un Data Engineer en Derevo, esto es lo que consideraremos: Manejo del idioma inglés a nivel avanzado (Conversaciones técnicas y de negocios, B2+ o C1) Experiencia en: Lenguajes de Consulta y Programación: T-SQL / Spark SQL: DDL y DML, consultas intermedias y avanzadas (subconsultas, CTEs, joins múltiples con reglas de negocio), agrupación y agregación (GROUP BY, funciones de ventana, métricas de negocio), procedimientos almacenados para ETL/ELT, optimización de índices, estadísticas y planes de ejecución para procesos masivos. Python (PySpark):Programación orientada a objetos (clases, módulos), gestión de estructuras y tipos de datos (variables, listas, tuplas, diccionarios), control de flujo mediante condicionales y bucles, ingestión de datos estructurados y semiestructurados, desarrollo de DataFrames y UDFs, ventanas temporales y particionado para optimización, buenas prácticas de código (PEP8, modularidad). JSON / REST APIs:Orquestación de pipelines y despliegues CI/CD mediante llamadas a Fabric REST APIs, parametrización dinámica de ejecuciones y gestión de artefactos. Microsoft Fabric: Lakehouse (OneLake + Delta Lake): modelado de datos con tablas Delta ACID, particionamiento y optimizaciones (OPTIMIZE, Z-ORDER) para mejorar rendimiento; uso de time travel para auditoría y recuperación. Warehouses (Synapse Analytics): configuración de clusters SQL provisionados y serverless; diseño de esquemas estrella/copo de nieve; ejecución de T-SQL transaccional con aislamiento y escalado automático de recursos. CI/CD &amp;amp; Lifecycle Management: definición de pipelines en Azure DevOps o GitHub Actions con entornos dev–test–prod; pruebas unitarias de datasets, validaciones de esquema y despliegue automatizado de artefactos. Monitor Hub &amp;amp; Activator: creación de dashboards personalizados para métricas de ingestión y transformación (latencia, throughput, errores); alertas proactivas y runbooks automáticos basados en condiciones definidas. Eventstreams &amp;amp; Eventhouse: configuración de ingesta de eventos en tiempo real sin código; definición de ventanas de procesamiento, agregaciones incrementales y almacenamiento optimizado para análisis temporal. Seguridad y Gobierno de Datos: administración granular de roles (Admin, Member, Contributor, Viewer) y permisos por workspace/item; políticas de row-level, column-level security y dynamic data masking; auditoría de accesos y cambios para cumplimiento normativo. Si cumples con la mayoría de los requisitos y te interesó el perfil no dudes en postularte, que nuestro equipo de Talent te contactará!</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://hireline.io/remoto/empleos/genai-engineer-senior-remoto/111178</v>
+      </c>
+      <c r="B87" t="str">
+        <v>GenAI Engineer Senior - Remoto</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Requisitos Minimum 3 years of experience in GenAI Data Science work Minimum 1 year of solid hands-on experience building GenAI applications Minimum 1 year of hands-on experience with agentic frameworks –Langgraph or other cognitive architectures Develop and integrate LangGraph-based natural language understanding capabilities into AGI systems, enabling human-AI collaboration and communication Experience with FastAPI or similar Python based frameworks Experience building applications based on both closed-source and open-source LLMs is preferable but atleast one of them is mandatory At least 1 year of hands-on experience with Azure Cloud Services including Azure Synapse Analytics, Azure Databricks, and Azure Data Lake Storage Preference would be given to profiles with hands-on experience with both open and closed-source models GenAI driven task-management experience is highly preferred. Experience having worked on GenAI applications projects is mandatory (and must be shared during interview) Excellent communication skills in English Responsabilidades Work on building the next generation of artificial general intelligence (AGI) systems involving agentic frameworks. Design, develop, and deploy intelligent agents that can learn, reason, and interact with humans in complex environments. Utilize the Azure platform; and components running on this platform such as ADLS, delta-lake, PostgreSQL | PGVector (for vector databases) Work with setting up GenAI application components | architectures | working prototypes etc. Work on GenAI based task-management applications. Ability to work on many areas of the platform to collect data from source systems, and present to relevant LLM. Troubleshooting and Performance Optimization: Actively monitor system performance, propose and implement optimizations as needed. Think in terms of reusable components (not only in one project but across projects). Add | Manage | Document project user stories to Azure Boards Code compliance, CI|CD and good repo practices</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://hireline.io/remoto/empleos/srdata-engineer-microsoft-fabric-remoto-dentro-de-colombia/111705</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Sr.Data Engineer Microsoft Fabric - Remoto dentro de Colombia en Derevo</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Remoto: Colombia</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G88" t="str">
+        <v>En Derevo empoderamos a las empresas y las personas, liberando el valor de los datos en las organizaciones. Con más de 15 años de experiencia, diseñamos soluciones de datos e IA de punta a punta: desde la integración en arquitecturas modernas hasta la implementación de modelos inteligentes en procesos clave del negocio. ¡¡Buscamos tu talento Sr Data Engineer ( Databricks)  !!   (EN COLOMBIA) ¿Cual será tu misión? Serás pieza clave para crear e implementar arquitecturas modernas de datos con alta calidad, impulsando soluciones analíticas basadas en tecnologías de Big Data. Diseñarás, mantendrás y optimizarás sistemas de multiprocesamiento paralelo, aplicando las mejores prácticas de almacenamiento y gestión en data warehouses, data lakes y lakehouses. Serás el apasionado que recolecta, procesa, limpia y orquesta grandes volúmenes de datos, entendiendo modelos estructurados y semi–estructurados, para integrar y transformar múltiples fuentes con eficacia. Definirás la estrategia óptima según objetivos de negocio y requerimientos técnicos, convirtiendo problemas complejos en soluciones alcanzables que ayuden a nuestros clientes a tomar decisiones basadas en datos. ¿Como lo harás? Funciones:  Te integrarás al proyecto, sus sprints y ejecutarás las actividades de desarrollo aplicando siempre las mejores prácticas de datos y las tecnologías que implementamos. Identificarás requerimientos y definirás el alcance, participando en sprint planning y sesiones de ingeniería con una visión de consultor que aporte valor extra. Colaborarás proactivamente en workshops y reuniones con el equipo interno y con el cliente. Clasificarás y estimarás actividades bajo metodologías ágiles (épicas, features, historias técnicas/usuario) y darás seguimiento diario para mantener el ritmo del sprint. Cumplirás las fechas de entrega comprometidas y gestionarás riesgos comunicando desviaciones a tiempo. Qué beneficios tendrás? WELLNESS: Impulsaremos tu bienestar integral a través del equilibrio personal, profesional y económico, nuestros beneficios te ayudarán a lograrlo. LET´S RELEASE YOUR POWER: Tendrás la oportunidad de especializarte de manera integral en diferentes áreas y tecnologías, logrando así un desarrollo interdisciplinario. Te impulsaremos a plantearte nuevos retos y superarte a ti mismo.  WE CREATE NEW THINGS: Nos gusta pensar fuera de la caja. Tendrás el espacio, confianza y libertad para crear y la capacitación que se requiera para lograrlo.  WE GROW TOGETHER: Participarás en proyectos tecnológicos punteros, multinacionales y con equipos extranjeros.  Dónde lo harás?  Somos un gran equipo trabajando en un esquema remoto, somos flexibles y estructurados; proporcionando el equipo necesario para trabajar y herramientas de comunicación interna que faciliten nuestra operación y la de nuestros clientes.  ¿Qué pedimos? Para que te puedsas incorporar y sentirte como pez en el agua siendo un Data Engineer en Derevo, esto es lo que consideraremos:  Manejo del idioma inglés a nivel avanzado (Conversaciones técnicas y de negocios, B2+ o C1)  Experiencia en:           Lenguajes de Consulta y Programación:  T-SQL / Spark SQL: DDL y DML, consultas intermedias y avanzadas (subconsultas, CTEs, joins múltiples con reglas de negocio), agrupación y agregación (GROUP BY, funciones de ventana, métricas de negocio), procedimientos almacenados para ETL/ELT, optimización de índices, estadísticas y planes de ejecución para procesos masivos Python (PySpark): Programación orientada a objetos (clases, módulos), gestión de estructuras y tipos de datos (variables, listas, tuplas, diccionarios), control de flujo mediante condicionales y bucles, ingestión de datos estructurados y semiestructurados, desarrollo de DataFrames y UDFs, ventanas temporales y particionado para optimización, buenas prácticas de código (PEP8, modularidad) Databricks: Apache Spark &amp; DataFrame API: Diseño de pipelines que aprovechan la API de DataFrames para transformaciones masivas; uso de funciones declarativas y expresiones vectorizadas. Delta Lake: Administración de tablas Delta con ACID transactions, time travel para auditoría y partition pruning para lecturas eficientes dentro de la medallion architecture. Autoloader &amp; Data Ingestion: Configuración de ingesta incremental en OneLake o ADLS Gen2 con Auto Loader, captura de cambios de esquema (schema evolution) y checkpointing para garantizar exactly-once delivery sin código adicional. Structured Streaming: Orquestación de flujos en tiempo real con triggers event-time y processing-time, watermarking y operaciones stateful para baja latencia y tolerancia a fallos. Delta Live Tables (DLT): Declaración de pipelines ETL/ELT en SQL o Python con calidad de datos integrada (Expectations), manejo automático de dependencias y monitoreo continuo. Performance Optimization: Técnicas de caching, broadcast joins, shuffle optimizations y uso de formatos columnar (Parquet/Delta) con Z-Ordering y OPTIMIZE para reducir tiempos de procesamiento. Lakehouse Federation: Consulta unificada sobre fuentes externas a través de Unity Catalog; Jobs &amp; Workflows: Creación de pipelines multietapa con dependencias, retries automáticos, scheduling o llegada de datos; integración con Azure Data Factory si es necesario. Repos &amp; CI/CD: Versionado de notebooks y scripts en GitHub/Azure DevOps, configuración de pipelines de validación (unitarias y de esquema) y despliegue automatizado en entornos dev-test-prod. Monitoreo y Observabilidad: Alertas mediante notificaciones de jobs de Workflows ante eventos como fallos y generación de alertas proactivas automatizadas Si cumples con la mayoría de los requisitos y te interesó el perfil no dudes en postularte, que nuestro equipo de Talent te contactará!  Become derevian &amp; develop your superpower!</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://hireline.io/remoto/empleos/web-developer-remoto/107601</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Web Developer - Remoto en HIRELINE</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G89" t="str">
+        <v>As a Developer  you’ll be working as part of an integrated team to shorten the runway between smart, interesting brands and beautiful creative that can work in any medium. Reporting directly to our Director of Technology, you’ll act as a lead developer across several client accounts and work with others in our dev team along the way. Specifically you’ll be: ● Working in a creative team setting to ideate and develop strong creative ideas including planning, designing, and ultimately building our digital platforms ● Mentoring others, both on the development team, and cross-disciplinary peers, on best practice and new, innovative approaches and technologies ● Taking initiative to maintain strong knowledge of and keen interest in emerging tools and technologies ● Working in Agile and Jira to optimize how our teams work ● Create frequent pull requests to gain insight from other team members as well as communicate deliverables by showing what is complete. ● Help translate client feedback into clear next steps, often with Accounts and/or Production ● Communicates effectively, both internally and with producers/AMs/designers; to update progress, handle conflict resolution, and keep everyone updated Our Must-Haves ● 5+ years of professional experience with Web Development ● BA/BS degree or higher, preferably in CS or a related field ● Able to work with AWS and Linux server administration to set up and deploy new sites ● Able to create semantically correct and accessible HTML ● Expertise in JavaScript and other JavaScript frameworks like React and Next.js ● Expertise in CSS, with good judgment for what can be done in CSS without reverting to a JavaScript fix ● Complete understanding of git branching, merging and rebasing ● Experience with PHP a plus ● Strong proficiency with MySQL databases ● Excellent analytical and communication skills to share your ideas with the team and our clients Lines of Report Reporting to: Director of Technology Direct reports include: NA .........................................</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://hireline.io/remoto/empleos/devops-engineer-microsoft-azure-senior-remoto/111721</v>
+      </c>
+      <c r="B90" t="str">
+        <v>DevOps Engineer Microsoft Azure Senior - Remoto en Global Delivery Center Capgemini</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G90" t="str">
+        <v>DevOps Engineer About the Role We are seeking a skilled DevOps Engineer to design and manage CI/CD pipelines and Azure infrastructure. You’ll automate deployments using Terraform and Docker, and support Azure PaaS services. The role involves enhancing system observability, security, and release strategies. Key Responsibilitie Design and maintain  CI/CD pipelines  using  Azure DevOps  for backend and frontend applications Automate infrastructure provisioning and environment setup using  Terraform Manage deployments to Azure PaaS services such as  App Services, Azure Functions, Azure API Management , Key Vault, and Application Insights Configure and maintain environments for  containerized microservices  using Docker and optionally AKS Implement secure secrets management, build artifact handling, release approvals, and rollback strategies Monitor system health and performance using tools like Azure Monitor, Log Analytics, and Application Insights Work closely with development, QA, and architecture teams to streamline release processes and enforce DevOps best practices Main Requirements 5+ years of experience in  DevOps engineering Strong expertise in  Azure DevOps (Pipelines, Repos, Artifacts, Boards) Hands-on experience with  Terraform  for Azure infrastructure automation Good understanding of  Azure PaaS services  and networking configurations (App Services, App Gateway, Private Endpoints, etc.) Proficiency with  Docker  and container-based CI/CD workflows Strong scripting skills in  PowerShell ,  Bash , or  Python Experience implementing  release strategies , versioning, blue/green or canary deployments  Experience supporting  .NET Core and React  applications in production environments Some familiarity with  Kubernetes (AKS)  is a plus but not required Knowledge of security practices such as role-based access control, managed identities, and secure secrets handling in Azure Experience integrating static code analysis, vulnerability scanning, and test automation into CI/CD pipelines What you will love about working with us: At Capgemini Engineering we’re always looking ahead. We reimagine possibilities, and we innovate with technology to bring ideas to life. We encourage flexibility in how, when, and where people get their work done, allowing a better work-life balance, and greater empowerment. They partner with their managers to find an arrangement that works best for their role and their circumstances. We offer game-changing programs to accelerate the growth of our people and the development of their expertise. What you need to know about what we offer: Excellent compensation and benefits Career path, trainings and real growth opportunities Engaging and challenging projects. Excellent work environment and culture. Open and Effective management. Highly professional and collaborative teams. About Capgemini Group Capgemini is a global leader in partnering with companies to transform and manage their business by harnessing the power of technology. The Group is guided everyday by its purpose of unleashing human energy through technology for an inclusive and sustainable future. It is a responsible and diverse organization of over 300,000 team members in nearly 50 countries. With its strong 50-year heritage and deep industry expertise, Capgemini is trusted by its clients to address the entire breadth of their business needs, from strategy and design to operations, fueled by the fast evolving and innovative world of cloud, data, AI, connectivity, software, digital engineering and platforms. At Capgemini Mexico, we aim to attract the best talent and are committed to creating a diverse and inclusive work environment, so there is no discrimination based on race, sex, sexual orientation, gender identity or expression, or any other characteristic of a person. All applications welcome and will be considered based on merit against the job and/or experience for the position.</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://hireline.io/remoto/empleos/contador-bilingue-jr-medio-tiempo-remoto-dentro-de-guadalajara/111703</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Contador bilingüe Jr (medio tiempo)- Remoto dentro de Guadalajara en Derevo</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G91" t="str">
+        <v>En Derevo empoderamos a las empresas y las personas, liberando el valor de los datos en las organizaciones. Con más de 15 años de experiencia, diseñamos soluciones de datos e IA de punta a punta: desde la integración en arquitecturas modernas hasta la implementación de modelos inteligentes en procesos clave del negocio. ¡¡Buscamos tu talento Contador Jr !!   ¿Cual será tu misión? Contribuirás al crecimiento y estabilidad financiera de la empresa mediante la generación precisa y oportuna de información contable. Asegurarás la integridad de los registros, el cumplimiento normativo y brindarás soporte clave para una toma de decisiones informada y estratégica. ¿Como lo harás?: Estas serán algunas de tus funciones: Elaboración e interpretación de estados financieros. Análisis de costos y gastos Mantenimiento a los catálogos contables Analizar y conciliar los movimientos bancarios Validación de los asientos contables para gastos e ingresos acumulados Validación de los registros en los activos fijos Preparar y presentar informes de cumplimientos requeridos. Actuar como enlace en diferentes áreas de la empresa internas y externas Actividades administrativas Qué beneficios tendrás? WELLNESS: Impulsaremos tu bienestar integral a través del equilibrio personal, profesional y económico, Nuestros beneficios de ley y adicionales te ayudarán a lograrlo. LET´S RELEASE YOUR POWER: Tendrás la oportunidad de especializarte de manera integral en diferentes áreas y tecnologías, logrando así un desarrollo interdisciplinario. Te impulsaremos a plantearte nuevos retos y superarte a ti mismo.  WE CREATE NEW THINGS: Nos gusta pensar fuera de la caja. Tendrás el espacio, confianza y libertad para crear y la capacitación que se requiera para lograrlo.  WE GROW TOGETHER: Participarás en proyectos tecnológicos punteros, multinacionales y con equipos extranjeros.  Dónde lo harás?  Somos un gran equipo trabajando en un esquema remoto, somos flexibles y estructurados; proporcionando el equipo necesario para trabajar y herramientas de comunicación interna que faciliten nuestra operación y la de nuestros clientes. Sin embargo, para esta posición  será necesario que vivas en Guadalajara,  ya que habrá reuniones presenciales.  Qué buscamos? Para cubrir la vacante, necesitarás: Nivel de inglés avanzado B2+ o superior  Licenciatura en Contabilidad o Finanzas Al menos 3 años de experiencia Experiencia en informes contables y financieros Fuertes habilidades de comunicación verbal y escrita Capacidad de análisis Excelentes habilidades para resolver problemas Dominio de los sistemas de Contpaq en sus diferentes módulos contabilidad, nómina y bancos, sistema  QuickBooks,  paquetería Microsoft Office experiencia en Excel avanzado Capaz de realizar múltiples tareas y priorizar el trabajo de manera efectiva Dominio en el manejo en conciliaciones contables Si cumples con la mayoría de los requisitos y te interesó el perfil no dudes en postularte, que nuestro equipo de Talent te contactará!  Become derevian &amp; develop your superpower!</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://hireline.io/remoto/empleos/senior-software-engineer-aws-remoto/110998</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Senior Software Engineer (AWS) - Remoto en Caylent</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G92" t="str">
+        <v>The Mission We are seeking a talented Senior Software Engineer to join our growing Cloud Native Applications team. The right candidate is someone who has a deep understanding of building applications in the cloud and utilizing cloud native services to make applications more reliable and scalable. Your mission will be to develop applications and services using cloud native technologies for our customers.   Your Assignment You will be a mission specialist, rocketing Customers forward as you participate in development activities, standups, sprint planning retrospectives, and more. You will demonstrate Caylent's commitment to being an Exceptional Partner by delivering well-documented, tested, and production-ready code to our customers while diving deep into any problems that may arise across their environments. You will Lead By Example, using your expertise in AWS Services and API development to deliver solutions defined by your Architect, and coach less-experienced developers as your team builds together. You will demonstrate a passion to Stay Curious as you mentor peers, tackle new technologies, and learn from our word-class team of engineers.   Your Qualifications Expertise in underlying web technologies like HTML and CSS, and experience developing with a framework like React, Vue, Angular, MVC .Net, etc. Experience with modern server-side scripting languages (python, node.js, php, ruby, etc.). In-depth knowledge of relational databases (PostgreSQL, MySQL, etc), NoSQL databases (MongoDB, DynamoDB, etc), and object stores (S3, etc). Demonstrated experience in building RESTful services and API integrations. Development experience on a major cloud platform (Azure, AWS, or GCP). Understanding of modern application architectures (event driven, message queues, microservices, etc). Proven ability to learn new technology quickly and effectively.  Desire to integrate innovative technologies into development workflow. Familiarity with Generative AI technologies. Self organizing, detail oriented, and high achieving. Ability to work independently. Excellent written and verbal communication.   Preferred Qualifications BS in a computing-related field, or commensurate experience. Experience with testing and automation. Experience with UI/UX. Experience with Large Language Models (LLM) and Generative AI. Experience with app dev acceleration tools like Amazon Q Developer, GitHub CoPilot, Cursor.AI, or similar. Experience building and maintaining CI/CD pipelines. Experience configuring AWS resources. Experience with infrastructure as code tooling (SAM, Cloudformation, Terraform, etc).   Benefits 100% remote work Medical Insurance for you and eligible dependents Generous holidays and flexible PTO Competitive phantom equity Paid for exams and certifications Peer bonus awards State of the art laptop and tools Equipment &amp; Office Stipend Individual professional development plan Annual stipend for Learning and Development Work with an amazing worldwide team and in an incredible corporate culture Kindly submit your resume in English, as it’s required for this role. Caylent is a place where everyone belongs.  We celebrate diversity and are committed to creating an inclusive environment for all employees. Our approach helps us to build a winning team that represents a variety of backgrounds, perspectives, and abilities. So, regardless of how your diversity expresses itself, you can find a home here at Caylent.    We are proud to be an equal opportunity employer. We prohibit discrimination and harassment of any kind based on race, color, religion, national origin, sex (including pregnancy), sexual orientation, gender identity, gender expression, age, veteran status, genetic information, disability, or other applicable legally protected characteristics. If you would like to request an accommodation due to a disability, please contact us.</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://hireline.io/remoto/empleos/community-manager-jr-remoto/111486</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Community Manager Jr - Remoto en Quo Digital</v>
+      </c>
+      <c r="C93" t="str">
+        <v>$ 5,000 a 10,000 MXN (Neto)</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Recién graduado sin experiencia</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Objetivo del puesto: Impulsar la presencia digital de la empresa en redes sociales a través de la creación, gestión e implementación de contenido, interacción con la comunidad y seguimiento del rendimiento de las publicaciones, con un enfoque alineado a la industria tecnológica. Responsabilidades clave: Crear contenido atractivo y alineado con la marca (textos, ideas visuales, frases, etc.) Programar y publicar contenido en redes sociales, principalmente en LinkedIn. Investigar tendencias de marketing digital, tecnología e innovación Gestionar las cuentas: subir historias, responder comentarios y mensajes Interactuar con la comunidad y fomentar el engagement Calendarizar contenido mensual en coordinación con el equipo Medir el rendimiento de publicaciones (alcance, interacciones, clics, etc.) Generar reportes simples con análisis y oportunidades de mejora Perfil ideal: Egresado/a o profesional en etapa inicial de Marketing, Comunicación, Publicidad o afines Gusto o interés por la tecnología y el sector TI (imprescindible) Excelente redacción y ortografía Conocimiento básico de herramientas como Canva, Metricool, Meta Business Suite, Buffer u otras Creatividad, proactividad y buena organización Deseable experiencia previa en redes sociales (aunque sea en proyectos personales, freelance o escolares)   Horario y modalidad: Jornada completa: lunes a viernes de 9:00 a.m. a 6:00 p.m. 100% remoto   Beneficios: Sueldo: $ 8,364.00 mxn netos Trabajo por objetivos. Oportunidad de crecimiento profesional en una empresa de tecnología en expansión Ambiente de trabajo colaborativo y horizontal</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://hireline.io/remoto/empleos/devops-engineer-github-enterprise/111704</v>
+      </c>
+      <c r="B94" t="str">
+        <v>DevOps Engineer – GitHub Enterprise en Derevo</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G94" t="str">
+        <v>En Derevo empoderamos a las empresas y las personas, liberando el valor de los datos en las organizaciones. Con más de 15 años de experiencia, diseñamos soluciones de datos e IA de punta a punta: desde la integración en arquitecturas modernas hasta la implementación de modelos inteligentes en procesos clave del negocio. Sr.  DevOps Engineer – (GitHub Enterprise) ¿Cual será tu misión? Serás responsable de garantizar una operación fluida, segura y automatizada de la plataforma GitHub Enterprise, mediante la administración avanzada de repositorios, la implementación de flujos CI/CD con GitHub Actions y el soporte técnico continuo a equipos multidisciplinarios, facilitando la colaboración entre áreas técnicas y no técnicas. ¿Como lo lograrás? Estas serán tus principales funciones:  Administrar la plataforma GitHub Enterprise: repositorios, permisos, equipos, secretos y configuraciones. Diseñar, mantener y monitorear flujos CI/CD automatizados con GitHub Actions. Brindar soporte técnico continuo a equipos para resolver incidentes relacionados con GitHub. Asegurar la correcta adopción de buenas prácticas en control de versiones, automatización y seguridad. Gestionar integraciones con herramientas externas (Azure DevOps, Jira, Slack, etc.). Estandarizar estructuras de ramas, revisiones de código y políticas de gobernanza. Capacitar a los equipos en el uso eficiente y seguro de GitHub Enterprise. Qué beneficios tendrás? WELLNESS: Impulsaremos tu bienestar integral a través del equilibrio personal, profesional y económico, Nuestros beneficios de ley y adicionales te ayudarán a lograrlo. LET´S RELEASE YOUR POWER: Tendrás la oportunidad de especializarte de manera integral en diferentes áreas y tecnologías, logrando así un desarrollo interdisciplinario. Te impulsaremos a plantearte nuevos retos y superarte a ti mismo.  WE CREATE NEW THINGS: Nos gusta pensar fuera de la caja. Tendrás el espacio, confianza y libertad para crear y la capacitación que se requiera para lograrlo.  WE GROW TOGETHER: Participarás en proyectos tecnológicos punteros, multinacionales y con equipos extranjeros.  Dónde lo harás?  Somos un gran equipo trabajando en un esquema remoto, somos flexibles y estructurados; proporcionando el equipo necesario para trabajar y herramientas de comunicación interna que faciliten nuestra operación y la de nuestros clientes.    Requisitos Para desempeñar este rol, necesitarás lo siguiente: Nivel de inglés B2 o superior. Dominio avanzado de Git  en línea de comandos para manejar ramas, conflictos y estrategias como rebase, cherry-pick, revert y stash. Apoyo a equipos en convenciones de branching y gestión de releases. Conocimiento profundo de GitHub Enterprise:  Configuración completa, creación y mantenimiento de organizaciones, permisos finos por equipo, políticas de seguridad, integraciones con terceros, y auditoría de repositorios. GitHub Actions:   Automatización de pipelines CI/CD: validaciones, builds, testeo, despliegues condicionales, uso de secretos, matrices, y reusable workflows para múltiples repositorios. Resolución de incidentes : Diagnóstico de errores comunes en flujos de trabajo.Fallas por secretos faltantes, permisos incorrectos, o malformación de YAML. Registro, trazabilidad y remediación proactiva de incidentes. Automatización y scripting:  Desarrollo de scripts en Bash, PowerShell o Python para facilitar tareas como etiquetado automático, notificación de PRs sin revisión, o asignación dinámica de revisores. Comunicación y soporte técnico:  Habilidad para comunicar y acompañar en sesiones de soporte a equipos técnicos y no técnicos. Resolución de bloqueos operativos, documentación clara, adopción de buenas prácticas de colaboración y versionado. Si cumples con la mayoría de los requisitos y te interesó el perfil no dudes en postularte, que nuestro equipo de Talent te contactará!  Become derevian &amp; develop your superpower!</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://hireline.io/remoto/empleos/mobile-engineer-iosandroid/111595</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Mobile Engineer - iOS/Android en Alcor</v>
+      </c>
+      <c r="C95" t="str">
+        <v>$ 5,000 a 5,499 USD (Bruto)</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G95" t="str">
+        <v>About the job Mobile Engineer - iOS/Android We are seeking a skilled  Mobile Developer  to join our innovative engineering team. As a Mobile Developer, you will be responsible for developing high-quality iOS and Android applications, contributing to our mobile architecture modernization, and collaborating with cross-functional teams to deliver exceptional user experiences. You will work with external data sources and APIs, focus on bug fixing and application performance improvements, and demonstrate the ability to solve complex problems while maintaining high coding quality standards. Location - Mexico City QUALIFICATIONS Education: Bachelors degree in Computer Science, or related field. Work Experience: Minimum of 5+ years of experience with mobile development (iOS and/or Android) Minimum of 3+ years of experience with Swift and/or Kotlin Experience with reactive programming frameworks (RxSwift, RxKotlin, or similar) Proven track record of shipping mobile applications to app stores Experience working in agile development environments TECHNICAL COMPETENCIES iOS/Android Development: Proficiency in Swift for iOS development and Kotlin for Android development Experience with iOS frameworks (UI Kit, Core Data, etc.) and Android frameworks (Jetpack, Room, etc.) Understanding of mobile app lifecycle, memory management, and platform-specific optimization techniques Architecture Patterns: Experience with MVVM, MVP, or similar architectural patterns Understanding of dependency injection and modular architecture Familiarity with reactive programming concepts (experience with RxSwift/RxKotlin is beneficial for legacy code maintenance) API Integration: Proficiency in working with REST APIs and JSON parsing Experience with network libraries (Alamofire for iOS, Retrofit for Android) Understanding of authentication methods and secure API communication Testing: Experience writing unit tests and UI tests Familiarity with testing frameworks (XCTest for iOS, JUnit/Espresso for Android) Understanding of test-driven development principles App Store Experience: Experience with Apple App Store and Google Play Store submission processes Understanding of app store guidelines and review processes Knowledge of app store optimization (ASO) best practices Firebase Experience: Proficiency with Firebase services including Analytics, Authentication, Cloud Messaging (FCM), and Remote Config Experience with Firebase Crashlytics for crash reporting and error tracking Knowledge of Firebase Cloud Firestore or Realtime Database Development Tools: Proficiency with Xcode and Android Studio Experience with version control systems (Git) Familiarity with CI/CD pipelines and automated testing Cross-Platform (Plus): Flutter experience is a plus Understanding of cross-platform development considerations OTHER REQUIREMENTS Excellent troubleshooting and communication skills. Strong attention to detail. Experience maintaining Jira tickets according to the Agile process. Contribution to creating a great UX design. Ability to work effectively in a distributed team environment across multiple time zones</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-tecnico-servicenow-remoto/111291</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Consultor Técnico Servicenow - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C96" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Consultor Técnico Servicenow Para laborar en Remoto Perfil Escolaridad:   Ingeniería en Sistemas, Informática o afín. Inglés:   Conversacional  INDISPENSABLE, Experiencia mínima de 3 años El Consultor Técnico cuenta con amplios conocimientos y experiencia en el diseño e implementación de soluciones en la Plataforma ServiceNow. Los Consultores Técnicos Senior definen, desarrollan, prueban, analizan y mantienen aplicaciones de software para respaldar el cumplimiento de los requisitos del negocio. El puesto exige sólidas habilidades analíticas y una alta capacidad de investigación, diseño, documentación y modificación de software durante todo el ciclo de vida de producción. Requerimiento • Más de 3 años de experiencia en Consultoría General, Gestión de Servicios y Desarrollo de Software • Más de 3 años de experiencia en configuración de plataformas • Experiencia en desarrollo: JavaScript, HTML, CSS y frameworks de JavaScript, integraciones • Experiencia técnica en ServiceNow: experiencia demostrada en otras líneas de productos de ServiceNow • Experiencia en entornos de desarrollo ágiles • Gestión del ciclo de vida del desarrollo de software • Pensamiento analítico/Resolución de problemas • Capacidad de escucha activa, respeto por el punto de vista de los demás y responsabilidad de aportar la información necesaria. • ​​Sólidas habilidades de comunicación en inglés (escrita, interpersonal y de presentación). Responsabilidades • Gestionar todos los procesos importantes del proyecto, como: documentación de la arquitectura de la plataforma, documentación de integración, estimación del esfuerzo de trabajo y desarrollo avanzado práctico. • Asistir, participar y, ocasionalmente, dirigir reuniones de Scrum. • Convertir requisitos, historias y maquetas en funcionalidades completas trabajando en estrecha colaboración con el equipo del proyecto de implementación. • Cumplir con el desarrollo técnico y la configuración de los proyectos con el más alto nivel de calidad técnica, contribuyendo al seguimiento de las asignaciones y la orientación a los desarrolladores júnior/intermedio. • Cumplir con la orientación técnica de diseño en nuestros proyectos siguiendo las mejores prácticas de ServiceNow. • Asegurar que el líder del proyecto reciba actualizaciones oportunas sobre las tareas asignadas para facilitar una comunicación frecuente y proactiva con el cliente. • Contribuir a la mejora continua de los procesos de los Servicios de Entrega, así como al desarrollo de las capacidades, la experiencia y las mejores prácticas de los diferentes portafolios, considerando las necesidades y requisitos del cliente. • Ocupar roles técnicos o de proceso en nuestros proyectos si es necesario. • Liderar, capacitar, mentorizar y desarrollar los recursos asignados a sus proyectos. • Asistir en la evaluación de nuevas oportunidades, herramientas y técnicas de diseño para una entrega eficiente. • Actuar como punto de referencia para la toma de decisiones técnicas dentro de un proyecto. • Colaboración con el departamento de RR. HH. para realizar entrevistas técnicas y apoyar el proceso de selección. Certificaciones requeridas: Administrador de sistemas certificado por ServiceNow (CSA), Especialista en implementación certificado por ServiceNow para ITSM (CIS-ITSM), Experiencia demostrada en dos líneas de productos adicionales fuera de ITSM. Ofrecemos: • Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado. • Seguro dental y visual. • Seguro de Vida. • Todas las prestaciones legales desde el primer año. • Prima vacacional del 50% • Aguinaldo a 24 días. • Vales de despensa por $3300,53 • Apoyo monetario en caso de que trabajes desde Home Office. Interesados enviar CV al correo de empleo(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://hireline.io/remoto/empleos/microsoft-intune-sme-senior-remoto/111722</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Microsoft Intune SME Senior - Remoto en Global Delivery Center Capgemini</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Microsoft Intune SME We are seeking a highly skilled Microsoft Intune Subject Matter Expert to lead the design, implementation, and management of our endpoint management solutions. The ideal candidate will have deep expertise in Microsoft Intune and a strong understanding of modern device management, security policies, and application deployment strategies.   Key Responsibilities: ·        Design and implement Microsoft Intune solutions for endpoint management, including device enrollment, policy configuration, and application deployment. ·        Develop and enforce security policies and configurations to protect corporate endpoints. ·        Manage security baselines and compliance policies to align with organizational standards. ·        Package, test, and deploy applications using Intune, ensuring proper version control and distribution. ·        Collaborate with application owners and IT teams to streamline deployment processes. ·        Create and manage configuration profiles to enforce device settings and restrictions. ·        Implement and manage conditional access policies based on device compliance. ·        Plan and execute upgrades to Intune services, staying current with new features and best practices. ·        Oversee patching and update management for Intune-managed devices. Required Qualifications: ·        Proven experience as a Microsoft Intune SME or similar role. ·        Strong knowledge of Microsoft Endpoint Manager, Azure AD, and Conditional Access. ·        Experience with application packaging and deployment in enterprise environments. ·        Familiarity with compliance and security standards (e.g., CIS, NIST). ·        Excellent troubleshooting and analytical skills. ·        Strong communication and collaboration abilities. What you will love about working with us:   ·        At Capgemini Engineering we’re always looking ahead. We reimagine possibilities, and we innovate with technology to bring ideas to life. ·        We encourage flexibility in how, when, and where people get their work done, allowing a better work-life balance, and greater empowerment. They partner with their managers to find an arrangement that works best for their role and their circumstances. ·        We offer game-changing programs to accelerate the growth of our people and the development of their expertise. What you need to know about what we offer: ·        Excellent compensation and benefits ·        Career path, trainings and real growth opportunities ·        Engaging and challenging projects. ·        Excellent work environment and culture. ·        Open and Effective management. ·        Highly professional and collaborative teams.   About Capgemini Group Capgemini is a global leader in partnering with companies to transform and manage their business by harnessing the power of technology. The Group is guided everyday by its purpose of unleashing human energy through technology for an inclusive and sustainable future. It is a responsible and diverse organization of over 300,000 team members in nearly 50 countries. With its strong 50-year heritage and deep industry expertise, Capgemini is trusted by its clients to address the entire breadth of their business needs, from strategy and design to operations, fueled by the fast evolving and innovative world of cloud, data, AI, connectivity, software, digital engineering and platforms.   At Capgemini Mexico, we aim to attract the best talent and are committed to creating a diverse and inclusive work environment, so there is no discrimination based on race, sex, sexual orientation, gender identity or expression, or any other characteristic of a person. All applications welcome and will be considered based on merit against the job and/or experience for the position.</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-full-stack/111593</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Desarrollador Full-Stack en ISITA</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Profesional de la tecnología con experiencia y conocimientos en el desarrollo tanto del lado del cliente (front-end) como del lado del servidor (back-end) de una aplicación o sistema. Capaz de trabajar en todas las capas de una aplicación, desde la interfaz de usuario hasta la base de datos y la lógica de negocio. FRONT-END SKILLS ·          HTML5: Conocimiento profundo de HTML para crear estructuras semánticas y accesibles. ·          CSS3: Familiarizado con los conceptos de CSS, como selectores, estilos en línea y en cascada, posicionamiento y diseño responsivo. ·          JavaScript: Conocimiento profundo de JavaScript, incluidos los conceptos fundamentales, la manipulación del DOM, el manejo de eventos y el uso de bibliotecas y frameworks. ·          Diseño responsivo: conocimientos sobre diseño responsivo, capaz de crear sitios web que se adapten y se vean bien en diferentes dispositivos y tamaños de pantalla. ·          Interpretar UI UX: comprensión básica de los principios de diseño web y experiencia de usuario (UX). Desarrollo de interfaces de usuario atractivas y fáciles de usar, optimizar la navegación y mejorar la experiencia del usuario. ·          Manejo de herramientas y frameworks front-end: Familiarizado con herramientas y frameworks populares del front-end, como Bootstrap, Material-UI, Sass, Less, etc. ·          Pruebas y depuración: Capaz de realizar pruebas y depurar el código front-end para garantizar un funcionamiento adecuado y una experiencia de usuario sin errores. Conocer las herramientas y técnicas de prueba y depuración, como las herramientas de desarrollo del navegador y las pruebas de unidad. BACK-END SKILLS 1.       POO con .NET: Conocimientos básicos de POO, diseñar, desarrollar y mantener aplicaciones web y sistemas robustos y escalables. 2.       API: Comprender y diseñar, consumir APIs, crear endpoints API, establecer autenticación y autorización, y comprender los métodos HTTP y los formatos de intercambio de datos como JSON y XML. 3.       Entity Framework (Must) Nomenclatura en SQL Server (básico) 4.       Programación en Capas 5.       Patrones de Diseño 6.       Conocimiento de Continius integration and delivery 7.       Sistemas de gestión de versiones (básico) SOFT SKILLS ·          Resolución de problemas ·          Pensamiento crítico ·          Flexibilidad y adaptabilidad ·          Trabajo en equipo y colaboración</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-power-bi-pyspark-senior-remoto/110936</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Data Engineer - Power BI - PySpark Senior - Remoto en Adecco</v>
+      </c>
+      <c r="C99" t="str">
+        <v>$ 80,000 a 90,000 MXN (Bruto)</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Roles: Data Engineer, Python Developer, Azure Developer Apply by whats app: 729 5530 777 Requirements and Offer Job Education: Bachelor’s Degree in Information Technologies or related engineering. Languages: High level of proficiency in English (speaking, reading, writing)" Level: B2, C1, C2, Fluent Modality: Home Office 100 % Location: Mexico Workday: Monday - Friday Gross Salary: Open &amp; Negotiable Hiring: 100 % Payroll Benefits: Social Insurance (IMSS), 12 Vacation Days per Year, 15 Days of Christmas Bonus, 25 % Vacation Bonus, Life Insurance. Plus Benefits: Online Technical Trainings and Access to Academies and Certifications. Job Stability and Professional Development Data Engineer (Pyspark / Power BI) Experience building out an Enterprise Data Platform, driving enterprise data services across organization. Strong hands-on Data Engineer/Architect, extensive skills across Data Engineering, PySpark, PowerBI, etc. Strong expertise across Data Governance, classification, Design/Approach level skills along with tactical "get it done" skills to build and get to "run" phases. Expert on Azure environment as a Data Architect, driving integration, modeling, storage, analytics. Experience building out an Enterprise Data Platform, driving enterprise data services across organization. Strong expertise across Data Governance, classification, Design/Approach level skills along with tactical "get it done" skills to build and get to "run" phases. Drive strategically, and help build Data Catalogues, mapping/set up of Data and inbound/outbound data health. Expert on Azure environment as a Data Architect, driving integration, modeling, storage, analytics. End Goal - Data Analytics / self-help driven by user. Must represent strong TECH chops with Synapse Analytics, PowerBI and other analytical platforms for the inbound data to be presented back to biz/IT and other stakeholders. Experience with Microsoft Fabric (nice to have). Experience in Life Sciences Domain - must be familiar with the data. Python Developer Python, PySpark, ADF, SQL Knowledge of a Spark based SaaS/PaaS (Databricks, Fabric, etc). CI/CD knowledge around Pipeline creation (Azure DevOps strongly preferred) for ADF and Spark based applications. Azure Developer Focus on Azure API Managemet and API Gateways. Azure API Guru Assess, Fix, Operationalize their Azure API (API Mgmt and API gateways). Secondary skill set .NET development for help there. Must demonstrate 5+ years within azure and managing APIs. Must show the ability to act as an individual contributor under minimal guidance (10/10 soft skills a MUST). Looking for EST working hours to align with the team Professional Skills Responsibility Service Attitude Focus on Results Logical Mathematical Thinking Communication</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://hireline.io/remoto/empleos/sr-data-scientist-databricks/111706</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Sr Data Scientist - Databricks en Derevo</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Remoto: México, Colombia</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G100" t="str">
+        <v>En Derevo empoderamos a las empresas y las personas, liberando el valor de los datos en las organizaciones. Con más de 15 años de experiencia, diseñamos soluciones de datos e IA de punta a punta: desde la integración en arquitecturas modernas hasta la implementación de modelos inteligentes en procesos clave del negocio. Senior Databricks Data Scientist   (Remoto en México o Colombia) ¿Cual será tu misión? Liderarás la implementación de soluciones de analítica avanzada utilizando Databricks, con el objetivo de transformar grandes volúmenes de datos en información estratégica que impulse la toma de decisiones. Aplicarás tu profundo conocimiento de la plataforma, así como tu experiencia en modelado predictivo y despliegue de soluciones analíticas, tanto en entornos locales como en la nube. Además, jugarás un papel clave al traducir de manera efectiva los requerimientos del cliente en soluciones técnicas que generen valor real para el negocio. ¿Como lo lograrás? Responsabilidades Participarás  de manera proactiva en reuniones con clientes para identificar y documentar sus necesidades analíticas, enfocándote en la arquitectura de datos y en las capacidades específicas de Databricks. Liderarás  procesos de ETL utilizando Databricks para integrar y transformar datos desde múltiples fuentes, garantizando un manejo experto de datos en entornos escalables y distribuidos. Desarrollarás  y aplicarás técnicas avanzadas de ingeniería de datos, como selección y creación de características, reducción de dimensionalidad y análisis PCA, optimizando el rendimiento de los modelos analíticos. Diseñarás ,  implementarás  y  validarás  modelos de analítica avanzada en Databricks, incluyendo algoritmos de aprendizaje automático, asegurando su rendimiento mediante pruebas rigurosas y optimización de procesos. Implementarás  modelos en ambientes de prueba, staging y producción dentro de Databricks, siguiendo las mejores prácticas de la industria para garantizar escalabilidad, seguridad y eficiencia. Elaborarás  documentación técnica y funcional de los proyectos, incluyendo diagramas de solución y manuales de instalación y uso, asegurando que la información clave esté disponible para todas las partes interesadas. Proporcionarás  soporte técnico durante procesos de prospección y ventas, participando en reuniones donde tu experiencia en Databricks será determinante para presentar soluciones efectivas. Monitorearás  y  reportarás  el avance de proyectos y tareas asignadas, asegurando una comunicación clara y efectiva, y manteniendo la confidencialidad y seguridad de los datos del cliente. Colaborarás  activamente con el equipo de Ciencia de Datos, promoviendo el intercambio de conocimientos y la adopción de mejores prácticas en el uso de Databricks. Qué beneficios tendrás? WELLNESS: Impulsaremos tu bienestar integral a través del equilibrio personal, profesional y económico, Nuestros beneficios de ley y adicionales te ayudarán a lograrlo. LET´S RELEASE YOUR POWER: Tendrás la oportunidad de especializarte de manera integral en diferentes áreas y tecnologías, logrando así un desarrollo interdisciplinario. Te impulsaremos a plantearte nuevos retos y superarte a ti mismo.  WE CREATE NEW THINGS: Nos gusta pensar fuera de la caja. Tendrás el espacio, confianza y libertad para crear y la capacitación que se requiera para lograrlo.  WE GROW TOGETHER: Participarás en proyectos tecnológicos punteros, multinacionales y con equipos extranjeros.  Dónde lo harás?  Somos un gran equipo trabajando en un esquema remoto, somos flexibles y estructurados; proporcionando el equipo necesario para trabajar y herramientas de comunicación interna que faciliten nuestra operación y la de nuestros clientes.    Requisitos Para desempeñar este rol, necesitarás lo siguiente: Nivel de inglés C1- Avanzado conversacional Experiencia mínima de 6 años en Ciencia de Datos, con un enfoque especializado en Databricks. Fuerte comprensión de estructuras de datos complejas y modelos de aprendizaje automático, incluyendo regresión polinomial, árboles de decisión, redes neuronales (Deep Learning, LSTM) y técnicas de ensamble (Adaboost, Random Forest, Gradient Boosting). Habilidades en el despliegue de modelos de Python en producción, con experiencia específica en la optimización de código y la instalación de librerías en entornos de Databricks.  Conocimientos avanzados en estadística y probabilidad, así como en la creación y manejo de bases de datos SQL en Databricks.  Dominio de herramientas de análisis y desarrollo como Jupyter Lab y Spyder, con experiencia práctica en la creación de notebooks en Databricks.  Si cumples con la mayoría de los requisitos y te interesó el perfil no dudes en postularte, que nuestro equipo de Talent te contactará!  Become derevian &amp; develop your superpower!</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://hireline.io/remoto/empleos/tester-etl-qa-de-datos-ipc/111589</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Tester ETL / QA de Datos -IPC en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C101" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Tester ETL -IPC   Ingles conversacional obligatorio Trabajo 100% remoto REQUISITOS INDISPENSABLES: Más de  4 años de experiencia en Testing (pruebas) . Conocimiento en  Informatica Powercenter, SQL, ETL o Datawarehouse . Inglés avanzado . Calificaciones: Experiencia sólida en  conceptos de Data Warehousing y procesos ETL . Dominio de  Informatica Scheduler  e  Informatica Powercenter . Habilidades avanzadas en SQL  para manipulación y consultas de datos. Experiencia en  automatización con Unix Shell Scripting . Conocimiento del sector de  seguros de propiedad y accidentes (Property &amp; Casualty Insurance) . Se valora experiencia con otras herramientas y tecnologías de integración de datos. Deseable tener conocimientos en  gobernanza de datos y marcos de calidad de datos . Certificaciones requeridas: Informatica Certified Professional Certificación en SQL Certificación en Unix Shell Scripting Responsabilidades: Liderar el diseño e implementación de soluciones de  almacenamiento de datos (data warehouse)  para apoyar las necesidades de inteligencia de negocio y analítica. Supervisar la  creación de casos de prueba y las pruebas de procesos ETL  utilizando  Informatica Powercenter . Aportar experiencia en  integración de datos  para garantizar un flujo de información fluido entre sistemas. Desarrollar y optimizar  consultas SQL  para la extracción, transformación y carga de datos. Utilizar  Unix Shell Scripting  para automatizar tareas de procesamiento de datos y mejorar la eficiencia. Colaborar con analistas de negocio y otras partes interesadas para comprender los requisitos de datos y ofrecer soluciones. Garantizar la  calidad e integridad de los datos  mediante mecanismos robustos de validación y manejo de errores. Monitorear y resolver problemas en los procesos ETL  para asegurar la entrega oportuna y precisa de los datos. Mantener la documentación de  modelos de datos, procesos ETL y flujos de integración de datos . Mantenerse actualizado con las tendencias de la industria y las mejores prácticas en tecnologías de  data warehouse y ETL . Contribuir a la mejora continua de las prácticas y estándares de gestión de datos. Brindar  orientación técnica y mentoría  a desarrolladores junior. Participar en revisiones de código y asegurar el cumplimiento de los  estándares de codificación y buenas prácticas . Ofrecemos: •  Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  • Vales de despensa mensuales</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://hireline.io/remoto/empleos/tester-funcional-software-oracle-e-business-suite-ebs/111328</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Tester funcional software Oracle E-Business Suite (EBS). en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C102" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Tester funcional software Oracle E-Business Suite (EBS). Ingles conversacional obligatorio 100% remoto Requisitos: • Debe tener experiencia práctica en la validación de sistemas Oracle EBS y sus módulos, así como en flujos de trabajo de extremo a extremo. • También debe saber cómo documentar, planificar pruebas, crear casos de prueba, elaborar informes de resumen de pruebas, ejecutar y reportar pruebas, gestionar y reportar defectos. • Revisar e interpretar requerimientos funcionales y técnicos. • Realizar pruebas funcionales y de regresión, así como seguimiento de defectos desde su descubrimiento hasta su resolución. • Facilitar las pruebas del negocio. • Reporte periódico del estado a las partes interesadas del cliente. • Deseable tener conocimientos en automatización. • Crear y mantener escenarios/guiones de prueba tanto manuales como automatizados. • Se prefiere experiencia en LS y es deseable tener conocimientos y experiencia en marcos de trabajo de automatización. • Entrevista requerida por parte del cliente: Sí. • Sólidas habilidades de comunicación oral y escrita. • Fuertes habilidades interpersonales. Ofrecemos: •      Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •      Prima vacacional del 50% • Aguinaldo a 24 días.  Si te encuentras interesado, manda tu CV a:      contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://hireline.io/remoto/empleos/tester/104820</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Tester en Ia Interactive</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Escolaridad: Licenciatura (Pasante) Lic. Informática, Ing. Sistemas Computacionales, Ing. Tecnologías de la información o afines. Experiencia:  5+ años en testing manual.  Participación en proyectos de diversa complejidad (web,mobile, desktop). Experiencia en diferentes tipos de pruebas: funcionales, regresión, smoke, e2e, regresión, usabilidad, compatibilidad. Conocimiento de normativas y estándares (ISO 25010,ISTQB es un plus). Actividades: • Analizar requisitos y diseñar estrategias de prueba. • Crear y ejecutar casos de prueba manuales. • Reportar y hacer seguimiento de defectos. • Colaborar en la mejora de procesos de QA. • Apoyar en pruebas de aceptación (UAT) con el cliente. • Sugerir mejoras en la experiencia de usuario (UX). Conocimientos específicos necesarios: • Pruebas manuales: Dominio de técnicas de diseño de casos de prueba (equivalencia, valores límite, matrices de decisión, etc.). • Documentación, experiencia: Plan de pruebas, Casos de prueba, Checklists, Reportes de bugs (JIRA). • Metodologías ágiles, conocimiento en: Scrum, Kanban y participación activa en ceremonias (planning, refinamiento, retrospectivas). • APIs: Familiaridad con herramientas como Postman o Swagger para pruebas básicas de servicios web. • Herramientas de gestión, uso de: JIRA, Trello, TestRail, qTest o similares. • Conocimiento de DevOps: Entendimiento del ciclo CI/CD y su impacto en las pruebas. • Inglés conversacional • Soft Skills: Análisis crítico, comunicación efectiva, mentoría, gestión del tiempo, adaptabilidad.  Conocimientos específicos deseados: • Conocimientos básicos de automatización (Selenium, Cypress, Appium). • Certificaciones como ISTQB Advanced Level. • Experiencia en pruebas de seguridad básicas (OWASP).  • Dominio de herramientas de test management (TestRail, Zephyr).</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://hireline.io/remoto/empleos/workday-administrator-integrator-middle-remoto/111506</v>
+      </c>
+      <c r="B104" t="str">
+        <v>WorkDay Administrator/ Integrator Middle - Remoto</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Remoto: Chile, México, Argentina, Bolivia, Colombia, Costa Rica, Dominican Republic, Ecuador, El Salvador, Guatemala, Honduras, Nicaragua, Peru, Uruguay</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Freelance</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G104" t="str">
+        <v>¡Estamos buscando un/a Senior Application Administrator – Workday! ¿Tienes experiencia administrando Workday y te apasiona la optimización de procesos e integraciones? Esta es tu oportunidad de unirte a un proyecto desafiante con impacto global, colaborando con equipos internacionales y trabajando con las tecnologías más avanzadas en el ecosistema Workday. ¿Qué harás en este rol? Diseñar e implementar integraciones complejas entre Workday y ADP. Configurar y optimizar procesos de negocio dentro de Workday. Gestionar la seguridad de la plataforma asegurando cumplimiento normativo (GDPR, HIPAA, CCPA). Apoyar auditorías y garantizar la integridad del sistema. Documentar y capacitar sobre mejores prácticas para usuarios clave. Lo que estamos buscando: +5 años administrando Workday en grandes organizaciones. Experiencia práctica con Studio, EIB, RaaS, API y configuración de seguridad. Sólido conocimiento de procesos de RRHH, cumplimiento y pruebas de sistemas. Excelentes habilidades analíticas, de resolución de problemas y de comunicación. Inglés avanzado (oral y escrito) es indispensable, ya que trabajarás con equipos globales. Preferimos candidatos con certificación Workday Pro (Platform Admin o Security) y formación en IT, Negocios o Contabilidad. Ofrecemos un esquema contractual con pago en dólares , con pagos quincenales  Modalidad remota, trabajando en un entorno ágil y colaborativo. Si buscas un rol con impacto real, enfocado en la eficiencia operativa, innovación y cumplimiento, ¡queremos conocerte! Interesados/as, por favor envíen su CV actualizado (en inglés). #Workday #Integrations #ADP #SeniorAdministrator #InglésAvanzado #OportunidadLaboral #RRHH #TI #PagoEnDólares #Vacante</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-fullstack-sr-con-nodejs-remoto/111376</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Desarrollador Fullstack Sr con NodeJs Remoto en HIRELINE</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Requerimientos: Stack actual (pero están abiertos a nuevas ideas que les ayuden a moverse más rápido): Back-end: Node.js , PostgreSQL, funciones AWS Lambda. Front-end: TypeScript o Angular 19, PrimeNG. Infraestructura: AWS o GCP. Habilidades técnicas: Tener de 4 años a +6 años de experiencia entregando sistemas productivos como ingeniero de software senior Comprender SPAs (idealmente en Angular o Typescript, componentes, servicios, etc.) y saber cómo depurarlos Conocer HTTP, APIs REST, respuestas, JSON perfectamente Tener experiencia con desarrollo back-end usando Node.js   Poder crear endpoints que lean datos de una base de datos SQL y devuelvan datos en formato JSON Soft Skills: Autogestión Capacidad de proponer soluciones Colaboración y comunicación efectiva Mentoreo (deseable) Deseables: Experiencia con agentes de IA Experiencia con herramientas contables o productos SaaS B2B Experiencia implementando colas tipo AWS SQS o comunicación en tiempo real con WebSockets Uso de Python Experiencia mentoreando a otros desarrolladores Inglés conversacional deseable no obligatorio Educación: Ing. en sistemas computacionales, Ing. de Software, afín Esquema de trabajo: Modalidad: Remoto Contractor: (Contrato de Servicios como Asimilados) Tiempo completo Tiempo indefinido Actividades: Trabajar de forma independiente para diseñar, construir y escalar nuevos sistemas. Escribir documentos de diseño que resuman soluciones diseñadas y un plan de acción para lograrlas. Entregar código robusto, escalable y bien probado. Crear servicios que se integren con plataformas financieras, de comunicación y de IA usando colas, WebSockets y solicitudes HTTP (REST + webhooks). Competencias: Auto-gestión Trabajo autónomo Mentoría a perfiles junior (deseable) Toma de decisiones sobre arquitectura Resolución de problemas .....</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-de-soporte-cloud/111245</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Ingeniero de Soporte Cloud en Ia Interactive</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Mínimo 3 años de experiencia en puestos de gestión de Infraestructuras en la nube como AWS, Azure, Google Cloud Platform. Actividades: Implementar y gestionar pipelines de CI/CD para automatizar la construcción, prueba y despliegue de aplicaciones. Automatizar la configuración y el despliegue de infraestructuras mediante herramientas de IaC como: Terraform, AWS CloudFormation, etc. Automatización de infraestructuras con herramientas como: Ansible, Chef, Puppet, etc. Supervisar y gestionar la infraestructura en la nube, asegurando su disponibilidad y rendimiento. Implementar soluciones de monitorización y logging para asegurar la visibilidad y la respuesta rápida a incidentes. Fomentar la colaboración entre equipos de desarrollo y operaciones para mejorar la eficiencia y la calidad del software. Promover y facilitar la adopción de prácticas de DevOps en toda la organización. Aplicando los principales estándares de seguridad de software de la industria. Implementar y gestionar prácticas de seguridad para proteger la infraestructura y las aplicaciones incluyendo herramientas SAST a los procesos de CI/CD. Asegurar el cumplimiento con regulaciones y estándares de la industria. Implementar y gestionar infraestructuras en servicios de nube como: AWS, Azure, Google Cloud Platform. Creación y gestión de contenedores. Manejo de Docker y Kubernetes. Orquestación y gestión de clústeres. Conocimientos necesarios: Familiaridad con metodologías de desarrollo ágil y prácticas de desarrollo continuo (CI/CD). Dominio de herramientas de integración y entrega continua como Jenkins, GitLab CI, CircleCI, Travis CI, etc. Conocimientos en Docker y Kubernetes para la creación y gestión de contenedores. Familiaridad con herramientas de orquestación y gestión de clústeres. Experiencia en la implementación y gestión de infraestructura mediante código utilizando Terraform, AWS CloudFormation, etc. Amplio conocimiento en servicios de nube como AWS, Azure, Google Cloud Platform. Habilidad para diseñar, implementar y gestionar infraestructuras en la nube. Experiencia con herramientas de monitorización y logging como Prometheus, Grafana, ELK Stack (Elasticsearch, Logstash, Kibana), Splunk, etc. Conocimiento en prácticas de seguridad, cumplimiento y gestión de identidades (IAM). Conocimientos deseados: AWS Certified SysOps Administrator – Associate AWS Certified DevOps Engineer – Professional AWS Certified Solutions Architect – Associate o Professional AWS Certified Developer – Associate Conocimientos intermedios de Cyberseguridad en Cloud Computing Conocimientos intermedios en sistemas operativos, Windows y Linux. Conocimientos intermedios en patrones de diseño de infraestructura (Availability, Data Managment, Design &amp; Implementation y Managment &amp; Monitoring).</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-workday-senior-remoto/111604</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Consultor Workday Senior - Remoto en Thekna It</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Workday Consultant   Descripción del Puesto: Estamos buscando un Consultor Principal de Workday experimentado y dinámico para liderar proyectos y equipos en un entorno global. Si eres un profesional con habilidades en Workday Functional Module o Integraciones y una sólida trayectoria en roles de cliente en un modelo de entrega global, ¡esta es tu oportunidad!   Responsabilidades: ·        Liderar equipos de trabajo funcional y técnico para proyectos de Workday ·        Aplicar y implementar metodologías de AMS y actividades en proyectos de Workday ·        Colaborar con equipos de entrega global y onshore en actividades diarias y análisis de causa raíz ·        Proporcionar soporte técnico y cobertura de vacaciones según sea necesario ·        Coordinar con partes interesadas internas y externas para crear impacto empresarial alto ·        Diseñar y implementar soluciones de Gestión Financiera de Workday ·        Supervisar el desarrollo y mantenimiento de informes técnicos de Workday ·        Proporcionar experiencia técnica en HCM de Workday   Requisitos: ·        Mínimo 5-7 años de experiencia en la gestión de aplicaciones corporativas ·        Al menos 3-5 años de experiencia en roles de cliente en un modelo de entrega global ·        Mínimo 3-5 años de experiencia en Workday Functional Module o Integraciones ·        Certificación activa de Workday ·        Experiencia en Workday HCM, Gestión Financiera y Informes Técnicos ·        Sólido entendimiento de principios de Finanzas y Contabilidad ·        Excelentes habilidades de resolución de problemas y análisis ·        Buenas habilidades de comunicación y colaboración     Certificación requerida: Workday HCM Certification   Ofrecemos: ·        Prestaciones de ley ·        Prestaciones superiores ·        Gastos médicos mayores ·        Seguro dental y visual ·        Seguro de Vida REMOTO 100%</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://hireline.io/remoto/empleos/back-end-developer-python-middle-remoto/108829</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Back End Developer Python Middle - Remoto en Quo Digital</v>
+      </c>
+      <c r="C108" t="str">
+        <v>$ 30,000 a 35,000 MXN (Neto)</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G108" t="str">
+        <v>+ 3 años de experiencia  Inglés básico- Intermedio  Actividades: Desarrollo de un par de portales, integrarlos con APIS REST y SOAP Trabajar en colaboración con el equipo de desarrollo backend para asegurar la correcta implementación de datos y funcionalidad de los productos web. Revisión, detección y solución de problemas (backend) en desarrollos web. Planear, priorizar y manejar carga de trabajo con múltiples proyectos. Revisión y asimilación de estándares y lineamientos QA. Conocimientos indispensables: Python PostgreSQL AWS NodeJS   Queremos conocer tu talento, postula con tu Hoja de vida actualizada</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://hireline.io/remoto/empleos/product-owner-jira-middle-remoto/110481</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Product Owner Jira Middle - Remoto en Openpay</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G109" t="str">
+        <v>¿Te gustaría conocer las Tripas de Openpay? ¿Te gustaría conocer la columna vertebral de Openpay? ¿Te apasiona la gestión de equipos multidiciplinarios?  ¿Te gustaría hablar con los clientes y el equipo de Openpay para ayudarlos en temas de medios de pagos? ¡¡Esta oportunidad es para ti!! Buscamos Product Ower Estudiaste Ingeniería/Licenciatura en Sistemas Computacionales, Ing. Industríal (cada vez estás más cerca de ser un Opener)  Qué debes de conocer: Medios de pago: Conocimiento profundo de tecnologías como tarjetas de crédito/débito, billeteras digitales, pagos en línea, pagos móviles (NFC, QR), transferencias instantáneas, entre otros. Sistemas financieros: Entendimiento de cómo funcionan las redes de pagos (Visa, Mastercard, AMEX, Carnet, entre otras), adquirentes, emisores y pasarelas de pago. Gestión de producto: Capacidad para definir y priorizar el backlog del producto basado en las necesidades del cliente, el impacto comercial y las capacidades técnicas.</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-django-python-full-stack-senior-remoto/111728</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Ingeniero Django + Python Full-Stack Senior - Remoto en Pearl Talent</v>
+      </c>
+      <c r="C110" t="str">
+        <v>$ 4,500 a 4,999 USD (Neto)</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Inglés : Lengua Nativa</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Django + Python Engineer Description Overview Job Title:  Senior Full-stack Engineer Work Arrangement:  Remote| Must be able to work EST hours Job Type:  Full-time Salary:  Competitive base salary in USD Industry:  PropTech / B2B SaaS / Real Estate Technology Work Schedule:  40 hours per week About Pearl Talent Pearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US. Hear why we exist, what we believe in, and who we’re building for:  Watch here ‍  Why Work with Us? We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat. About the company Our partner company helps the world’s most prominent companies navigate their most important brand, reputation, and product challenges. We specialize in high-impact research with hard-to-reach audiences -- recruiting the exact audiences our clients need, anywhere in the world. Our in-house teams ensure rigorous quality, rapid execution, and clear, strategic insights. Every engagement is custom-built, senior-led, and designed to deliver answers that drive key decisions. About the Role We’re seeking a  Senior Full-Stack Engineer  to lead the architecture and implementation of intelligent, scalable web applications. You’ll work hands-on with  Django, React, PostgreSQL , and  AWS , while collaborating closely with data scientists to deliver AI-driven product features. Key Responsibilities Architect and develop full-stack applications with  AI model integration . Build APIs and backend logic in  Django  and develop dynamic UIs in  React . Design efficient data models and optimize performance in  PostgreSQL . Deploy and monitor machine learning models in production environments using  AWS  (e.g., Lambda, ECS, SageMaker). Guide team members, lead code reviews, and enforce best practices. Be available for collaboration, meetings, and feedback cycles during  Eastern Standard Time (EST) hours . Requirements Requirements 5+ years of full-stack development experience with  Python/Django  and  React . Strong experience with  PostgreSQL  database design and performance tuning. Practical experience deploying  machine learning models  in real-world applications. Proficiency with  AWS  services for web and AI application deployment. Ability to work autonomously, mentor junior developers, and contribute to architecture decisions. Must be able to  work EST hours. Nice to Have Familiarity with  MLOps  practices and tools (e.g., model versioning, inference pipelines). Experience with Docker, Kubernetes, and CI/CD tooling. Solid understanding of software scalability, security, and performance optimization. Benefits   Why Join Now Be a foundational member of a venture-scale company with real distribution advantages in real estate. Own key technical systems from day one, shaping how they evolve. Culture built on speed, iteration, and execution. What You’ll Get Professional Development : Annual learning budget for books, courses, and conferences Mentorship : Learn directly from startup veterans (ex-Looker, GitHub, Mulesoft) Impact : Help shape a growing brand with a voice that influences fintech innovation Inspiring Workspaces : Offices in Berlin, New York, and London, with travel opportunities Flat Hierarchy : Work directly with founders and have your ideas heard Flexible Work Setup : Equipment of your choice, strong home office support Hiring Process Application Screening Top-grading Interview Skills Assessment Client Interview Offer Onboarding</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://hireline.io/remoto/empleos/staff-fullstack-software-engineer/111610</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Staff FullStack Software Engineer en ISITA</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Summary ·          The position is for a Full Stack Engineer with experience with React.js, Rest API, and back-end development with Node. They must write in JavaScript frontend using React.js and REST, as well as be able to code back-end with Node.js. They must know CSS and HTML extensively in addition.   Requirements Technical Skills &amp; Experience: ·          8+ years of experience in computer-related fields ·          Solid experience in JavaScript ·          6+ years of experience in React.js ·          3+ years of experience in Node.js ·          Solid experience in REST API Development. ·          Solid experience in modern Node and React concepts (Functional components, context, and hooks) ·          Coordinate microservices-based solutions, ensuring seamless integration and efficient communication across distributed services. ·          Collaborate on micro-frontend architecture and implementation. ·          Implement robust monitoring, logging, and instrumentation to ensure application performance and Stability ·          Experience with SQL (PostgreSQL experience is preferable but not required) ·          Data modeling is required. ·          Experience with Agile Methodologies ·          Knowledge of design patterns, experience with abstractions, and code isolation. ·          Experience with writing tests and debugging ·          The notion of security practices. ·          Error handling and troubleshooting experience is required.  ·          Experience in unit testing.  ·          Experience working with microservices-based solutions, ensuring seamless integration and efficient communication across distributed services.</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://hireline.io/remoto/empleos/fi-asset-management-sap-fico-senior-remoto-hibrido-mty/111361</v>
+      </c>
+      <c r="B112" t="str">
+        <v>FI Asset Management (SAP FICO) Senior - Remoto-Híbrido-MTY en ITCHOME</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G112" t="str">
+        <v>FI Asset Management (SAP FICO) «Senior» « Remoto - Hpibrido -MTY  »     Experienc ia Requ erida e n : PRIMARY SKILL: SAP FI Asset Management Construir, configurar y testear software empaquetado y soluciones SaaS. Desarrollar y probar nuevos componentes o mejoras. Brindar soporte principal para lanzamientos a producción, incluyendo plan y cronograma de despliegue.  Participar activamente en decisiones clave del equipo y colaborar con múltiples áreas. Convertirte en referente en SAP FI Asset Management. Título universitario en áreas relacionadas. Dominio avanzado en SAP for Retail Finance &amp; Controlling (FICO) – con enfoque en Asset Management. +5 años o más de experiencia en habilidades relacionadas. Nivel de inglés Avanzado / 80% Conversacional Ofrecemo s : Nómina + Perstaciones de Ley y Superiores Ubicación : Remoto /En caso de residir en MTY, será híbrida la asignación 1-2 días en sitio</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://hireline.io/remoto/empleos/product-security-lead/111743</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Product Security Lead en Ia Interactive</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Ingeniería en sistemas computacionales, Licenciatura en informática, Ciberseguridad o carrera afín. Minimo 5 años de experiencia en: 1. Diseño e implementación de estrategias de seguridad en el SDLC 2. Gestión de vulnerabilidades y riesgos aplicados a entornos de desarrollo 3. Implementación y gestión de herramientas para evaluación de seguridad (SAST, DAST y SCA) 4. Trabajo directo con equipos de desarrollo, arquitectura y producto 5. Comunicación y reporte ejecutivo hacia gerencia de Information Security y direcciones de la agencia 6. Definición de políticas, SLA y procesos de seguridad basados en SDLC, PCI SLC y SAMM 7. Modelado de amenazas (Threat Modeling) 8. Requerimientos y pruebas de seguridad en el desarrollo Actividades: 1. Generar, mantener y liderar una estrategia que permita la madurez de las prácticas de seguridad en el desarrollo de software 2. Tomar decisiones tácticas respecto a los riesgos y amenazas a la seguridad en el desarrollo de software 3. Guiar técnica y tácticamente al equipo de Product Security. 4. Detectar, analizar y mitigar vulnerabilidades de forma proactiva. 5. Coordinar con otras áreas técnicas para definir y asegurar el cumplimiento de políticas de seguridad en el desarrollo seguro. 6. Planificar y realizar el seguimiento de la implementación y madurez de las prácticas de seguridad en el SDLC 7. Asegurarse de que los colaboradores del área de Product Security estén capacitados en su especialidad. 8. Reportar avances, resultados y riesgos al Information Security Manager. 9. Definir y monitorear KPIs y SLAs de seguridad aplicados en la estrategia de Product Security. Conocimientos necesarios: 1. Pentesting, ethical hacking y técnicas de seguridad ofensiva avanzada. 2. Seguridad en aplicaciones web y móviles (OWASP Top 10, API Security). 3. Modelado de amenazas (Threat Modeling) 4. Ciclo de vida seguro del software (SDLC) y marcos de madurez (OWASP SAMM) 5. Ciberinteligencia y gestión de vulnerabilidades 6. Herramientas de análisis de código y seguridad de aplicaciones (SAST, DAST y SCA) 7. Experiencia práctica con lenguajes de programación (Java, Python, JavaScript, etc.) 8. Comunicación efectiva y asertiva, tanto con equipos técnicos como con alta dirección 9. Proactividad en la resolución de problemas antes de que escalen 10. Planeación estratégica y táctica. 11. Certificaciones avanzadas (Ej, CISSP, CSSLP, PEN-300, WEB-300, Security +, Pentest +, CASP, etc). 12. Administración y uso de Snyk 13. Inglés nivel B2 Conocimientos deseados: 1. Seguridad en la nube</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://hireline.io/remoto/empleos/scrum-master-con-experiencia-en-implementacion-erp-o-crm/111643</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Scrum Master - con experiencia en implementación ERP o CRM en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C114" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Scrum Master Ingles conversacional obligatorio 100% Remoto Estamos en busqueda de un  Scrum Master altamente capacitado  con experiencia comprobada en la gestión de proyectos de implementación de soluciones ERP o CRM. Esta persona será responsable de facilitar la adopción y ejecución del marco ágil Scrum dentro de equipos multifuncionales, asegurando la entrega eficiente, colaborativa y de alto valor de iniciativas tecnológicas clave para el negocio. Requisitos 2-5 años de experiencia como Scrum Master . Certificación Scrum Master vigente  (deseable). Experiencia comprobada en  implementaciones de ERP (SAP, Oracle, Dynamics, etc.) o CRM (Salesforce, Dynamics 365, etc.) . Conocimiento práctico de frameworks ágiles adicionales (Kanban, SAFe, LeSS, etc.) es una ventaja. Experiencia en gestión de proyectos técnicos y funcionales en ambientes complejos y con múltiples stakeholders. Conocimiento de herramientas ágiles (Jira, Confluence, Azure DevOps, etc.). Excelentes habilidades de comunicación, liderazgo, facilitación y resolución de conflictos. Ofrecemos: •  Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  • Vales de despensa mensuales Si te encuentras interesado, manda tu CV a: contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://hireline.io/remoto/empleos/senior-java-engineer-remoto/111342</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Senior Java Engineer - Remoto en Alcor</v>
+      </c>
+      <c r="C115" t="str">
+        <v>$ 6,000 a 6,499 USD (Bruto)</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Remoto: Costa Rica</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Senior Java Engineer Remote – LATAM | Full-time | Contractor Alcor is partnering with a fast-growing private lending platform in the U.S. real estate tech sector. This company processes thousands of residential loan applications annually and has already originated over $5B in loans. We’re looking for a Senior Java Engineer to join their backend team and contribute to the development of high-performance, scalable services powering modern web and mobile experiences. What You’ll Do: Design, develop, and maintain robust backend systems using Core Java and Spring frameworks Build and optimize REST APIs that power data-intensive applications Work with relational databases like PostgreSQL, MySQL , or Oracle and write performant SQL queries Debug logs and troubleshoot production issues Collaborate in an Agile/Scrum environment, participating in sprints and story grooming sessions Optionally contribute to frontend initiatives (React, HTML, CSS, JavaScript – nice to have) (If applicable) Provide mentorship and guidance to other engineers while also being hands-on What We’re Looking For: 10+ years of Java experience , including strong knowledge of OOP, Data Structures, and Collections Proven track record in building scalable RESTful services Solid experience with SQL and database design Familiarity with microservices architecture and optionally NoSQL databases Experience using version control systems (Git, GitLab, Bitbucket, etc.) Strong communication and analytical skills Self-starter with a proactive attitude and a team-first mindset Comfortable working independently and delivering in a fast-paced environment Bonus Points: Experience with frontend development (React, HTML/CSS/JS) Exposure to the fintech or real estate tech space Prior experience managing engineering teams (for candidates looking to grow into a tech lead path) This is a high-impact role ideal for someone who thrives in a fast-paced environment and is motivated by tangible outcomes. If you're looking for a meaningful challenge and a chance to scale backend systems that support real-world financial products—this is it.</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-mdg-senior-remoto-disponibilidad-para-viajar/111196</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Consultor SAP MDG Senior - Remoto-Disponibilidad para Viajar en ITCHOME</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Consultor SAP MDG « Senior »  « Remot o-Disponibilidad para Viajar » Experien cia Requerida en : Dominio experto en SAP Master Data Governance (MDG). Experiencia avanzada en Gestión de Datos Maestros Financieros . Entre 5 y 10 años de experiencia en roles similares. Título universitario en áreas afines. Habilidades de liderazgo, comunicación y resolución de problemas. Nivel de inglés intermedio Disponibilidad para viajar a Monterrey 2-3 veces al mes (V iáticos Pagados) Se valorará adicionalmente: Experiencia experta en SAP MDG-F (Master Data Governance for Financial Data). Conocimientos intermedios en Diseño de Arquitectura de Soluciones. Oferta : Nómina + Prestaciones de Ley y Superiores Ubicación : Remoto / Monterrey</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-eppds-senior-remoto-hibrido-mty/111364</v>
+      </c>
+      <c r="B117" t="str">
+        <v>SAP ePPDs Senior - Remoto-Híbrido-MTY en ITCHOME</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G117" t="str">
+        <v>SAP ePPDs « Senior» « Remoto - Híbrido -MTY »  Experiencia Requerida en: Consultor SAP S/4HANA – Embedded Production Planning &amp; Detailed Scheduling (EPPDS) Responsabilidades:     -Configurar, construir y testear software empaquetado &amp; soluciones SaaS     -Desarrollar y mejorar nuevos componentes     -Brindar soporte principal en los lanzamientos a producción, incluyendo planificación y ejecución de despliegues Requisitos: Dominio avanzado en SAP S/4HANA Embedded PP/DS Título universitario en campos relevantes  Al menos 5 años de experiencia en habilidades relacionadas  Nivel de inglés avanzado Deseable: - Experiencia avanzada en prácticas DevOps - Conocimiento intermedio en metodologías ágiles - Dominio experto en Cloud Computing Ofrecemos : Nómina + Perstaciones de Ley y Superiores Ubicación : Remoto /En caso de residir en MTY, será híbrida la asignación 1-2 días en sitio</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>https://hireline.io/remoto/empleos/fi-invoice-to-cash-sap-fico-senior-remoto-hibrido-mty/111362</v>
+      </c>
+      <c r="B118" t="str">
+        <v>FI Invoice to Cash (SAP FICO) Senior - Remoto-Híbrido-MTY en ITCHOME</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G118" t="str">
+        <v>FI Invoice to Cash (SAP FICO) «Senior» « Remoto - Hpibrido -MTY  »     Experienc ia Requ erida e n : PRIMARY SKILL: SAP FI Invoice to Cash Construir, configurar y testear soluciones SAP y productos SaaS. Desarrollar nuevos componentes o mejoras. Dar soporte primario en releases a producción, incluyendo plan de despliegue y cronograma. Ser referente en Invoice to Cash (Cuentas por cobrar) y finanzas. Requisitos: Título universitario en campos relacionados. Dominio avanzado en SAP FI – Invoice to Cash (I2C). Mínimo 5 años de experiencia relevante. Nivel de inglés Avanzado Ofrecemo s : Nómina + Perstaciones de Ley y Superiores Ubicación : Remoto /En caso de residir en MTY, será híbrida la asignación 1-2 días en sitio</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>https://hireline.io/remoto/empleos/lider-de-pruebas-microsoft-azure-senior-remoto/111008</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Líder de Pruebas Microsoft Azure Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C119" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:  Líder de Pruebas Modalidad de trabajo hibrido/remoto Descripción: En este puesto, liderarás la estrategia, la planificación y las actividades de pruebas de múltiples aplicaciones o versiones para el entorno del almacén de datos a lo largo de su ciclo de vida de desarrollo de software, abarcando pruebas funcionales, no funcionales, de regresión y de automatización en los niveles de pruebas de sistema e integración de sistemas. El candidato coordinará las pruebas con miembros del equipo, que pueden estar en varios países, y trabajará para garantizar la coordinación entre las partes interesadas del proyecto (por ejemplo, Scrum Masters, gerentes de proyecto, líderes del equipo de pruebas, etc.).   Experiencia requerida: • Más de cuatro años de experiencia en pruebas funcionales en entornos de almacenamiento de datos (creación de planes de prueba, casos de prueba y estrategia de datos de prueba). • Más de cuatro años de experiencia con herramientas de gestión de proyectos y pruebas (p. ej., Jira, Ciclo de Vida de Administración de Aplicaciones (ALM), Azure DevOps, PICT, etc.). • Más de tres años de experiencia en pruebas de extracción, transformación y carga (ETL), incluyendo la validación de datos en los sistemas de origen y destino. • Más de tres años de experiencia en pruebas de bases de datos/pruebas de almacenamiento de datos, incluyendo la comparación y validación de datos mediante consultas SQL. • Más de tres años de experiencia con la metodología ágil de entrega de proyectos (p. ej., Scrum). • Experiencia liderando estrategias de automatización de pruebas en proyectos. • Experiencia en el sector de servicios financieros (p. ej., seguros, banca, inversiones, procesamiento de tarjetas de crédito, etc.).   Experiencia preferida: • Experiencia en el sector de seguros generales. • Experiencia con marcos de automatización de pruebas (p. ej., ADAPT, Robot). SpecFlow) • Experiencia con herramientas de ETL/automatización de datos, incluyendo scripting (p. ej., Python, Java) Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>https://hireline.io/remoto/empleos/lider-de-pruebas-remoto/110957</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Líder de Pruebas - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C120" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:  Líder de Pruebas Modalidad de trabajo hibrido/remoto Descripción: En este puesto, liderarás la estrategia, la planificación y las actividades de pruebas de múltiples aplicaciones o versiones para el entorno del almacén de datos a lo largo de su ciclo de vida de desarrollo de software, abarcando pruebas funcionales, no funcionales, de regresión y de automatización en los niveles de pruebas de sistema e integración de sistemas. El candidato coordinará las pruebas con miembros del equipo, que pueden estar en varios países, y trabajará para garantizar la coordinación entre las partes interesadas del proyecto (por ejemplo, Scrum Masters, gerentes de proyecto, líderes del equipo de pruebas, etc.).   Experiencia requerida: • Más de cuatro años de experiencia en pruebas funcionales en entornos de almacenamiento de datos (creación de planes de prueba, casos de prueba y estrategia de datos de prueba). • Más de cuatro años de experiencia con herramientas de gestión de proyectos y pruebas (p. ej., Jira, Ciclo de Vida de Administración de Aplicaciones (ALM), Azure DevOps, PICT, etc.). • Más de tres años de experiencia en pruebas de extracción, transformación y carga (ETL), incluyendo la validación de datos en los sistemas de origen y destino. • Más de tres años de experiencia en pruebas de bases de datos/pruebas de almacenamiento de datos, incluyendo la comparación y validación de datos mediante consultas SQL. • Más de tres años de experiencia con la metodología ágil de entrega de proyectos (p. ej., Scrum). • Experiencia liderando estrategias de automatización de pruebas en proyectos. • Experiencia en el sector de servicios financieros (p. ej., seguros, banca, inversiones, procesamiento de tarjetas de crédito, etc.).   Experiencia preferida: • Experiencia en el sector de seguros generales. • Experiencia con marcos de automatización de pruebas (p. ej., ADAPT, Robot). SpecFlow) • Experiencia con herramientas de ETL/automatización de datos, incluyendo scripting (p. ej., Python, Java) Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •      Vales de despensa por $3300,53  •      Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:      empleo (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>https://hireline.io/remoto/empleos/analista-de-negocios-agile-senior-remoto/111462</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Analista de Negocios Agile Senior - Remoto en It Seekers</v>
+      </c>
+      <c r="C121" t="str">
+        <v>$ 15,000 a 20,000 MXN (Bruto)</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Años de experiencia Mas de 8 años Descripción de la vacante  Se requiere un agile coach, el Perfil técnico con agile estara enfocado a ver la planeacion  Estará trabajando con el área operativa y en conjunto con planeación, realizará gestiones, coordinación de generación de métricas de las fábricas, seguimiento a cumplimiento de las mismas, reporte ejecutivo Habilidades Requeridas Experiencia en proyectos con metodología agile y scrum  Manejo de grupos, excelente comunicación ya que estará en contacto con las fábricas Más enfocado a la gestión, pero que sí conozca algo técnicamente Ayudará a coordinar métricas, rendimiento de cada fábrica Gestión y planeación de liberaciones Un nivel de senority bueno Conocimiento de ágiles, agilidad escalada seria un plus Herramientas requeridas Manejo de herramientas de gestión de proyectos Jira, project</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-grc-sap-security-sap-identity-and-access-management-security/111366</v>
+      </c>
+      <c r="B122" t="str">
+        <v>SAP GRC / SAP Security / SAP Identity and Access Management (Security) en ITCHOME</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G122" t="str">
+        <v>SAP GRC / SAP Security /SAP IDentitiy and Access Mgmt (Security) « Senior» « Remoto - Híbrido -MTY »    Experiencia Requerida en: Especialista en SAP Governance , Risk &amp; Compliance Responsabilidades:     Construir, configurar y testear software empaquetado &amp; productos SaaS      Desarrollar nuevos componentes y mejoras continuas      Brindar soporte principal en los despliegues a producción, asegurando planificación y ejecución impecables Requisitos: Dominio avanzado en SAP Governance Risk and Compliance (SAP GRC) Título universitario en un área relevante Mínimo 5 años de experiencia en habilidades relacionadas Nivel de inglés Avanzado Ofrecemos : Nómina + Perstaciones de Ley y Superiores Ubicación : Remoto /En caso de residir en MTY, será híbrida la asignación 1-2 días en sitio</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>https://hireline.io/remoto/empleos/data-analyst-microsoft-azure-senior-remoto/111225</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Data Analyst Microsoft Azure Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C123" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Data Analyst Inglés conversacional obligatorio Para laborar en Remoto Requisitos: Licenciatura en Estadística, Matemáticas, Ingeniería, Economía, Informática o carrera afín. Conocimiento sólido en SQL y herramientas de bases de datos. Experiencia en herramientas de análisis y visualización de datos ( Power BI, Tableau, DAX, etc.). Familiaridad con lenguajes como Python o R (deseable). Capacidad analítica, pensamiento crítico y atención al detalle. Buenas habilidades de comunicación para presentar hallazgos a audiencias no técnicas. Responsabilidades principales: Recolectar y limpiar datos provenientes de diversas fuentes. Analizar datos utilizando herramientas estadísticas y de visualización. Desarrollar y mantener dashboards interactivos (por ejemplo, en Power BI, Tableau). Generar reportes periódicos con insights clave para las áreas involucradas. Identificar tendencias, patrones y oportunidades de mejora a partir de los datos. Trabajar en conjunto con equipos de producto, marketing, finanzas, entre otros. Apoyar en la toma de decisiones basadas en datos (data-driven). Experiencia en Azure Data Lake, Azure SQL Database, and Azure Synapse Analytics Ofrecemos: •     Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  • Vales de despensa por $3300,53  Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>https://hireline.io/remoto/empleos/qa-automation-engineer-cypress-senior-remoto/111458</v>
+      </c>
+      <c r="B124" t="str">
+        <v>QA Automation Engineer (Cypress) Senior - Remoto en Gta Telecom De México</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Remoto: México, Colombia, Costa Rica, Peru, Venezuela</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G124" t="str">
+        <v>En GTA Telecomunicaciones, somos una empresa con más de 20 años de experiencia en el mercado, en donde manejamos proyectos para diferentes clientes tanto nacionales como internacionales, en donde, estamos buscando... QA Automation Engineer (Cypress) Job Summary: We are seeking a detail-oriented and proactive QA Automation Engineer to join our Software Quality team. In this role, you will be responsible for designing, developing, and executing automated and manual test cases across a suite of cloud-based web applications. Your primary focus will be on test automation and data testing as part of our agile software development lifecycle. This is a hands-on position requiring strong collaboration with developers, analysts, and business teams to ensure the delivery of high-quality software. Key Responsibilities Drive the continuous improvement of QA processes and best practices. Design, develop, and maintain automated test scripts using Cypress or other modern automation frameworks. Execute and maintain test plans using Azure DevOps Test Plans and update test cases based on defect analysis. Perform comprehensive data validation and data quality testing using SQL queries. Collaborate closely with developers and quality analysts to troubleshoot and resolve issues. Participate in requirements reviews, system design sessions, and code inspections. Translate business processes and requirements into test cases and automation scenarios. Conduct various types of testing, including UI, API, functional, ETL, regression, and GUI testing. Contribute to the implementation of CI/CD pipelines by integrating automated tests. Required Qualifications  Bachelors degree in Computer Science, Information Technology, or a related field. 5 years of experience in software quality assurance with a focus on automation. Proven experience with Cypress for UI and API automation. Strong SQL skills and experience in testing data-intensive applications. Hands-on experience with Git for version control and collaboration. Familiarity with HTML, JavaScript, CSS, and front-end technologies. Strong analytical and problem-solving skills with attention to detail. Ability to communicate effectively with both technical and non-technical stakeholders. Self-motivated, adaptable, and capable of working in a fast-paced, dynamic environment.  Preferred Skills Experience with CI/CD tools and test integration. Exposure to cloud environments (e.g., Azure, AWS). Knowledge of performance or security testing tools is a plus</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>https://hireline.io/remoto/empleos/lider-de-qa-para-almacenes-de-datos-etl-senior-remoto/111029</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Líder de QA para Almacenes de Datos ETL Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C125" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:  Líder de QA para Almacenes de Datos Modalidad de trabajo hibrido/remoto Descripción: En este puesto, liderarás la estrategia, la planificación y las actividades de pruebas de múltiples aplicaciones o versiones para el entorno del almacén de datos a lo largo de su ciclo de vida de desarrollo de software, abarcando pruebas funcionales, no funcionales, de regresión y de automatización en los niveles de pruebas de sistema e integración de sistemas. El candidato coordinará las pruebas con miembros del equipo, que pueden estar en varios países, y trabajará para garantizar la coordinación entre las partes interesadas del proyecto (por ejemplo, Scrum Masters, gerentes de proyecto, líderes del equipo de pruebas, etc.).   Experiencia requerida: • Más de cuatro años de experiencia en pruebas funcionales en entornos de almacenamiento de datos (creación de planes de prueba, casos de prueba y estrategia de datos de prueba). • Más de cuatro años de experiencia con herramientas de gestión de proyectos y pruebas (p. ej., Jira, Ciclo de Vida de Administración de Aplicaciones (ALM), Azure DevOps, PICT, etc.). • Más de tres años de experiencia en pruebas de extracción, transformación y carga (ETL), incluyendo la validación de datos en los sistemas de origen y destino. • Más de tres años de experiencia en pruebas de bases de datos/pruebas de almacenamiento de datos, incluyendo la comparación y validación de datos mediante consultas SQL. • Más de tres años de experiencia con la metodología ágil de entrega de proyectos (p. ej., Scrum). • Experiencia liderando estrategias de automatización de pruebas en proyectos. • Experiencia en el sector de servicios financieros (p. ej., seguros, banca, inversiones, procesamiento de tarjetas de crédito, etc.).   Experiencia preferida: • Experiencia en el sector de seguros generales. • Experiencia con marcos de automatización de pruebas (p. ej., ADAPT, Robot). SpecFlow) • Experiencia con herramientas de ETL/automatización de datos, incluyendo scripting (p. ej., Python, Java) Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •        Vales de despensa por $3300,53  •        Apoyo monetario en caso de que trabajes desde Home Office. Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-de-mdm-especialista-en-reltio-mdm/111168</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Desarrollador de MDM Especialista en Reltio MDM en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C126" t="str">
+        <v>$ 80,000 a 90,000 MXN (Bruto)</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Desarrollador Senior de MDM con Ratio / Arquitecto Especialista en Reltio MDM Ingles conversacional obligatorio 100% remota Estamos en la búsqueda de un arquitecto con experiencia, con entre 8 y 12 años de trayectoria especializado en Reltio MDM. El candidato ideal tendrá una sólida experiencia en soporte de aplicaciones. El arquitecto desempeñará un papel crucial en el diseño e implementación de soluciones MDM que se alineen con los objetivos comerciales de la empresa. Calificaciones   Poseer una sólida formación técnica con amplia experiencia en Reltio MDM.   Demostrar competencia en el diseño e implementación de soluciones MDM.   Tener un buen entendimiento de los principios de gobernanza y gestión de datos.   Contar con excelentes habilidades para la resolución de problemas y diagnóstico de fallas.   Tener experiencia en soporte de aplicaciones e integración con sistemas MDM. Responsabilidades Liderar el diseño e implementación de soluciones Reltio MDM para satisfacer los requerimientos del negocio. Supervisar el desarrollo y mantenimiento de la arquitectura MDM, asegurando su alineación con las mejores prácticas de la industria. Colaborar con las partes interesadas para recopilar y analizar requisitos de proyectos MDM. Asegurar la integridad y calidad de los datos maestros mediante prácticas efectivas de gobernanza de datos. Desarrollar y hacer cumplir políticas y procedimientos de gestión de datos para mantener su precisión y coherencia. Monitorear y optimizar el rendimiento de los sistemas MDM para garantizar alta disponibilidad y confiabilidad. Realizar revisiones y auditorías periódicas de los procesos MDM para identificar y corregir problemas o áreas de mejora. Brindar soporte y resolución de problemas relacionados con MDM. Preparar y entregar documentación técnica y materiales de capacitación para usuarios finales y equipos de soporte. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •   Vales de despensa por $3300,53  •   Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:            contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-s4hana-group-reporting-senior-remoto-disponibilidad-para-viajar/111201</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Consultor SAP S4Hana Group Reporting Senior - Remoto-Disponibilidad para Viajar en ITCHOME</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Consultor SAP S4Hana Group Reporting « Senior»  « Remoto-Disponibilidad para Viajar » Experiencia Requerida en: Consultor SAP  S/4HANA Group Reporting . Diseñar, configurar y optimizar procesos en SAP S/4HANA Group Reporting . Implementar soluciones que cumplan con los estándares contables y de reporte financiero. Colaborar con equipos multidisciplinarios para mejorar la eficiencia de los procesos financieros. Desarrollar y probar nuevos componentes o mejoras en el sistema. Brindar soporte en la implementación y puesta en marcha de nuevas versiones del sistema. Requisitos: Dominio experto en SAP S/4HANA Group Reporting . Experiencia avanzada en normas contables y de reporte financiero. Entre 5 y 10 años de experiencia en roles similares. Título universitario en áreas afines. Habilidades de liderazgo, resolución de problemas y comunicación efectiva. Nivel de inglés intermedio Residencia en Monterrey (Modalidad Híbrida) / Disponibilidad para viajar a Monterrey 2-3 veces al mes (Viáticos Pagados) Oferta : Nómina + Prestaciones de Ley y Superiores Ubicación : Remoto / Monterrey</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>https://hireline.io/remoto/empleos/arquitecto-data-azure-senior-remoto/111675</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Arquitecto Data Azure Senior - Remoto en Talentosy</v>
+      </c>
+      <c r="C128" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Posición Remota para Candidatos Residentes en México Requisitos:  Arquitecto de soluciones con experiencia sólida en el diseño e implementación de arquitecturas de datos, inteligencia artificial y machine learning sobre la nube de Microsoft Azure. Con una visión estratégica y técnica, lidero la creación de soluciones escalables, seguras y orientadas a negocio, habilitando capacidades de IA y automatización en entornos corporativos. Especializado en Azure Machine Learning, Azure OpenAI, Cognitive Services y la integración de modelos predictivos y generativos dentro de arquitecturas serverless y data pipelines.   Enfoque integral, desde la ingestión y procesamiento de datos, hasta el entrenamiento, evaluación y despliegue de modelos productivos bajo principios de MLOps.</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>https://hireline.io/remoto/empleos/especialista-en-migracion-de-datos-sap-remoto/111091</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Especialista en Migración de Datos SAP - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C129" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP – Data Migration Ingles conversacional obligatorio 100% remoto Como  Staff Software Engineer (SAP)  en el área de  Migración de Datos  , se espera que este desarrollador participe activamente en las actividades de migración de datos del proyecto, apoyando la conversión exitosa de datos desde ECC a S/4HANA (  implementación Greenfield  ). Este rol requiere un sólido entendimiento del modelo de datos de  S/4HANA  (Maestro y Transaccional). El desarrollador trabajará en estrecha colaboración con equipos multifuncionales para garantizar la integridad de los datos y permitir una transición fluida de los sistemas ECC a la plataforma S/4HANA. Requisitos  : Mínimo  8 años de experiencia relevante en ABAP  , con al menos  4 años de experiencia práctica en migración de datos  . Dominio de los modelos y estructuras de datos de  SAP S/4HANA  . Sólido conocimiento de procesos  ETL  y mejores prácticas de migración de datos. Conocimiento de SQL y herramientas de  data profiling  . Capacidad para desarrollar consultas y programas de extracción de datos usando SQL, ABAP, BODS, RFC desde ECC. Experiencia comprobada con herramientas de migración de datos SAP (SAP Data Services, SAP Migration Cockpit, LTMOM, LSMW). Conocimiento de técnicas de depuración de datos (  Data Cleansing  , Cleansing Burndown). Conocimiento de técnicas de carga de datos (BAPIs, BDCs, IDocs, ALEs, APIs, programas de actualización directa, eCATTs o grabaciones externas como  Winshuttle  ) y su uso en conjunto con herramientas de migración o mediante programas ABAP personalizados. Calificaciones Deseables: Experiencia con  SAP MDG (Master Data Governance)  . Responsabilidades: Evaluar y analizar las estructuras de datos existentes en los sistemas ECC. Realizar  data profiling  para identificar inconsistencias, redundancias y problemas de calidad de datos.</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-data-migration-senior-remoto/111073</v>
+      </c>
+      <c r="B130" t="str">
+        <v>SAP - Data Migration Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C130" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G130" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP – Data Migration Ingles conversacional obligatorio 100% remoto Como  Staff Software Engineer (SAP)  en el área de  Migración de Datos  , se espera que este desarrollador participe activamente en las actividades de migración de datos del proyecto, apoyando la conversión exitosa de datos desde ECC a S/4HANA (  implementación Greenfield  ). Este rol requiere un sólido entendimiento del modelo de datos de  S/4HANA  (Maestro y Transaccional). El desarrollador trabajará en estrecha colaboración con equipos multifuncionales para garantizar la integridad de los datos y permitir una transición fluida de los sistemas ECC a la plataforma S/4HANA. Requisitos  : Mínimo  8 años de experiencia relevante en ABAP  , con al menos  4 años de experiencia práctica en migración de datos  . Dominio de los modelos y estructuras de datos de  SAP S/4HANA  . Sólido conocimiento de procesos  ETL  y mejores prácticas de migración de datos. Conocimiento de SQL y herramientas de  data profiling  . Capacidad para desarrollar consultas y programas de extracción de datos usando SQL, ABAP, BODS, RFC desde ECC. Experiencia comprobada con herramientas de migración de datos SAP (SAP Data Services, SAP Migration Cockpit, LTMOM, LSMW). Conocimiento de técnicas de depuración de datos (  Data Cleansing  , Cleansing Burndown). Conocimiento de técnicas de carga de datos (BAPIs, BDCs, IDocs, ALEs, APIs, programas de actualización directa, eCATTs o grabaciones externas como  Winshuttle  ) y su uso en conjunto con herramientas de migración o mediante programas ABAP personalizados. Calificaciones Deseables: Experiencia con  SAP MDG (Master Data Governance)  . Responsabilidades: Evaluar y analizar las estructuras de datos existentes en los sistemas ECC. Realizar  data profiling  para identificar inconsistencias, redundancias y problemas de calidad de datos.</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-data-migration/111055</v>
+      </c>
+      <c r="B131" t="str">
+        <v>SAP – Data Migration en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C131" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G131" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP – Data Migration Ingles conversacional obligatorio 100% remoto Como Staff Software Engineer (SAP) en el área de Migración de Datos , se espera que este desarrollador participe activamente en las actividades de migración de datos del proyecto, apoyando la conversión exitosa de datos desde ECC a S/4HANA ( implementación Greenfield ). Este rol requiere un sólido entendimiento del modelo de datos de S/4HANA (Maestro y Transaccional). El desarrollador trabajará en estrecha colaboración con equipos multifuncionales para garantizar la integridad de los datos y permitir una transición fluida de los sistemas ECC a la plataforma S/4HANA. Requisitos : Mínimo 8 años de experiencia relevante en ABAP , con al menos 4 años de experiencia práctica en migración de datos . Dominio de los modelos y estructuras de datos de SAP S/4HANA . Sólido conocimiento de procesos ETL y mejores prácticas de migración de datos. Conocimiento de SQL y herramientas de data profiling . Capacidad para desarrollar consultas y programas de extracción de datos usando SQL, ABAP, BODS, RFC desde ECC. Experiencia comprobada con herramientas de migración de datos SAP (SAP Data Services, SAP Migration Cockpit, LTMOM, LSMW). Conocimiento de técnicas de depuración de datos ( Data Cleansing , Cleansing Burndown). Conocimiento de técnicas de carga de datos (BAPIs, BDCs, IDocs, ALEs, APIs, programas de actualización directa, eCATTs o grabaciones externas como Winshuttle ) y su uso en conjunto con herramientas de migración o mediante programas ABAP personalizados. Calificaciones Deseables: Experiencia con SAP MDG (Master Data Governance) . Responsabilidades: Evaluar y analizar las estructuras de datos existentes en los sistemas ECC. Realizar data profiling para identificar inconsistencias, redundancias y problemas de calidad de datos. Diseñar y ejecutar procesos ETL (BODS, RFC, programas ABAP personalizados, consultas) para extraer datos desde ECC. Transformar y depurar datos para alinearlos con los modelos de datos de S/4HANA. Garantizar la carga exitosa de datos en S/4HANA utilizando herramientas como SAP Migration Cockpit , LSMW o herramientas de terceros. Implementar reglas de validación y procesos de reconciliación de datos para asegurar la precisión. Realizar validación de datos antes y después de la migración para garantizar su integridad. Trabajar estrechamente con stakeholders del negocio y consultores funcionales para entender los requisitos de migración. Colaborar con equipos funcionales y técnicos para alinear las actividades de migración con los objetivos generales del proyecto. Apoyar los ciclos de prueba de migración de datos, incluyendo pruebas unitarias, pruebas de integración y UAT (User Acceptance Testing). Resolver problemas relacionados con los datos durante las pruebas y fases posteriores a la puesta en marcha. Asegurar el cumplimiento de las normas de gobernanza y seguridad de datos. Reportar el estado de los objetos de migración, identificando riesgos y posibles bloqueos. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  •  Vales de despensa por $3300,53  •  Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:          contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>https://hireline.io/remoto/empleos/senior-fullstack-developer-java-angular-remoto/111020</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Senior Fullstack Developer (Java + Angular) - Remoto en Perficient</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Remoto: Chile, México, Argentina, Colombia, Uruguay</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G132" t="str">
+        <v>We currently have a career opportunity for a  Senior Fullstack Java + Angular  to join our team located in Latam. As a Senior Technical Consultant you will participate in all aspects of the software development lifecycle which includes estimating, technical design, implementation, documentation, testing, deployment and support of application developed for our clients. As a member working in a team environment you will take direction from solution architects and Leads on development activities. Perficient is always looking for the best and brightest talent and we need you! We’re a quickly-growing, global digital consulting leader, and we’re transforming the world’s largest enterprises and biggest brands. You’ll work with the latest technologies, expand your skills, and become a part of our global community of talented, diverse, and knowledgeable colleagues. To Rock This Role, You Should Design, develop, and maintain  backend applications  using  Java  and  Spring framework . Implement and optimize  database solutions  with  PostgreSQL/MySQL . Develop and integrate  RESTful APIs  for seamless system communication. Work on  frontend development  using  Angular , ensuring smooth user interactions. Optimize application performance, scalability, and security. Troubleshoot and resolve  backend and database-related issues . Collaborate with cross-functional teams to define requirements and implement solutions. Stay up to date with the latest trends in  Java, Spring, and full-stack development . What do you need to come aboard? Proficiency in  Java  and the  Spring framework  (Spring Boot, Spring MVC, etc.). Experience working with  PostgreSQL and/or MySQL  databases. Familiarity with  Angular  for frontend development. Proven  full-stack development experience , with a strong focus on  backend Java development . Strong understanding of  RESTful API development  and system integration. Knowledge of  best practices in software architecture, scalability, and security . Ability to work both independently and collaboratively in an  agile environment . What can we offer you? Law benefits Certifications Internal &amp; External Courses English Classes Medical Insurance (Personal and Familiar) Life Insurance Savings Fund Pantry Vouchers Additional Holidays</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>https://hireline.io/remoto/empleos/analista-de-reclutamiento-especialista-en-ti-junior-remoto/109960</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Analista de Reclutamiento Especialista en TI Junior - Remoto en ITCHOME</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Analista de Reclutamiento Especialista en TI “ Junio r ”  « Remoto »   Experiencia Requerida en: -Con al menos 2 años de experiencia en reclutamiento de perfiles TI -Ciclo completo de reclutamiento -Manejo de fuentes de reclutamiento -Conocimientos en diseño e implementación de estrategias de reclutamiento. -Experiencia en la realización de entrevistas y filtrado de candidatos. -Proactivo, responsable -Disponibilidad Inmediata -Home Office -Inglés Intermedi o (Conversacional) OFRECEMOS: Salario competitivo Nómina + Prestaciones de Ley y Superiores Zona de trabajo:   Remoto/ En cualquier parte de México</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>https://hireline.io/remoto/empleos/analista-de-reclutamiento-especialista-en-ti-senior-remoto/111476</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Analista de Reclutamiento Especialista en TI Senior - Remoto en ITCHOME</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Remoto: Argentina, Colombia, Uruguay</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G134" t="str">
+        <v>Analista de Reclutamiento Especialista en TI  “ Senior ”  «  Remoto  »  México Experiencia Requerida en: -Con al menos 5   años de experiencia en reclutamiento de perfiles TI -Ciclo completo de reclutamiento -Manejo de fuentes de reclutamiento -Conocimientos en diseño e implementación de estrategias de reclutamiento. -Experiencia en la realización de entrevistas y filtrado de candidatos. -Proactivo, responsable -Disponibilidad Inmediata -Home Office -Inglés  Intermedio-Avanzado   (Conversacional) -Tendrá que hacer Reclutamiento para México OFRECEMOS: Salario competitivo Zona de trabajo:     Remoto</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-functional-lead-senior-remoto-disponibilidad-para-viajar/111206</v>
+      </c>
+      <c r="B135" t="str">
+        <v>SAP Functional Lead Senior - Remoto-Disponibilidad para Viajar en ITCHOME</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G135" t="str">
+        <v>SAP Functional Lead « Senior»  « Remoto-Disponibilidad para Viajar »   Experiencia Requerida en: SAP Funcional Lead con experiencia en la optimización y configuración de procesos financieros dentro de SAP . Liderar el diseño, configuración y optimización de procesos financieros en SAP . Definir estrategias de implementación alineadas con las necesidades del negocio. Trabajar en conjunto con equipos técnicos y de negocio para garantizar la integración de soluciones. Resolver problemas complejos y proponer mejoras en la arquitectura de soluciones. Gestionar stakeholders y proporcionar reportes de estado sobre avances y desafíos del proyecto. Requisitos: Dominio experto en procesos financieros y sistemas SAP. Conocimientos intermedios en arquitectura de soluciones. Mínimo 6 años de experiencia en roles funcionales dentro de SAP. Título universitario en áreas afines. Habilidades de liderazgo, resolución de problemas y comunicación efectiva. Nivel de inglés intermedio Residencia en Monterrey (Modalidad Híbrida) / Disponibilidad para viajar a Monterrey 2-3 veces al mes (Viáticos Pagados) Oferta : Nómina + Prestaciones de Ley y Superiores Ubicación : Remoto / Monterrey</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-sap-abap-order-to-cash-otc-remoto/111045</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Desarrollador SAP ABAP - Order-to-Cash (OTC)- Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C136" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G136" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP ABAP Developer  Ingles conversacional obligatorio 100% remoto Como Ingeniero de Software (SAP) en el área de Order-to-Cash (OTC) , se espera que este desarrollador participe en actividades de desarrollo y construcción ABAP dentro de proyectos, apoyando la adopción exitosa de nuevas soluciones por parte del negocio. Se requiere un sólido entendimiento de los principios de Order-to-Cash y experiencia comprobada en el diseño y entrega de soluciones de alta calidad y alineadas con las mejores prácticas de Clean Core , mediante desarrollo técnico que cumpla con los requerimientos del negocio. Requisitos Técnicos Experiencia como Desarrollador o Desarrollador Senior con mínimo 5 años de experiencia práctica en desarrollo core SAP ABAP y experiencia con SAP Fiori UI5. Conocimiento de varios módulos SAP e integración en proyectos de implementación a gran escala de SAP S/4. Dominio en desarrollo de CDS Views/OData Services en SAP HANA, incluyendo uso de SQL y AMDP. Experiencia con servicios OData estándar para OTC, como C_SalesOrder y C_SalesOrderItem. Conocimiento de BAPIs relevantes para OTC, como BAPI_SALESORDER_CREATEFROMDAT2 y BAPI_SALESORDER_CHANGE. Buen conocimiento y experiencia con CDS Views estándar como SO_ORDER_HEADER, SO_ORDER_ITEM, A_SO_ORDER_SLS. Experiencia en iniciativas de migración a S/4HANA y exposición al modelo de programación RAP (side-by-side) en BTP es un plus. Participación previa en análisis GAP y talleres de diseño técnico junto a equipos funcionales. Capacidad para realizar diseños técnicos de alto nivel y proponer mejores prácticas alineadas con principios de Clean Core. Conocimiento y experiencia en uso de BADI’s, BAPI’s, LSMW, ALE, llamadas RFC, IDOC, BDC, objetos de negocio, clases y métodos, Adobe Forms, SmartForms, SAPScripts, Diccionario de Datos y ALV. Habilidades de depuración en ABAP y experiencia con flujos de trabajo (Workflows). Responsabilidades: Desarrollar y mantener soluciones SAP para procesos Order-to-Cash, incluyendo Gestión de Pedidos, Facturación, Cuentas por Cobrar, Cobranzas, Gestión de Crédito y Datos Maestros de Clientes. Participar en el diseño y desarrollo de integraciones entre SAP y otros sistemas relacionados con OTC. Analizar y resolver problemas relacionados con procesamiento de pedidos, facturación y facturación a clientes. Revisar Especificaciones Funcionales del equipo funcional y de producto, asegurando que estén completas para su diseño y desarrollo técnico. Estimar esfuerzos de trabajo y colaborar con los líderes de flujo para actualizar la herramienta ADO con el estado y fechas de RICEFW. Proponer diseños técnicos alternativos alineados con las mejores prácticas de Clean Core. Completar toda la documentación técnica relevante y apoyar al equipo funcional durante las pruebas y corrección de errores. Realizar actividades de desarrollo ABAP en SAP para mejorar o agregar funcionalidad dentro del entorno existente, especialmente en HANA/ABAP con foco en OTC. Realizar revisiones de código conforme a los estándares de codificación de NBCU para S/4 HANA. Colaborar con los equipos funcionales durante los ciclos de prueba como pruebas unitarias funcionales, pruebas de integración, entre otras. Ofrecemos: •      Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:         contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>https://hireline.io/remoto/empleos/architecto-sap-sd/111330</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Architecto SAP SD en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C137" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G137" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Arquitecto SAP SD Ingles conversacional obligatorio 100% remoto El candidato ideal debe tener experiencia en SAP SD - Brasil y LATAM, así como en el proceso estándar de SAP Order to Cash. Se valorará experiencia en Procure to Pay - Cuentas por Pagar y Finanzas &amp; Contabilidad.  Calificaciones • Tener entre 8 y 10 años de experiencia en SAP SD, con enfoque en las regiones de Brasil y LATAM. • Sólida experiencia en procesos estándar de SAP Order to Cash. • Se valorará experiencia en Procure to Pay - Cuentas por Pagar y Finanzas &amp; Contabilidad. • Excelentes habilidades de análisis y resolución de problemas. • Fuertes habilidades de comunicación y colaboración. • Capacidad para trabajar en un modelo híbrido con supervisión mínima. • Enfoque proactivo y con alta motivación. • Gran atención al detalle y precisión. • Capacidad para gestionar múltiples tareas y prioridades. • Compromiso con el aprendizaje y mejora continua. • Enfoque orientado al cliente. • Habilidad para trabajar eficazmente en equipo. • Sólido entendimiento de regulaciones y estándares regionales. Certificaciones requeridas • SAP Certified Application Associate - Sales and Distribution • SAP Certified Technology Associate Responsabilidades • Liderar el diseño e implementación de soluciones SAP SD para las regiones de Brasil y LATAM. • Supervisar el proceso completo de SAP Order to Cash. • Brindar orientación experta sobre configuraciones y personalizaciones de SAP SD. • Colaborar con equipos multifuncionales para asegurar una integración fluida de los módulos SAP. • Realizar pruebas exhaustivas y validaciones de las soluciones SAP SD. • Asegurar el cumplimiento de regulaciones y estándares regionales. • Desarrollar y mantener documentación de procesos y configuraciones de SAP SD. • Diagnosticar y resolver problemas relacionados con los módulos SAP SD. • Capacitar y brindar soporte a los usuarios finales sobre funcionalidades de SAP SD. • Monitorear el rendimiento del sistema y proponer mejoras. • Mantenerse actualizado con las últimas tendencias y mejores prácticas en SAP SD. • Contribuir a la mejora continua de los procesos SAP SD. • Apoyar la implementación de módulos de Procure to Pay - Cuentas por Pagar y Finanzas &amp; Contabilidad según sea necesario. Ofrecemos: •       Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •       Prima vacacional del 50% • Aguinaldo a 24 días.  Si te encuentras interesado, manda tu CV a:       contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-data-migration-lead-senior-remoto-disponibilidad-para-viajar/111204</v>
+      </c>
+      <c r="B138" t="str">
+        <v>SAP Data Migration Lead Senior - Remoto-Disponibilidad para Viajar en ITCHOME</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G138" t="str">
+        <v>SAP Data Migration Lead « Senior»  « Remoto-Disponibilidad para Viajar »   Experiencia Requerida en: Data Migration Lead para dirigir iniciativas de migración, colaborar con equipos multidisciplinarios y garantizar la calidad e integridad de los datos en entornos empresariales de alto impacto. Diseñar y liderar estrategias de migración de datos en SAP . Colaborar con equipos técnicos y de negocio para garantizar la correcta transferencia de datos. Definir e implementar estándares de calidad y mejores prácticas en migración. Resolver problemas de integración y garantizar la alineación con la arquitectura de soluciones. Gestionar la comunicación con stakeholders clave y proporcionar actualizaciones sobre el proceso de migración. Requisitos: Dominio experto en SAP Data Migration . Conocimientos intermedios en arquitectura de soluciones. Entre 6 y 10 años de experiencia en roles similares. Título universitario en áreas afines. Habilidades de liderazgo, resolución de problemas y comunicación efectiva. Nivel de inglés intermedio Se valorará adicionalmente: Experiencia avanzada en análisis de datos. Conocimientos intermedios en gestión de proyectos. Habilidad experta en comunicación con stakeholders Residencia en Monterrey (Modalidad Híbrida) / Disponibilidad para viajar a Monterrey 2-3 veces al mes (Viáticos Pagados) Oferta : Nómina + Prestaciones de Ley y Superiores Ubicación : Remoto / Monterrey</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>https://hireline.io/remoto/empleos/scrum-master-senior-remoto/111341</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Scrum Master Senior - Remoto</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G139" t="str">
+        <v>Ing. En sistemas o carrera afín con experiencia de al menos 3 años en el rol de Project Manager. El candidato debe tener conocimientos sólidos de Scrum Master, conocer los conceptos clave y la metodología SAFe. Su perfil principal debe ser el de Project Manager con experiencia en gestión de desarrollo Waterfall pero también conocer o haber participado como Scrum Master. Técnicamente debe saber sobre temas de Seguridad, en su experiencia debe haber proyectos mandatoriamente ya sea parcial o totalmente, proyectos de Seguridad de la información. El inglés también es importante, lectura y escritura al 100 y capaz de sostener una conversación.</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-fico-senior-remoto-disponibilidad-para-viajar/111199</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Consultor SAP FICO Senior - Remoto-Disponibilidad para Viajar en ITCHOME</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F140" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Consultor SAP S4Hana Central Finance « Senior»  « Remoto-Disponibilidad para Viajar » Experiencia Requerida en: Contultor SAP FI S/4HANA Central Finance Liderar la configuración y optimización de SAP S/4HANA Central Finance . Diseñar, construir y probar nuevas funcionalidades para la integración financiera. Colaborar con equipos multidisciplinarios en la toma de decisiones estratégicas. Garantizar el soporte y mantenimiento de los procesos financieros en SAP. Requisitos: Dominio experto en SAP FI con S/4HANA Central Finance Entre 5 y 10 años de experiencia en roles similares. Título universitario en áreas afines. Habilidades de liderazgo, resolución de problemas y comunicación efectiva. Nivel de inglés intermedio Se valorará adicionalmente: Experiencia en diseño de arquitectura de soluciones. Conocimiento en metodologías ágiles. Residencia en Monterrey (Modalidad Híbrida) / Disponibilidad para viajar a Monterrey 2-3 veces al mes (Viáticos Pagados) Oferta : Nómina + Prestaciones de Ley y Superiores Ubicación : Remoto / Monterrey</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-s4hana-treasury-senior-remoto-disponibilidad-para-viajar/111203</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Consultor SAP S4Hana Treasury Senior - Remoto-Disponibilidad para Viajar en ITCHOME</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G141" t="str">
+        <v>Consultor SAP S4Hana Treasury « Senior»  « Remoto-Disponibilidad para Viajar » Experiencia Requerida en: SAP FI Bank Accounting participa en proyectos de transformación financiera, colaborando con múltiples equipos para diseñar e implementar soluciones innovadoras en el ámbito contable y financiero. Diseñar, configurar y optimizar procesos en SAP FI Bank Accounting . Implementar soluciones para la gestión de tesorería y cash management . Colaborar con equipos multidisciplinarios para mejorar la eficiencia financiera de la organización. Desarrollar y probar nuevos componentes o mejoras en el sistema. Brindar soporte en la implementación y puesta en marcha de nuevas versiones del sistema. Requisitos: Dominio experto en SAP FI Bank Accounting . Experiencia avanzada en Cash Management . Entre 5 y 10 años de experiencia en roles similares. Título universitario en áreas afines. Habilidades de liderazgo, resolución de problemas y comunicación efectiva. Nivel de inglés intermedio Residencia en Monterrey (Modalidad Híbrida) / Disponibilidad para viajar a Monterrey 2-3 veces al mes (Viáticos Pagados) Oferta : Nómina + Prestaciones de Ley y Superiores Ubicación : Remoto / Monterrey</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-ewm-senior-remoto-hibrido-mty/111363</v>
+      </c>
+      <c r="B142" t="str">
+        <v>SAP EWM Senior - Remoto-Híbrido-MTY en ITCHOME</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F142" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G142" t="str">
+        <v>SAP EWM « Senior» « Remoto - Híbrido -MTY »    Experiencia Requerida en: PRIMARY SKILL: Consultor SAP EWM Senior  Título universitario en carreras afines. Dominio avanzado en SAP EWM. Al menos 4 años de experiencia en skills relacionados. Nivel de inglés Avanzado Deseable: Conocimientos intermedios en SAP MM. Habilidad avanzada en análisis de datos. Dominio experto en gestión de proyectos. Ofrecemos : Nómina + Perstaciones de Ley y Superiores Ubicación : Remoto /En caso de residir en MTY, será híbrida la asignación 1-2 días en sitio</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>https://hireline.io/remoto/empleos/java-developer-senior-remoto/111164</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Java Developer Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C143" t="str">
+        <v>$ 35,000 a 40,000 MXN (Bruto)</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F143" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G143" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:  Java Developer INGLES CONVERSACIONAL INDISPENSABLE Requisitos:   Licenciatura en Ingeniería en Sistemas, Informática o carrera afín.  4 + años de experiencia     desarrollando aplicaciones en     Java    .   Experiencia en frameworks de frontend como     React.js    .   Conocimiento en consumo y desarrollo de     APIs REST    .   Familiaridad con bases de datos relacionales (PostgreSQL, MySQL, SQL) y herramientas de control de versiones (Git).   Buenas prácticas de programación, pruebas y documentación. Responsabilidades: Diseñar, desarrollar y mantener aplicaciones backend utilizando    Java    . Crear interfaces de usuario dinámicas y responsivas con    React.js    . Integrar APIs y servicios RESTful entre frontend y backend. Participar en revisiones de código, pruebas y mejoras continuas del producto. Colaborar con equipos de diseño, QA y DevOps en todo el ciclo de vida del software. Garantizar el rendimiento, seguridad y escalabilidad de las aplicaciones. Conocimiento y manejo de Kubernetes y Dockers Ofrecemos Sueldo de acuerdo a experiencia (Esquema 100% nomina)  Prestaciones de Ley Prestaciones superiores (SGMM familiar, SV 1 millón, Vales de despensa, 30 días de aguinaldo, PTU) Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>https://hireline.io/remoto/empleos/senior-salesforce-software-engineer/111611</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Senior Salesforce Software Engineer en ISITA</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F144" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G144" t="str">
+        <v>Summary ·          We are looking for a Senior Salesforce Engineer to lead and optimize the development, security, and deployment of our Salesforce environment. This role is ideal for someone with deep Apex expertise, strong DevOps and release management experience, and a proactive mindset toward performance, scalability, and security best practices. You will work closely with developers, admins, and product stakeholders to build and maintain high-impact solutions across the organization.    Responsibilities ·          Design, develop, and maintain high-quality, scalable Salesforce applications using Apex and other Salesforce technologies. ·          Own the full development lifecycle — from design through release — including production support. ·          Collaborate across teams to define technical requirements and deliver high-performance solutions. ·          Ensure secure coding practices and enforce profile permissions, sharing rules, and permission sets. ·          Troubleshoot and resolve record locking and performance issues in complex Salesforce implementations. ·          Manage Salesforce deployments and contribute to CI/CD pipelines using tools like Jenkins, GitHub, and Bitbucket. ·          Work with managed packages, ensuring compatibility, security, and upgrade planning. ·          Use monitoring tools and logs to evaluate code success and continuously improve performance. ·          Operate in an agile environment with ownership over features, delivery, and iteration based on data.   Experience ·          Working experience with Salesforce technologies:  5+ years for Senior, 3+ years for Advanced. ·          Strong hands-on experience with Apex (focus on secure and performant code). ·          Proven experience with Salesforce security best practices: sharing rules, field-level security, permission sets, and managed package constraints. ·          Experience with Salesforce platform deployments in Agile environments. ·          Experience with DevOps tools: Jenkins, GitHub, Bitbucket, VS Code. ·          Solid understanding of record locking and techniques to mitigate contention. ·          Experience managing CI/CD pipelines for Salesforce projects. ·          Familiarity with performance optimization in Salesforce.   Technical Knowledge ·          Strong experience with Salesforce and Apex (must-have). ·          Experience with JavaScript, HTML5, and CSS. ·          Familiarity with Angular, RxJS, and TypeScript is a plus. ·          Experience with responsive design using frameworks like Bootstrap. ·          Knowledge of CSS preprocessors such as LESS or SASS. ·          Experience writing unit tests. ·          Familiarity with package managers like NPM or Yarn. ·          Proficient in version control using Git.</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-s4hana-accounts-receivable-senior-remoto-disponibilidad-para-viajar/111198</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Consultor S4Hana Accounts Receivable Senior - Remoto-Disponibilidad para Viajar en ITCHOME</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F145" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G145" t="str">
+        <v>Consultor S4Hana Accounts Receivable « Senior»  « Remoto-Disponibilidad para Viajar » Experiencia Requerida en: Consultor SAP  SAP FI - Accounts Receivable S4Hana Liderar el diseño, configuración y desarrollo de soluciones en SAP FI - Accounts Receivable . Actuar como punto de contacto principal y referente técnico en el equipo. Asegurar la implementación de mejores prácticas en procesos de cuentas por cobrar. Gestionar equipos directos e indirectos, coordinando con equipos offshore y del cliente. Tomar decisiones estratégicas y contribuir en iniciativas que involucren múltiples equipos. Identificar y mitigar riesgos, dependencias o impedimentos en los proyectos. Comunicar de manera clara y efectiva con todas las partes interesadas. Requisitos: Dominio experto en SAP FI - Accounts Receivable . Experiencia avanzada en procesos de cuentas por cobrar . Entre 5 y 10 años de experiencia en roles similares. Título universitario en áreas afines. Habilidades de liderazgo, resolución de problemas y comunicación efectiva. Nivel de inglés intermedio Se valorará adicionalmente: Conocimientos intermedios en Diseño de Arquitectura de Soluciones. Residencia en Monterrey (Modalidad Híbrida) / Disponibilidad para viajar a Monterrey 2-3 veces al mes (Viáticos Pagados) Oferta : Nómina + Prestaciones de Ley y Superiores Ubicación : Remoto / Monterrey</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-kotlin-android/111559</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Desarrollador Kotlin - Android en ISITA</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F146" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G146" t="str">
+        <v>Descripción General Profesional especializado en el desarrollo y mantenimiento de aplicaciones móviles nativas para dispositivos Android, utilizando el lenguaje de programación Kotlin . Su objetivo principal es construir aplicaciones funcionales, eficientes, seguras y con una experiencia de usuario intuitiva, aplicando buenas prácticas de diseño y desarrollo móvil. Trabaja en conjunto con diseñadores, analistas, testers y otros desarrolladores para entregar productos de calidad que satisfagan las necesidades del usuario y los requerimientos del negocio. Responsabilidades Clave Interpretar y traducir wireframes , maquetas y storyboards en interfaces móviles funcionales. Implementar casos de uso de negocio en flujos de trabajo y pantallas móviles. Diseñar, desarrollar y mantener código limpio, eficiente y reutilizable en Kotlin . Garantizar el rendimiento, estabilidad y capacidad de respuesta de las aplicaciones Android. Detectar y corregir errores, cuellos de botella y problemas de rendimiento. Colaborar con equipos multidisciplinarios (UI/UX, QA, back-end) para garantizar la calidad del producto. Participar en code reviews , aplicar principios SOLID y buenas prácticas de arquitectura. Automatizar procesos del ciclo de vida de desarrollo mediante herramientas de CI/CD . Publicar y gestionar versiones de la app en Google Play Store y otros entornos. H abilidades Técnicas Dominio de Kotlin y el entorno de desarrollo Android Studio . Conocimiento profundo del Android SDK y sus actualizaciones. Uso de arquitecturas modernas como MVVM y Clean Architecture . Integración de servicios y APIs RESTful utilizando Retrofit , OkHttp u otras herramientas. Uso de librerías Jetpack: ViewModel , LiveData , Room , DataBinding , Navigation , entre otras. Experiencia en persistencia de datos locales con SQLite , Room o bases NoSQL (Firebase). Manejo de notificaciones push con Firebase Cloud Messaging (FCM). Experiencia en pruebas unitarias y de interfaz con JUnit , Espresso , Mockito o similares. Conocimiento y uso de formatos de datos JSON y XML . Control de versiones con Git , uso de ramas, pull requests y flujos colaborativos. Publicación de aplicaciones en la Play Store , firma de APK/AAB, manejo de versiones. Conocimientos básicos en CI/CD para móviles (GitHub Actions, Bitrise, Jenkins, etc.). Familiaridad con principios de diseño responsivo y accesibilidad . Competencias Blandas Pensamiento lógico y enfoque analítico para resolver problemas. Atención al detalle y compromiso con la calidad del código. Comunicación efectiva con miembros técnicos y no técnicos. Colaboración en equipo , capacidad de recibir y dar retroalimentación técnica. Adaptabilidad ante nuevas tecnologías, librerías o requerimientos. Organización y constancia para mantener orden en el proyecto y documentación. Proactividad para proponer mejoras en rendimiento, usabilidad o arquitectura. Aprendizaje continuo como parte de su desarrollo profesional. Conocimientos Adicionales Deseables UML y modelado de sistemas. Lenguajes de bases de datos como SQL y NoSQL . Conocimiento de técnicas de calidad de software (testing, refactorización, validación). Familiaridad con metodologías ágiles como Scrum o Kanban . Experiencia en integración con herramientas externas (Google Maps, cámara, sensores). Conocimientos básicos en desarrollo multiplataforma (Flutter, React Native) son valorados, aunque no obligatorios. Nivel de ingles: Basico.</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>https://hireline.io/remoto/empleos/python-developer-middle-remoto/111489</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Python Developer Middle - Remoto en Lingaro</v>
+      </c>
+      <c r="C147" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E147" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F147" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G147" t="str">
+        <v>At Lingaro Mexico we are Hiring a Python developer MID level with excellent English skills for a remote position inside México  Python (3.9+) + FastAPI-  Medium-High • async/await • type-hints • pytest Google Cloud Platform  or AWS experiencia en servicios similares(Cloud Run, Pub/Sub, Cloud SQL, Load Balancer, IAM, Cloud Logging/Monitoring/Trace) SQL / PostgreSQL (modelado, índices, transacciones) REST / OpenAPI + Integración (diseño, versionado, manejo de errores, contract-testing) CI/CD &amp; DevOps (Git, GitHub Actions/Cloud Build, Docker) Observabilidad &amp; Tracing (Cloud Monitoring, métricas, alertas, deseable Cloud Trace / OpenTelemetry) Stable employment.  On the market since 2008, 1500+ talents currently on board in 7 global sites. Full-time position  with work contract. Medical Insurance. Grocery Coupons. Saving fund.  Obligatory bonuses:  Christmas bonus, home office bonus, profit sharing, vacation bonus (50%). 100% remote. Flexibility  regarding working hours. Comprehensive online onboarding program with a “Buddy” from day 1.    Cooperation with top-tier engineers and experts.  Unlimited access to the Udemy   learning platform  from day 1. Certificate training programs.  Lingarians earn 500+ technology certificates yearly.   Upskilling support.  Capability development programs, Competency Centers, knowledge sharing sessions, community webinars, 110+ training opportunities yearly. Grow as we grow as a company.  76% of our managers are internal promotions.   A diverse, inclusive, and values-driven community.  Autonomy to choose the way you work.  We trust your ideas.   Create our community together.  Refer your friends to receive bonuses.  Activities to support your  well-being and health. Plenty of opportunities to donate to charities and support the environment.</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrolladora-java-senior-remoto/111636</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Desarrollador/a Java Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C148" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F148" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G148" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador/a Java Ingles conversacional obligatorio 100% remoto Perfil Escolaridad:    Ingeniería/Licenciatura en Sistemas Computacionales Inglés: intermedio y/o Avanzado . Experiencia:    Mínimo 5 años de experiencia. Habilidades Requeridas: Imprescindibles (Must Have): Experiencia comprobada en Java / Spring Boot . Conocimientos en desarrollo frontend con Angular . Experiencia desarrollando microservicios y APIs REST . Experiencia trabajando con CI/CD (Integración y Entrega Continua). Conocimiento y manejo de Apigee .   Experiencia con  Cypress  para pruebas automatizadas. Responsabilidades: Diseñar, desarrollar y mantener aplicaciones Java utilizando Spring Boot y arquitectura de microservicios . Crear y mantener APIs RESTful para integraciones escalables. Desarrollar interfaces web dinámicas con Angular . Participar en el diseño y la implementación de pipelines de CI/CD . Colaborar en la gestión y seguridad de APIs utilizando Apigee . Contribuir a la documentación técnica usando herramientas como Markdown y MKDocs . Participar en pruebas funcionales manuales y automatizadas (Cypress). Trabajar en equipos ágiles, colaborando estrechamente con otros desarrolladores y áreas de negocio. Deseables (Nice to Have): Conocimiento en Liquibase (versionado de bases de datos). Familiaridad con documentación técnica ( MKDocs , Markdown ). Experiencia en pruebas manuales. Ofrecemos: • Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. • Prima vacacional del 50% • Aguinaldo a 24 días.  Vales de despensa mensuales de $3,300 Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>https://hireline.io/remoto/empleos/lead-integration-developer-remoto/111527</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Lead Integration Developer - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C149" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G149" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Líder de Integraciones Ingles conversacionales obligatorio Esquema a laborar: remoto/ hibrido, a elección de candidato CDMX, GDL o Monterrey Requisitos: Experiencia sólida como desarrollador de integraciones (mínimo 5 años), incluyendo al menos 1-2 años en roles de liderazgo técnico. Conocimiento avanzado en tecnologías de integración: APIs REST/SOAP, Web Services, mensajería (Kafka, RabbitMQ, JMS), ETL, etc. Experiencia con herramientas y plataformas de integración como MuleSoft, Dell Boomi, Talend, Azure Logic Apps, IBM Integration Bus, etc. Experiencia en integración con sistemas ERP, CRM, bases de datos y servicios en la nube. Conocimiento de buenas prácticas de seguridad en integraciones y manejo de datos sensibles. Responsabilidades: Liderar técnicamente los proyectos de integración, asegurando calidad, rendimiento y escalabilidad. Diseñar arquitecturas de integración robustas, reutilizables y seguras. Desarrollar y mantener APIs REST/SOAP, flujos de integración y procesos ETL. Coordinar con equipos de desarrollo, infraestructura, seguridad y negocio para definir requerimientos técnicos. Supervisar y guiar al equipo de desarrolladores de integración, asegurando buenas prácticas de codificación y documentación. Gestionar incidencias, mejoras y despliegues de soluciones de integración. Mantenerse actualizado con tendencias tecnológicas y herramientas de integración modernas (cloud, microservicios, mensajería, etc.). Ofrecemos: •       Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •       Prima vacacional del 50% • Aguinaldo a 24 días. Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-de-soporte-en-infraestructura-en-la-nube/111186</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Ingeniero de Soporte en Infraestructura en la Nube en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C150" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G150" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Ingeniero de Soporte en Infraestructura en la Nube Ingles conversacional obligatorio Para laborar en 100% remoto Habilidades y Experiencia:   3 a 5 años de experiencia como  Ingeniero de Soporte en la Nube .   Fuerte conocimiento en  AWS , infraestructura cloud, sistemas operativos  Unix/Linux , comandos y utilidades, así como herramientas de gestión de configuración.   Experiencia con múltiples servicios de AWS:  IAM, Lambda, ECS, S3, Seguridad, VPC, Redes, Balanceo de Carga, Monitoreo y Auditoría .   Experiencia general en  resolución de problemas y depuración  de aplicaciones basadas en AWS y GCP.   Experiencia con  infraestructura como código (IaC) ,  GitLab  y  Terraform .   Conocimiento de al menos un lenguaje de scripting:  Shell script o Python .   Certificaciones relevantes en AWS son un plus y demuestran interés y experiencia en el área.   Fuertes habilidades analíticas y de resolución de problemas.   Conocimientos en  ITIL e ITSM  son deseables.   Disposición para trabajar en  turnos rotativos . El entorno del cliente se basa principalmente en AWS . Tener conocimientos en GCP es un plus. Se requiere experiencia real, en proyectos industriales, con AWS . Capacidad para realizar resolución de problemas y aplicar soluciones . Se busca experiencia clave en AWS para solucionar problemas, especialmente en: Terraform, Redes (VPC), Contenedores (EKS), DNS y ELB . No se requiere desarrollo de contenedores, pero sí conocimiento general del ciclo de vida del desarrollo de software (SDLC) para poder comprender y solucionar problemas. El experto en AWS participará en actividades de recuperación ante desastres (DR) y continuidad del negocio (BCP) , ejecutando el runbook y colaborando con diferentes equipos en caso de incidentes. Se requiere al menos un lenguaje de programación para entender sintaxis/lógica. Se prefiere Python . Responsabilidades: Realizar actividades de soporte en infraestructura cloud como parte del equipo técnico de infraestructura de la empresa. Trabajar activamente con equipos tecnológicos para analizar y resolver problemas relacionados con AWS y GCP . Identificar defectos, discrepancias y patrones mediante la resolución de problemas. Brindar soporte de infraestructura para productos y sistemas, permitiendo la automatización y mejorando la eficiencia. Comprender dependencias regionales y liderar los requisitos técnicos locales. Brindar soporte durante todo el ciclo de vida de aplicaciones críticas expuestas a internet, con foco continuo en mejoras y rendimiento. Cumplir con obligaciones regulatorias: auditorías internas/externas, gestión de privilegios y recertificación. Gestionar incidentes y reportes de interrupciones de producción, análisis de causa raíz y seguimientos. Construir y mantener relaciones con distintas áreas técnicas y de negocio. Contribuir al entendimiento técnico y la promoción de estándares, soluciones y herramientas nuevas y existentes. Representar cambios locales e incidentes críticos para productos de infraestructura. Atender directamente a clientes locales, ejecutando sus requerimientos dentro de un marco global. Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>https://hireline.io/remoto/empleos/data-scientist-machine-learning-engineer/111565</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Data Scientist / Machine Learning Engineer en BakerRobotics</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G151" t="str">
+        <v>Especialista con experiencia en análisis de datos  y creación de modelos de machine learning como XGboost, Catboost, Random Forest y modelos no lineales, entre otros. Excelente manejo de Python y librerias como Pandas, Numpy, Scikit-Learn, Polars y Maplotlib, entre otras, así como análisis de datos usando shap values, feature importance y conceptos de IA explicable.   Los datos que se procesarán serán datos tabulares, así como no estructurados (texto e imágenes). Deseable que haya trabajado con datasets que contentan posts de redes sociales, opiniones (twitter/X), reddit, etc. Se considera un plus si el candidato tiene experiencia usando herramientas para Inferencia Causal y Procesamiento de Lenguaje Natural, así como si proporciona una liga a un repo en donde muestre los proyectos en los que ha trabajado.​ Lectura y comprensión de inglés indispensable.</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>https://hireline.io/remoto/empleos/ruby-on-rails-ror-developer-senior-remoto/111729</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Ruby on Rails (ROR) Developer Senior - Remoto en Pearl Talent</v>
+      </c>
+      <c r="C152" t="str">
+        <v>$ 4,500 a 4,999 USD (Neto)</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F152" t="str">
+        <v>Inglés : Lengua Nativa</v>
+      </c>
+      <c r="G152" t="str">
+        <v>Apply using this link    - &gt; https://apply.workable.com/pearltalent/j/5AD0EABEDB/ Description Overview Job Title:  Backend Engineer (Founding Team – MVP &amp; Scale) Work Arrangement:  Remote| 9:00 AM – 6:00 PM EST Job Type:  Full-time Salary:  Competitive base salary in USD Industry:  PropTech / B2B SaaS / Real Estate Technology Work Schedule:  40 hours per week About Pearl Talent Pearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US. Hear why we exist, what we believe in, and who we’re building for:  Watch here ‍  Why Work with Us? We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat. About the company Our partner company are modernizing property maintenance procurement by building a streamlined marketplace that connects multifamily operators with real-time vendor pricing, seamless purchase workflows, and integrations with property management systems. Our mission is to bring consumer-grade simplicity to a $400B+ B2B market. We’re backed by operators with deep experience in real estate and assembling a lean, world-class team to build the future of procurement. The Role: Backend Engineer Ruby on Rails (ROR) We’re looking for a backend engineer who’s comfortable working in pragmatic, developer-friendly frameworks to ship our MVP quickly, while laying the foundation for future scale. You’ll be our first backend hire, collaborating directly with the founder and front-end engineer to bring our platform to life. What You’ll Do MVP Phase (First 6–9 Months): Build the backend using a pragmatic stack like Ruby on Rails (monolith) or Node.js + TypeScript (serverless or monolith), balancing speed of development and maintainability. Develop RESTful APIs and internal services to support core workflows: vendor integration, user auth, PO/Invoice management. Connect to third-party vendor APIs (e.g., Home Depot, Ferguson) and build lightweight wrappers for real-time procurement data. Handle core business logic around approvals, ROGs, and invoice reconciliation. Use platforms like Heroku (or similar) for fast deployments, built-in CI/CD, and observability. Prioritize simplicity and reliability over theoretical scale — iterate fast, keep things lean. Experience with documenting the code and using patterns like RDoc for Ruby. Post-MVP Phase (12+ Months): Refactor into more scalable services (e.g., modular architecture, serverless/event-driven workflows) as product-market fit emerges. Support event-driven integrations, EDI pipelines, and background job orchestration. Implement observability best practices (logging, monitoring, alerting). Help define engineering standards and make long-term architectural decisions. Requirements Requirements 3–6+ years of backend engineering experience, ideally in product-focused environments. Strong in at least one of: Ruby on Rails, Node.js, TypeScript. Skilled in API design, authentication flows, pagination, and rate limiting. Experience integrating with third-party systems (REST, EDI, or webhook-based APIs). Pragmatic mindset: can prioritize trade-offs and avoid gold-plating in the MVP phase. Comfortable wearing multiple hats, iterating quickly, and owning the backend product decisions. Experience in B2B SaaS, marketplaces, real estate tech, or procurement platforms. Benefits   Why Join Now Be a foundational member of a venture-scale company with real distribution advantages in real estate. Own key technical systems from day one, shaping how they evolve. Culture built on speed, iteration, and execution. What You’ll Get Professional Development : Annual learning budget for books, courses, and conferences Mentorship : Learn directly from startup veterans (ex-Looker, GitHub, Mulesoft) Impact : Help shape a growing brand with a voice that influences fintech innovation Inspiring Workspaces : Offices in Berlin, New York, and London, with travel opportunities Flat Hierarchy : Work directly with founders and have your ideas heard Flexible Work Setup : Equipment of your choice, strong home office support Hiring Process Application Screening Top-grading Interview Skills Assessment Client Interview Offer Onboarding Apply for this job</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-java-con-angular-y-cypress/111647</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Desarrollador Java (con Angular y Cypress) en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C153" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F153" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G153" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Java (con Angular y Cypress) Ingles conversacional obligatorio 100% Remoto Como Ingeniero de Software , te enfocarás principalmente en proporcionar soluciones tecnológicas de alta calidad y eficiencia a los socios comerciales, mediante el desarrollo de nuevas aplicaciones de software o la modificación y/o soporte de aplicaciones existentes, ya sean empaquetadas o personalizadas. En esta función, programarás, configurarás, probarás, depurarás, documentarás y mantendrás aplicaciones. Habilidades requeridas: Imprescindibles: Java/Spring Boot Angular Microservicios / APIs REST Pipeline CI/CD Experiencia con Apigee Cypress Deseables: Liquibase MKDocs y Markdown Experiencia en pruebas manuales Conocimiento técnico profundo y experiencia en diseño, construcción y soporte de APIs, componentes web y flujos de eventos (Event Streams) Ofrecemos: •  Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  • Vales de despensa mensuales</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>https://hireline.io/remoto/empleos/arquitecto-de-software-aws-senior-remoto/111417</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Arquitecto de Software AWS Senior - Remoto en CONTPAQi</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F154" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G154" t="str">
+        <v>CONTPAQi   Empresa Jalisciense con más de 40 años de experiencia a nivel nacional. Impulsamos el desarrollo empresarial con software de calidad. Valoramos colaboradores felices y comprometidos que encuentren su propósito con nosotros.   Arquitecto de Software   Diseñar e implementar soluciones escalables, distribuidas y seguras en la nube.   Responsabilidades:   Diseñar arquitecturas resilientes en la nube con AWS, contenedores y microservicios.   Desarrollar soluciones de referencia y participar activamente en el ciclo de desarrollo.   Definir estándares técnicos, patrones de diseño y mejores prácticas.   Garantizar la calidad del software mediante revisiones de diseño, validaciones de arquitectura y automatización de pruebas.   Requisitos:   Ing en Sistemas computacionales, Tecnologías de la información o afines.   4 años de experiencia en diseño y arquitectura de software.   Conocimientos:   Plataformas Nube: AWS, GCP, Azure.   Servicios: ECS, Lambda, S3, IAM.   APIs REST y GraphQL .   Contenedores, IaC , orquestación.   Bases de datos relacionales.   Node Js , Python, Golang , React .   Ofrecemos:   Espíritu colaborativo.   Retos y aprendizaje constante.   Compartir conocimiento.   Desarrollo y crecimiento.   Prestaciones superiores a las de ley.</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>https://hireline.io/remoto/empleos/senior-fullstack-engineer-python-llm-cloud-expert-remoto/111552</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Senior Fullstack Engineer - Python LLM &amp; Cloud Expert - Remoto en Proceti Consultores</v>
+      </c>
+      <c r="C155" t="str">
+        <v>$ 90,000 a 100,000 MXN (Neto)</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Becario de tiempo completo</v>
+      </c>
+      <c r="F155" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G155" t="str">
+        <v>Remote | LLMs &amp; AI Deployment | ️ AWS Cloud Infrastructure | Full Stack Development About the Role We are looking for a Senior Full Stack Engineer with a strong background in software development and hands-on experience in deploying or fine-tuning open-source Large Language Models (LLMs) . This role is ideal for someone passionate about cutting-edge technologies, cloud infrastructure, and thriving in a fast-paced, startup environment. Key Responsibilities Design, build, and maintain scalable REST APIs using Node.js , Python , or similar technologies. Develop and manage cloud-based infrastructure leveraging AWS services such as EC2, Lambda, S3, ECS , and CloudFormation . Lead initiatives involving the training, fine-tuning, or deployment of open-source LLMs . Collaborate with cross-functional teams to deliver high-quality software solutions. Take ownership of projects from concept to deployment, applying strong project management or tech lead skills. Required Skills &amp; Experience Strong backend and full stack development skills , with experience in Node.js, Python , or similar languages. Proficient in AWS cloud services , including EC2, Lambda, S3 , and related tools. Hands-on experience with Large Language Models (LLMs) and AI/NLP frameworks such as LangChain, HuggingFace , and vector databases . Ability to work independently in a dynamic, fast-paced environment (startup experience is a plus). Advanced English proficiency , both spoken and written. Do you think this could be a match? We'd love to hear about your experience.</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>https://hireline.io/remoto/empleos/cloud-service-delivery-manager/111187</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Cloud Service Delivery Manager en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C156" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F156" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G156" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:     Cloud Service Delivery Manager Ingles conversacional obligatorio Para laborar en remoto Resumen del Puesto: Perfil con más de 10 años de experiencia en TI , y al menos 5 años liderando equipos en la nube (Cloud) . Amplia experiencia en transiciones a la nube, entrega de servicios, planificación de turnos y ejecución operativa . Dominio riguroso de las operaciones bajo el marco ITIL , incluyendo Gestión de Incidentes, Problemas, Cambios y Releases , así como Gestión del Conocimiento . Desde el lado técnico, el cliente solicita experiencia en las siguientes tecnologías: Dominio: Tecnología solicitada Cloud / Nube Azure Cloud (PaaS e IaaS) App Service Docker Kubernetes Container Services OpenShift BizTalk WCF (Windows Communication Foundation) Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:             contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>https://hireline.io/remoto/empleos/gobernanza-de-datos-sap-abap/110976</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Gobernanza de Datos SAP ABAP en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C157" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F157" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G157" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP ABAP Data Governance . Ingles conversacional obligatorio 100% remoto Calificaciones Habilidades Técnicas Experiencia como desarrollador o desarrollador senior con un mínimo de 5 años de experiencia práctica en desarrollo SAP MDG y SAP Fiori en Material, Cliente SAP, Proveedor, Finanzas y objetos de datos maestros personalizados. Al menos 1 proyecto de implementación/actualización y/o 2 compromisos de soporte involucrando soluciones de gestión de datos maestros utilizando las últimas herramientas y tecnologías SAP MDG. Más de 2 años de experiencia en el uso de BRF+ Framework/Aplicaciones para derivaciones y validaciones basadas en reglas, así como el uso de Tipos de Almacenamiento, Objetos de Datos de Contexto, Conjuntos de Reglas, Reglas, Funciones, Eventos, Acciones y Expresiones. Experiencia en ABAP / Servicios Web / Fiori / SAP Workflow. Conocimiento en varios módulos de SAP e integración del desarrollo en proyectos grandes de implementación de SAP S/4. Dominio en el desarrollo de SAP HANA CDS View/OData Service, incluyendo el uso de SQL y AMDP. Experiencia con iniciativas de migración S4/HANA y exposición al modelo de programación RAP (Restful ABAP) y CAP (Cloud Application) de BTP es una ventaja. Participación en análisis GAP y talleres de diseño técnico con los equipos funcionales. Capacidad para completar el Diseño Técnico de Alto Nivel y sugerir mejores prácticas siguiendo los principios de Clean Core. Capacidad confirmada usando BADI’s, BAPI’s, LSMW, ALE, llamadas RFC, IDOC, BDC, objetos de negocio, clases y métodos, Formularios Adobe, SmartForms, SAPScripts, Diccionario de Datos, ALV. Habilidades de depuración ABAP, experiencia en workflow. Experiencia en Desarrollo S/4 HANA Conocimiento del desarrollo de OData utilizando CDS y AMDP, experiencia en Workflow, incluyendo soporte y depuración. Conocimiento y conciencia de los principios SAP Clean Core, incluyendo el uso de API liberadas, opciones de extensibilidad en la aplicación y extensibilidad para usuarios clave. Conocimiento del modelo de extensibilidad de 3 capas y modelos de programación SAP RAP y CAP. Experiencia en migrar bases de código personalizadas desde sistemas ECC o SOH a una plataforma S/4 HANA, aplicando tanto la remediación técnica como los marcos de Clean Core. Conocimiento en implementación de Native SQL, ADBC, Vista Externa, Servicios de Datos ABAP, Procedimientos AMDP, Búsqueda de Texto, ALV en HANA. Experiencia práctica en la creación de vistas CDS personalizadas y la mejora de vistas CDS estándar basadas en requisitos de negocio, utilizando las anotaciones disponibles en vistas CDS. Buen conocimiento de otras nuevas tecnologías de SAP como Fiori SAPUI5, SAP BTP Integration Suite, SAP Business Application Studio, SAP Build, etc. Otras habilidades Certificación técnica relevante de SAP es una ventaja. Conocimiento práctico de las Reglas y Directrices de Rendimiento de Código para SAP HANA. Excelentes habilidades de comunicación verbal y escrita. Habilidades interpersonales para involucrarse y colaborar en un entorno de equipo. Ofrecemos: •     Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •   Prima vacacional del 50% • Aguinaldo a 24 días.  •   Vales de despensa por $3300,53  •   Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:        contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>https://hireline.io/remoto/empleos/apiedi-developer-senior-bilingual-remoto/111383</v>
+      </c>
+      <c r="B158" t="str">
+        <v>API/EDI Developer Senior (Bilingual) - Remoto en SPS</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G158" t="str">
+        <v>We are looking for an API &amp; EDI Developer to join our consulting team and contribute to building and maintaining modern, scalable integrations for supply chain and e-commerce operations. The role focuses on API and EDI development for high-volume order processing systems, working with a distributed team in a fast-paced environment. Location:  For this job opportunity, it's necessary to be located in CDMX or relocate to this city. Technical Requirements Strong experience in designing and building RESTful APIs Proficiency with JavaScript or Python for backend development Solid understanding of JSON and XML data structures  Experience with version control systems (e.g., Git) Knowledge of cloud-based integration workflows and tools  Familiarity with asynchronous message processing and queues N ice to Have (Not Mandatory) Previous experience with EDI formats (e.g., X12, EDIFACT) Experience working in supply chain, logistics, or e-commerce platforms Familiarity with ERP or OMS systems Hands-on experience with integration tools like Celigo, Boomi, MuleSoft, or similar Exposure to GraphQL Comfort working in a fully remote, agile development environment Responsibilities Build and maintain scalable APIs for order, inventory, and fulfillment workflows. Implement and support EDI integrations with trading partners and 3PLs. Design and deploy data mappings and transformations between systems. Collaborate with internal consultants and client-side teams to analyze technical requirements. Maintain documentation and reusable integration components. Monitor and troubleshoot integration flows in production environments. Participate in standups, sprint planning, and peer code reviews. What We Offer Full payroll scheme with all legal benefits Year-end bonus (Aguinaldo) Vacation days and vacation bonus Profit sharing (PTU) Social Security (IMSS) Parental leave (maternity, paternity, and adoption) Fonacot credit access Major and minor medical insurance Life insurance  Funeral assistance coverage Hybrid work model (on-site only when strictly necessary) Reduced work hours/days initiative Continuous training and upskilling opportunities Access to a certification program in high-demand IT technologies (Oracle, AWS, Google, MuleSoft, DataDog, and others).  Infonavit “Empresa 10 Plus” certified employer If you're interested, please apply and make sure your resume is up to date.</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>https://hireline.io/remoto/empleos/sr-software-engineer-full-stack-remoto/111429</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Sr. Software Engineer (Full Stack) - Remoto</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F159" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G159" t="str">
+        <v>¡Se busca a Sr. Full Stack Developer!  Importante empresa del sector requiere un Sr. Full Stack Developer con experiencia en desarrollo de aplicaciones web con Ruby on Rails, Lenguaje Ruby, Javascript, HTML, CSS Conocimiento en procesos AGILE, o Scrum,  si tiene experiencia en entornos Linux es un plus. Actividades: Colaborar con gerentes de producto y diseñadores para crear soluciones de software que atiendan necesidades clave de clientes y objetivos del negocio. Liderar la implementación end-to-end: desde estimación de esfuerzo y planificación de sprints hasta la ejecución técnica. Garantizar la excelencia del producto mediante:  -  Pruebas unitarias rigurosas (TDD/BDD cuando aplica)  -  Cumplimiento de principios SOLID y estándares de código limpio  -  Optimización de rendimiento y reducción de deuda técnica  Competencias: Gran capacidad de comunicación, se necesita alguien que le guste opinar.  Sueldo: Entre 90k y 120k mensuales, pago por honorarios, no prestaciones Idioma: Inglés Avanzado Lugar de trabajo: De preferencia que viva en Zapopan, Jalisco, pero puede ser trabajo 100% remoto en cualquier parte de la república.  Haber trabajado en empresas de desarrollo de algún producto que se comercialice</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>https://hireline.io/remoto/empleos/data-service-delivery-manager-databricks-remoto/111189</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Data Service Delivery Manager (Databricks) - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C160" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G160" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Data Service Delivery Manager Ingles conversacional obligatorio Para laborar en remoto Resumen del Puesto: Perfil con más de 10 años de experiencia en TI , y al menos 5 años liderando equipos de Datos o Business Intelligence . Amplia experiencia en transiciones de Datos/BI, entrega de servicios, planificación de turnos y ejecución de operaciones . Fuerte adherencia a las operaciones bajo el marco de ITIL , incluyendo Gestión de Incidentes, Problemas, Cambios y Releases , así como Gestión del Conocimiento . Desde el punto de vista técnico, el cliente solicita experiencia en las siguientes tecnologías: Dominio: Tecnología requerida Datos y Analítica Databricks Kafka Scala Spark Grafana Angular Python   Docker Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:             contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-abap-gobernanza-de-datos-remoto/111090</v>
+      </c>
+      <c r="B161" t="str">
+        <v>SAP ABAP - Gobernanza de Datos - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C161" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G161" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP ABAP – Gobernanza de Datos Inglés conversacional obligatorio 100% remoto Habilidades Técnicas Experiencia como desarrollador o desarrollador senior, con al menos  5 años de experiencia combinada en desarrollo SAP MDG  y  SAP Fiori  , trabajando con objetos maestros como materiales, clientes, proveedores, finanzas y objetos personalizados. Participación en al menos  1 proyecto de implementación o upgrade  y/o  2 experiencias de soporte  en soluciones de gestión de datos maestros usando herramientas y tecnologías SAP MDG actuales. Más de  2 años de experiencia con BRF+  : reglas de derivación y validación, uso de Storage Types, Context Data Objects, Rule Sets, Rules, Functions, Events, Actions y Expressions. Experiencia en  ABAP / Servicios Web / Fiori / Workflows SAP  . Conocimiento de varios módulos SAP e integración dentro de proyectos de implementación a gran escala en  SAP S/4 HANA  . Dominio en el desarrollo de  CDS Views/OData Services  sobre  SAP HANA  , incluyendo uso de  SQL y AMDP  . Experiencia en migraciones a  S/4HANA  y exposición al modelo de programación RAP (side-by-side) e integración con  SAP BTP  es un plus. Participación en análisis de brechas (GAP Analysis) y talleres de diseño técnico junto a equipos funcionales. Capacidad para elaborar diseños técnicos de alto nivel y proponer buenas prácticas alineadas con principios de Clean Core. Dominio en el uso de  BADI’s, BAPI’s, LSMW, ALE, llamadas RFC, IDOC, BDC, objetos de negocio, clases y métodos, Adobe Forms, SmartForms, SAPScripts, Diccionario de Datos, ALV  . Habilidades avanzadas de  depuración ABAP  y experiencia en  Workflows  . Experiencia en Desarrollo sobre S/4 HANA Conocimiento en desarrollo de  OData  utilizando  CDS y AMDP  , experiencia en Workflows, incluyendo soporte y depuración. Conocimiento de los principios de  SAP Clean Core  , incluyendo uso de APIs liberadas, opciones de extensibilidad in-app y extensibilidad por parte del usuario clave ( key user extensibility ). Conocimiento del modelo de extensibilidad de tres capas (  3-Tier extensibility  ) y modelos de programación</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>https://hireline.io/remoto/empleos/sap-abap-gobernanza-de-datos/111048</v>
+      </c>
+      <c r="B162" t="str">
+        <v>SAP ABAP – Gobernanza de Datos en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C162" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F162" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G162" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP ABAP – Gobernanza de Datos Ingles conversacional obligatorio 100% remoto Habilidades Técnicas Experiencia como desarrollador o desarrollador senior, con al menos 5 años de experiencia combinada en desarrollo SAP MDG y SAP Fiori , trabajando con objetos maestros como materiales, clientes, proveedores, finanzas y objetos personalizados. Participación en al menos 1 proyecto de implementación o upgrade y/o 2 experiencias de soporte en soluciones de gestión de datos maestros usando herramientas y tecnologías SAP MDG actuales. Más de 2 años de experiencia con BRF+ : reglas de derivación y validación, uso de Storage Types, Context Data Objects, Rule Sets, Rules, Functions, Events, Actions y Expressions. Experiencia en ABAP / Servicios Web / Fiori / Workflows SAP . Conocimiento de varios módulos SAP e integración dentro de proyectos de implementación a gran escala en SAP S/4 HANA . Dominio en el desarrollo de CDS Views/OData Services sobre SAP HANA , incluyendo uso de SQL y AMDP . Experiencia en migraciones a S/4HANA y exposición al modelo de programación RAP (side-by-side) e integración con SAP BTP es un plus. Participación en análisis de brechas (GAP Analysis) y talleres de diseño técnico junto a equipos funcionales. Capacidad para elaborar diseños técnicos de alto nivel y proponer buenas prácticas alineadas con principios de Clean Core. Dominio en el uso de BADI’s, BAPI’s, LSMW, ALE, llamadas RFC, IDOC, BDC, objetos de negocio, clases y métodos, Adobe Forms, SmartForms, SAPScripts, Diccionario de Datos, ALV . Habilidades avanzadas de depuración ABAP y experiencia en Workflows . Experiencia en Desarrollo sobre S/4 HANA Conocimiento en desarrollo de OData utilizando CDS y AMDP , experiencia en Workflows, incluyendo soporte y depuración. Conocimiento de los principios de SAP Clean Core , incluyendo uso de APIs liberadas, opciones de extensibilidad in-app y extensibilidad por parte del usuario clave ( key user extensibility ). Conocimiento del modelo de extensibilidad de tres capas ( 3-Tier extensibility ) y modelos de programación RAP (Restful ABAP) y CAP (Cloud Application Programming) . Experiencia en migración de código personalizado desde sistemas ECC o SoH a plataformas S/4 HANA , aplicando remediación técnica y marcos de Clean Core. Conocimiento en SQL Nativo, ADBC, External View, CDS Core, AMDP Procedures, búsqueda de texto, ALV sobre HANA . Experiencia práctica en crear y extender vistas CDS estándar y clases AMDP según los requerimientos del negocio, incluyendo el uso de múltiples anotaciones. Buen conocimiento de otras tecnologías SAP modernas como SAPUI5, SAP BTP Integration Suite, SAP Business Application Studio, SAP Build , etc. Otras habilidades Certificación técnica relevante en SAP (deseable). Conocimiento práctico de las reglas de rendimiento de código y directrices para SAP HANA . Excelentes habilidades de comunicación verbal y escrita . Fuertes habilidades interpersonales para colaborar de forma efectiva en equipos multidisciplinarios. Ofrecemos: •   Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:         contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>https://hireline.io/remoto/empleos/data-engineer-databricks-senior-remoto/111623</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Data Engineer (Databricks) Senior - Remoto en Perficient</v>
+      </c>
+      <c r="C163" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F163" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G163" t="str">
+        <v>The Data Engineer will be responsible for designing, developing, and maintaining data pipelines and solutions to enable our client to harness the power of the data for further analytics. We’re looking for passionate individuals with knowledge on modern cloud data platforms such as Databricks and Snowflake who want to learn DataOps concepts with tools such as DBT among others. Additionally, it is the expectation that people participate actively in all aspects of the data lifecycle and provide recommendations aligning to best practices within the process. What do you need to come aboard? Databricks Data Engineer Associate certification or Snowpro Core certification ideal Less than 2 years of experience in the industry focused on modern cloud data platforms Passionate data engineer with knowledge of Databricks and/or Snowflake, with a focus on designing and implementing data pipelines Expertise in Snowflake and/or Databricks – be able to differentiate what makes these data platforms different from traditional data warehousing solutions, and how to model and stage data all the way from ingestion to ready for consumption layer Solid SQL skills and understanding of database systems Python skills are recommended Experience with data integration, data processing, and data quality Experience with CI/CD practices and tools including Git and branching strategies Experience using any of the big cloud (AWS, Azure, GCP) data services are recommended; Azure preferred Excellent English written and spoken Willing to learn new technologies as DBT To Rock This Role, You Should Client facing or consulting experience highly preferred Client facing or consulting experience highly preferred Strong communication and presentation skills Strong sense of urgency, detail oriented with the ability to manage and prioritize workflow. Analytical problem-solving &amp; decision making able to research, analyze, identify viable options, draw sound conclusions, present findings and make thoughtful recommendations considering overall risk and short-term and long-term impact Flexible and adaptable attitude, disciplined to manage multiple responsibilities and adjust to varied environments. Future technology leaders- dynamic individuals energized by fast paced personal and professional growth. What can we offer you? Law benefits Certifications Internal &amp; External Courses English Classes Medical Insurance (Personal and Familiar) Life Insurance Savings Fund Pantry Vouchers Additional Holidays</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>https://hireline.io/remoto/empleos/senior-react-native-developer-remoto/111419</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Senior React Native Developer - Remoto en Perficient</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F164" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G164" t="str">
+        <v>We currently have a career opportunity for a  Senior React Native Developer  to join our team located in Mexico (only applicants located in Mexico). Job Summary As a  React Native Developer  role will be responsible for executing high quality solutions for customers and contributing to the day-to-day technical excellence of a delivery team. As a core member of a project team, you will participate in all aspects of the software development lifecycle, which includes sizing, technical design, implementation, documentation, testing, deployment and support of applications developed. Responsibilities Client facing or consulting experience highly preferred Strong communication and presentation skills with the ability to explain technical considerations, trade-offs and recommendations to both technical and non-technical client representatives Analytical problem-solving &amp; decision making able to research, analyze, identify viable options, draw sound conclusions, present findings and make thoughtful recommendations considering overall risk and short-term and long-term impact Flexible and adaptable attitude, disciplined to manage multiple responsibilities and adjust to varied environments. Future technology leaders- dynamic individuals energized by fast paced personal and professional growth Strong sense of urgency, detail oriented with the ability to manage and prioritize workflow Qualifications BS in Computer Science, Engineering or related technical field or equivalent practical experience. Passionate coders with 6-10 years of application development experience in React Native Proficiency in JavaScript and JavaScript front end frameworks (e.g. React, AngularJS, Typescript, Backbone) Proficient in React (minimum 5 years of experience) Proficient in React (hooks) Demonstrate self-drive and capability to work independently Develop high-quality mobile applications Work with React Native on iOS and Android platforms Understand security, cross-browser issues, and effective workarounds Apply expertise in frontend development using React (React-Native), Material, HTML5, CSS3 Familiarity with GraphQL/Rest Apply knowledge of security frameworks (e.g., Oauth2, Open Connect ID, JWT) is a plus Experience in developing unit tests for components and services using Jest/Appium Apply analytical mindset with excellent problem-solving skills Work in collaborative development team environments using Agile/Scrum methodologies Advance English written and spoken is a must Perficient full-time employees receive complete and competitive benefits. We offer a collaborative work environment, competitive compensation, generous work/life opportunities and an outstanding benefits package that includes paid time off plus holidays. In addition, all colleagues are eligible for a number of rewards and recognition programs including billable bonus opportunities. Encouraging a healthy work/life balance and providing our colleagues great benefits are just part of what makes Perficient a great place to work. WHO WE ARE Perficient is a leading global digital consultancy. We imagine, create, engineer, and run digital transformation solutions that help our clients exceed customers’ expectations, outpace competition, and grow their business. With unparalleled strategy, creative, and technology capabilities, our colleagues bring big thinking and innovative ideas, along with a practical approach to help our clients – the world’s largest enterprises and biggest brands succeed. WHAT WE BELIEVE At Perficient, we promise to challenge, champion, and celebrate our people. You will experience a unique and collaborative culture that values every voice. Join our team, and you’ll become part of something truly special. We believe in developing a workforce that is as diverse and inclusive as the clients we work with. We’re committed to actively listening, learning, and acting to further advance our organization, our communities, and our future leaders… and we’re not done yet. Perficient, Inc. proudly provides equal employment opportunities (EEO) to all employees and applicants for employment without regard to race, color, religion, gender, sexual orientation, national origin, age, disability, genetic information, marital status, amnesty, or status as a protected veteran in accordance with applicable federal, state and local laws. Perficient, Inc. complies with applicable state and local laws governing non-discrimination in employment in every location in which the company has facilities. This policy applies to all terms and conditions of employment, including, but not limited to, hiring, placement, promotion, termination, layoff, recall, transfer, leaves of absence, compensation, and training. Perficient, Inc. expressly prohibits any form of unlawful employee harassment based on race, color, religion, gender, sexual orientation, national origin, age, genetic information, disability, or covered veterans. Improper interference with the ability of Perficient, Inc. employees to perform their expected job duties is absolutely not tolerated.</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>https://hireline.io/remoto/empleos/administrador-de-base-de-datos-biztalk-azure-scala/111188</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Administrador de Base de Datos (BizTalk, Azure, Scala) en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C165" t="str">
+        <v>$ 70,000 a 80,000 MXN (Bruto)</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F165" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G165" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Administrador de Base de Datos ( BizTalk,  Azure, Scala) Ingles conversacional obligatorio Para laborar en remoto Resumen del Puesto: Perfil con más de 10 años de experiencia en TI , y al menos 5 años liderando equipos de Datos o Business Intelligence . Sólida experiencia en transiciones de datos/BI, entrega de servicios, planificación de turnos y ejecución operativa . Fuerte adherencia a las operaciones bajo el marco ITIL , incluyendo Gestión de Incidentes, Problemas, Cambios y Releases , así como Gestión del Conocimiento . Desde el punto de vista técnico, el cliente solicita experiencia en las siguientes tecnologías: Dominio: Tecnología solicitada Datos y Analítica – Administrador de Base de Datos BizTalk SQL Server Azure Cloud (PaaS e IaaS) PostgreSQL Scala Integration Services Synapse Ofrecemos: •    Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:             contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>https://hireline.io/remoto/empleos/salesforce-developer-senior-remoto/111418</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Salesforce Developer Senior - Remoto en Perficient</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Remoto: Chile, México, Argentina, Colombia</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F166" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G166" t="str">
+        <v>We are looking for a Salesforce Developer with strong hands-on experience in Apex and Lightning Web Components (LWC). The ideal candidate should be skilled in building scalable, high-quality solutions on the Salesforce platform, and be comfortable working in agile teams. While the core of the role is development, some knowledge of tools like Nintex and DocuSign is considered a nice-to-have. As a Senior Technical Consultant you will participate in all aspects of the software development lifecycle which includes estimating, technical design, implementation, documentation, testing, deployment and support of application developed for our clients. As a member working in a team environment you will take direction from solution architects and Leads on development activities. Perficient is always looking for the best and brightest talent and we need you! We’re a quickly-growing, global digital consulting leader, and we’re transforming the world’s largest enterprises and biggest brands. You’ll work with the latest technologies, expand your skills, and become a part of our global community of talented, diverse, and knowledgeable colleagues. Responsibilities: Design, develop, test, and deploy custom Salesforce applications using Apex, LWC, and Flow. Work closely with product owners and technical leads to translate business requirements into scalable technical solutions. Participate in code reviews and contribute to continuous improvement of development practices Support integrations between Salesforce and third-party systems (REST/SOAP APIs) Collaborate in Agile ceremonies such as sprint planning, standups, and retrospectives Must-Have Qualifications 3+ years of hands-on experience developing in Salesforce Strong knowledge and practical experience with: Apex (mandatory) Lightning Web Components (LWC) Salesforce Flows SOQL/SOSL JavaScript Experience with Salesforce development tools: VS Code, Salesforce CLI, Git Understanding of Salesforce data model, sharing rules, and security model Strong written and verbal communication skills Nice to Have Experience with Nintex, Conga, or DocuSign (especially configuring templates and automating record updates) Salesforce certification(s) Experience working with frontend frameworks or general frontend knowledge Previous work experience with nearshore development teams Perficient full-time employees receive complete and competitive benefits. We offer a collaborative work environment, competitive compensation, generous work/life opportunities and an outstanding benefits package. Encouraging a healthy work/life balance and providing our colleagues great benefits are just part of what makes Perficient a great place to work. WHO WE ARE Perficient is a leading global digital consultancy. We imagine, create, engineer, and run digital transformation solutions that help our clients exceed customers’ expectations, outpace competition, and grow their business. With unparalleled strategy, creative, and technology capabilities, our colleagues bring big thinking and innovative ideas, along with a practical approach to help our clients – the world’s largest enterprises and biggest brands succeed. WHAT WE BELIEVE At Perficient, we promise to challenge, champion, and celebrate our people. You will experience a unique and collaborative culture that values every voice. Join our team, and you’ll become part of something truly special. We believe in developing a workforce that is as diverse and inclusive as the clients we work with. We’re committed to actively listening, learning, and acting to further advance our organization, our communities, and our future leaders… and we’re not done yet.</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>https://hireline.io/remoto/empleos/especialista-en-gobernanza-de-datos-sap-abap-remoto/111003</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Especialista en Gobernanza de Datos SAP ABAP - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C167" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F167" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G167" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   SAP ABAP Data Governance  . Ingles conversacional obligatorio 100% remoto para toda la República Mexicana. Calificaciones Habilidades Técnicas Experiencia como desarrollador o desarrollador senior con un mínimo de 5 años de experiencia práctica en desarrollo SAP MDG y SAP Fiori en Material, Cliente SAP, Proveedor, Finanzas y objetos de datos maestros personalizados. Al menos 1 proyecto de implementación/actualización y/o 2 compromisos de soporte involucrando soluciones de gestión de datos maestros utilizando las últimas herramientas y tecnologías SAP MDG. Más de 2 años de experiencia en el uso de BRF+ Framework/Aplicaciones para derivaciones y validaciones basadas en reglas, así como el uso de Tipos de Almacenamiento, Objetos de Datos de Contexto, Conjuntos de Reglas, Reglas, Funciones, Eventos, Acciones y Expresiones. Experiencia en ABAP / Servicios Web / Fiori / SAP Workflow. Conocimiento en varios módulos de SAP e integración del desarrollo en proyectos grandes de implementación de SAP S/4. Dominio en el desarrollo de SAP HANA CDS View/OData Service, incluyendo el uso de SQL y AMDP. Experiencia con iniciativas de migración S4/HANA y exposición al modelo de programación RAP (Restful ABAP) y CAP (Cloud Application) de BTP es una ventaja. Participación en análisis GAP y talleres de diseño técnico con los equipos funcionales. Capacidad para completar el Diseño Técnico de Alto Nivel y sugerir mejores prácticas siguiendo los principios de Clean Core. Capacidad confirmada usando BADI’s, BAPI’s, LSMW, ALE, llamadas RFC, IDOC, BDC, objetos de negocio, clases y métodos, Formularios Adobe, SmartForms, SAPScripts, Diccionario de Datos, ALV. Habilidades de depuración ABAP, experiencia en workflow. Experiencia en Desarrollo S/4 HANA Conocimiento del desarrollo de OData utilizando CDS y AMDP, experiencia en Workflow, incluyendo soporte y depuración. Conocimiento y conciencia de los principios SAP Clean Core, incluyendo el uso de API liberadas, opciones de extensibilidad en la aplicación y extensibilidad para usuarios clave. Conocimiento del modelo de extensibilidad de 3 capas y modelos de programación SAP RAP y CAP. Experiencia en migrar bases de código personalizadas desde sistemas ECC o SOH a una plataforma S/4 HANA, aplicando tanto la remediación técnica como los marcos de Clean Core. Conocimiento en implementación de Native SQL, ADBC, Vista Externa, Servicios de Datos ABAP, Procedimientos AMDP, Búsqueda de Texto, ALV en HANA. Experiencia práctica en la creación de vistas CDS personalizadas y la mejora de vistas CDS estándar basadas en requisitos de negocio, utilizando las anotaciones disponibles en vistas CDS. Buen conocimiento de otras nuevas tecnologías de SAP como Fiori SAPUI5, SAP BTP Integration Suite, SAP Business Application Studio, SAP Build, etc.</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-php/111573</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Desarrollador PhP en ISITA</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E168" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F168" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G168" t="str">
+        <v>Desarrollador de soluciones basadas en plataformas PHP + Symfony con servicios soap/api y bases de datos.  Responsabilidades: - Análisis y documentación de los requisitos que se asignan a desarrollar. - Apoyar en creación de modelado de entidad - relación, diccionario de datos. - Analizar sistemas existentes y diseñar soluciones. - Participar en el desarrollo de aplicaciones construyendo código escalable, robusto y de calidad. - Participar en la determinación de tareas y tiempos para cumplir con un requisito a desarrollar. - Realizar pruebas unitarias del propio código generado. - Comunicar el estatus de actividades así tareas realizadas y tiempo invertido en ellas. Experiencia:  - 3+años de experiencia en desarrollo de aplicaciones web en lenguaje de programación PHP. - 2+años de experiencia en desarrollo de aplicaciones basados en microservicios. - 2+años de experiencia en análisis detallado de requerimientos funcionales. - 2+años de experiencia en desarrollo con  framework Symfony. - 2+años de experiencia en SQL. - 2+años de experiencia en manejo de Elastic Search. - 2+años de experiencia en el uso de versionamiento de código (Git Flow). - 2+años de experiencia consumiendo Api Rest. - Fundamentos de POO. - Desarrollo de aplicaciones Web responsivas. - Desarrollo de Rest APIs. - Análisis y documentación de requerimientos o historias de usuario. - Desarrollo de base datos (Procedimientos almacenados, tablas, vistas, funciones) MySQL. - Desarrollo de base datos no relacionales (Redis, Elastic Search). - Manejo de versionadores de código (Git). - Desarrollo basado en microservicios. - Desarrollo bajo CI / CD utilizando PipeLines y Kubernetes. Requeridos:                   - POO Arquitecturas SOA.                  - PHP Microservicios.                    - Symfony Kubernetes.                       -SQL, Redis, Elastic Search.                           -  Pipelines. - Git. - API Rest Ful. Opcionales: - Dockers. - React JS. - Cualquier otro Framework para PHP. Requeridas: - Trato eficiente con clientes tanto presencial como email, chat, teléfono o videoconferencia. - Buena comunicación. - Generación de documentos de análisis como casos de uso, historias de usuario, documentos funcionales, levantamiento de requerimientos. - Creación documentación técnica más compleja (manuales técnicos, manuales de soporte, modelados de base de datos, modelados de software, diagramas lógicos). - Manejo de herramientas de pruebas de vulnerabilidades de código. - Soporte a incidentes operativos. - Generación de pipeline en cloud computing como Azure o AWS. Deseables: - Manejo de contenedores y orquestadores (docker, kubernetes). - Conocimiento e implementación de Jenkins, PipeLines. - Nivel de inglés: Básico.</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-swift-ios/111553</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Desarrollador Swift-iOS en ISITA</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F169" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G169" t="str">
+        <v>Descripción General ·          Profesional especializado en el desarrollo y mantenimiento de aplicaciones móviles nativas para dispositivos Apple, como iPhone y iPad, utilizando el lenguaje de programación Swift . Su objetivo principal es crear experiencias móviles elegantes, rápidas y seguras, cumpliendo con las guías de diseño de Apple y asegurando una excelente experiencia de usuario. ·          Trabaja en colaboración con diseñadores, desarrolladores backend, QA y otros equipos técnicos para entregar aplicaciones funcionales, estables y optimizadas para el ecosistema iOS. Responsabilidades Clave ·          Interpretar diseños UI/UX, maquetas y flujos de usuario en aplicaciones iOS funcionales. ·          Desarrollar, probar y mantener código limpio y estructurado en Swift . ·          Utilizar correctamente el SDK de iOS , componentes nativos y patrones de diseño modernos. ·          Integrar servicios RESTful y manejo de datos locales o en la nube. ·          Asegurar el rendimiento, estabilidad y capacidad de respuesta de las aplicaciones en múltiples dispositivos y versiones de iOS. ·          Detectar y corregir errores, cuellos de botella y posibles vulnerabilidades. ·          Publicar versiones de la app en App Store , cumpliendo con las políticas de Apple. ·          Participar en code reviews , aplicar buenas prácticas de desarrollo y arquitectura móvil. ·          Automatizar flujos de integración y despliegue mediante herramientas de CI/CD.    Habilidades Técnicas ·          Dominio del lenguaje Swift (y opcionalmente Objective-C). ·          Manejo del entorno de desarrollo Xcode . ·          Conocimiento profundo del iOS SDK , sus frameworks nativos y APIs. ·          Familiaridad con arquitecturas modernas como MVVM , VIPER o Clean Architecture . ·          Uso de frameworks como UIKit , SwiftUI , CoreData , Combine , AVFoundation , MapKit , etc. ·          Integración con servicios web usando URLSession , Alamofire , entre otros. ·          Persistencia de datos locales con UserDefaults , CoreData o Realm . ·          Experiencia en pruebas unitarias y de interfaz con XCTest , XCUITest , etc. ·          Conocimiento de formatos de datos como JSON y Plist . ·          Uso de control de versiones con Git y flujos colaborativos (GitHub, GitLab, Bitbucket). ·          Despliegue y gestión de apps en TestFlight y App Store Connect . ·          Conocimientos básicos en CI/CD (Fastlane, GitHub Actions, Bitrise, etc.). ·          Cumplimiento de las Human Interface Guidelines (HIG) de Apple.      Competencias Blandas ·          Pensamiento lógico y estructurado para resolver problemas complejos. ·          Atención al detalle en código, diseño e interacción de usuario. ·          Comunicación efectiva y capacidad de trabajo en equipo multidisciplinario. ·          Autonomía y responsabilidad para asumir tareas completas. ·          Adaptación al cambio , especialmente ante actualizaciones de iOS y nuevas librerías. ·          Enfoque en la experiencia de usuario , diseño intuitivo y rendimiento. ·          Capacidad de aprendizaje continuo y autoformación técnica.   Conocimientos Adicionales Deseables ·          Uso de herramientas como Firebase , Crashlytics , Push Notifications , In-App Purchases , etc. ·          Conocimientos en ARKit , CoreML y otras tecnologías Apple. ·          Familiaridad con Swift Package Manager y manejo de dependencias (CocoaPods, Carthage). ·          Conocimientos en UML , bases de datos SQL o NoSQL . ·          Experiencia en metodologías ágiles ( Scrum , Kanban ). ·          Conocimientos básicos de desarrollo cruzado con SwiftUI multiplataforma . ·           Nivel de inglés: Básico.</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-sap-abap-sap-fi-remoto/111046</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Desarrollador SAP ABAP - SAP FI - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C170" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F170" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G170" t="str">
         <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Desarrollador SAP ABAP - SAP FI Ingles conversacional obligatorio 100% remoto Calificaciones Habilidades Técnicas Experiencia como Desarrollador ABAP o Desarrollador Senior, con mínimo 5 años de experiencia práctica en desarrollo core SAP ABAP y/o experiencia con SAP Fiori UI5. Sólido conocimiento del diseño SAP enfocado en Finanzas, incluyendo flujos de proceso relacionados con: Asientos contables basados en cuentas de mayor (GL) Creación y contabilización de facturas Procesos de Cuentas por Pagar y Cuentas por Cobrar Reconocimiento de ingresos Uso de user-exits y sustituciones Conocimiento de estructuras de tablas y campos subyacentes en SAP FI sobre S/4 HANA . Familiaridad con APIs, BAPIs y módulos de función comunes en el área financiera, relacionados con contabilizaciones financieras, cálculo de divisas, determinación de impuestos, ejecuciones de pago, estados de cuenta bancarios, etc. Experiencia en iniciativas de migración a S/4 HANA y exposición al modelo de programación RAP (side-by-side) e integración con BTP . Capacidad para elaborar diseños técnicos de alto nivel y proponer buenas prácticas alineadas con principios de Clean Core . Dominio del uso de: BADI’s, BAPI’s, LSMW, ALE, llamadas RFC, IDOC, BDC, objetos de negocio, clases y métodos, Adobe Forms, SmartForms, SAPScripts, Diccionario de Datos y ALV. Fuertes habilidades en depuración ABAP. Ofrecemos: •      Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •    Prima vacacional del 50% • Aguinaldo a 24 días.  •    Vales de despensa por $3300,53  •    Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:         contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>https://hireline.io/remoto/empleos/soportesupport-esc-spares-reporting-remoto/111027</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Soporte/Support ESC Spares Reporting - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C171" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F171" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G171" t="str">
+        <v>Si te apasiona la tecnología y crees que tienes las habilidades y capacidades necesarias para unirte al equipo, Capital Empresarial Horizonte es una empresa mexicana líder en Recursos Humanos y Tecnologías de la Información. Nos enorgullecemos de fomentar un ambiente de trabajo colaborativo y dinámico donde la innovación y el desarrollo profesional son altamente valorados. Buscamos:   Support ESC Spares Reporting   Descripción del puesto: Apoyo en la generación, el mantenimiento y el análisis de informes relacionados con la planificación, la disponibilidad y el uso de repuestos. Este puesto colabora con los departamentos técnico, logístico y de mantenimiento para garantizar la visibilidad del rendimiento del inventario, el cumplimiento de los requisitos de suministro y los KPI asociados con la gestión de materiales críticos.   Responsabilidades: Update weekly risk analysis report Update WoW demand changes report Update New Data Center (NZT) hand-off and availability reports Maintain News Data Center single source of truth table for OFE and CFE GPNs Maintain New Data Center end-to-end demand and supply planning reports (demand, open POs, move orders, and current on-hand supply) Support Ad-hoc demand and supply monitoring requests   Si tienes experiencia reciente en este puesto o en uno similar, indícalo en tu currículum y postúlate.   Requisitos del puesto: Trabajo completamente remoto Este puesto se imparte íntegramente en inglés; la entrevista se realizará en inglés. Vacante para mexicanos/nacionalizados Mínimo 4 años de experiencia en puestos similares recientes Ingeniería/Licenciatura en informática o Computación con título universitario   Habilidades requeridas: Dominio avanzado de Excel. Experiencia con herramientas de visualización de datos como Power BI, Tableau o similares. Conocimientos básicos de SAP u otros sistemas ERP. Capacidad para trabajar con grandes volúmenes de datos y garantizar su integridad. Preferible: Conocimiento de SQL o gestión de bases de datos.   Habilidades deseadas: Familiaridad con sistemas de gestión de inventarios. Experiencia en un entorno de centro de datos.   Habilidades blandas: Pensamiento analítico y atención al detalle. Capacidad para comunicar hallazgos de forma clara y eficaz. Capacidad independiente para organizar tareas y cumplir plazos. Capacidad para colaborar con diferentes áreas.   Ofrecemos: Salario bruto de $50,000 MXN (max) al mes + prestaciones de ley. Horario: Lunes a viernes de 9:00 a. m. a 6:00 p. m. y sábados de 9:00 a. m. a 2:00 p. m. Ambiente de trabajo colaborativo y dinámico.   **¡Únete a Capital Empresarial Horizonte y forma parte de un equipo que valora la innovación y el crecimiento profesional! - ¡Aprovecha esta oportunidad y asegura tu lugar!**</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>https://hireline.io/remoto/empleos/power-automate-developers/111612</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Power Automate developers en ISITA</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F172" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G172" t="str">
+        <v>Key Responsibilities: ·          Analyze existing Automation Anywhere scripts used for SAP and other automation. ·          Design and build equivalent automation flows using Power Automate Desktop (PAD) and, where applicable, cloud flows. ·          Develop custom connectors or scripts when required to interface with SAP and other systems. ·          Optimize migrated flows for performance, reliability, and maintainability. ·          Collaborate with process owners, and IT stakeholders to ensure accurate business logic translation. ·          Perform testing, validation, and troubleshooting of the new Power Automate solutions. ·          Maintain documentation and provide knowledge transfer to internal teams.   Required Skills &amp; Experience: ·          2+ years of hands-on experience with Power Automate  and Microsoft Power Platform. ·          Familiarity with UI automation , selectors , data scraping , and exception handling in PAD. ·          Strong understanding of business process automation concepts and best practices. ·          Ability to troubleshoot, debug, and optimize Power Automate flows. ·          Experience working in enterprise environments with governance, version control, and deployment pipelines.   Helpful Add-ons: ·          Experience with Automation Anywhere  (v11 or A2019+) and migrating or reengineering workflows. ·          Experience in automating GUI  and web-based applications using RPA tools. ·          Familiarity with process discovery tools or task mining.</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-java-aws/111327</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Desarrollador Java - AWS en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C173" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F173" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G173" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Desarrollador   Java - AWS Ingles conversacional obligatorio 100% remoto Requisitos: Mínimo  3 años de experiencia  en desarrollo con  Java Sólido conocimiento en  Spring Boot Experiencia trabajando con  servicios de AWS  (Lambda, EC2, S3, RDS, etc.) Inglés avanzado  (oral y escrito), indispensable para la comunicación con equipos internacionales Buen manejo de control de versiones (Git) Familiaridad con metodologías ágiles (Scrum/Kanban) Responsabilidades: Diseñar, desarrollar e implementar aplicaciones backend utilizando Java y Spring Boot Construir servicios escalables y seguros sobre infraestructura AWS Participar en el análisis y definición de requerimientos técnicos Colaborar con equipos multifuncionales en entornos ágiles Realizar pruebas y asegurarse de que el código cumpla con estándares de calidad Documentar el desarrollo técnico y compartir conocimiento con el equipo Proponer mejoras continuas en los procesos y la arquitectura de software Ofrecemos: •     Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •     Prima vacacional del 50% • Aguinaldo a 24 días.</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>https://hireline.io/remoto/empleos/arquitecto-de-soluciones-tecnologicas/111244</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Arquitecto de Soluciones Tecnológicas en Ia Interactive</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F174" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G174" t="str">
+        <v>Mínimo 3 años de experiencia en Arquitectura de Soluciones, Arquitectura Cloud, Arquitectura de Software. Actividades: Desarrollar y diseñar arquitecturas de sistemas que soporten las necesidades de los proyectos. Asegurar que las arquitecturas sean escalables, seguras y alineadas con las mejores prácticas de la industria. Evaluar y seleccionar herramientas, plataformas y tecnologías que se ajusten mejor a los requisitos del proyecto. Definir stacks tecnológicos. Mantenerse actualizado con las tendencias tecnológicas y recomendar innovaciones que beneficien al proyecto. Asegurar de que las historias de usuario cuenten con definición y cumplimiento de sus requerimientos no funcionales. Definir y documentar a nivel proyecto los requerimientos no funcionales. Recibir feedback para validar que lo que se diseñó sea lo que se entrega. Apoyar en la estimación de desarrollo, identificación de dependencias técnicas y delegarlas con los equipos correspondientes. → Integrar con la PMO. Liderar la implementación de soluciones tecnológicas, asegurando la integración y el funcionamiento efectivo de todos los componentes. Colaborar con equipos de desarrollo, operaciones y otros stakeholders para garantizar una implementación exitosa. Documentar las arquitecturas y soluciones propuestas, asegurando que sean comprensibles y accesibles para todos los stakeholders. Comunicar soluciones y estrategias de manera efectiva a diferentes niveles de la organización. Implementar medidas de seguridad para crear software seguro y protegido de vulnerabilidades. Actualizando continuamente sus conocimientos técnicos y del negocio. Realizando pruebas de concepto de nuevas tecnologías. Compartiendo con su equipo de trabajo descubrimientos técnicos. Conocimientos necesarios: Conocimientos Amplios en TI: Dominio de arquitecturas de software, desarrollo de aplicaciones, bases de datos, redes y ciberseguridad. Experiencia con Herramientas y Tecnologías Específicas: Conocimiento en plataformas cloud (AWS, Azure, Google Cloud), lenguajes de programación (Java, Python, C#, etc.), y herramientas de integración y middleware. Modelado y Diseño: Competencia en el uso de herramientas de modelado (UML, ArchiMate) y en el diseño de arquitecturas escalables y mantenibles. Configuración de arquitecturas Cloud a través de consola o de API. Procesos de ideación de propuestas tecnológicas (Design Thinking, Design Sprint). Marcos de trabajo ágiles (Scrum, Kanban). Conocimientos deseados: Conocimientos en más de 1 plataforma Cloud. Automatización de procesos en plataformas Cloud. Certificado en: *AWS Certified Solutions Architect. *AWS Certified SysOps Administrator. *Similares en Azure o Google Cloud Platform.</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>https://hireline.io/remoto/empleos/salesforce-developer-remoto/111280</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Salesforce Developer - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C175" t="str">
+        <v>$ 90,000 a 100,000 MXN (Bruto)</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F175" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G175" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Salesforce Developer Para laborar en Remoto INGLES CONVERSACIONAL INDISPENSABLE Habilidades Técnicas/Funcionales: Título universitario en Ciencias de la Computación o equivalente, con un mínimo de 7 años de experiencia en la industria. Al menos  4  años de experiencia trabajando con plataformas Salesforce   , incluyendo un mínimo de 2 años en un rol de liderazgo técnico. Se valoran altamente certificaciones de Salesforce como   Platform Developer II   ,   Application Architect   ,   System Architect   o   Technical Architect   . Conocimiento profundo de las capacidades de Salesforce (tanto declarativas como programáticas) y de sus capacidades de integración. Dominio avanzado de   APEX   ,   Visualforce   ,   Lightning Web Components   ,   APIs de Salesforce   y   SOQL   . Fuertes habilidades de liderazgo, con experiencia demostrable dirigiendo y gestionando equipos. Excelentes habilidades de comunicación y gestión de stakeholders. Experiencia en desarrollo de configuración como Flujos, Layouts y workflows de negocio. Experiencia en   Vlocity   (Velocity) será considerada un plus. Roles y Responsabilidades: Definir, articular y entregar la estrategia técnica dentro de la plataforma Salesforce, colaborando con stakeholders y miembros del equipo. Colaborar y fomentar una dinámica de equipo sólida. Trabajar en estrecha colaboración con diversos equipos internos para traducir los requerimientos del negocio en soluciones Salesforce escalables y efectivas. Ofrecemos Sueldo de acuerdo a experiencia (Esquema 100% nomina) + Prestaciones de Ley y Prestaciones superiores (SGMM familiar, SV 1 millón, Vales de despensa, 30 días de aguinaldo, 12 días de vacaciones + 2 por año, PTU)</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-salesforce-remoto/111279</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Desarrollador Salesforce - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C176" t="str">
+        <v>$ 90,000 a 100,000 MXN (Bruto)</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F176" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G176" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Salesforce Para laborar en Remoto INGLES CONVERSACIONAL INDISPENSABLE Habilidades Técnicas/Funcionales: Título universitario en Ciencias de la Computación o equivalente, con un mínimo de 7 años de experiencia en la industria. Al menos  4  años  de experiencia trabajando con plataformas Salesforce   , incluyendo un mínimo de 2 años en un rol de liderazgo técnico. Se valoran altamente certificaciones de Salesforce como   Platform Developer II   ,   Application Architect   ,   System Architect   o   Technical Architect   . Conocimiento profundo de las capacidades de Salesforce (tanto declarativas como programáticas) y de sus capacidades de integración. Dominio avanzado de   APEX   ,   Visualforce   ,   Lightning Web Components   ,   APIs de Salesforce   y   SOQL   . Fuertes habilidades de liderazgo, con experiencia demostrable dirigiendo y gestionando equipos. Excelentes habilidades de comunicación y gestión de stakeholders. Experiencia en desarrollo de configuración como Flujos, Layouts y workflows de negocio. Experiencia en   Vlocity   (Velocity) será considerada un plus. Roles y Responsabilidades: Definir, articular y entregar la estrategia técnica dentro de la plataforma Salesforce, colaborando con stakeholders y miembros del equipo. Colaborar y fomentar una dinámica de equipo sólida. Trabajar en estrecha colaboración con diversos equipos internos para traducir los requerimientos del negocio en soluciones Salesforce escalables y efectivas. Ofrecemos</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-backend-microsoft-azure-senior-remoto/111043</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Desarrollador Backend Microsoft Azure Senior - Remoto</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F177" t="str">
+        <v>Inglés : Nivel Básico</v>
+      </c>
+      <c r="G177" t="str">
+        <v>Importante empresa de tecnología, en búsqueda de   Desarrollador Backend Requisitos Disponibilidad para trabajar de manera remota  Mínimo 8 años de experiencia como desarrollador Backend Experiencia  Experiencia en el uso y diseño de soluciones de software en la plataforma Azure. Capacidad de presentar una solución de negocio utilizando los productos y servicios de Microsoft Azure, Experiencia en el diseño y arquitectura de soluciones de software en nube y on premises. Conocimiento avanzado de los requerimientos de software y hardware para la implantación de aplicaciones empresariales. Experiencia comprobable de la participación en el diseño/construcción/liberación/ de soluciones empresariales de tipo Web, escritorio, e integraciones con diferentes proveedores de productos como servicios.   Ofrecemos  Sueldo competitivo  Prestaciones de ley y SPL  Trabajo Remoto Excelente ambiente de trabajo Interesados favor de postularse por este medio</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>https://hireline.io/remoto/empleos/it-researchers-team-lead/111564</v>
+      </c>
+      <c r="B178" t="str">
+        <v>IT Researchers Team Lead en Alcor</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F178" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G178" t="str">
+        <v>We’re looking for an  IT Researchers Team Lead , who   will be responsible for managing and developing a team of global researchers focused on sourcing top technical talent globally, but primarily in LATAM and Europe. ALCOR  is a growing tech company that offers an all-in-one-place solution for tech product companies to build their software R&amp;D centers from 0 to 100 developers in LATAM and Eastern Europe. Our clients: People ai, Grammarly, BigCommerce, Ledger, Sift, and many others. WHAT TASKS AWAIT YOU: Lead and mentor a team of global researchers focused on sourcing top technical talent. Develop and implement effective sourcing strategies to identify high-quality candidates for technical roles (Software Engineering, Data, Cybersecurity, Cloud, and other). Collaborate with recruiters, hiring managers, and stakeholders to align on sourcing priorities and best practices. Leverage data insights to track sourcing effectiveness and drive process improvements. Monitor team performance, providing coaching and continuous development opportunities to enhance sourcing effectiveness. Drive team efficiency by optimizing workflows, tools, and communication processes. Stay up to date on market trends, talent availability, and sourcing tools to enhance recruitment strategies. REQUIREMENTS: 4+ years in talent sourcing/recruitment, including  1–2  years in a leadership role.  Experience managing a team of 3+ researchers. Strong expertise in sourcing tech talent across LATAM/Europe using LinkedIn, Boolean search, GitHub, Stack Overflow, etc. Ability to track sourcing metrics, build pipelines for niche roles, and optimize processes. Experience with ATS, recruitment CRMs, and automation tools in a global, fast-paced environment. Strong English skills,  ability to collaborate across international teams, and direct communication with clients. WHAT YOU’LL GAIN BY JOINING US: Work your way.  Enjoy a flexible schedule and the freedom to work remotely from wherever you’re most productive. Cutting-edge experience.  Stay on top of various IT trends, projects, and technologies. Deepen your expertise in talent intelligence, market mapping, and data-driven sourcing while leading a global research team. Professional growth .   Access our English Speaking Club, Reading Club, and regular skills training. Expand your expertise through real-world experience, direct communication with clients, and exposure to high-growth tech companies and global recruitment strategies. Mentorship &amp; support.  From your first day at work, you will have a mentor who will assist you with adaptation. Competitive perks.  Salary — pegged to the USD exchange rate, 20 working days of vacation, days off, and paid sick leave. Corporate culture and mission.  Our values — focus, fun, self-development, openness, and the “wow” effect. We’re on a mission to empower great tech companies to save the world by making access to tech talent as simple as possible. We’d love to meet you!</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-salesforce-senior-remoto/111223</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Desarrollador Salesforce Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C179" t="str">
+        <v>$ 90,000 a 100,000 MXN (Bruto)</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F179" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G179" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Salesforce Para laborar de manera remota Esquema Híbrido: 3 días en casa, 2 presenciales INGLES CONVERSACIONAL INDISPENSABLE Habilidades Técnicas/Funcionales: Título universitario en Ciencias de la Computación o equivalente, con un mínimo de 7 años de experiencia en la industria. Al menos    6 años de experiencia trabajando con plataformas Salesforce    , incluyendo un mínimo de 2 años en un rol de liderazgo técnico. Se valoran altamente certificaciones de Salesforce como    Platform Developer II    ,    Application Architect    ,    System Architect    o    Technical Architect    . Conocimiento profundo de las capacidades de Salesforce (tanto declarativas como programáticas) y de sus capacidades de integración. Dominio avanzado de    APEX    ,    Visualforce    ,    Lightning Web Components    ,    APIs de Salesforce    y    SOQL    . Fuertes habilidades de liderazgo, con experiencia demostrable dirigiendo y gestionando equipos. Excelentes habilidades de comunicación y gestión de stakeholders. Experiencia en desarrollo de configuración como Flujos, Layouts y workflows de negocio. Experiencia en    Vlocity    (Velocity) será considerada un plus. Roles y Responsabilidades: Definir, articular y entregar la estrategia técnica dentro de la plataforma Salesforce, colaborando con stakeholders y miembros del equipo. Colaborar y fomentar una dinámica de equipo sólida.</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-de-conversion-de-datos-sap/111056</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Consultor de Conversión de Datos SAP en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C180" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F180" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G180" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Consultor de Conversión de Datos SAP Ingles conversacional obligatorio 100% remoto Experiencia: 5 años de experiencia. Desarrollador Senior con experiencia en desarrollo SAP MDG y SAP Fiori en Materiales, Cliente SAP, Proveedor, Finanzas y objetos de datos maestros personalizados. Conocimiento y experiencia en herramientas y tecnologías SAP MDG. Más de 2 años de experiencia trabajando con el framework y aplicaciones BRF+ . Experiencia en ABAP , Web Services , Fiori y SAP Workflow . Conocimientos en varios módulos de SAP y participación en implementaciones de SAP S/4HANA e integraciones. Desarrollo de SAP HANA CDS Views y servicios OData . Experiencia en Desarrollo con S/4HANA: Desarrollo de servicios OData utilizando CDS y AMDP . Aplicación de los principios de SAP Clean Core . Conocimiento de los modelos de programación RAP (Restful ABAP) y CAP (Cloud Application Programming) . Experiencia en la migración de código personalizado desde sistemas ECC o Suite on HANA (SoH) hacia la plataforma S/4HANA . Conocimiento en implementación de: SQL Nativo , ADBC , External Views , ABAP Core Data Services (CDS) , Procedimientos AMDP , Text Search , ALV sobre HANA . Experiencia práctica en la creación de vistas CDS personalizadas y clases AMDP de acuerdo con los requerimientos del negocio. Nuevas Tecnologías SAP: Experiencia con SAP Fiori , SAPUI5 , SAP BTP Integration Suite , SAP Business Application Studio , SAP Build . Ofrecemos: •       Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •     Prima vacacional del 50% • Aguinaldo a 24 días.  •     Vales de despensa por $3300,53  •     Apoyo monetario en caso de que trabajes desde Home Office. Si te encuentras interesado, manda tu CV a:          contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>https://hireline.io/remoto/empleos/senior-power-apps-dev-remoto/111405</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Senior Power Apps Dev - Remoto en Lingaro</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F181" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G181" t="str">
+        <v>Tasks:   Acting as a lead developer or technical lead on Power Platform projects. Designing and implementing complex solutions leveraging Power Platform – Power Apps, Power Automate, Power Pages and Power BI. Educating junior resourcers. Remaining up-to-date on product improvements/releases and work closely with internal teams to stay current on product developments. Participating in the entire solution implementation process – from taking pre-sales activities, analysis, collecting customer requirements to design and development of target solution.   Requirements:   Minimum 4-6 years in IT industry. Minimum 3 years of experience in Power Platforms. Very good knowledge of Power Apps, Power Pages, Power Automate. Very good technical knowledge, problem-solving and critical thinking.  Ability to translate technical solution advantages into business value for the customers. English language proficiency is a must, both verbal and written. Experiences in delivering e2e application and automation starting from requirements gathering, understanding business needs, design, develop, testing and maintenance. Aware about newest features in Power Platforms.   Nice to have: Knowledge of Power BI, DAX, Power Query M, SQL languages. Knowledge of Dynamics 365 and Dataverse. Experiences with Copilot Studio. Knowledge about data modelling, performance tuning, business requirements gathering and translation them to a solution. Experience with CI/CD and version controlling. Knowledge of Python. Good knowledge of Microsoft Azure platform (Data Factory, Data Lake, Synapse, Logic Apps, Azure Functions) or other cloud solution (Snowflake, GCP, AWS).  Knowledge of Microsoft Fabric. Knowledge of Boomi, BluePrism.   Experience:  Working for international customers and teams.  Working in agile or agile/waterfall projects.  Working with stakeholders on different seniority and maturity level. Participating in creating E2E BI solutions. Acting as Power Platform Leader in projects.     We offer:   Stable employment.  On the market since 2008, 1500+ talents currently on board in 7 global sites. Full-time position  with work contract. Medical Insurance. Grocery Coupons. Saving fund.  Obligatory bonuses:  Christmas bonus, home office bonus, profit sharing, vacation bonus (50%). 100% remote. Flexibility  regarding working hours. Comprehensive online onboarding program with a “Buddy” from day 1.    Cooperation with top-tier engineers and experts.  Unlimited access to the Udemy   learning platform  from day 1. Certificate training programs.  Lingarians earn 500+ technology certificates yearly.   Upskilling support.  Capability development programs, Competency Centers, knowledge sharing sessions, community webinars, 110+ training opportunities yearly. Grow as we grow as a company.  76% of our managers are internal promotions.   A diverse, inclusive, and values-driven community.  Autonomy to choose the way you work.  We trust your ideas.   Create our community together.  Refer your friends to receive bonuses.  Activities to support your  well-being and health. Plenty of opportunities to donate to charities and support the environment.</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-mainframe/111641</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Desarrollador Mainframe en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C182" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F182" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G182" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Desarrollador Mainframe Ingles conversacional obligatorio 100% Remoto Requisitos: Poseer un conocimiento profundo de  utilidades IBM Mainframe  y su aplicación en procesos de negocio. Demostrar dominio de  CICS, VSAM, JCL y DB2 , con historial comprobado de entrega exitosa de proyectos. Mostrar sólidas habilidades en programación  Cobol , capaces de desarrollar y mantener aplicaciones robustas. Tener excelentes habilidades de comunicación para colaborar eficazmente con miembros del equipo y stakeholders. Responsabilidades: Liderar el diseño e implementación de sistemas complejos utilizando  utilidades IBM Mainframe , asegurando un rendimiento y confiabilidad óptimos. Supervisar el desarrollo y mantenimiento de aplicaciones utilizando  CICS, VSAM, JCL y DB2 , contribuyendo a la operación fluida del negocio. Brindar experiencia técnica en programación  Cobol , mejorando la funcionalidad de las aplicaciones y la experiencia del usuario. Colaborar con equipos multifuncionales para identificar y resolver desafíos técnicos, impulsando la mejora continua. Desarrollar y hacer cumplir las mejores prácticas en arquitectura de sistemas y estándares de codificación, promoviendo la calidad y la eficiencia. Guiar y mentorizar a desarrolladores junior, fomentando una cultura de aprendizaje y crecimiento profesional dentro del equipo. Realizar pruebas y validaciones exhaustivas de los sistemas para garantizar el cumplimiento de normas y regulaciones de la industria. Analizar los requerimientos del sistema y diseñar soluciones que satisfagan las necesidades del negocio, optimizando el uso de recursos. Coordinar con las partes interesadas para recopilar retroalimentación e implementar mejoras, asegurando la alineación con los objetivos estratégicos. Gestionar cronogramas y entregables de proyectos, asegurando la finalización oportuna y el cumplimiento del presupuesto. Utilizar habilidades de resolución de problemas para diagnosticar y solucionar incidencias del sistema, minimizando el tiempo de inactividad y el impacto en las operaciones. Implementar medidas de seguridad para proteger la integridad y confidencialidad de los datos, salvaguardando los activos de la empresa. Mantenerse actualizado con tecnologías emergentes y tendencias del sector, integrando soluciones innovadoras en los sistemas existentes. Ofrecemos: •  Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  • Vales de despensa mensuales</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-sd-senior-remoto/111638</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Consultor SAP SD Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C183" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F183" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G183" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Consultor SAP SD Ingles conversacional obligatorio 100% remoto Requisitos Contar con un   mínimo de 6 años de experiencia en SAP SD  , con enfoque en Brasil y la región LATAM. Demostrar sólidas habilidades de resolución de problemas y capacidad para solucionar situaciones complejas. Tener un   buen entendimiento de los dominios de Finanzas y Contabilidad. Poseer excelentes habilidades de comunicación y colaboración. Mostrar competencia en la creación y mantenimiento de documentación técnica. Tener la capacidad de capacitar y brindar soporte efectivo a los usuarios finales. Responsabilidades Desarrollar e implementar soluciones SAP SD adaptadas a las necesidades de Brasil y la región LATAM. Colaborar con equipos multifuncionales para recopilar y analizar los requerimientos del negocio. Brindar experiencia técnica en SAP SD para garantizar una integración fluida con los sistemas existentes. Diagnosticar y resolver problemas relacionados con los módulos de SAP SD. Realizar auditorías periódicas del sistema para asegurar la integridad de los datos y el cumplimiento de los estándares de la empresa. Crear y mantener documentación completa de todos los procesos y configuraciones de SAP SD. Capacitar y brindar soporte a los usuarios finales para maximizar la eficiencia de las soluciones SAP SD. Participar en actualizaciones y mejoras del sistema para optimizar su rendimiento general. Asegurar que todas las soluciones SAP SD cumplan con las mejores prácticas y estándares de la industria. Trabajar estrechamente con los equipos de Finanzas y Contabilidad para alinear los procesos SAP SD con las operaciones financieras. Monitorear el rendimiento del sistema e implementar las optimizaciones necesarias. Proporcionar actualizaciones regulares a los stakeholders sobre el progreso de los proyectos y el rendimiento del sistema. Mantenerse al día con las últimas tendencias y tecnologías en SAP SD para proponer soluciones innovadoras a la empresa. Ofrecemos: • Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. • Prima vacacional del 50% • Aguinaldo a 24 días.  Vales de despensa mensuales de $3,300 Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-sd-senior-remoto/111577</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Consultor SAP SD Senior - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C184" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F184" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G184" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Consultor SAP SD Ingles conversacional obligatorio 100% remoto Requisitos Contar con un  mínimo de 6 años de experiencia en SAP SD , con enfoque en Brasil y la región LATAM. Demostrar sólidas habilidades de resolución de problemas y capacidad para solucionar situaciones complejas. Tener un  buen entendimiento de los dominios de Finanzas y Contabilidad. Poseer excelentes habilidades de comunicación y colaboración. Mostrar competencia en la creación y mantenimiento de documentación técnica. Tener la capacidad de capacitar y brindar soporte efectivo a los usuarios finales. Responsabilidades Desarrollar e implementar soluciones SAP SD adaptadas a las necesidades de Brasil y la región LATAM. Colaborar con equipos multifuncionales para recopilar y analizar los requerimientos del negocio. Brindar experiencia técnica en SAP SD para garantizar una integración fluida con los sistemas existentes. Diagnosticar y resolver problemas relacionados con los módulos de SAP SD. Realizar auditorías periódicas del sistema para asegurar la integridad de los datos y el cumplimiento de los estándares de la empresa. Crear y mantener documentación completa de todos los procesos y configuraciones de SAP SD. Capacitar y brindar soporte a los usuarios finales para maximizar la eficiencia de las soluciones SAP SD. Participar en actualizaciones y mejoras del sistema para optimizar su rendimiento general. Asegurar que todas las soluciones SAP SD cumplan con las mejores prácticas y estándares de la industria. Trabajar estrechamente con los equipos de Finanzas y Contabilidad para alinear los procesos SAP SD con las operaciones financieras. Monitorear el rendimiento del sistema e implementar las optimizaciones necesarias. Proporcionar actualizaciones regulares a los stakeholders sobre el progreso de los proyectos y el rendimiento del sistema. Mantenerse al día con las últimas tendencias y tecnologías en SAP SD para proponer soluciones innovadoras a la empresa. Ofrecemos: • Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. • Prima vacacional del 50% • Aguinaldo a 24 días.  Vales de despensa mensuales de $3,300 Interesados enviar su cv al correo: reclutamiento(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>https://hireline.io/remoto/empleos/data-scientist-remoto/111343</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Data Scientist Remoto</v>
+      </c>
+      <c r="C185" t="str">
+        <v>$ 20,000 a 25,000 MXN (Neto)</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F185" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G185" t="str">
+        <v>About the Role The Marketing Data Scientist will analyze data and improve marketing strategies. This role utilizes techniques like predictive modeling, machine learning, and statistical analysis to understand customers, market trends, and campaign performance. Job Tasks Analyze data: Gather and analyze data from various sources, such as sales data, social media, web analytics, and CRM tools. Develop / Train models: Build models to predict future events. Identify trends: Analyze customer behavior and market trends to identify opportunities. Segment audiences: Group customers into segments based on their needs, desires, and aspirations. Optimize campaigns: Use insights to develop and implement strategies to improve marketing campaigns. Communicate insights: Present findings to non-technical stakeholders. Responsibilities Delivery of key Advanced Analytics/Data Science projects within time and budget. Collaborate with data engineers and ML engineers to understand data and models and leverage various advanced analytics capabilities. Train marketing models such as Customer Segmentation Models, Predictive Analytics Models, Market Basket Analysis, Customer Lifetime Value (CLV) Models, Churn Prediction Models, Sentiment Analysis, Marketing Mix Models (MMM), A/B Testing Frameworks, Dynamic Pricing Models, Digital Marketing Attribution Models. The Data Scientist will work in developing Machine Learning (ML) and Artificial Intelligence (AI) projects. The specific scope of this role is to develop ML solutions in support of ML/AI projects using big analytics toolsets in a CI/CD environment. Analytics toolsets may include DS tools/Spark/Databricks, and other technologies offered by Microsoft Azure or open-source toolsets. This role will also help automate the end-to-end cycle with Azure Machine Learning Services and Pipelines. The Data Scientist will be part of a collaborative interdisciplinary team around data, where they will be responsible for the continuous delivery of statistical/ML models. They will work closely with process owners, product owners, and final business users, providing visibility and understanding of the criticality of their developments. Required Knowledge, Skills, and Abilities Bachelor’s Degree in Computer Science or Data Science, or equivalent work experience. A minimum of 2 - 3 years of relevant experience. Experience with Azure Cloud Services, Azure Databricks, Azure Data Lake Storage, and others. Proficiency in SQL &amp; Python (with knowledge of Pandas, NumPy, etc.). Proficiency in popular ML frameworks (Scikit-Learn, TensorFlow, or PyTorch). Experience with big data tools such as Spark, etc. are a big plus. Knowledge of the data science pipeline (end-to-end) and associated tools. Experience in designing and implementing data science solutions. Familiarity with using LLM technologies to build enterprise-wide solutions. Excellent interpersonal skills in dealing with internal customers at all levels in a team environment. Strong written and oral communication skills are necessary.</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>https://hireline.io/remoto/empleos/java-react-fullstack-engineers-senior-remoto/111195</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Java - React - Fullstack Engineers Senior - Remoto en Adecco</v>
+      </c>
+      <c r="C186" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F186" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G186" t="str">
+        <v>Roles: Java, Java – React, Java Back End, Java Front End Engineer´s   Apply by Whats App: 729 5530 777   Requirements and Offer Job   Education: Bachelor’s Degree in Information Technologies or related engineering. Languages: High level of proficiency in English (speaking, reading, writing)" Level: B2, C1, C2, Fluent Modality: Home Office 100 % Location: Mexico Workday: Monday - Friday Gross Salary: $60,000 MXN /Month Hiring: 100 % Payroll Benefits: Social Insurance (IMSS), 12 Vacation Days per Year, 15 Days of Christmas Bonus, 25 % Vacation Bonus, Life Insurance. Plus Benefits: Online Technical Trainings and Access to Academies and Certifications. Job Stability and Professional Development   Role: Java Engineer Level 4   Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation. Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure. + 7 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications. Software Development Languages: Proficiency: Java (required) Frameworks: Spring Boot RESTful architecture and microservices Messaging technologies (e.g., Kafka, SQS Cloud platforms (AWS preferred) Kubernetes, Lambda (preferred) CI/CD pipelines (e.g., GitLab CI/CD, Terraform) Test automation (Unit, Integration, Regression, Load) Familiarity with relational databases Logging and monitoring tools (e.g., New Relic, Splunk)   Role: Java - React Level 4   Engineer with strong UI experience with full stack experience. Expectation is the candidates are strong on React based web UI development.   They are also open and willing to do backend development as per project needs. Engineer with full stack development experience and stronger backend development experience. Again, they should be able to do UI development as needed but focus would be more on backend development. Design, Development, Testing, Documentation, Data analysis, On-call support during working hours. Design, develop, and maintain advanced software systems while adhering to high standards for code quality, testing, and automation. Collaborate with cross-functional teams to deliver scalable solutions, mentor junior developers, and support DevOps practices, including CI/CD pipelines and cloud infrastructure. Software Engineer with + 5 years of hands-on experience in software development, with expertise in system design, architecture, and building enterprise-level applications. Proficiency: Java (required) Frameworks: Spring Boot RESTful architecture and microservices Messaging technologies (e.g., Kafka, SQS) Cloud platforms (AWS preferred) Kubernetes, Lambda (preferred) CI/CD pipelines (e.g., GitLab CI/CD, Terraform) Test automation (Unit, Integration, Regression, Load) Familiarity with relational databases Logging and monitoring tools (e.g., New Relic, Splunk)   Role: Java Back-End   Have experience on the entire tech stack - frontend, backend, data engineering, devops, support. Be an expert in backend development, proficient in k8s, Kafka, AWS ecosystems, comfortable designing and implementing Rest / GraphQL services on Java / Springboot. Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems Master CS fundamentals - time / space complexity analysis in context of data structures and algorithms. Leads and works with other software engineers on design best practices and conducts code reviews. Drive end user experience goals and initiatives for on-going end user productivity improvements Facilitates cross functional troubleshooting, root cause analysis and engages others when needed. Responsible for creating, evaluating, and contributing to feature detailed designs. Design, develop, and implement software utilizing an agile project cycle.   Mentor others on the team and raise the bar for technical knowledge across a wide spectrum. Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations. Apply and share knowledge of security coding practices and secure system fundamentals. Experience with cloud-based services such as AWS. Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling. A deep proficiency of an OOP language.   Role: Java Front - End   Design, code, devops, incident engagement during office hours Have experience on the entire tech stack - frontend, backend, data engineering, devops, support. Be an expert in frontend development, proficient in ReactJS ecosystem, comfortable designing and implementing Rest / GraphQL services on NodeJS / Typescript. Have exposure to system design, be able to think comprehensively about integrations with other components and / or systems Master CS fundamentals – time / space complexity analysis in context of data structures and algorithms. Leads and works with other software engineers on design best practices and conducts code reviews. Facilitates cross functional troubleshooting, root cause analysis and engages others when needed. Responsible for creating, evaluating, and contributing to feature detailed designs. Design, develop, and implement software utilizing an agile project cycle. Mentor others on the team and raise the bar for technical knowledge across a wide spectrum. Demonstrates thorough knowledge of information technology concepts issues, trends and best practices as they relate to Cloud technologies and system integrations. Apply and share knowledge of security coding practices and secure system fundamentals. Experience with cloud-based services such as AWS. Familiarity with Continuous Integration and Continuous Delivery methodologies and tooling. A deep proficiency of an OOP language.</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>https://hireline.io/remoto/empleos/ingenieroa-de-soporte-en-infraestructura-cloud-especialista-en-aws-senior/111272</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Ingeniero/a de Soporte en Infraestructura Cloud - Especialista en AWS Senior - en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C187" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F187" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G187" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita: Ingeniero/a de Soporte en Infraestructura Cloud – Especialista en AWS Para laborar solo en México via remota INGLES CONVERSACIONAL INDISPENSABLE Requisitos: Título en Ingeniería en Sistemas, Tecnologías de la Información o carrera afín. Entre 3 y 5 años de experiencia en roles de soporte de infraestructura cloud. Amplios conocimientos en AWS (IAM, Lambda, ECS, S3, VPC, ELB, monitoreo, auditoría y seguridad). Conocimientos básicos o disposición para aprender Google Cloud Platform (GCP) . Experiencia con herramientas de Infraestructura como Código ( Terraform , GitLab). Conocimientos en scripting (preferentemente Python o Shell script). Capacidad de análisis, resolución de problemas y depuración de aplicaciones cloud. Conocimiento de sistemas basados en Unix/Linux y herramientas de línea de comandos. Comprensión general del ciclo de vida de desarrollo de software (SDLC). Certificación en AWS (deseable). Experiencia en procesos ITIL / ITSM es un plus. Disposición para trabajar en turnos rotativos. Responsabilidades Principales: Ejecutar actividades de soporte de infraestructura en la nube como parte del equipo técnico global. Diagnosticar y resolver problemas relacionados con entornos en AWS y GCP. Participar en la gestión de incidencias, análisis de causa raíz y seguimiento de fallas en producción. Colaborar con equipos regionales y globales para resolver requerimientos técnicos locales. Mantener el cumplimiento de obligaciones regulatorias, auditorías y gestión de privilegios. Participar activamente en actividades de DR (Disaster Recovery) y BCP (Business Continuity Planning) ejecutando runbooks y colaborando con otros equipos. Proporcionar soporte al ciclo de vida de aplicaciones críticas expuestas a internet. Automatizar tareas de infraestructura para mejorar eficiencia y confiabilidad. Contribuir a la promoción e implementación de nuevos estándares y herramientas técnicas. Brindar soporte directo a clientes internos, ejecutando requerimientos dentro de un marco global. Ofrecemos: • Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  • Vales de despensa por $3300,53  Interesados enviar CV al correo de empleo(arroba)horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>https://hireline.io/remoto/empleos/java-dev-spring-with-kafka-senior-remoto/111664</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Java Dev Spring with Kafka Senior - Remoto en Adecco</v>
+      </c>
+      <c r="C188" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E188" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F188" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G188" t="str">
+        <v>Adecco is an international HR organization that provides a variety of services, including temporary staffing, permanent placement, career transition, talent training and development, as well as outsourcing and consulting. Adecco, along with a US-based IT consultancy firm, one of the largest global firms, is working together to offer top technology consultants to its most important clients.   One of our most exclusive clients is a high-end department store specializing in fashion, clothing, and accessories for women and men in the US. Adecco is looking to recruit remote talent as a Java Developer for its projects.   We offer: Gross salary of $55,000. Remote work (any region in the country), legal benefits, life insurance, direct contract with Adecco, and permanence.   Programming languages: Java version 8 and later. Frameworks: Spring Boot, Hibernate, JPA Databases: MySQL, PostgreSQL Development tools: IntelliJ IDEA, Eclipse, Maven, Gradle Version control: Git, GitHub, GitLab APIs and services: RESTful APIs, SOAP, Swagger/OpenAPI Testing: JUnin DevOps and deployment: Kafka, Docker, Jenkins, CI/CD, AWS/GCP/Azure (optional)</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-sap-sd-remoto/111348</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Desarrollador SAP SD - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C189" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E189" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F189" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G189" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Desarrollador      SAP SD Inglés conversacional obligatorio 100% remoto El candidato ideal tendrá una sólida formación técnica en SAP SD y un buen entendimiento de los dominios de Finanzas y Contabilidad. Calificaciones • Mínimo 6 años de experiencia en SAP SD, con enfoque en las regiones de Brasil y LATAM. • Sólidas habilidades para resolver problemas y capacidad para solucionar incidencias complejas. • Buen conocimiento de los dominios de Finanzas y Contabilidad. • Excelentes habilidades de comunicación y colaboración. • Dominio en la creación y mantenimiento de documentación técnica. • Capacidad efectiva para capacitar y apoyar a usuarios finales. Certificaciones requeridas • SAP Certified Application Associate - Sales and Distribution • Certificación SAP SD Responsabilidades • Desarrollar e implementar soluciones SAP SD adaptadas a las necesidades de las regiones de Brasil y LATAM. • Colaborar con equipos multifuncionales para recopilar y analizar requisitos del negocio. • Brindar experiencia técnica en SAP SD para asegurar una integración fluida con los sistemas existentes. • Diagnosticar y resolver problemas relacionados con los módulos SAP SD. • Realizar auditorías periódicas del sistema para garantizar la integridad de los datos y el cumplimiento de los estándares de la empresa. • Crear y mantener documentación completa de todos los procesos y configuraciones SAP SD. • Capacitar y brindar soporte a los usuarios finales para maximizar la eficiencia de las soluciones SAP SD. • Participar en actualizaciones y mejoras del sistema para optimizar su rendimiento general. • Asegurar que todas las soluciones SAP SD cumplan con las mejores prácticas y estándares de la industria. • Trabajar en estrecha colaboración con los equipos de Finanzas y Contabilidad para alinear los procesos de SAP SD con las operaciones financieras. • Monitorear el rendimiento del sistema e implementar optimizaciones necesarias. • Proporcionar actualizaciones periódicas a los interesados sobre el progreso del proyecto y el rendimiento del sistema. • Mantenerse al tanto de las últimas tendencias y tecnologías en SAP SD para proponer soluciones innovadoras. Ofrecemos: •        Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •        Prima vacacional del 50%</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-sap-sd/111331</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Desarrollador SAP SD en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C190" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F190" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G190" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Desarrollador     SAP SD Ingles conversacional obligatorio 100% remoto El candidato ideal tendrá una sólida formación técnica en SAP SD y un buen entendimiento de los dominios de Finanzas y Contabilidad. Calificaciones • Mínimo 6 años de experiencia en SAP SD, con enfoque en las regiones de Brasil y LATAM. • Sólidas habilidades para resolver problemas y capacidad para solucionar incidencias complejas. • Buen conocimiento de los dominios de Finanzas y Contabilidad. • Excelentes habilidades de comunicación y colaboración. • Dominio en la creación y mantenimiento de documentación técnica. • Capacidad efectiva para capacitar y apoyar a usuarios finales. Certificaciones requeridas • SAP Certified Application Associate - Sales and Distribution • Certificación SAP SD Responsabilidades • Desarrollar e implementar soluciones SAP SD adaptadas a las necesidades de las regiones de Brasil y LATAM. • Colaborar con equipos multifuncionales para recopilar y analizar requisitos del negocio. • Brindar experiencia técnica en SAP SD para asegurar una integración fluida con los sistemas existentes. • Diagnosticar y resolver problemas relacionados con los módulos SAP SD. • Realizar auditorías periódicas del sistema para garantizar la integridad de los datos y el cumplimiento de los estándares de la empresa. • Crear y mantener documentación completa de todos los procesos y configuraciones SAP SD. • Capacitar y brindar soporte a los usuarios finales para maximizar la eficiencia de las soluciones SAP SD. • Participar en actualizaciones y mejoras del sistema para optimizar su rendimiento general. • Asegurar que todas las soluciones SAP SD cumplan con las mejores prácticas y estándares de la industria. • Trabajar en estrecha colaboración con los equipos de Finanzas y Contabilidad para alinear los procesos de SAP SD con las operaciones financieras. • Monitorear el rendimiento del sistema e implementar optimizaciones necesarias. • Proporcionar actualizaciones periódicas a los interesados sobre el progreso del proyecto y el rendimiento del sistema. • Mantenerse al tanto de las últimas tendencias y tecnologías en SAP SD para proponer soluciones innovadoras. Ofrecemos: •       Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •       Prima vacacional del 50% • Aguinaldo a 24 días.  Si te encuentras interesado, manda tu CV a:       contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>https://hireline.io/remoto/empleos/sr-engineer-machine-learningai-remoto/111668</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Sr Engineer Machine Learning/AI - Remoto en Talentosy</v>
+      </c>
+      <c r="C191" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E191" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F191" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G191" t="str">
+        <v>Posición Remota para Candidatos Residentes en México Requisitos:  Encargado del desarrollo en calidad y plazos del Asistente Conversacional (AC). Además, asegurará la ejecución de las pruebas unitarias y de sistemas según metodología, así como la generación de las releases y paquetes y su correspondiente despliegue. Ambas tareas según entornos del cliente. Requerida experiencia de al menos 2 años demostrables de desarrollo (no correctivos) de Asistente Conversacional y AI con las siguientes tecnologías: Machine learning: Keras, Tensorflow Procesamiento de imagen: OpenCV, Tesseract, EasyOCR, Doctr NLP: Llama2, NLTK, ANTLR4 Grafos: Neo4j Lenguajes de programación: Python, Java, Cypher En el caso específico de IA generativa, serán necesarios conocimientos de: Machine learning: Keras, Tensorflow, Modelos generativo LLM Procesamiento de imagen: OpenCV, Tesseract, EasyOCR, Doctr NLP: Spacy, Llama2, NLTK, ANTLR4 Conocimiento repositorio de modelos: Hugging Face Grafos(kb): Neo4j Librearia/conector fuente-LLM: langchain Lenguajes de programación: Python, Java, Cypher Experiencia en el uso y fine-tunning de herramientas para entrenamiento de modelos generativos: OpenAI, GPT, ... Deseable experiencia de al menos 2 años demostrables Metodología agile Inglés B2 escrito/leído Uso de herramientas y capacidad de resolver recomendaciones en código relacionadas con CIBERSEGURIDAD. Java 11 o posterior Como principales softskills requeridos para este rol serían : Autónomo en la resolución de tareas de desarrollo Buena comunicación con el resto del equipo Autogestión y capacidad para identificar a tiempo los stoppers y buscar ayuda cuando la requiera en el equipo Buena predisposición y compromiso con el equipo</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>https://hireline.io/remoto/empleos/software-engineer-ruby-on-rails-javascript-senior-remoto/111232</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Software Engineer (Ruby on Rails, JavaScript) - Senior - Remoto en Alcor</v>
+      </c>
+      <c r="C192" t="str">
+        <v>$ 80,000 a 90,000 MXN (Bruto)</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E192" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F192" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G192" t="str">
+        <v>About the job Software Engineer (RoR, Javascript) Software Engineer (RoR, Javascript) About the Role As a Software Engineer, you'll join our dynamic Technology Team. You'll play a critical role in every step of the software development life cycle, working closely with others to brainstorm and build solutions to support the school districts with whom we partner. In this role, you'll work collaboratively and efficiently and build skills across technology, including AI. The team has strong technical chops, and we value learning and challenging ourselves. From guest talks, internal demos, knowledge sharing spaces, book clubs, hackathons, and open-source projects, we try to improve ourselves as we help schools worldwide do the same. Responsibilities: Work on fascinating and challenging engineering challenges, like: building out real-time data pipelines of a students important day-to-day events into our platform, including the quantifiable and qualitative elements of a students experience designing a highly available online platform that calculates real time analytics across billions data points refining our products user experience so that this firehose of data is truly useful, actionable information (as opposed to yet another data dashboard) integrating the latest educational research and data science tools into our platform, so that our clients have access to the best techniques that they can use to change outcomes for students Design, prototype, write, test, review, debug, deploy, monitor, and occasionally be frustrated by code. Teach other engineers the tools, tricks, and techniques youve become proficient in, and be open to learning and being challenged by your teammates to learn more. Our Ideal Candidate Has: 4+ years of full-time, professional web app development experience. You've seen your products launch to great success as well as spectacular failure, and you've learned lessons from both. Proficiency with  Ruby  on Rails, Vue.js &amp; JavaScript Experience with Docker Database experience with Postgres Skill in maintaining and troubleshooting existing web applications Strong verbal and written communication skills A track record of being highly collaborative, accountable, and reliable Interest and enthusiasm for AI technologies Bonus Points: Expertise in AI development Knowledge of Terraform and Cloudformation (a plus) Experience with Datadog Security Engineering experience</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>https://hireline.io/remoto/empleos/project-delivery-associate/111473</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Project Delivery Associate</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E193" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F193" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G193" t="str">
+        <v>We’re looking for a proactive and detail-oriented Project Delivery Associate to join our remote team in Mexico. In this role, you’ll help ensure that our digital projects and services are delivered successfully, collaborating with cross-functional teams and building strong relationships with clients and stakeholders. You will report to the CEO and work closely with the sales, marketing, and finance teams. Requirements 1–3 years of experience in a similar role (project leader, junior project manager, service delivery). Basic understanding of web development processes and the Microsoft business platform. Familiarity with project management tools like JIRA, Slack, or MS Project. Solid understanding of project management methodologies (e.g., Agile, Scrum). Knowledge of project financials — understanding how to manage budgets, monitor gross margin, and align project execution with financial goals. Strong organizational and time management skills. Ability to explain ideas clearly to both technical and non-technical audiences. Eagerness to learn and grow into a leadership role. Comfortable working in English (90% proficiency or higher). Key Responsibilities Support in planning and tracking project activities, deliverables, and timelines. Assist in coordinating resources across departments to meet project needs. Monitor project progress and help identify potential issues early. Facilitate communication between technical teams and clients/stakeholders. Help prepare status reports and project documentation. Participate in team meetings and follow up on action items. Stay aligned with project goals and ensure tasks are on track. Learn and apply best practices in service and project delivery.</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-sd-remoto/111349</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Consultor SAP SD - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C194" t="str">
+        <v>$ 60,000 a 70,000 MXN (Bruto)</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E194" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F194" t="str">
+        <v>Inglés : Nivel Avanzado</v>
+      </c>
+      <c r="G194" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Consultor SAP SD Inglés conversacional obligatorio 100% remoto El candidato ideal tendrá una sólida formación técnica en SAP SD y un buen conocimiento de los dominios de Finanzas y Contabilidad.    Calificaciones • Sólida formación técnica en SAP SD con experiencia específica en las regiones de Brasil y LATAM. • Buen conocimiento de los dominios de Finanzas y Contabilidad. • Excelentes habilidades para resolver problemas y capacidad para solucionar incidencias complejas. • Dominio de los procesos de prueba y validación de sistemas. • Fuertes habilidades de comunicación para colaborar eficazmente con equipos multifuncionales. • Capacidad para crear y mantener documentación detallada. Certificaciones requeridas • SAP Certified Application Associate - Sales and Distribution • Certificación en Contabilidad Financiera (deseable) Responsabilidades • Desarrollar e implementar soluciones SAP SD adaptadas a los mercados de Brasil y LATAM. • Colaborar con equipos multifuncionales para recopilar y analizar los requisitos del negocio. • Brindar experiencia técnica en SAP SD para optimizar procesos empresariales y mejorar la funcionalidad del sistema. • Diagnosticar y resolver problemas relacionados con los módulos SAP SD, garantizando una mínima interrupción de las operaciones del negocio. • Realizar pruebas y validaciones del sistema para asegurar una integración y rendimiento adecuados. • Crear y mantener documentación completa de todas las configuraciones y personalizaciones de SAP SD. • Capacitar y dar soporte a los usuarios finales para garantizar el uso efectivo de las funcionalidades de SAP SD. • Monitorear el rendimiento del sistema e implementar actualizaciones y mejoras necesarias. • Participar en reuniones regulares de proyecto para proporcionar actualizaciones de estado y abordar inquietudes. • Asegurar el cumplimiento de estándares de la industria y buenas prácticas en implementaciones de SAP SD. • Colaborar con los equipos de Finanzas y Contabilidad para alinear las soluciones SAP SD con los procesos financieros. • Proporcionar soporte y mantenimiento post-implementación para los módulos SAP SD. • Mantenerse actualizado sobre los últimos avances en SAP SD y tecnologías relacionadas para mejorar continuamente las soluciones. Ofrecemos: •        Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •        Prima vacacional del 50% • Aguinaldo a 24 días.</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>https://hireline.io/remoto/empleos/consultor-sap-sd/111332</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Consultor SAP SD en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C195" t="str">
+        <v>$ 45,000 a 50,000 MXN (Bruto)</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E195" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F195" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G195" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Consultor SAP SD Ingles conversacional obligatorio 100% remoto El candidato ideal tendrá una sólida formación técnica en SAP SD y un buen conocimiento de los dominios de Finanzas y Contabilidad.   Calificaciones • Sólida formación técnica en SAP SD con experiencia específica en las regiones de Brasil y LATAM. • Buen conocimiento de los dominios de Finanzas y Contabilidad. • Excelentes habilidades para resolver problemas y capacidad para solucionar incidencias complejas. • Dominio de los procesos de prueba y validación de sistemas. • Fuertes habilidades de comunicación para colaborar eficazmente con equipos multifuncionales. • Capacidad para crear y mantener documentación detallada. Certificaciones requeridas • SAP Certified Application Associate - Sales and Distribution • Certificación en Contabilidad Financiera (deseable) Responsabilidades • Desarrollar e implementar soluciones SAP SD adaptadas a los mercados de Brasil y LATAM. • Colaborar con equipos multifuncionales para recopilar y analizar los requisitos del negocio. • Brindar experiencia técnica en SAP SD para optimizar procesos empresariales y mejorar la funcionalidad del sistema. • Diagnosticar y resolver problemas relacionados con los módulos SAP SD, garantizando una mínima interrupción de las operaciones del negocio. • Realizar pruebas y validaciones del sistema para asegurar una integración y rendimiento adecuados. • Crear y mantener documentación completa de todas las configuraciones y personalizaciones de SAP SD. • Capacitar y dar soporte a los usuarios finales para garantizar el uso efectivo de las funcionalidades de SAP SD. • Monitorear el rendimiento del sistema e implementar actualizaciones y mejoras necesarias. • Participar en reuniones regulares de proyecto para proporcionar actualizaciones de estado y abordar inquietudes. • Asegurar el cumplimiento de estándares de la industria y buenas prácticas en implementaciones de SAP SD. • Colaborar con los equipos de Finanzas y Contabilidad para alinear las soluciones SAP SD con los procesos financieros. • Proporcionar soporte y mantenimiento post-implementación para los módulos SAP SD. • Mantenerse actualizado sobre los últimos avances en SAP SD y tecnologías relacionadas para mejorar continuamente las soluciones. Ofrecemos: •       Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •       Prima vacacional del 50% • Aguinaldo a 24 días.  Si te encuentras interesado, manda tu CV a:       contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>https://hireline.io/remoto/empleos/ingeniero-en-sistemas-de-pago-electronico-remoto/111586</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Ingeniero en Sistemas de Pago Electrónico - Remoto en Capital Empresarial Horizonte</v>
+      </c>
+      <c r="C196" t="str">
+        <v>$ 50,000 a 60,000 MXN (Bruto)</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E196" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F196" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G196" t="str">
+        <v>Capital Empresarial Horizonte Empresa Mexicana especialista en Recursos Humanos y Tecnologías de la Información solicita:   Analista Funcional en Sistemas de Pago Electrónico Ingles conversacional obligatorio Trabajo 100% remoto Se requiere tener experiencia en los módulos y componentes de Base24-eps , como interfaces, manejadores de dispositivos ATM y POS, enrutamiento por prefijo, IAUTH, SAF, Journal, etc. Realizar la instalación, configuración y personalizaciones de Base24-eps de acuerdo con los requerimientos del negocio. Es preferible tener experiencia en la integración de Base24-eps con otros productos de pago como ACI UPF. Requisitos: T ener experiencia en los módulos y componentes de Base24-eps como interfaces, manejadores de dispositivos ATM y POS , enrutamiento por prefijo, IAUTH, SAF, Journal, etc. Realizar la instalación, configuración y personalización de Base24-eps según los requerimientos del negocio. Preferentemente, contar con experiencia en la integración de Base24-eps con otros productos de pago como ACI UPF. Tener experiencia práctica tanto en desarrollo de productos como en modificaciones específicas personalizadas. Comprender los códigos fuente de Base24-eps, depuración de aplicaciones y resolución de problemas. Liderar el esfuerzo de desarrollo con el equipo, preparar planes de prueba, realizar pruebas unitarias y de calidad, apoyar la implementación y el soporte durante el periodo de garantía. Tener conocimientos sólidos sobre diversas transacciones de pago, incluyendo pero no limitado a autorización, advice, comercio electrónico, pedidos por correo, preautorizaciones, etc. Tener buen entendimiento del funcionamiento de un switch de pagos y de los distintos componentes involucrados en transacciones con tarjeta presente o tarjeta no presente. Tener experiencia en lenguajes de programación como C++, plataformas como Linux/Unix y scripting en shell. Ser capaz de validar casos de negocio, realizar análisis de requerimientos, definición del alcance y estimación de proyectos. Poseer conocimientos básicos de metodologías ágiles. Tener buenas habilidades de comunicación (verbales y escritas) y actuar como enlace entre Cognizant y el cliente para cualquier discusión técnica o funcional. Tener conocimiento de herramientas o simuladores para pruebas de transacciones como Asset y Postman. Tener un buen entendimiento del formato de mensajes ISO8583. Ofrecemos: •  Salario 100% nominal • Seguro de Gastos Médicos Mayores más Póliza de exceso ilimitado.  • Seguro dental y visual.  • Seguro de Vida. • Todas las prestaciones legales desde el primer año. •  Prima vacacional del 50% • Aguinaldo a 24 días.  • Vales de despensa mensuales Si te encuentras interesado, manda tu CV a: contacto (arroba) horizonteempresarial.com.mx</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>https://hireline.io/remoto/empleos/desarrollador-apex-oracle-senior-remoto/111216</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Desarrollador Apex Oracle Senior - Remoto en Bintek</v>
+      </c>
+      <c r="C197" t="str">
+        <v>$ 40,000 a 45,000 MXN (Bruto)</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Remoto: México</v>
+      </c>
+      <c r="E197" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F197" t="str">
+        <v>Inglés : Nivel Intermedio</v>
+      </c>
+      <c r="G197" t="str">
+        <v>Empresa líder en el sector de tecnologías de la información, comprometida con la innovación y el crecimiento de sus clientes. Con una trayectoria sólida en el mercado, brindamos soluciones profesionales de TI que satisfacen las necesidades empresariales más exigentes. Requisitos del puesto Ingeniero o Licenciado en Sistemas Experiencia deseable: Superior a 3 años. Inglés técnico Espacio de trabajo en casa para un esquema hibrido Equipo de cómputo y línea de teléfono durante 15 días, posteriormente se asigna de la empresa Responsabilidades del puesto Desarrollar aplicaciones mediante APEX - Oracle. Desarrollo comprobable en lenguaje de programación de PL/SQL. (se aplicará examen) Conocimientos de integración entre APEX y PL/SQL Entendimiento a nivel negocio para la aplicación de APEX Conocimientos para la integración de Web Services SOAP / REST - PL/SQL Manejo de ORDS Manejo de ERP Fusion y sus WS relacionados. Conocimientos Java, Java Script SQL, WeBservices, PL/SQL Oracle C, C++, Habilidades Trabajo remoto con poca supervisión. Organizado y responsable para el cumplimiento de objetivos. Reporte de actividades para cliente final y Bintek, horas de trabajo, documentación, reuniones. Comunicación efectiva a todos los niveles. Prestaciones y beneficios adicionales Contratación temporal en modalidad híbrida (tiempo completo). Espacio de trabajo en casa para un esquema 80% remoto y 20% presencial. Equipo de cómputo y línea telefónica asignados por la empresa. Oportunidades de desarrollo profesional y crecimiento en un entorno colaborativo y dinámico.</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>https://hireline.io/remoto/empleos/full-stack-senior-engineer/111567</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Full-Stack Senior Engineer en HIRELINE</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Sueldo oculto</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Remoto: LATAM</v>
+      </c>
+      <c r="E198" t="str">
+        <v>Empleado de tiempo completo</v>
+      </c>
+      <c r="F198" t="str">
+        <v>Inglés : No se ha especificado</v>
+      </c>
+      <c r="G198" t="str">
+        <v>Título: Fullstack Developer Company Overview A market-leading healthcare workforce optimization software provider dedicated to streamlining and optimizing healthcare organizations' workforce management processes. Our cutting-edge technology empowers healthcare providers to enhance patient care, optimize staff resources, and improve operational efficiency.   Shape the future of our web platform! We are seeking a highly experienced Full-Stack Senior Engineer to lead the design, development, and optimization of our cutting-edge healthcare workforce management platform. You'll leverage your in-depth knowledge of both front-end and back-end development to build a user-centric, scalable, and performant web application. While we primarily use Elixir (with Phoenix and Ecto), we prioritize general problem-solving skills and a strong commitment to learning new technologies.   Responsibilities: ● Architect and implement scalable and secure back-end systems that power the web application. ● Design and develop user interfaces that are intuitive, user-friendly, and responsive across all devices. ● Collaborate with designers to translate user stories and wireframes into functional web components. ● Lead the optimization of web application performance and user experience, ensuring   fast load times and a smooth user journey. ● Write clean, maintainable, and well-documented code for both front-end and back-end components. ● Stay up-to-date on the latest web development trends and technologies. ● Mentor and guide junior developers on the team. (in the future)   Requirements: ● Advanced English skills ● 10+ years of experience in full-stack web development with a strong emphasis on front-end development. ● Proficiency in modern programming languages including: ○ Front-End: HTML, CSS, JavaScript (ES6+), Experience with a popular front-end framework (e.g., React, Angular). LiveView (Elixir/Phoenix) is a bonus. ○ Back-End: ■ Preferred: Python, Java, Ruby on Rails, Go, Node.js (with Express.js) ■ Ideal experience: Elixir (with Phoenix) ● Experience with building responsive web applications. ● Strong understanding of web development best practices, including accessibility and performance optimization ● Excellent problem-solving and analytical skills. ● Strong communication and collaboration skills.   Preferred Qualifications: ● Bachelor's degree in Computer Science, Engineering, or related field. ● Experience building modern SaaS applications, including user management, authentication, and authorization functionalities. ● Experience with integrating front-end applications with back-end services ● Experience with cloud platforms (e.g., AWS, Azure, Google Cloud) for deploying and scaling SaaS applications. ● Experience with accessibility best practices (WCAG). ● Experience working in a fast-paced, start-up environment.   Don't miss the opportunity to be part of our team! Apply now and join us on this exciting adventure!</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G198"/>
   </ignoredErrors>
 </worksheet>
 </file>